--- a/static/input_files/samples/Clayton.xlsx
+++ b/static/input_files/samples/Clayton.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/static/input_files/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03D029F1-8721-1D4E-943F-1C349E549C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C92D96-0408-804B-AF46-9190415943FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1860" windowWidth="28800" windowHeight="17500" tabRatio="834" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34700" yWindow="-8560" windowWidth="28800" windowHeight="17500" tabRatio="834" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label Dropdowns" sheetId="8" r:id="rId1"/>
@@ -18,13 +18,16 @@
     <sheet name="Master Info" sheetId="13" r:id="rId3"/>
     <sheet name="Statement of Net Position" sheetId="9" r:id="rId4"/>
     <sheet name="Statement of Activities" sheetId="19" r:id="rId5"/>
-    <sheet name="Prop Fund Stmt of Net Position" sheetId="11" state="hidden" r:id="rId6"/>
-    <sheet name="Prop Fund Stmt of Rev Exp Bal" sheetId="12" state="hidden" r:id="rId7"/>
+    <sheet name="GovFund Stmt of Rev Exp and Chg" sheetId="22" r:id="rId6"/>
+    <sheet name="Prop Fund Stmt of Net Position" sheetId="11" state="hidden" r:id="rId7"/>
+    <sheet name="Prop Fund Stmt of Rev Exp Bal" sheetId="12" state="hidden" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'GovFund Stmt of Rev Exp and Chg'!$B$25:$B$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Label Dropdowns'!$A$1:$C$522</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Statement of Activities'!$B$25:$B$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Statement of Net Position'!$B$25:$B$36</definedName>
@@ -79,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2592" uniqueCount="1724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="1786">
   <si>
     <t>Statement of Net Position</t>
   </si>
@@ -5251,6 +5254,192 @@
   </si>
   <si>
     <t>June 30, 2022</t>
+  </si>
+  <si>
+    <t>City of Clayton, California</t>
+  </si>
+  <si>
+    <t>Governmental Funds</t>
+  </si>
+  <si>
+    <t>Statement of Revenues, Expenditures and Changes in Fund Balance</t>
+  </si>
+  <si>
+    <t>General Fund</t>
+  </si>
+  <si>
+    <t>REVENUES</t>
+  </si>
+  <si>
+    <t>acfr:RevenuesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>Total Revenues</t>
+  </si>
+  <si>
+    <t>EXPENDITURES</t>
+  </si>
+  <si>
+    <t>acfr:ExpendituresModifiedAccrual</t>
+  </si>
+  <si>
+    <t>Total Expenditures</t>
+  </si>
+  <si>
+    <t>acfr:ExcessDeficiencyOfRevenuesOverUnderExpenditures</t>
+  </si>
+  <si>
+    <t>Excess (Deficiency) of Revenues Over (Under) Expenditures</t>
+  </si>
+  <si>
+    <t>OTHER FINANCING SOURCES (USES)</t>
+  </si>
+  <si>
+    <t>acfr:OtherFinancingSourcesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>Total Other Financing Sources (Uses)</t>
+  </si>
+  <si>
+    <t>FUND BALANCES</t>
+  </si>
+  <si>
+    <t>acfr:FundBalance</t>
+  </si>
+  <si>
+    <t>Beginning of year, restated</t>
+  </si>
+  <si>
+    <t>End of fiscal year</t>
+  </si>
+  <si>
+    <t>acfr:NetChangeInFundBalance</t>
+  </si>
+  <si>
+    <t>Net Change in Fund Balances</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromPropertyTaxModifiedAccrual</t>
+  </si>
+  <si>
+    <t>Property taxes</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromGrantsAndEntitlementsRestrictedForSpecificProgramsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>Program income</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromSpecialAssessmentsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>Special parcel taxes and assessments</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromSalesAndUseTaxModifiedAccrual</t>
+  </si>
+  <si>
+    <t>Sales and use taxes</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromBusinessLicensesAndPermitsModifiedAccrual</t>
+  </si>
+  <si>
+    <t>Business licenses</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromLicensesAndPermitsAndFranchiseFeesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>Permits, licenses and fees</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromFinesAndForfeituresAndPenaltiesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>Fines, forfeitures and penalties</t>
+  </si>
+  <si>
+    <t>acfr:IntergovernmentalRevenueFromStateAllOtherModifiedAccrual</t>
+  </si>
+  <si>
+    <t>Intergovernmental</t>
+  </si>
+  <si>
+    <t>Special Revenue Fund</t>
+  </si>
+  <si>
+    <t>Landscape Maintenance District</t>
+  </si>
+  <si>
+    <t>Successor Housing Agency</t>
+  </si>
+  <si>
+    <t>American Rescue Plan Act</t>
+  </si>
+  <si>
+    <t>Capital Improvement Program</t>
+  </si>
+  <si>
+    <t>Other Governmental Funds</t>
+  </si>
+  <si>
+    <t>acfr:ExpendituresForGeneralGovernmentServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>General government</t>
+  </si>
+  <si>
+    <t>acfr:ExpendituresForPublicSafetyServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>Public safety</t>
+  </si>
+  <si>
+    <t>acfr:ExpendituresForPublicWorksServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>Public works</t>
+  </si>
+  <si>
+    <t>acfr:ExpendituresForCommunityAndEconomicDevelopmentServicesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>Community and economic development</t>
+  </si>
+  <si>
+    <t>acfr:ExpendituresForParksAndRecreationModifiedAccrual</t>
+  </si>
+  <si>
+    <t>Parks and recreation services</t>
+  </si>
+  <si>
+    <t>acfr:ExpendituresForCapitalOutlayModifiedAccrual</t>
+  </si>
+  <si>
+    <t>Capital outlay</t>
+  </si>
+  <si>
+    <t>acfr:InvestmentGainsLossesModifiedAccrual</t>
+  </si>
+  <si>
+    <t>Unrealized gains (losses)</t>
+  </si>
+  <si>
+    <t>Transfers in</t>
+  </si>
+  <si>
+    <t>Transfers out</t>
+  </si>
+  <si>
+    <t>Capital Project</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Total Governmental Funds</t>
   </si>
 </sst>
 </file>
@@ -5261,7 +5450,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5379,8 +5568,26 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5456,6 +5663,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6A6A6"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -5715,7 +5928,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5882,6 +6095,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5891,49 +6108,50 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -6205,6 +6423,22 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -6285,6 +6519,4207 @@
       <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Label Dropdowns"/>
+      <sheetName val="Statement of activities labels"/>
+      <sheetName val="Master Info"/>
+      <sheetName val="Statement of Net Position"/>
+      <sheetName val="Statement of Activities"/>
+      <sheetName val="GovFund Stmt of Rev Exp and Chg"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Accounts Receivable</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>acfr:AccountsReceivable</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Accounts Receivable Allowance</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>acfr:AccountsReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Accounts Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>acfr:AccountsReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Accounts Receivable Unbilled</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>acfr:AccountsReceivableUnbilled</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>Accounts Receivable Unbilled Allowance</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>acfr:AccountsReceivableUnbilledAllowance</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Accounts Receivable Unbilled Net Of Allowance</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>acfr:AccountsReceivableUnbilledNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Accrued Interest Receivable</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>acfr:AccruedInterestReceivable</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>Accrued Interest Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>acfr:AccruedInterestReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>Advances Receivable</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>acfr:AdvancesReceivable</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>Advances To Developers</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>acfr:AdvancesToDevelopers</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>Allowance For Receivables</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>acfr:AllowanceForReceivables</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>Assessments Receivable</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>acfr:AssessmentsReceivable</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>Assessments Receivable Allowance</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>acfr:AssessmentsReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>Assessments Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>acfr:AssessmentsReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>Asset Retirement Obligations Principal Due Within One Year</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>acfr:AssetRetirementObligationsPrincipalDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>Assets Held For Sale</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>acfr:AssetsHeldForSale</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>Bond Premium Principal Due Within One Year</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>acfr:BondPremiumPrincipalDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>Bonds Payable Due Within One Year</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>acfr:BondsPayableDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>Cash</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>acfr:Cash</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>Cash And Cash Equivalents</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>acfr:CashAndCashEquivalents</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>Cash And Cash Equivalents And Investments</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>acfr:CashAndCashEquivalentsAndInvestments</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>Cash And Cash Equivalents And Investments Abtract _ 1</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>acfr:CashAndCashEquivalentsAndInvestmentsAbtract_1</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>Cash And Cash Equivalents Others</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>acfr:CashAndCashEquivalentsOthers</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>Cash And Cash Equivalents With Fiscal And Escrow And Other Agents</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>acfr:CashAndCashEquivalentsWithFiscalAndEscrowAndOtherAgents</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>Cash And Cash Equivalents With Treasurer</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>acfr:CashAndCashEquivalentsWithTreasurer</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>Cash And Cash Equivalents With Trustee</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>acfr:CashAndCashEquivalentsWithTrustee</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>Cash Checking</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>acfr:CashChecking</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>Cash Equivalents</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>acfr:CashEquivalents</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>Cash In Bank</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>acfr:CashInBank</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>Cash On Hand</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>acfr:CashOnHand</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>Cash Payroll Bank Account</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>acfr:CashPayrollBankAccount</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>Cash Savings</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>acfr:CashSavings</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>Certificates Of Deposit</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>acfr:CertificatesOfDeposit</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>Claims And Judgments Payable Due Within One Year</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>acfr:ClaimsAndJudgmentsPayableDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>Claims And Judgments Receivable</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>acfr:ClaimsAndJudgmentsReceivable</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>Claims And Judgments Receivable Allowance</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>acfr:ClaimsAndJudgmentsReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>Claims And Judgments Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>acfr:ClaimsAndJudgmentsReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>Computer Software</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>acfr:ComputerSoftware</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>Connection Fees Receivable</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>acfr:ConnectionFeesReceivable</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>Connection Fees Receivable Allowance</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>acfr:ConnectionFeesReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>Connection Fees Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>acfr:ConnectionFeesReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>Contractors Advances</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>acfr:ContractorsAdvances</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>Contracts Payable Due Within One Year</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>acfr:ContractsPayableDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>Court Orders Receivable</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>acfr:CourtOrdersReceivable</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>Current Assets</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>acfr:CurrentAssets</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>Current Assets Custom</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>acfr:CurrentAssetsCustom</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>Customer And Other Government Receivable Allowance</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>acfr:CustomerAndOtherGovernmentReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>Customer And Other Government Receivables</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>acfr:CustomerAndOtherGovernmentReceivables</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>Customer And Other Government Receivables Net Of Allowance</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>acfr:CustomerAndOtherGovernmentReceivablesNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>Delinquent Taxes Receivable</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>acfr:DelinquentTaxesReceivable</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>Delinquent Utility Bills Receivable</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>acfr:DelinquentUtilityBillsReceivable</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>Deposits Receivable</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>acfr:DepositsReceivable</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>Deposits Receivable Allowance</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>acfr:DepositsReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>Deposits Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>acfr:DepositsReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>Deposits With Fiscal Agents</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>acfr:DepositsWithFiscalAgents</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>Derivative Instruments Assets Current</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>acfr:DerivativeInstrumentsAssetsCurrent</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>Derivative Instruments Liability Current</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>acfr:DerivativeInstrumentsLiabilityCurrent</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>Due From Cities</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>acfr:DueFromCities</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
+            <v>Due From Component Unit</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>acfr:DueFromComponentUnit</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>Due From Counties</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>acfr:DueFromCounties</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62" t="str">
+            <v>Due From Custodial Funds</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>acfr:DueFromCustodialFunds</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>Due From Employees</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>acfr:DueFromEmployees</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v>Due From Enterprise Funds</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>acfr:DueFromEnterpriseFunds</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65" t="str">
+            <v>Due From Federal Government</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>acfr:DueFromFederalGovernment</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66" t="str">
+            <v>Due From Fiduciary Funds</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>acfr:DueFromFiduciaryFunds</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67" t="str">
+            <v>Due From Government</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>acfr:DueFromGovernment</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68" t="str">
+            <v>Due From Libraries</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>acfr:DueFromLibraries</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69" t="str">
+            <v>Due From Other Funds</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>acfr:DueFromOtherFunds</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70" t="str">
+            <v>Due From Other Governments</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>acfr:DueFromOtherGovernments</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71" t="str">
+            <v>Due From Primary Government</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>acfr:DueFromPrimaryGovernment</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72" t="str">
+            <v>Due From Related Parties</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>acfr:DueFromRelatedParties</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73" t="str">
+            <v>Due From Retirement System</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>acfr:DueFromRetirementSystem</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74" t="str">
+            <v>Due From Road Commissions</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>acfr:DueFromRoadCommissions</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
+            <v>Due From Schools</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>acfr:DueFromSchools</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76" t="str">
+            <v>Due From State Government</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>acfr:DueFromStateGovernment</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77" t="str">
+            <v>Due From Tax Collection Funds</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>acfr:DueFromTaxCollectionFunds</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78" t="str">
+            <v>Due From Townships Except Road Agreements</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>acfr:DueFromTownshipsExceptRoadAgreements</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79" t="str">
+            <v>Due From Townships Road Agreements</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>acfr:DueFromTownshipsRoadAgreements</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80" t="str">
+            <v>Due From Villages</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>acfr:DueFromVillages</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81" t="str">
+            <v>Easements Right Of Way</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>acfr:EasementsRightOfWay</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82" t="str">
+            <v>Forfeiture Certificate Recording Fees Receivable</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v>acfr:ForfeitureCertificateRecordingFeesReceivable</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83" t="str">
+            <v>General Obligation Bonds Payable Due Within One Year</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v>acfr:GeneralObligationBondsPayableDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84" t="str">
+            <v>Government Claims Receivable</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v>acfr:GovernmentClaimsReceivable</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85" t="str">
+            <v>Government Claims Receivable Allowance</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v>acfr:GovernmentClaimsReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86" t="str">
+            <v>Government Claims Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C86" t="str">
+            <v>acfr:GovernmentClaimsReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87" t="str">
+            <v>Grants And Contracts Receivable</v>
+          </cell>
+          <cell r="C87" t="str">
+            <v>acfr:GrantsAndContractsReceivable</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88" t="str">
+            <v>Grants And Contracts Receivable Allowance</v>
+          </cell>
+          <cell r="C88" t="str">
+            <v>acfr:GrantsAndContractsReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89" t="str">
+            <v>Grants And Contracts Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C89" t="str">
+            <v>acfr:GrantsAndContractsReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90" t="str">
+            <v>Income Tax Receivable</v>
+          </cell>
+          <cell r="C90" t="str">
+            <v>acfr:IncomeTaxReceivable</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91" t="str">
+            <v>Installment Debt Principal Due Within One Year</v>
+          </cell>
+          <cell r="C91" t="str">
+            <v>acfr:InstallmentDebtPrincipalDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92" t="str">
+            <v>Intangible Assets</v>
+          </cell>
+          <cell r="C92" t="str">
+            <v>acfr:IntangibleAssets</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93" t="str">
+            <v>Intangible Assets Net Of Accumulated Amortization</v>
+          </cell>
+          <cell r="C93" t="str">
+            <v>acfr:IntangibleAssetsNetOfAccumulatedAmortization</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94" t="str">
+            <v>Inter Governmental Receivable</v>
+          </cell>
+          <cell r="C94" t="str">
+            <v>acfr:InterGovernmentalReceivable</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95" t="str">
+            <v>Inter Governmental Receivable Allowance</v>
+          </cell>
+          <cell r="C95" t="str">
+            <v>acfr:InterGovernmentalReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96" t="str">
+            <v>Inter Governmental Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C96" t="str">
+            <v>acfr:InterGovernmentalReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97" t="str">
+            <v>Interest And Penalties Receivable On Taxes</v>
+          </cell>
+          <cell r="C97" t="str">
+            <v>acfr:InterestAndPenaltiesReceivableOnTaxes</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98" t="str">
+            <v>Interest Receivable Allowances</v>
+          </cell>
+          <cell r="C98" t="str">
+            <v>acfr:InterestReceivableAllowances</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99" t="str">
+            <v>Intergovernmental Agreement Payable Principal Due Within One Year</v>
+          </cell>
+          <cell r="C99" t="str">
+            <v>acfr:IntergovernmentalAgreementPayablePrincipalDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100" t="str">
+            <v>Internal Balance</v>
+          </cell>
+          <cell r="C100" t="str">
+            <v>acfr:InternalBalance</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101" t="str">
+            <v>Inventory</v>
+          </cell>
+          <cell r="C101" t="str">
+            <v>acfr:Inventory</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102" t="str">
+            <v>Inventory Equipment Materials And Parts</v>
+          </cell>
+          <cell r="C102" t="str">
+            <v>acfr:InventoryEquipmentMaterialsAndParts</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103" t="str">
+            <v>Inventory Road Materials</v>
+          </cell>
+          <cell r="C103" t="str">
+            <v>acfr:InventoryRoadMaterials</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104" t="str">
+            <v>Investments Abtract</v>
+          </cell>
+          <cell r="C104" t="str">
+            <v>acfr:InvestmentsAbtract</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105" t="str">
+            <v>Investments Current</v>
+          </cell>
+          <cell r="C105" t="str">
+            <v>acfr:InvestmentsCurrent</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106" t="str">
+            <v>Investments Held By Third Parties</v>
+          </cell>
+          <cell r="C106" t="str">
+            <v>acfr:InvestmentsHeldByThirdParties</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107" t="str">
+            <v>Investments Restricted</v>
+          </cell>
+          <cell r="C107" t="str">
+            <v>acfr:InvestmentsRestricted</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108" t="str">
+            <v>Investments With Fiscal Agents</v>
+          </cell>
+          <cell r="C108" t="str">
+            <v>acfr:InvestmentsWithFiscalAgents</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109" t="str">
+            <v>Investments With State Treasury</v>
+          </cell>
+          <cell r="C109" t="str">
+            <v>acfr:InvestmentsWithStateTreasury</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110" t="str">
+            <v>Land Contracts Payable</v>
+          </cell>
+          <cell r="C110" t="str">
+            <v>acfr:LandContractsPayable</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111" t="str">
+            <v>Land Contracts Receivable</v>
+          </cell>
+          <cell r="C111" t="str">
+            <v>acfr:LandContractsReceivable</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112" t="str">
+            <v>Land Contracts Receivables Allowance</v>
+          </cell>
+          <cell r="C112" t="str">
+            <v>acfr:LandContractsReceivablesAllowance</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113" t="str">
+            <v>Land Contracts Receivables Net Of Allowance</v>
+          </cell>
+          <cell r="C113" t="str">
+            <v>acfr:LandContractsReceivablesNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114" t="str">
+            <v>Lease Assets Right Of Use</v>
+          </cell>
+          <cell r="C114" t="str">
+            <v>acfr:LeaseAssetsRightOfUse</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115" t="str">
+            <v>Leases Payable Due Within One Year</v>
+          </cell>
+          <cell r="C115" t="str">
+            <v>acfr:LeasesPayableDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116" t="str">
+            <v>Leases Receivable</v>
+          </cell>
+          <cell r="C116" t="str">
+            <v>acfr:LeasesReceivable</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117" t="str">
+            <v>Leases Receivable Allowance</v>
+          </cell>
+          <cell r="C117" t="str">
+            <v>acfr:LeasesReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118" t="str">
+            <v>Leases Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C118" t="str">
+            <v>acfr:LeasesReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119" t="str">
+            <v>Limited Tax Bonds Principal Due Within One Year</v>
+          </cell>
+          <cell r="C119" t="str">
+            <v>acfr:LimitedTaxBondsPrincipalDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120" t="str">
+            <v>Loans And Notes Receivable</v>
+          </cell>
+          <cell r="C120" t="str">
+            <v>acfr:LoansAndNotesReceivable</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121" t="str">
+            <v>Loans And Notes Receivable Allowance</v>
+          </cell>
+          <cell r="C121" t="str">
+            <v>acfr:LoansAndNotesReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122" t="str">
+            <v>Loans And Notes Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C122" t="str">
+            <v>acfr:LoansAndNotesReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123" t="str">
+            <v>Loans Payable Due Within One Year</v>
+          </cell>
+          <cell r="C123" t="str">
+            <v>acfr:LoansPayableDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124" t="str">
+            <v>Loans Receivable</v>
+          </cell>
+          <cell r="C124" t="str">
+            <v>acfr:LoansReceivable</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125" t="str">
+            <v>Loans Receivable Allowance</v>
+          </cell>
+          <cell r="C125" t="str">
+            <v>acfr:LoansReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126" t="str">
+            <v>Loans Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C126" t="str">
+            <v>acfr:LoansReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127" t="str">
+            <v>Local Unit Share Of Assessment Improvement Costs Receivable</v>
+          </cell>
+          <cell r="C127" t="str">
+            <v>acfr:LocalUnitShareOfAssessmentImprovementCostsReceivable</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128" t="str">
+            <v>Long Term Debt Due Within One Year</v>
+          </cell>
+          <cell r="C128" t="str">
+            <v>acfr:LongTermDebtDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129" t="str">
+            <v>Lottery Ticket Inventories</v>
+          </cell>
+          <cell r="C129" t="str">
+            <v>acfr:LotteryTicketInventories</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130" t="str">
+            <v>Notes Payable Due Within One Year</v>
+          </cell>
+          <cell r="C130" t="str">
+            <v>acfr:NotesPayableDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131" t="str">
+            <v>Notes Receivable</v>
+          </cell>
+          <cell r="C131" t="str">
+            <v>acfr:NotesReceivable</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132" t="str">
+            <v>Notes Receivable Allowance</v>
+          </cell>
+          <cell r="C132" t="str">
+            <v>acfr:NotesReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133" t="str">
+            <v>Notes Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C133" t="str">
+            <v>acfr:NotesReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="B134" t="str">
+            <v>Other Accounts Receivable</v>
+          </cell>
+          <cell r="C134" t="str">
+            <v>acfr:OtherAccountsReceivable</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="B135" t="str">
+            <v>Other Accounts Receivable Allowance</v>
+          </cell>
+          <cell r="C135" t="str">
+            <v>acfr:OtherAccountsReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="B136" t="str">
+            <v>Other Accounts Receivable Net</v>
+          </cell>
+          <cell r="C136" t="str">
+            <v>acfr:OtherAccountsReceivableNet</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="B137" t="str">
+            <v>Other Current Assets</v>
+          </cell>
+          <cell r="C137" t="str">
+            <v>acfr:OtherCurrentAssets</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="B138" t="str">
+            <v>Other Current Investments</v>
+          </cell>
+          <cell r="C138" t="str">
+            <v>acfr:OtherCurrentInvestments</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="B139" t="str">
+            <v>Other Receivables</v>
+          </cell>
+          <cell r="C139" t="str">
+            <v>acfr:OtherReceivables</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="B140" t="str">
+            <v>Other Restricted Assets</v>
+          </cell>
+          <cell r="C140" t="str">
+            <v>acfr:OtherRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="B141" t="str">
+            <v>Other Taxes Receivable</v>
+          </cell>
+          <cell r="C141" t="str">
+            <v>acfr:OtherTaxesReceivable</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="B142" t="str">
+            <v>Patents</v>
+          </cell>
+          <cell r="C142" t="str">
+            <v>acfr:Patents</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="B143" t="str">
+            <v>Payments In Lieu Of Taxes Receivable</v>
+          </cell>
+          <cell r="C143" t="str">
+            <v>acfr:PaymentsInLieuOfTaxesReceivable</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="B144" t="str">
+            <v>Penalties Receivable</v>
+          </cell>
+          <cell r="C144" t="str">
+            <v>acfr:PenaltiesReceivable</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="B145" t="str">
+            <v>Penalties Receivable Allowance</v>
+          </cell>
+          <cell r="C145" t="str">
+            <v>acfr:PenaltiesReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="B146" t="str">
+            <v>Penalties Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C146" t="str">
+            <v>acfr:PenaltiesReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="B147" t="str">
+            <v>Performance Bonds Payable Due Within One Year</v>
+          </cell>
+          <cell r="C147" t="str">
+            <v>acfr:PerformanceBondsPayableDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="B148" t="str">
+            <v>Pooled Cash And Investments</v>
+          </cell>
+          <cell r="C148" t="str">
+            <v>acfr:PooledCashAndInvestments</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="B149" t="str">
+            <v>Prepaid Deposits</v>
+          </cell>
+          <cell r="C149" t="str">
+            <v>acfr:PrepaidDeposits</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="B150" t="str">
+            <v>Prepaid Expenses</v>
+          </cell>
+          <cell r="C150" t="str">
+            <v>acfr:PrepaidExpenses</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="B151" t="str">
+            <v>Prepaids And Other Assets</v>
+          </cell>
+          <cell r="C151" t="str">
+            <v>acfr:PrepaidsAndOtherAssets</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152" t="str">
+            <v>Property Taxes Receivable</v>
+          </cell>
+          <cell r="C152" t="str">
+            <v>acfr:PropertyTaxesReceivable</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153" t="str">
+            <v>Property Taxes Receivable Allowance</v>
+          </cell>
+          <cell r="C153" t="str">
+            <v>acfr:PropertyTaxesReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="B154" t="str">
+            <v>Property Taxes Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C154" t="str">
+            <v>acfr:PropertyTaxesReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="B155" t="str">
+            <v>Receivable</v>
+          </cell>
+          <cell r="C155" t="str">
+            <v>acfr:Receivable</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="B156" t="str">
+            <v>Receivables</v>
+          </cell>
+          <cell r="C156" t="str">
+            <v>acfr:Receivables</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="B157" t="str">
+            <v>Regulatory Assets Current</v>
+          </cell>
+          <cell r="C157" t="str">
+            <v>acfr:RegulatoryAssetsCurrent</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="B158" t="str">
+            <v>Restricted Accounts Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C158" t="str">
+            <v>acfr:RestrictedAccountsReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="B159" t="str">
+            <v>Restricted Assets</v>
+          </cell>
+          <cell r="C159" t="str">
+            <v>acfr:RestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="B160" t="str">
+            <v>Restricted Assets Custom</v>
+          </cell>
+          <cell r="C160" t="str">
+            <v>acfr:RestrictedAssetsCustom</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="B161" t="str">
+            <v>Restricted Bond And Interest Redemption</v>
+          </cell>
+          <cell r="C161" t="str">
+            <v>acfr:RestrictedBondAndInterestRedemption</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="B162" t="str">
+            <v>Restricted Bond Reserve</v>
+          </cell>
+          <cell r="C162" t="str">
+            <v>acfr:RestrictedBondReserve</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="B163" t="str">
+            <v>Restricted Cash</v>
+          </cell>
+          <cell r="C163" t="str">
+            <v>acfr:RestrictedCash</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="B164" t="str">
+            <v>Restricted Cash And Cash Equivalents</v>
+          </cell>
+          <cell r="C164" t="str">
+            <v>acfr:RestrictedCashAndCashEquivalents</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="B165" t="str">
+            <v>Restricted Cash And Investments</v>
+          </cell>
+          <cell r="C165" t="str">
+            <v>acfr:RestrictedCashAndInvestments</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="B166" t="str">
+            <v>Restricted Cash Debt Retirement</v>
+          </cell>
+          <cell r="C166" t="str">
+            <v>acfr:RestrictedCashDebtRetirement</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="B167" t="str">
+            <v>Restricted Cash Debt Service</v>
+          </cell>
+          <cell r="C167" t="str">
+            <v>acfr:RestrictedCashDebtService</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="B168" t="str">
+            <v>Restricted Cash Repairs Replacement And Improvements Reserve</v>
+          </cell>
+          <cell r="C168" t="str">
+            <v>acfr:RestrictedCashRepairsReplacementAndImprovementsReserve</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="B169" t="str">
+            <v>Restricted Certificates Of Deposit</v>
+          </cell>
+          <cell r="C169" t="str">
+            <v>acfr:RestrictedCertificatesOfDeposit</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="B170" t="str">
+            <v>Restricted Receivables And Deposits</v>
+          </cell>
+          <cell r="C170" t="str">
+            <v>acfr:RestrictedReceivablesAndDeposits</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="B171" t="str">
+            <v>Revenue Bonds Payable Due Within One Year</v>
+          </cell>
+          <cell r="C171" t="str">
+            <v>acfr:RevenueBondsPayableDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="B172" t="str">
+            <v>Sales Tax Receivable</v>
+          </cell>
+          <cell r="C172" t="str">
+            <v>acfr:SalesTaxReceivable</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="B173" t="str">
+            <v>Securities Lending Collateral Assets</v>
+          </cell>
+          <cell r="C173" t="str">
+            <v>acfr:SecuritiesLendingCollateralAssets</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="B174" t="str">
+            <v>Securities Lending Obligations Liability</v>
+          </cell>
+          <cell r="C174" t="str">
+            <v>acfr:SecuritiesLendingObligationsLiability</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="B175" t="str">
+            <v>Self Insurance Liabilities Current Portion</v>
+          </cell>
+          <cell r="C175" t="str">
+            <v>acfr:SelfInsuranceLiabilitiesCurrentPortion</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="B176" t="str">
+            <v>Service Fees Receivable</v>
+          </cell>
+          <cell r="C176" t="str">
+            <v>acfr:ServiceFeesReceivable</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="B177" t="str">
+            <v>Special Assessment Taxes Receivable</v>
+          </cell>
+          <cell r="C177" t="str">
+            <v>acfr:SpecialAssessmentTaxesReceivable</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="B178" t="str">
+            <v>Special Assessment Taxes Receivable Unavailable</v>
+          </cell>
+          <cell r="C178" t="str">
+            <v>acfr:SpecialAssessmentTaxesReceivableUnavailable</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="B179" t="str">
+            <v>Special Assessments Receivable Delinquent</v>
+          </cell>
+          <cell r="C179" t="str">
+            <v>acfr:SpecialAssessmentsReceivableDelinquent</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="B180" t="str">
+            <v>Taxes Receivable</v>
+          </cell>
+          <cell r="C180" t="str">
+            <v>acfr:TaxesReceivable</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="B181" t="str">
+            <v>Taxes Receivable Delinquent Personal Property</v>
+          </cell>
+          <cell r="C181" t="str">
+            <v>acfr:TaxesReceivableDelinquentPersonalProperty</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="B182" t="str">
+            <v>Taxes Receivable Delinquent Real Property</v>
+          </cell>
+          <cell r="C182" t="str">
+            <v>acfr:TaxesReceivableDelinquentRealProperty</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="B183" t="str">
+            <v>Taxes Receivable Personal Property Current Levy</v>
+          </cell>
+          <cell r="C183" t="str">
+            <v>acfr:TaxesReceivablePersonalPropertyCurrentLevy</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="B184" t="str">
+            <v>Taxes Receivable Real Property Current Levy</v>
+          </cell>
+          <cell r="C184" t="str">
+            <v>acfr:TaxesReceivableRealPropertyCurrentLevy</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="B185" t="str">
+            <v>Tenant Accounts Receivable</v>
+          </cell>
+          <cell r="C185" t="str">
+            <v>acfr:TenantAccountsReceivable</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="B186" t="str">
+            <v>Tenant Accounts Receivable Allowance</v>
+          </cell>
+          <cell r="C186" t="str">
+            <v>acfr:TenantAccountsReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="B187" t="str">
+            <v>Tenant Accounts Receivable Net Of Allowances</v>
+          </cell>
+          <cell r="C187" t="str">
+            <v>acfr:TenantAccountsReceivableNetOfAllowances</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="B188" t="str">
+            <v>Timber Rights</v>
+          </cell>
+          <cell r="C188" t="str">
+            <v>acfr:TimberRights</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="B189" t="str">
+            <v>Trade Receivable</v>
+          </cell>
+          <cell r="C189" t="str">
+            <v>acfr:TradeReceivable</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="B190" t="str">
+            <v>Trade Receivable Allowance</v>
+          </cell>
+          <cell r="C190" t="str">
+            <v>acfr:TradeReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="B191" t="str">
+            <v>Trade Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C191" t="str">
+            <v>acfr:TradeReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="B192" t="str">
+            <v>Trademarks</v>
+          </cell>
+          <cell r="C192" t="str">
+            <v>acfr:Trademarks</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="B193" t="str">
+            <v>Tuition And Fees Allowances</v>
+          </cell>
+          <cell r="C193" t="str">
+            <v>acfr:TuitionAndFeesAllowances</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="B194" t="str">
+            <v>Tuition And Fees Receivable</v>
+          </cell>
+          <cell r="C194" t="str">
+            <v>acfr:TuitionAndFeesReceivable</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="B195" t="str">
+            <v>Tuition And Fees Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C195" t="str">
+            <v>acfr:TuitionAndFeesReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="B196" t="str">
+            <v>Unamortized Premium On Bonds Principal Due Within One Year</v>
+          </cell>
+          <cell r="C196" t="str">
+            <v>acfr:UnamortizedPremiumOnBondsPrincipalDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="B197" t="str">
+            <v>Unbilled Revenue</v>
+          </cell>
+          <cell r="C197" t="str">
+            <v>acfr:UnbilledRevenue</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="B198" t="str">
+            <v>Uninsured Claim Liability Current Portion</v>
+          </cell>
+          <cell r="C198" t="str">
+            <v>acfr:UninsuredClaimLiabilityCurrentPortion</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="B199" t="str">
+            <v>Unlimited Tax Bonds Principal Due Within One Year</v>
+          </cell>
+          <cell r="C199" t="str">
+            <v>acfr:UnlimitedTaxBondsPrincipalDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="B200" t="str">
+            <v>Utilities And Water Receivable</v>
+          </cell>
+          <cell r="C200" t="str">
+            <v>acfr:UtilitiesAndWaterReceivable</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="B201" t="str">
+            <v>Utilities And Water Receivable Allowance</v>
+          </cell>
+          <cell r="C201" t="str">
+            <v>acfr:UtilitiesAndWaterReceivableAllowance</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="B202" t="str">
+            <v>Utilities And Water Receivable Net Of Allowance</v>
+          </cell>
+          <cell r="C202" t="str">
+            <v>acfr:UtilitiesAndWaterReceivableNetOfAllowance</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="B203" t="str">
+            <v>Vested Employee Benefits Payable Due Within One Year</v>
+          </cell>
+          <cell r="C203" t="str">
+            <v>acfr:VestedEmployeeBenefitsPayableDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="B204" t="str">
+            <v>Water Rights</v>
+          </cell>
+          <cell r="C204" t="str">
+            <v>acfr:WaterRights</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="B205" t="str">
+            <v>Accounts Payable</v>
+          </cell>
+          <cell r="C205" t="str">
+            <v>acfr:AccountsPayable</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="B206" t="str">
+            <v>Accounts Payable And Accrued Liabilities</v>
+          </cell>
+          <cell r="C206" t="str">
+            <v>acfr:AccountsPayableAndAccruedLiabilities</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="B207" t="str">
+            <v>Accounts Payable Noncurrent Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C207" t="str">
+            <v>acfr:AccountsPayableNoncurrentPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="B208" t="str">
+            <v>Accounts Payable Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C208" t="str">
+            <v>acfr:AccountsPayablePayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="B209" t="str">
+            <v>Accrued Connection Fees</v>
+          </cell>
+          <cell r="C209" t="str">
+            <v>acfr:AccruedConnectionFees</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="B210" t="str">
+            <v>Accrued Expenses Payable</v>
+          </cell>
+          <cell r="C210" t="str">
+            <v>acfr:AccruedExpensesPayable</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="B211" t="str">
+            <v>Accrued Interest And Penalties</v>
+          </cell>
+          <cell r="C211" t="str">
+            <v>acfr:AccruedInterestAndPenalties</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="B212" t="str">
+            <v>Accrued Interest Payable</v>
+          </cell>
+          <cell r="C212" t="str">
+            <v>acfr:AccruedInterestPayable</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="B213" t="str">
+            <v>Accrued Interest Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C213" t="str">
+            <v>acfr:AccruedInterestPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="B214" t="str">
+            <v>Accrued Liabilities</v>
+          </cell>
+          <cell r="C214" t="str">
+            <v>acfr:AccruedLiabilities</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="B215" t="str">
+            <v>Accrued Sick Leave Payable</v>
+          </cell>
+          <cell r="C215" t="str">
+            <v>acfr:AccruedSickLeavePayable</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="B216" t="str">
+            <v>Accrued Tuition And Fees</v>
+          </cell>
+          <cell r="C216" t="str">
+            <v>acfr:AccruedTuitionAndFees</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="B217" t="str">
+            <v>Accrued Vacation Payable</v>
+          </cell>
+          <cell r="C217" t="str">
+            <v>acfr:AccruedVacationPayable</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="B218" t="str">
+            <v>Accrued Wages And Related Liabilities Payable</v>
+          </cell>
+          <cell r="C218" t="str">
+            <v>acfr:AccruedWagesAndRelatedLiabilitiesPayable</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="B219" t="str">
+            <v>Accrued Wages Payable</v>
+          </cell>
+          <cell r="C219" t="str">
+            <v>acfr:AccruedWagesPayable</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="B220" t="str">
+            <v>Advances Current</v>
+          </cell>
+          <cell r="C220" t="str">
+            <v>acfr:AdvancesCurrent</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="B221" t="str">
+            <v>Advances From Federal Government Noncurrent</v>
+          </cell>
+          <cell r="C221" t="str">
+            <v>acfr:AdvancesFromFederalGovernmentNoncurrent</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="B222" t="str">
+            <v>Advances From Grantors</v>
+          </cell>
+          <cell r="C222" t="str">
+            <v>acfr:AdvancesFromGrantors</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="B223" t="str">
+            <v>Advances From Other Funds</v>
+          </cell>
+          <cell r="C223" t="str">
+            <v>acfr:AdvancesFromOtherFunds</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="B224" t="str">
+            <v>Advances From Other Funds Noncurrent</v>
+          </cell>
+          <cell r="C224" t="str">
+            <v>acfr:AdvancesFromOtherFundsNoncurrent</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="B225" t="str">
+            <v>Advances From Other Funds Noncurrent Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C225" t="str">
+            <v>acfr:AdvancesFromOtherFundsNoncurrentPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="B226" t="str">
+            <v>Advances From Other Funds Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C226" t="str">
+            <v>acfr:AdvancesFromOtherFundsPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="B227" t="str">
+            <v>Advances From Other Governments</v>
+          </cell>
+          <cell r="C227" t="str">
+            <v>acfr:AdvancesFromOtherGovernments</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="B228" t="str">
+            <v>Advances From Other Governments Noncurrent</v>
+          </cell>
+          <cell r="C228" t="str">
+            <v>acfr:AdvancesFromOtherGovernmentsNoncurrent</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="B229" t="str">
+            <v>Advances From Primary Government Noncurrent</v>
+          </cell>
+          <cell r="C229" t="str">
+            <v>acfr:AdvancesFromPrimaryGovernmentNoncurrent</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="B230" t="str">
+            <v>Advances From State Noncurrent</v>
+          </cell>
+          <cell r="C230" t="str">
+            <v>acfr:AdvancesFromStateNoncurrent</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="B231" t="str">
+            <v>Advances Received Noncurrent</v>
+          </cell>
+          <cell r="C231" t="str">
+            <v>acfr:AdvancesReceivedNoncurrent</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="B232" t="str">
+            <v>Advances Special Assessment Districts</v>
+          </cell>
+          <cell r="C232" t="str">
+            <v>acfr:AdvancesSpecialAssessmentDistricts</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="B233" t="str">
+            <v>Annuities Payable</v>
+          </cell>
+          <cell r="C233" t="str">
+            <v>acfr:AnnuitiesPayable</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="B234" t="str">
+            <v>Bond Interest Payable</v>
+          </cell>
+          <cell r="C234" t="str">
+            <v>acfr:BondInterestPayable</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="B235" t="str">
+            <v>Bonds Payable Due In More Than One Year Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C235" t="str">
+            <v>acfr:BondsPayableDueInMoreThanOneYearPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="B236" t="str">
+            <v>Bonds Payable Due Within One Year Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C236" t="str">
+            <v>acfr:BondsPayableDueWithinOneYearPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="B237" t="str">
+            <v>Cash Bonds Payable</v>
+          </cell>
+          <cell r="C237" t="str">
+            <v>acfr:CashBondsPayable</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="B238" t="str">
+            <v>Cash Overdrafts</v>
+          </cell>
+          <cell r="C238" t="str">
+            <v>acfr:CashOverdrafts</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="B239" t="str">
+            <v>Checks Written Against Future Deposits</v>
+          </cell>
+          <cell r="C239" t="str">
+            <v>acfr:ChecksWrittenAgainstFutureDeposits</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="B240" t="str">
+            <v>Compensated Absences Payable Current</v>
+          </cell>
+          <cell r="C240" t="str">
+            <v>acfr:CompensatedAbsencesPayableCurrent</v>
+          </cell>
+        </row>
+        <row r="241">
+          <cell r="B241" t="str">
+            <v>Contracts Payable Due Within One Year Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C241" t="str">
+            <v>acfr:ContractsPayableDueWithinOneYearPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="B242" t="str">
+            <v>Court Orders Payable</v>
+          </cell>
+          <cell r="C242" t="str">
+            <v>acfr:CourtOrdersPayable</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="B243" t="str">
+            <v>Current Liabilities</v>
+          </cell>
+          <cell r="C243" t="str">
+            <v>acfr:CurrentLiabilities</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="B244" t="str">
+            <v>Current Liabilities Custom</v>
+          </cell>
+          <cell r="C244" t="str">
+            <v>acfr:CurrentLiabilitiesCustom</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="B245" t="str">
+            <v>Current Liabilities Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C245" t="str">
+            <v>acfr:CurrentLiabilitiesPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="246">
+          <cell r="B246" t="str">
+            <v>Customer Deposits</v>
+          </cell>
+          <cell r="C246" t="str">
+            <v>acfr:CustomerDeposits</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="B247" t="str">
+            <v>Customer Deposits Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C247" t="str">
+            <v>acfr:CustomerDepositsPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="B248" t="str">
+            <v>Deposits Heldfor Others</v>
+          </cell>
+          <cell r="C248" t="str">
+            <v>acfr:DepositsHeldforOthers</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="B249" t="str">
+            <v>Drain Orders Payable</v>
+          </cell>
+          <cell r="C249" t="str">
+            <v>acfr:DrainOrdersPayable</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="B250" t="str">
+            <v>Due To Cities</v>
+          </cell>
+          <cell r="C250" t="str">
+            <v>acfr:DueToCities</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="B251" t="str">
+            <v>Due To Community College</v>
+          </cell>
+          <cell r="C251" t="str">
+            <v>acfr:DueToCommunityCollege</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="B252" t="str">
+            <v>Due To Component Unit</v>
+          </cell>
+          <cell r="C252" t="str">
+            <v>acfr:DueToComponentUnit</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="B253" t="str">
+            <v>Due To Counties</v>
+          </cell>
+          <cell r="C253" t="str">
+            <v>acfr:DueToCounties</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="B254" t="str">
+            <v>Due To Court Wards</v>
+          </cell>
+          <cell r="C254" t="str">
+            <v>acfr:DueToCourtWards</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="B255" t="str">
+            <v>Due To Education</v>
+          </cell>
+          <cell r="C255" t="str">
+            <v>acfr:DueToEducation</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="B256" t="str">
+            <v>Due To Employees</v>
+          </cell>
+          <cell r="C256" t="str">
+            <v>acfr:DueToEmployees</v>
+          </cell>
+        </row>
+        <row r="257">
+          <cell r="B257" t="str">
+            <v>Due To Federal Government</v>
+          </cell>
+          <cell r="C257" t="str">
+            <v>acfr:DueToFederalGovernment</v>
+          </cell>
+        </row>
+        <row r="258">
+          <cell r="B258" t="str">
+            <v>Due To Fiduciary Funds</v>
+          </cell>
+          <cell r="C258" t="str">
+            <v>acfr:DueToFiduciaryFunds</v>
+          </cell>
+        </row>
+        <row r="259">
+          <cell r="B259" t="str">
+            <v>Due To Fiscal Agent</v>
+          </cell>
+          <cell r="C259" t="str">
+            <v>acfr:DueToFiscalAgent</v>
+          </cell>
+        </row>
+        <row r="260">
+          <cell r="B260" t="str">
+            <v>Due To Former Employees</v>
+          </cell>
+          <cell r="C260" t="str">
+            <v>acfr:DueToFormerEmployees</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="B261" t="str">
+            <v>Due To General Fund</v>
+          </cell>
+          <cell r="C261" t="str">
+            <v>acfr:DueToGeneralFund</v>
+          </cell>
+        </row>
+        <row r="262">
+          <cell r="B262" t="str">
+            <v>Due To Intermediate School Districts</v>
+          </cell>
+          <cell r="C262" t="str">
+            <v>acfr:DueToIntermediateSchoolDistricts</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="B263" t="str">
+            <v>Due To Libraries</v>
+          </cell>
+          <cell r="C263" t="str">
+            <v>acfr:DueToLibraries</v>
+          </cell>
+        </row>
+        <row r="264">
+          <cell r="B264" t="str">
+            <v>Due To Other Agencies Payable From Resticted Assets</v>
+          </cell>
+          <cell r="C264" t="str">
+            <v>acfr:DueToOtherAgenciesPayableFromRestictedAssets</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="B265" t="str">
+            <v>Due To Other Funds</v>
+          </cell>
+          <cell r="C265" t="str">
+            <v>acfr:DueToOtherFunds</v>
+          </cell>
+        </row>
+        <row r="266">
+          <cell r="B266" t="str">
+            <v>Due To Other Governments</v>
+          </cell>
+          <cell r="C266" t="str">
+            <v>acfr:DueToOtherGovernments</v>
+          </cell>
+        </row>
+        <row r="267">
+          <cell r="B267" t="str">
+            <v>Due To Others</v>
+          </cell>
+          <cell r="C267" t="str">
+            <v>acfr:DueToOthers</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="B268" t="str">
+            <v>Due To Primary Government</v>
+          </cell>
+          <cell r="C268" t="str">
+            <v>acfr:DueToPrimaryGovernment</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="B269" t="str">
+            <v>Due To Proprietary Funds</v>
+          </cell>
+          <cell r="C269" t="str">
+            <v>acfr:DueToProprietaryFunds</v>
+          </cell>
+        </row>
+        <row r="270">
+          <cell r="B270" t="str">
+            <v>Due To Related Parties</v>
+          </cell>
+          <cell r="C270" t="str">
+            <v>acfr:DueToRelatedParties</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="B271" t="str">
+            <v>Due To Road Commissions</v>
+          </cell>
+          <cell r="C271" t="str">
+            <v>acfr:DueToRoadCommissions</v>
+          </cell>
+        </row>
+        <row r="272">
+          <cell r="B272" t="str">
+            <v>Due To Schools</v>
+          </cell>
+          <cell r="C272" t="str">
+            <v>acfr:DueToSchools</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="B273" t="str">
+            <v>Due To Special Education</v>
+          </cell>
+          <cell r="C273" t="str">
+            <v>acfr:DueToSpecialEducation</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="B274" t="str">
+            <v>Due To State Government</v>
+          </cell>
+          <cell r="C274" t="str">
+            <v>acfr:DueToStateGovernment</v>
+          </cell>
+        </row>
+        <row r="275">
+          <cell r="B275" t="str">
+            <v>Due To Taxpayers Tax Overpayments And Duplicate Payments</v>
+          </cell>
+          <cell r="C275" t="str">
+            <v>acfr:DueToTaxpayersTaxOverpaymentsAndDuplicatePayments</v>
+          </cell>
+        </row>
+        <row r="276">
+          <cell r="B276" t="str">
+            <v>Due To Townships</v>
+          </cell>
+          <cell r="C276" t="str">
+            <v>acfr:DueToTownships</v>
+          </cell>
+        </row>
+        <row r="277">
+          <cell r="B277" t="str">
+            <v>Due To Villages</v>
+          </cell>
+          <cell r="C277" t="str">
+            <v>acfr:DueToVillages</v>
+          </cell>
+        </row>
+        <row r="278">
+          <cell r="B278" t="str">
+            <v>Dup _ 1 _ Due To Governments</v>
+          </cell>
+          <cell r="C278" t="str">
+            <v>acfr:Dup_1_DueToGovernments</v>
+          </cell>
+        </row>
+        <row r="279">
+          <cell r="B279" t="str">
+            <v>Escrow Deposits</v>
+          </cell>
+          <cell r="C279" t="str">
+            <v>acfr:EscrowDeposits</v>
+          </cell>
+        </row>
+        <row r="280">
+          <cell r="B280" t="str">
+            <v>Family Self Suffciency Escrows</v>
+          </cell>
+          <cell r="C280" t="str">
+            <v>acfr:FamilySelfSuffciencyEscrows</v>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="B281" t="str">
+            <v>Garnishments Payable</v>
+          </cell>
+          <cell r="C281" t="str">
+            <v>acfr:GarnishmentsPayable</v>
+          </cell>
+        </row>
+        <row r="282">
+          <cell r="B282" t="str">
+            <v>Grants Payable</v>
+          </cell>
+          <cell r="C282" t="str">
+            <v>acfr:GrantsPayable</v>
+          </cell>
+        </row>
+        <row r="283">
+          <cell r="B283" t="str">
+            <v>Internal Balances Payable</v>
+          </cell>
+          <cell r="C283" t="str">
+            <v>acfr:InternalBalancesPayable</v>
+          </cell>
+        </row>
+        <row r="284">
+          <cell r="B284" t="str">
+            <v>Long Term Debt Due In More Than One Year Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C284" t="str">
+            <v>acfr:LongTermDebtDueInMoreThanOneYearPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="285">
+          <cell r="B285" t="str">
+            <v>Long Term Debt Due Within One Year Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C285" t="str">
+            <v>acfr:LongTermDebtDueWithinOneYearPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="286">
+          <cell r="B286" t="str">
+            <v>Lottery Prize Liability Current</v>
+          </cell>
+          <cell r="C286" t="str">
+            <v>acfr:LotteryPrizeLiabilityCurrent</v>
+          </cell>
+        </row>
+        <row r="287">
+          <cell r="B287" t="str">
+            <v>Lottery Prizes Payable</v>
+          </cell>
+          <cell r="C287" t="str">
+            <v>acfr:LotteryPrizesPayable</v>
+          </cell>
+        </row>
+        <row r="288">
+          <cell r="B288" t="str">
+            <v>Net Pension Liability Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C288" t="str">
+            <v>acfr:NetPensionLiabilityPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="289">
+          <cell r="B289" t="str">
+            <v>Noncurrent Liabilities Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C289" t="str">
+            <v>acfr:NoncurrentLiabilitiesPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="290">
+          <cell r="B290" t="str">
+            <v>Other Accounts Payable</v>
+          </cell>
+          <cell r="C290" t="str">
+            <v>acfr:OtherAccountsPayable</v>
+          </cell>
+        </row>
+        <row r="291">
+          <cell r="B291" t="str">
+            <v>Other Accounts Payable And Accrued Liabilities</v>
+          </cell>
+          <cell r="C291" t="str">
+            <v>acfr:OtherAccountsPayableAndAccruedLiabilities</v>
+          </cell>
+        </row>
+        <row r="292">
+          <cell r="B292" t="str">
+            <v>Other Accrued Expenses</v>
+          </cell>
+          <cell r="C292" t="str">
+            <v>acfr:OtherAccruedExpenses</v>
+          </cell>
+        </row>
+        <row r="293">
+          <cell r="B293" t="str">
+            <v>Other Advances</v>
+          </cell>
+          <cell r="C293" t="str">
+            <v>acfr:OtherAdvances</v>
+          </cell>
+        </row>
+        <row r="294">
+          <cell r="B294" t="str">
+            <v>Other Current Liabilities</v>
+          </cell>
+          <cell r="C294" t="str">
+            <v>acfr:OtherCurrentLiabilities</v>
+          </cell>
+        </row>
+        <row r="295">
+          <cell r="B295" t="str">
+            <v>Other Current Liabilities Payable From Resticted Assets</v>
+          </cell>
+          <cell r="C295" t="str">
+            <v>acfr:OtherCurrentLiabilitiesPayableFromRestictedAssets</v>
+          </cell>
+        </row>
+        <row r="296">
+          <cell r="B296" t="str">
+            <v>Other Noncurrent Liabilities Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C296" t="str">
+            <v>acfr:OtherNoncurrentLiabilitiesPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="297">
+          <cell r="B297" t="str">
+            <v>Patients Or Inmates Trust Money Payable</v>
+          </cell>
+          <cell r="C297" t="str">
+            <v>acfr:PatientsOrInmatesTrustMoneyPayable</v>
+          </cell>
+        </row>
+        <row r="298">
+          <cell r="B298" t="str">
+            <v>Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C298" t="str">
+            <v>acfr:PayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="299">
+          <cell r="B299" t="str">
+            <v>Payable From Restricted Assets Custom</v>
+          </cell>
+          <cell r="C299" t="str">
+            <v>acfr:PayableFromRestrictedAssetsCustom</v>
+          </cell>
+        </row>
+        <row r="300">
+          <cell r="B300" t="str">
+            <v>Payroll Deductions Payable</v>
+          </cell>
+          <cell r="C300" t="str">
+            <v>acfr:PayrollDeductionsPayable</v>
+          </cell>
+        </row>
+        <row r="301">
+          <cell r="B301" t="str">
+            <v>Payroll Taxes Payable</v>
+          </cell>
+          <cell r="C301" t="str">
+            <v>acfr:PayrollTaxesPayable</v>
+          </cell>
+        </row>
+        <row r="302">
+          <cell r="B302" t="str">
+            <v>Penalties Payable</v>
+          </cell>
+          <cell r="C302" t="str">
+            <v>acfr:PenaltiesPayable</v>
+          </cell>
+        </row>
+        <row r="303">
+          <cell r="B303" t="str">
+            <v>Performance Deposits Payable</v>
+          </cell>
+          <cell r="C303" t="str">
+            <v>acfr:PerformanceDepositsPayable</v>
+          </cell>
+        </row>
+        <row r="304">
+          <cell r="B304" t="str">
+            <v>Receipts Refundable</v>
+          </cell>
+          <cell r="C304" t="str">
+            <v>acfr:ReceiptsRefundable</v>
+          </cell>
+        </row>
+        <row r="305">
+          <cell r="B305" t="str">
+            <v>Refundable Deposits Bonds</v>
+          </cell>
+          <cell r="C305" t="str">
+            <v>acfr:RefundableDepositsBonds</v>
+          </cell>
+        </row>
+        <row r="306">
+          <cell r="B306" t="str">
+            <v>Regulatory Liability Current</v>
+          </cell>
+          <cell r="C306" t="str">
+            <v>acfr:RegulatoryLiabilityCurrent</v>
+          </cell>
+        </row>
+        <row r="307">
+          <cell r="B307" t="str">
+            <v>Restitutions Payable</v>
+          </cell>
+          <cell r="C307" t="str">
+            <v>acfr:RestitutionsPayable</v>
+          </cell>
+        </row>
+        <row r="308">
+          <cell r="B308" t="str">
+            <v>Retainage Payable</v>
+          </cell>
+          <cell r="C308" t="str">
+            <v>acfr:RetainagePayable</v>
+          </cell>
+        </row>
+        <row r="309">
+          <cell r="B309" t="str">
+            <v>Revenue Bonds Payable Due Within One Year Payable From Restricted Assets</v>
+          </cell>
+          <cell r="C309" t="str">
+            <v>acfr:RevenueBondsPayableDueWithinOneYearPayableFromRestrictedAssets</v>
+          </cell>
+        </row>
+        <row r="310">
+          <cell r="B310" t="str">
+            <v>Short Term Debt Payable</v>
+          </cell>
+          <cell r="C310" t="str">
+            <v>acfr:ShortTermDebtPayable</v>
+          </cell>
+        </row>
+        <row r="311">
+          <cell r="B311" t="str">
+            <v>Taxes Payable</v>
+          </cell>
+          <cell r="C311" t="str">
+            <v>acfr:TaxesPayable</v>
+          </cell>
+        </row>
+        <row r="312">
+          <cell r="B312" t="str">
+            <v>Tenant Security Deposits Payable From Resticted Assets</v>
+          </cell>
+          <cell r="C312" t="str">
+            <v>acfr:TenantSecurityDepositsPayableFromRestictedAssets</v>
+          </cell>
+        </row>
+        <row r="313">
+          <cell r="B313" t="str">
+            <v>Unclaimed Money</v>
+          </cell>
+          <cell r="C313" t="str">
+            <v>acfr:UnclaimedMoney</v>
+          </cell>
+        </row>
+        <row r="314">
+          <cell r="B314" t="str">
+            <v>Undistributed Receipts</v>
+          </cell>
+          <cell r="C314" t="str">
+            <v>acfr:UndistributedReceipts</v>
+          </cell>
+        </row>
+        <row r="315">
+          <cell r="B315" t="str">
+            <v>Undistributed Tax Collections</v>
+          </cell>
+          <cell r="C315" t="str">
+            <v>acfr:UndistributedTaxCollections</v>
+          </cell>
+        </row>
+        <row r="316">
+          <cell r="B316" t="str">
+            <v>Unearned Revenue</v>
+          </cell>
+          <cell r="C316" t="str">
+            <v>acfr:UnearnedRevenue</v>
+          </cell>
+        </row>
+        <row r="317">
+          <cell r="B317" t="str">
+            <v>Unearned Revenue Payable From Resticted Assets</v>
+          </cell>
+          <cell r="C317" t="str">
+            <v>acfr:UnearnedRevenuePayableFromRestictedAssets</v>
+          </cell>
+        </row>
+        <row r="318">
+          <cell r="B318" t="str">
+            <v>Unearned Ticket Sales</v>
+          </cell>
+          <cell r="C318" t="str">
+            <v>acfr:UnearnedTicketSales</v>
+          </cell>
+        </row>
+        <row r="319">
+          <cell r="B319" t="str">
+            <v>Vouchers Payable</v>
+          </cell>
+          <cell r="C319" t="str">
+            <v>acfr:VouchersPayable</v>
+          </cell>
+        </row>
+        <row r="320">
+          <cell r="B320" t="str">
+            <v>Deferred Inflows From Deferred Amount On Refunding</v>
+          </cell>
+          <cell r="C320" t="str">
+            <v>acfr:DeferredInflowsFromDeferredAmountOnRefunding</v>
+          </cell>
+        </row>
+        <row r="321">
+          <cell r="B321" t="str">
+            <v>Deferred Inflows From OPEB Changes In Proportion</v>
+          </cell>
+          <cell r="C321" t="str">
+            <v>acfr:DeferredInflowsFromOPEBChangesInProportion</v>
+          </cell>
+        </row>
+        <row r="322">
+          <cell r="B322" t="str">
+            <v>Deferred Inflows From Pension Changes In Proportion</v>
+          </cell>
+          <cell r="C322" t="str">
+            <v>acfr:DeferredInflowsFromPensionChangesInProportion</v>
+          </cell>
+        </row>
+        <row r="323">
+          <cell r="B323" t="str">
+            <v>Deferred Inflows Of Resources</v>
+          </cell>
+          <cell r="C323" t="str">
+            <v>acfr:DeferredInflowsOfResources</v>
+          </cell>
+        </row>
+        <row r="324">
+          <cell r="B324" t="str">
+            <v>Deferred Inflows Of Resources Custom</v>
+          </cell>
+          <cell r="C324" t="str">
+            <v>acfr:DeferredInflowsOfResourcesCustom</v>
+          </cell>
+        </row>
+        <row r="325">
+          <cell r="B325" t="str">
+            <v>Deferred Inflows Of Resources Debt</v>
+          </cell>
+          <cell r="C325" t="str">
+            <v>acfr:DeferredInflowsOfResourcesDebt</v>
+          </cell>
+        </row>
+        <row r="326">
+          <cell r="B326" t="str">
+            <v>Deferred Inflows Of Resources Drain Orders</v>
+          </cell>
+          <cell r="C326" t="str">
+            <v>acfr:DeferredInflowsOfResourcesDrainOrders</v>
+          </cell>
+        </row>
+        <row r="327">
+          <cell r="B327" t="str">
+            <v>Deferred Inflows Of Resources Leases</v>
+          </cell>
+          <cell r="C327" t="str">
+            <v>acfr:DeferredInflowsOfResourcesLeases</v>
+          </cell>
+        </row>
+        <row r="328">
+          <cell r="B328" t="str">
+            <v>Deferred Inflows Of Resources OPEB</v>
+          </cell>
+          <cell r="C328" t="str">
+            <v>acfr:DeferredInflowsOfResourcesOPEB</v>
+          </cell>
+        </row>
+        <row r="329">
+          <cell r="B329" t="str">
+            <v>Deferred Inflows Of Resources OPEB Changes In Assumptions</v>
+          </cell>
+          <cell r="C329" t="str">
+            <v>acfr:DeferredInflowsOfResourcesOPEBChangesInAssumptions</v>
+          </cell>
+        </row>
+        <row r="330">
+          <cell r="B330" t="str">
+            <v>Deferred Inflows Of Resources OPEB Contributions Made After Measurement Date</v>
+          </cell>
+          <cell r="C330" t="str">
+            <v>acfr:DeferredInflowsOfResourcesOPEBContributionsMadeAfterMeasurementDate</v>
+          </cell>
+        </row>
+        <row r="331">
+          <cell r="B331" t="str">
+            <v>Deferred Inflows Of Resources Pension</v>
+          </cell>
+          <cell r="C331" t="str">
+            <v>acfr:DeferredInflowsOfResourcesPension</v>
+          </cell>
+        </row>
+        <row r="332">
+          <cell r="B332" t="str">
+            <v>Deferred Inflows Of Resources Pension And OPEB Items</v>
+          </cell>
+          <cell r="C332" t="str">
+            <v>acfr:DeferredInflowsOfResourcesPensionAndOPEBItems</v>
+          </cell>
+        </row>
+        <row r="333">
+          <cell r="B333" t="str">
+            <v>Deferred Inflows Of Resources Pension Changes In Assumptions</v>
+          </cell>
+          <cell r="C333" t="str">
+            <v>acfr:DeferredInflowsOfResourcesPensionChangesInAssumptions</v>
+          </cell>
+        </row>
+        <row r="334">
+          <cell r="B334" t="str">
+            <v>Deferred Inflows Of Resources Pension Contributions Made After Measurement Date</v>
+          </cell>
+          <cell r="C334" t="str">
+            <v>acfr:DeferredInflowsOfResourcesPensionContributionsMadeAfterMeasurementDate</v>
+          </cell>
+        </row>
+        <row r="335">
+          <cell r="B335" t="str">
+            <v>Deferred Inflows Of Resources Property Taxes</v>
+          </cell>
+          <cell r="C335" t="str">
+            <v>acfr:DeferredInflowsOfResourcesPropertyTaxes</v>
+          </cell>
+        </row>
+        <row r="336">
+          <cell r="B336" t="str">
+            <v>Deferred Inflows Of Resources Sales Of Future Revenues</v>
+          </cell>
+          <cell r="C336" t="str">
+            <v>acfr:DeferredInflowsOfResourcesSalesOfFutureRevenues</v>
+          </cell>
+        </row>
+        <row r="337">
+          <cell r="B337" t="str">
+            <v>Deferred Inflows Of Resources Taxes Levied For A Subsequent Period</v>
+          </cell>
+          <cell r="C337" t="str">
+            <v>acfr:DeferredInflowsOfResourcesTaxesLeviedForASubsequentPeriod</v>
+          </cell>
+        </row>
+        <row r="338">
+          <cell r="B338" t="str">
+            <v>Deferred Inflowsof Resources OPEB Difference Expected And Actual</v>
+          </cell>
+          <cell r="C338" t="str">
+            <v>acfr:DeferredInflowsofResourcesOPEBDifferenceExpectedAndActual</v>
+          </cell>
+        </row>
+        <row r="339">
+          <cell r="B339" t="str">
+            <v>Deferred Inflowsof Resources OPEB Net Dif Projected And Actual Earnings Pension Plan Investments</v>
+          </cell>
+          <cell r="C339" t="str">
+            <v>acfr:DeferredInflowsofResourcesOPEBNetDifProjectedAndActualEarningsPensionPlanInvestments</v>
+          </cell>
+        </row>
+        <row r="340">
+          <cell r="B340" t="str">
+            <v>Deferred Inflowsof Resources Pension Difference Expected And Actual</v>
+          </cell>
+          <cell r="C340" t="str">
+            <v>acfr:DeferredInflowsofResourcesPensionDifferenceExpectedAndActual</v>
+          </cell>
+        </row>
+        <row r="341">
+          <cell r="B341" t="str">
+            <v>Deferred Inflowsof Resources Pension Net Dif Projected And Actual Earnings Pension Plan Investments</v>
+          </cell>
+          <cell r="C341" t="str">
+            <v>acfr:DeferredInflowsofResourcesPensionNetDifProjectedAndActualEarningsPensionPlanInvestments</v>
+          </cell>
+        </row>
+        <row r="342">
+          <cell r="B342" t="str">
+            <v>Other Deferred Inflows Of Resources</v>
+          </cell>
+          <cell r="C342" t="str">
+            <v>acfr:OtherDeferredInflowsOfResources</v>
+          </cell>
+        </row>
+        <row r="343">
+          <cell r="B343" t="str">
+            <v>Deferred Outflows From OPEB Changes In Proportion</v>
+          </cell>
+          <cell r="C343" t="str">
+            <v>acfr:DeferredOutflowsFromOPEBChangesInProportion</v>
+          </cell>
+        </row>
+        <row r="344">
+          <cell r="B344" t="str">
+            <v>Deferred Outflows From Pension Changes In Proportion</v>
+          </cell>
+          <cell r="C344" t="str">
+            <v>acfr:DeferredOutflowsFromPensionChangesInProportion</v>
+          </cell>
+        </row>
+        <row r="345">
+          <cell r="B345" t="str">
+            <v>Deferred Outflows Of Resources</v>
+          </cell>
+          <cell r="C345" t="str">
+            <v>acfr:DeferredOutflowsOfResources</v>
+          </cell>
+        </row>
+        <row r="346">
+          <cell r="B346" t="str">
+            <v>Deferred Outflows Of Resources Custom</v>
+          </cell>
+          <cell r="C346" t="str">
+            <v>acfr:DeferredOutflowsOfResourcesCustom</v>
+          </cell>
+        </row>
+        <row r="347">
+          <cell r="B347" t="str">
+            <v>Deferred Outflows Of Resources Debt</v>
+          </cell>
+          <cell r="C347" t="str">
+            <v>acfr:DeferredOutflowsOfResourcesDebt</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="B348" t="str">
+            <v>Deferred Outflows Of Resources OPEB</v>
+          </cell>
+          <cell r="C348" t="str">
+            <v>acfr:DeferredOutflowsOfResourcesOPEB</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="B349" t="str">
+            <v>Deferred Outflows Of Resources OPEB Changes In Assumptions</v>
+          </cell>
+          <cell r="C349" t="str">
+            <v>acfr:DeferredOutflowsOfResourcesOPEBChangesInAssumptions</v>
+          </cell>
+        </row>
+        <row r="350">
+          <cell r="B350" t="str">
+            <v>Deferred Outflows Of Resources OPEB Contributions Made After Measurement Date</v>
+          </cell>
+          <cell r="C350" t="str">
+            <v>acfr:DeferredOutflowsOfResourcesOPEBContributionsMadeAfterMeasurementDate</v>
+          </cell>
+        </row>
+        <row r="351">
+          <cell r="B351" t="str">
+            <v>Deferred Outflows Of Resources OPEB Net Dif Projected And Actual Earnings Pension Plan Investments</v>
+          </cell>
+          <cell r="C351" t="str">
+            <v>acfr:DeferredOutflowsOfResourcesOPEBNetDifProjectedAndActualEarningsPensionPlanInvestments</v>
+          </cell>
+        </row>
+        <row r="352">
+          <cell r="B352" t="str">
+            <v>Deferred Outflows Of Resources Other</v>
+          </cell>
+          <cell r="C352" t="str">
+            <v>acfr:DeferredOutflowsOfResourcesOther</v>
+          </cell>
+        </row>
+        <row r="353">
+          <cell r="B353" t="str">
+            <v>Deferred Outflows Of Resources Pension</v>
+          </cell>
+          <cell r="C353" t="str">
+            <v>acfr:DeferredOutflowsOfResourcesPension</v>
+          </cell>
+        </row>
+        <row r="354">
+          <cell r="B354" t="str">
+            <v>Deferred Outflows Of Resources Pension Changes In Assumptions</v>
+          </cell>
+          <cell r="C354" t="str">
+            <v>acfr:DeferredOutflowsOfResourcesPensionChangesInAssumptions</v>
+          </cell>
+        </row>
+        <row r="355">
+          <cell r="B355" t="str">
+            <v>Deferred Outflows Of Resources Pension Contributions Made After Measurement Date</v>
+          </cell>
+          <cell r="C355" t="str">
+            <v>acfr:DeferredOutflowsOfResourcesPensionContributionsMadeAfterMeasurementDate</v>
+          </cell>
+        </row>
+        <row r="356">
+          <cell r="B356" t="str">
+            <v>Deferred Outflows Of Resources Pension Net Dif Projected And Actual Earnings Pension Plan Investments</v>
+          </cell>
+          <cell r="C356" t="str">
+            <v>acfr:DeferredOutflowsOfResourcesPensionNetDifProjectedAndActualEarningsPensionPlanInvestments</v>
+          </cell>
+        </row>
+        <row r="357">
+          <cell r="B357" t="str">
+            <v>Deferred Outflowsof Resources OPEB Difference Expected And Actual</v>
+          </cell>
+          <cell r="C357" t="str">
+            <v>acfr:DeferredOutflowsofResourcesOPEBDifferenceExpectedAndActual</v>
+          </cell>
+        </row>
+        <row r="358">
+          <cell r="B358" t="str">
+            <v>Deferred Outflowsof Resources Pension Difference Expected And Actual</v>
+          </cell>
+          <cell r="C358" t="str">
+            <v>acfr:DeferredOutflowsofResourcesPensionDifferenceExpectedAndActual</v>
+          </cell>
+        </row>
+        <row r="359">
+          <cell r="B359" t="str">
+            <v>Other Deferred Outflows Of Resources</v>
+          </cell>
+          <cell r="C359" t="str">
+            <v>acfr:OtherDeferredOutflowsOfResources</v>
+          </cell>
+        </row>
+        <row r="360">
+          <cell r="B360" t="str">
+            <v>Net Investment In Capital Assets</v>
+          </cell>
+          <cell r="C360" t="str">
+            <v>acfr:NetInvestmentInCapitalAssets</v>
+          </cell>
+        </row>
+        <row r="361">
+          <cell r="B361" t="str">
+            <v>Net Position</v>
+          </cell>
+          <cell r="C361" t="str">
+            <v>acfr:NetPosition</v>
+          </cell>
+        </row>
+        <row r="362">
+          <cell r="B362" t="str">
+            <v>Other Restricted Components Of Net Position</v>
+          </cell>
+          <cell r="C362" t="str">
+            <v>acfr:OtherRestrictedComponentsOfNetPosition</v>
+          </cell>
+        </row>
+        <row r="363">
+          <cell r="B363" t="str">
+            <v>Restricted Components Of Net Position Custom</v>
+          </cell>
+          <cell r="C363" t="str">
+            <v>acfr:RestrictedComponentsOfNetPositionCustom</v>
+          </cell>
+        </row>
+        <row r="364">
+          <cell r="B364" t="str">
+            <v>Restricted Net Position</v>
+          </cell>
+          <cell r="C364" t="str">
+            <v>acfr:RestrictedNetPosition</v>
+          </cell>
+        </row>
+        <row r="365">
+          <cell r="B365" t="str">
+            <v>Restricted Net Position For Capital Projects</v>
+          </cell>
+          <cell r="C365" t="str">
+            <v>acfr:RestrictedNetPositionForCapitalProjects</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="B366" t="str">
+            <v>Restricted Net Position For Community Development</v>
+          </cell>
+          <cell r="C366" t="str">
+            <v>acfr:RestrictedNetPositionForCommunityDevelopment</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="B367" t="str">
+            <v>Restricted Net Position For Debt Service</v>
+          </cell>
+          <cell r="C367" t="str">
+            <v>acfr:RestrictedNetPositionForDebtService</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="B368" t="str">
+            <v>Restricted Net Position For Donor Restricted</v>
+          </cell>
+          <cell r="C368" t="str">
+            <v>acfr:RestrictedNetPositionForDonorRestricted</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="B369" t="str">
+            <v>Restricted Net Position For General Government</v>
+          </cell>
+          <cell r="C369" t="str">
+            <v>acfr:RestrictedNetPositionForGeneralGovernment</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="B370" t="str">
+            <v>Restricted Net Position For Grants</v>
+          </cell>
+          <cell r="C370" t="str">
+            <v>acfr:RestrictedNetPositionForGrants</v>
+          </cell>
+        </row>
+        <row r="371">
+          <cell r="B371" t="str">
+            <v>Restricted Net Position For Health And Sanitation</v>
+          </cell>
+          <cell r="C371" t="str">
+            <v>acfr:RestrictedNetPositionForHealthAndSanitation</v>
+          </cell>
+        </row>
+        <row r="372">
+          <cell r="B372" t="str">
+            <v>Restricted Net Position For Housing Services</v>
+          </cell>
+          <cell r="C372" t="str">
+            <v>acfr:RestrictedNetPositionForHousingServices</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="B373" t="str">
+            <v>Restricted Net Position For Law Enforcement</v>
+          </cell>
+          <cell r="C373" t="str">
+            <v>acfr:RestrictedNetPositionForLawEnforcement</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="B374" t="str">
+            <v>Restricted Net Position For Other</v>
+          </cell>
+          <cell r="C374" t="str">
+            <v>acfr:RestrictedNetPositionForOther</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="B375" t="str">
+            <v>Restricted Net Position For Parks And Recreation</v>
+          </cell>
+          <cell r="C375" t="str">
+            <v>acfr:RestrictedNetPositionForParksAndRecreation</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="B376" t="str">
+            <v>Restricted Net Position For Prizes</v>
+          </cell>
+          <cell r="C376" t="str">
+            <v>acfr:RestrictedNetPositionForPrizes</v>
+          </cell>
+        </row>
+        <row r="377">
+          <cell r="B377" t="str">
+            <v>Restricted Net Position For Public Safety</v>
+          </cell>
+          <cell r="C377" t="str">
+            <v>acfr:RestrictedNetPositionForPublicSafety</v>
+          </cell>
+        </row>
+        <row r="378">
+          <cell r="B378" t="str">
+            <v>Restricted Net Position For Public Ways And Facilities</v>
+          </cell>
+          <cell r="C378" t="str">
+            <v>acfr:RestrictedNetPositionForPublicWaysAndFacilities</v>
+          </cell>
+        </row>
+        <row r="379">
+          <cell r="B379" t="str">
+            <v>Restricted Net Position For Public Works</v>
+          </cell>
+          <cell r="C379" t="str">
+            <v>acfr:RestrictedNetPositionForPublicWorks</v>
+          </cell>
+        </row>
+        <row r="380">
+          <cell r="B380" t="str">
+            <v>Restricted Net Position For Recreation And Culture</v>
+          </cell>
+          <cell r="C380" t="str">
+            <v>acfr:RestrictedNetPositionForRecreationAndCulture</v>
+          </cell>
+        </row>
+        <row r="381">
+          <cell r="B381" t="str">
+            <v>Unrestricted Net Position</v>
+          </cell>
+          <cell r="C381" t="str">
+            <v>acfr:UnrestrictedNetPosition</v>
+          </cell>
+        </row>
+        <row r="382">
+          <cell r="B382" t="str">
+            <v>Accounts Receivable Net Noncurrent</v>
+          </cell>
+          <cell r="C382" t="str">
+            <v>acfr:AccountsReceivableNetNoncurrent</v>
+          </cell>
+        </row>
+        <row r="383">
+          <cell r="B383" t="str">
+            <v>Accounts Receivable Noncurrent</v>
+          </cell>
+          <cell r="C383" t="str">
+            <v>acfr:AccountsReceivableNoncurrent</v>
+          </cell>
+        </row>
+        <row r="384">
+          <cell r="B384" t="str">
+            <v>Accounts Receivable Noncurrent Allowance</v>
+          </cell>
+          <cell r="C384" t="str">
+            <v>acfr:AccountsReceivableNoncurrentAllowance</v>
+          </cell>
+        </row>
+        <row r="385">
+          <cell r="B385" t="str">
+            <v>Accrued Interest On Delinquent Taxes</v>
+          </cell>
+          <cell r="C385" t="str">
+            <v>acfr:AccruedInterestOnDelinquentTaxes</v>
+          </cell>
+        </row>
+        <row r="386">
+          <cell r="B386" t="str">
+            <v>Accumulated Amortization</v>
+          </cell>
+          <cell r="C386" t="str">
+            <v>acfr:AccumulatedAmortization</v>
+          </cell>
+        </row>
+        <row r="387">
+          <cell r="B387" t="str">
+            <v>Accumulated Depreciation</v>
+          </cell>
+          <cell r="C387" t="str">
+            <v>acfr:AccumulatedDepreciation</v>
+          </cell>
+        </row>
+        <row r="388">
+          <cell r="B388" t="str">
+            <v>Accumulated Depreciation Books And Related Materials</v>
+          </cell>
+          <cell r="C388" t="str">
+            <v>acfr:AccumulatedDepreciationBooksAndRelatedMaterials</v>
+          </cell>
+        </row>
+        <row r="389">
+          <cell r="B389" t="str">
+            <v>Accumulated Depreciation Buildings Building Additions And Improvements</v>
+          </cell>
+          <cell r="C389" t="str">
+            <v>acfr:AccumulatedDepreciationBuildingsBuildingAdditionsAndImprovements</v>
+          </cell>
+        </row>
+        <row r="390">
+          <cell r="B390" t="str">
+            <v>Accumulated Depreciation Depletable Assets ISTHISTHERIGHTPLACE</v>
+          </cell>
+          <cell r="C390" t="str">
+            <v>acfr:AccumulatedDepreciationDepletableAssetsISTHISTHERIGHTPLACE</v>
+          </cell>
+        </row>
+        <row r="391">
+          <cell r="B391" t="str">
+            <v>Accumulated Depreciation Engineering Equipment</v>
+          </cell>
+          <cell r="C391" t="str">
+            <v>acfr:AccumulatedDepreciationEngineeringEquipment</v>
+          </cell>
+        </row>
+        <row r="392">
+          <cell r="B392" t="str">
+            <v>Accumulated Depreciation Land Improvements</v>
+          </cell>
+          <cell r="C392" t="str">
+            <v>acfr:AccumulatedDepreciationLandImprovements</v>
+          </cell>
+        </row>
+        <row r="393">
+          <cell r="B393" t="str">
+            <v>Accumulated Depreciation Office Equipment And Furniture</v>
+          </cell>
+          <cell r="C393" t="str">
+            <v>acfr:AccumulatedDepreciationOfficeEquipmentAndFurniture</v>
+          </cell>
+        </row>
+        <row r="394">
+          <cell r="B394" t="str">
+            <v>Accumulated Depreciation Road Equipment</v>
+          </cell>
+          <cell r="C394" t="str">
+            <v>acfr:AccumulatedDepreciationRoadEquipment</v>
+          </cell>
+        </row>
+        <row r="395">
+          <cell r="B395" t="str">
+            <v>Accumulated Depreciation Sewer System</v>
+          </cell>
+          <cell r="C395" t="str">
+            <v>acfr:AccumulatedDepreciationSewerSystem</v>
+          </cell>
+        </row>
+        <row r="396">
+          <cell r="B396" t="str">
+            <v>Accumulated Depreciation Shop Equipment</v>
+          </cell>
+          <cell r="C396" t="str">
+            <v>acfr:AccumulatedDepreciationShopEquipment</v>
+          </cell>
+        </row>
+        <row r="397">
+          <cell r="B397" t="str">
+            <v>Accumulated Depreciation Vehicles</v>
+          </cell>
+          <cell r="C397" t="str">
+            <v>acfr:AccumulatedDepreciationVehicles</v>
+          </cell>
+        </row>
+        <row r="398">
+          <cell r="B398" t="str">
+            <v>Accumulated Depreciation Water System</v>
+          </cell>
+          <cell r="C398" t="str">
+            <v>acfr:AccumulatedDepreciationWaterSystem</v>
+          </cell>
+        </row>
+        <row r="399">
+          <cell r="B399" t="str">
+            <v>Accumulated Depreciation Yard And Storage Equipment</v>
+          </cell>
+          <cell r="C399" t="str">
+            <v>acfr:AccumulatedDepreciationYardAndStorageEquipment</v>
+          </cell>
+        </row>
+        <row r="400">
+          <cell r="B400" t="str">
+            <v>Accumulated Depreciationand Amortization</v>
+          </cell>
+          <cell r="C400" t="str">
+            <v>acfr:AccumulatedDepreciationandAmortization</v>
+          </cell>
+        </row>
+        <row r="401">
+          <cell r="B401" t="str">
+            <v>Allowance For Grants And Contracts Receivable Noncurrent</v>
+          </cell>
+          <cell r="C401" t="str">
+            <v>acfr:AllowanceForGrantsAndContractsReceivableNoncurrent</v>
+          </cell>
+        </row>
+        <row r="402">
+          <cell r="B402" t="str">
+            <v>Allowance For Leases Receivable Noncurrent</v>
+          </cell>
+          <cell r="C402" t="str">
+            <v>acfr:AllowanceForLeasesReceivableNoncurrent</v>
+          </cell>
+        </row>
+        <row r="403">
+          <cell r="B403" t="str">
+            <v>Allowance For Notes And Loans Receivable Noncurrent</v>
+          </cell>
+          <cell r="C403" t="str">
+            <v>acfr:AllowanceForNotesAndLoansReceivableNoncurrent</v>
+          </cell>
+        </row>
+        <row r="404">
+          <cell r="B404" t="str">
+            <v>Assets Held By Other Governments</v>
+          </cell>
+          <cell r="C404" t="str">
+            <v>acfr:AssetsHeldByOtherGovernments</v>
+          </cell>
+        </row>
+        <row r="405">
+          <cell r="B405" t="str">
+            <v>Assets Held For Sale Noncurrent</v>
+          </cell>
+          <cell r="C405" t="str">
+            <v>acfr:AssetsHeldForSaleNoncurrent</v>
+          </cell>
+        </row>
+        <row r="406">
+          <cell r="B406" t="str">
+            <v>Buildings</v>
+          </cell>
+          <cell r="C406" t="str">
+            <v>acfr:Buildings</v>
+          </cell>
+        </row>
+        <row r="407">
+          <cell r="B407" t="str">
+            <v>Buildings And Equipment</v>
+          </cell>
+          <cell r="C407" t="str">
+            <v>acfr:BuildingsAndEquipment</v>
+          </cell>
+        </row>
+        <row r="408">
+          <cell r="B408" t="str">
+            <v>Buildings And Improvements</v>
+          </cell>
+          <cell r="C408" t="str">
+            <v>acfr:BuildingsAndImprovements</v>
+          </cell>
+        </row>
+        <row r="409">
+          <cell r="B409" t="str">
+            <v>Capital And Lateral Assets Receivable</v>
+          </cell>
+          <cell r="C409" t="str">
+            <v>acfr:CapitalAndLateralAssetsReceivable</v>
+          </cell>
+        </row>
+        <row r="410">
+          <cell r="B410" t="str">
+            <v>Capital Assets Being Depreciated Net</v>
+          </cell>
+          <cell r="C410" t="str">
+            <v>acfr:CapitalAssetsBeingDepreciatedNet</v>
+          </cell>
+        </row>
+        <row r="411">
+          <cell r="B411" t="str">
+            <v>Capital Assets Being Depreciated Net Of Accumulated Depreciation And Amortization Custom</v>
+          </cell>
+          <cell r="C411" t="str">
+            <v>acfr:CapitalAssetsBeingDepreciatedNetOfAccumulatedDepreciationAndAmortizationCustom</v>
+          </cell>
+        </row>
+        <row r="412">
+          <cell r="B412" t="str">
+            <v>Capital Assets Not Being Depreciated</v>
+          </cell>
+          <cell r="C412" t="str">
+            <v>acfr:CapitalAssetsNotBeingDepreciated</v>
+          </cell>
+        </row>
+        <row r="413">
+          <cell r="B413" t="str">
+            <v>Capital Assets Not Being Depreciated Custom</v>
+          </cell>
+          <cell r="C413" t="str">
+            <v>acfr:CapitalAssetsNotBeingDepreciatedCustom</v>
+          </cell>
+        </row>
+        <row r="414">
+          <cell r="B414" t="str">
+            <v>Certificates Of Deposit Noncurrent</v>
+          </cell>
+          <cell r="C414" t="str">
+            <v>acfr:CertificatesOfDepositNoncurrent</v>
+          </cell>
+        </row>
+        <row r="415">
+          <cell r="B415" t="str">
+            <v>Connection Fees Receivable Noncurrent</v>
+          </cell>
+          <cell r="C415" t="str">
+            <v>acfr:ConnectionFeesReceivableNoncurrent</v>
+          </cell>
+        </row>
+        <row r="416">
+          <cell r="B416" t="str">
+            <v>Construction In Progress</v>
+          </cell>
+          <cell r="C416" t="str">
+            <v>acfr:ConstructionInProgress</v>
+          </cell>
+        </row>
+        <row r="417">
+          <cell r="B417" t="str">
+            <v>Delinquent Taxes Receivable Noncurrent</v>
+          </cell>
+          <cell r="C417" t="str">
+            <v>acfr:DelinquentTaxesReceivableNoncurrent</v>
+          </cell>
+        </row>
+        <row r="418">
+          <cell r="B418" t="str">
+            <v>Derivative Instruments Assets Non Current</v>
+          </cell>
+          <cell r="C418" t="str">
+            <v>acfr:DerivativeInstrumentsAssetsNonCurrent</v>
+          </cell>
+        </row>
+        <row r="419">
+          <cell r="B419" t="str">
+            <v>Due From Component Unit Noncurrent</v>
+          </cell>
+          <cell r="C419" t="str">
+            <v>acfr:DueFromComponentUnitNoncurrent</v>
+          </cell>
+        </row>
+        <row r="420">
+          <cell r="B420" t="str">
+            <v>Due From Federal Government Noncurrent</v>
+          </cell>
+          <cell r="C420" t="str">
+            <v>acfr:DueFromFederalGovernmentNoncurrent</v>
+          </cell>
+        </row>
+        <row r="421">
+          <cell r="B421" t="str">
+            <v>Due From Other Governments Noncurrent</v>
+          </cell>
+          <cell r="C421" t="str">
+            <v>acfr:DueFromOtherGovernmentsNoncurrent</v>
+          </cell>
+        </row>
+        <row r="422">
+          <cell r="B422" t="str">
+            <v>Due From State Government Noncurrent</v>
+          </cell>
+          <cell r="C422" t="str">
+            <v>acfr:DueFromStateGovernmentNoncurrent</v>
+          </cell>
+        </row>
+        <row r="423">
+          <cell r="B423" t="str">
+            <v>Engineering Equipment</v>
+          </cell>
+          <cell r="C423" t="str">
+            <v>acfr:EngineeringEquipment</v>
+          </cell>
+        </row>
+        <row r="424">
+          <cell r="B424" t="str">
+            <v>Equipment</v>
+          </cell>
+          <cell r="C424" t="str">
+            <v>acfr:Equipment</v>
+          </cell>
+        </row>
+        <row r="425">
+          <cell r="B425" t="str">
+            <v>Grants And Contracts Receivable Net Of Allowance Noncurrent</v>
+          </cell>
+          <cell r="C425" t="str">
+            <v>acfr:GrantsAndContractsReceivableNetOfAllowanceNoncurrent</v>
+          </cell>
+        </row>
+        <row r="426">
+          <cell r="B426" t="str">
+            <v>Grants And Contracts Receivable Noncurrent</v>
+          </cell>
+          <cell r="C426" t="str">
+            <v>acfr:GrantsAndContractsReceivableNoncurrent</v>
+          </cell>
+        </row>
+        <row r="427">
+          <cell r="B427" t="str">
+            <v>Improvements Other Than Buildings</v>
+          </cell>
+          <cell r="C427" t="str">
+            <v>acfr:ImprovementsOtherThanBuildings</v>
+          </cell>
+        </row>
+        <row r="428">
+          <cell r="B428" t="str">
+            <v>Infrastructure</v>
+          </cell>
+          <cell r="C428" t="str">
+            <v>acfr:Infrastructure</v>
+          </cell>
+        </row>
+        <row r="429">
+          <cell r="B429" t="str">
+            <v>Installment Receivable Noncurrent</v>
+          </cell>
+          <cell r="C429" t="str">
+            <v>acfr:InstallmentReceivableNoncurrent</v>
+          </cell>
+        </row>
+        <row r="430">
+          <cell r="B430" t="str">
+            <v>Inventory Non Current</v>
+          </cell>
+          <cell r="C430" t="str">
+            <v>acfr:InventoryNonCurrent</v>
+          </cell>
+        </row>
+        <row r="431">
+          <cell r="B431" t="str">
+            <v>Investments Endowment</v>
+          </cell>
+          <cell r="C431" t="str">
+            <v>acfr:InvestmentsEndowment</v>
+          </cell>
+        </row>
+        <row r="432">
+          <cell r="B432" t="str">
+            <v>Investments In Associates</v>
+          </cell>
+          <cell r="C432" t="str">
+            <v>acfr:InvestmentsInAssociates</v>
+          </cell>
+        </row>
+        <row r="433">
+          <cell r="B433" t="str">
+            <v>Investments In Joint Ventures</v>
+          </cell>
+          <cell r="C433" t="str">
+            <v>acfr:InvestmentsInJointVentures</v>
+          </cell>
+        </row>
+        <row r="434">
+          <cell r="B434" t="str">
+            <v>Investments In Subsidiaries</v>
+          </cell>
+          <cell r="C434" t="str">
+            <v>acfr:InvestmentsInSubsidiaries</v>
+          </cell>
+        </row>
+        <row r="435">
+          <cell r="B435" t="str">
+            <v>Investments Of Surplus Funds</v>
+          </cell>
+          <cell r="C435" t="str">
+            <v>acfr:InvestmentsOfSurplusFunds</v>
+          </cell>
+        </row>
+        <row r="436">
+          <cell r="B436" t="str">
+            <v>Land</v>
+          </cell>
+          <cell r="C436" t="str">
+            <v>acfr:Land</v>
+          </cell>
+        </row>
+        <row r="437">
+          <cell r="B437" t="str">
+            <v>Land And Construction In Progress</v>
+          </cell>
+          <cell r="C437" t="str">
+            <v>acfr:LandAndConstructionInProgress</v>
+          </cell>
+        </row>
+        <row r="438">
+          <cell r="B438" t="str">
+            <v>Land And Improvements</v>
+          </cell>
+          <cell r="C438" t="str">
+            <v>acfr:LandAndImprovements</v>
+          </cell>
+        </row>
+        <row r="439">
+          <cell r="B439" t="str">
+            <v>Land Construction In Progress And Other Non Depreciable Assets</v>
+          </cell>
+          <cell r="C439" t="str">
+            <v>acfr:LandConstructionInProgressAndOtherNonDepreciableAssets</v>
+          </cell>
+        </row>
+        <row r="440">
+          <cell r="B440" t="str">
+            <v>Land Held For Resale</v>
+          </cell>
+          <cell r="C440" t="str">
+            <v>acfr:LandHeldForResale</v>
+          </cell>
+        </row>
+        <row r="441">
+          <cell r="B441" t="str">
+            <v>Land Improvements Depreciating</v>
+          </cell>
+          <cell r="C441" t="str">
+            <v>acfr:LandImprovementsDepreciating</v>
+          </cell>
+        </row>
+        <row r="442">
+          <cell r="B442" t="str">
+            <v>Land Improvements Non Depreciating</v>
+          </cell>
+          <cell r="C442" t="str">
+            <v>acfr:LandImprovementsNonDepreciating</v>
+          </cell>
+        </row>
+        <row r="443">
+          <cell r="B443" t="str">
+            <v>Leasehold Improvements</v>
+          </cell>
+          <cell r="C443" t="str">
+            <v>acfr:LeaseholdImprovements</v>
+          </cell>
+        </row>
+        <row r="444">
+          <cell r="B444" t="str">
+            <v>Leases Accumulated Amortization</v>
+          </cell>
+          <cell r="C444" t="str">
+            <v>acfr:LeasesAccumulatedAmortization</v>
+          </cell>
+        </row>
+        <row r="445">
+          <cell r="B445" t="str">
+            <v>Leases Receivable Net Noncurrent</v>
+          </cell>
+          <cell r="C445" t="str">
+            <v>acfr:LeasesReceivableNetNoncurrent</v>
+          </cell>
+        </row>
+        <row r="446">
+          <cell r="B446" t="str">
+            <v>Leases Receivable Noncurrent</v>
+          </cell>
+          <cell r="C446" t="str">
+            <v>acfr:LeasesReceivableNoncurrent</v>
+          </cell>
+        </row>
+        <row r="447">
+          <cell r="B447" t="str">
+            <v>Long Term Contracts Receivable</v>
+          </cell>
+          <cell r="C447" t="str">
+            <v>acfr:LongTermContractsReceivable</v>
+          </cell>
+        </row>
+        <row r="448">
+          <cell r="B448" t="str">
+            <v>Long Term Investments</v>
+          </cell>
+          <cell r="C448" t="str">
+            <v>acfr:LongTermInvestments</v>
+          </cell>
+        </row>
+        <row r="449">
+          <cell r="B449" t="str">
+            <v>Lottery Prize Reserves</v>
+          </cell>
+          <cell r="C449" t="str">
+            <v>acfr:LotteryPrizeReserves</v>
+          </cell>
+        </row>
+        <row r="450">
+          <cell r="B450" t="str">
+            <v>Machinery And Equipment</v>
+          </cell>
+          <cell r="C450" t="str">
+            <v>acfr:MachineryAndEquipment</v>
+          </cell>
+        </row>
+        <row r="451">
+          <cell r="B451" t="str">
+            <v>Mains And Connections</v>
+          </cell>
+          <cell r="C451" t="str">
+            <v>acfr:MainsAndConnections</v>
+          </cell>
+        </row>
+        <row r="452">
+          <cell r="B452" t="str">
+            <v>Meters</v>
+          </cell>
+          <cell r="C452" t="str">
+            <v>acfr:Meters</v>
+          </cell>
+        </row>
+        <row r="453">
+          <cell r="B453" t="str">
+            <v>Net OPEB Asset</v>
+          </cell>
+          <cell r="C453" t="str">
+            <v>acfr:NetOPEBAsset</v>
+          </cell>
+        </row>
+        <row r="454">
+          <cell r="B454" t="str">
+            <v>Net Pension Asset</v>
+          </cell>
+          <cell r="C454" t="str">
+            <v>acfr:NetPensionAsset</v>
+          </cell>
+        </row>
+        <row r="455">
+          <cell r="B455" t="str">
+            <v>Noncurrent Assets</v>
+          </cell>
+          <cell r="C455" t="str">
+            <v>acfr:NoncurrentAssets</v>
+          </cell>
+        </row>
+        <row r="456">
+          <cell r="B456" t="str">
+            <v>Noncurrent Assets Custom</v>
+          </cell>
+          <cell r="C456" t="str">
+            <v>acfr:NoncurrentAssetsCustom</v>
+          </cell>
+        </row>
+        <row r="457">
+          <cell r="B457" t="str">
+            <v>Noncurrent Liabilities Due Within One Year</v>
+          </cell>
+          <cell r="C457" t="str">
+            <v>acfr:NoncurrentLiabilitiesDueWithinOneYear</v>
+          </cell>
+        </row>
+        <row r="458">
+          <cell r="B458" t="str">
+            <v>Notes And Loans Receivable Net Noncurrent</v>
+          </cell>
+          <cell r="C458" t="str">
+            <v>acfr:NotesAndLoansReceivableNetNoncurrent</v>
+          </cell>
+        </row>
+        <row r="459">
+          <cell r="B459" t="str">
+            <v>Notes And Loans Receivable Noncurrent</v>
+          </cell>
+          <cell r="C459" t="str">
+            <v>acfr:NotesAndLoansReceivableNoncurrent</v>
+          </cell>
+        </row>
+        <row r="460">
+          <cell r="B460" t="str">
+            <v>Office Equipment And Furniture</v>
+          </cell>
+          <cell r="C460" t="str">
+            <v>acfr:OfficeEquipmentAndFurniture</v>
+          </cell>
+        </row>
+        <row r="461">
+          <cell r="B461" t="str">
+            <v>Other Assets</v>
+          </cell>
+          <cell r="C461" t="str">
+            <v>acfr:OtherAssets</v>
+          </cell>
+        </row>
+        <row r="462">
+          <cell r="B462" t="str">
+            <v>Other Capital Assets</v>
+          </cell>
+          <cell r="C462" t="str">
+            <v>acfr:OtherCapitalAssets</v>
+          </cell>
+        </row>
+        <row r="463">
+          <cell r="B463" t="str">
+            <v>Other Capital Assets Being Depreciated Net Of Accumulated Depreciation And Amortization</v>
+          </cell>
+          <cell r="C463" t="str">
+            <v>acfr:OtherCapitalAssetsBeingDepreciatedNetOfAccumulatedDepreciationAndAmortization</v>
+          </cell>
+        </row>
+        <row r="464">
+          <cell r="B464" t="str">
+            <v>Other Capital Assets Not Being Depreciated</v>
+          </cell>
+          <cell r="C464" t="str">
+            <v>acfr:OtherCapitalAssetsNotBeingDepreciated</v>
+          </cell>
+        </row>
+        <row r="465">
+          <cell r="B465" t="str">
+            <v>Other Investments</v>
+          </cell>
+          <cell r="C465" t="str">
+            <v>acfr:OtherInvestments</v>
+          </cell>
+        </row>
+        <row r="466">
+          <cell r="B466" t="str">
+            <v>Other Noncurrent Assets</v>
+          </cell>
+          <cell r="C466" t="str">
+            <v>acfr:OtherNoncurrentAssets</v>
+          </cell>
+        </row>
+        <row r="467">
+          <cell r="B467" t="str">
+            <v>Property Plant And Equipment Net Of Depreciation</v>
+          </cell>
+          <cell r="C467" t="str">
+            <v>acfr:PropertyPlantAndEquipmentNetOfDepreciation</v>
+          </cell>
+        </row>
+        <row r="468">
+          <cell r="B468" t="str">
+            <v>Regulatory Assets Non Current</v>
+          </cell>
+          <cell r="C468" t="str">
+            <v>acfr:RegulatoryAssetsNonCurrent</v>
+          </cell>
+        </row>
+        <row r="469">
+          <cell r="B469" t="str">
+            <v>Road Equipment</v>
+          </cell>
+          <cell r="C469" t="str">
+            <v>acfr:RoadEquipment</v>
+          </cell>
+        </row>
+        <row r="470">
+          <cell r="B470" t="str">
+            <v>Shop Equipment</v>
+          </cell>
+          <cell r="C470" t="str">
+            <v>acfr:ShopEquipment</v>
+          </cell>
+        </row>
+        <row r="471">
+          <cell r="B471" t="str">
+            <v>Special Assessment Receivable Noncurrent</v>
+          </cell>
+          <cell r="C471" t="str">
+            <v>acfr:SpecialAssessmentReceivableNoncurrent</v>
+          </cell>
+        </row>
+        <row r="472">
+          <cell r="B472" t="str">
+            <v>Unamortized Discounts On Bonds Sold By Local Unit</v>
+          </cell>
+          <cell r="C472" t="str">
+            <v>acfr:UnamortizedDiscountsOnBondsSoldByLocalUnit</v>
+          </cell>
+        </row>
+        <row r="473">
+          <cell r="B473" t="str">
+            <v>Utility</v>
+          </cell>
+          <cell r="C473" t="str">
+            <v>acfr:Utility</v>
+          </cell>
+        </row>
+        <row r="474">
+          <cell r="B474" t="str">
+            <v>Works Of Art</v>
+          </cell>
+          <cell r="C474" t="str">
+            <v>acfr:WorksOfArt</v>
+          </cell>
+        </row>
+        <row r="475">
+          <cell r="B475" t="str">
+            <v>Yard And Storage Equipment</v>
+          </cell>
+          <cell r="C475" t="str">
+            <v>acfr:YardAndStorageEquipment</v>
+          </cell>
+        </row>
+        <row r="476">
+          <cell r="B476" t="str">
+            <v>Accrued Expenses Noncurrent</v>
+          </cell>
+          <cell r="C476" t="str">
+            <v>acfr:AccruedExpensesNoncurrent</v>
+          </cell>
+        </row>
+        <row r="477">
+          <cell r="B477" t="str">
+            <v>Accrued Landfill Closure And Postclosure Care Costs</v>
+          </cell>
+          <cell r="C477" t="str">
+            <v>acfr:AccruedLandfillClosureAndPostclosureCareCosts</v>
+          </cell>
+        </row>
+        <row r="478">
+          <cell r="B478" t="str">
+            <v>Accrued Liabilities Noncurrent</v>
+          </cell>
+          <cell r="C478" t="str">
+            <v>acfr:AccruedLiabilitiesNoncurrent</v>
+          </cell>
+        </row>
+        <row r="479">
+          <cell r="B479" t="str">
+            <v>Accrued Unemployment</v>
+          </cell>
+          <cell r="C479" t="str">
+            <v>acfr:AccruedUnemployment</v>
+          </cell>
+        </row>
+        <row r="480">
+          <cell r="B480" t="str">
+            <v>Advances Noncurrent</v>
+          </cell>
+          <cell r="C480" t="str">
+            <v>acfr:AdvancesNoncurrent</v>
+          </cell>
+        </row>
+        <row r="481">
+          <cell r="B481" t="str">
+            <v>Advances To Component Unit</v>
+          </cell>
+          <cell r="C481" t="str">
+            <v>acfr:AdvancesToComponentUnit</v>
+          </cell>
+        </row>
+        <row r="482">
+          <cell r="B482" t="str">
+            <v>Advances To Other Funds</v>
+          </cell>
+          <cell r="C482" t="str">
+            <v>acfr:AdvancesToOtherFunds</v>
+          </cell>
+        </row>
+        <row r="483">
+          <cell r="B483" t="str">
+            <v>Advances To Other Governments</v>
+          </cell>
+          <cell r="C483" t="str">
+            <v>acfr:AdvancesToOtherGovernments</v>
+          </cell>
+        </row>
+        <row r="484">
+          <cell r="B484" t="str">
+            <v>Advances To Primary Government</v>
+          </cell>
+          <cell r="C484" t="str">
+            <v>acfr:AdvancesToPrimaryGovernment</v>
+          </cell>
+        </row>
+        <row r="485">
+          <cell r="B485" t="str">
+            <v>Asset Retirement Obligations Due In More Than One Year</v>
+          </cell>
+          <cell r="C485" t="str">
+            <v>acfr:AssetRetirementObligationsDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="486">
+          <cell r="B486" t="str">
+            <v>Bond Payable Due In More Than One Year</v>
+          </cell>
+          <cell r="C486" t="str">
+            <v>acfr:BondPayableDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="487">
+          <cell r="B487" t="str">
+            <v>Bond Premiums Payable Due In More Than One Year</v>
+          </cell>
+          <cell r="C487" t="str">
+            <v>acfr:BondPremiumsPayableDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="488">
+          <cell r="B488" t="str">
+            <v>Claims And Judgments Payable Noncurrent</v>
+          </cell>
+          <cell r="C488" t="str">
+            <v>acfr:ClaimsAndJudgmentsPayableNoncurrent</v>
+          </cell>
+        </row>
+        <row r="489">
+          <cell r="B489" t="str">
+            <v>Compensated Absences Payable Non Current</v>
+          </cell>
+          <cell r="C489" t="str">
+            <v>acfr:CompensatedAbsencesPayableNonCurrent</v>
+          </cell>
+        </row>
+        <row r="490">
+          <cell r="B490" t="str">
+            <v>Contracts Payable Due In More Than One Year</v>
+          </cell>
+          <cell r="C490" t="str">
+            <v>acfr:ContractsPayableDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="491">
+          <cell r="B491" t="str">
+            <v>Customer Deposits Noncurrent</v>
+          </cell>
+          <cell r="C491" t="str">
+            <v>acfr:CustomerDepositsNoncurrent</v>
+          </cell>
+        </row>
+        <row r="492">
+          <cell r="B492" t="str">
+            <v>Deferred Revenue</v>
+          </cell>
+          <cell r="C492" t="str">
+            <v>acfr:DeferredRevenue</v>
+          </cell>
+        </row>
+        <row r="493">
+          <cell r="B493" t="str">
+            <v>Derivative Instruments Liability Non Current</v>
+          </cell>
+          <cell r="C493" t="str">
+            <v>acfr:DerivativeInstrumentsLiabilityNonCurrent</v>
+          </cell>
+        </row>
+        <row r="494">
+          <cell r="B494" t="str">
+            <v>Due To State Due In More Than One Year</v>
+          </cell>
+          <cell r="C494" t="str">
+            <v>acfr:DueToStateDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="495">
+          <cell r="B495" t="str">
+            <v>Environmental And Disposal Liabilities</v>
+          </cell>
+          <cell r="C495" t="str">
+            <v>acfr:EnvironmentalAndDisposalLiabilities</v>
+          </cell>
+        </row>
+        <row r="496">
+          <cell r="B496" t="str">
+            <v>Estimated Liability For Landfill Post Closure Care Costs</v>
+          </cell>
+          <cell r="C496" t="str">
+            <v>acfr:EstimatedLiabilityForLandfillPostClosureCareCosts</v>
+          </cell>
+        </row>
+        <row r="497">
+          <cell r="B497" t="str">
+            <v>General Obligation Bonds Payable Due In More Than One Year</v>
+          </cell>
+          <cell r="C497" t="str">
+            <v>acfr:GeneralObligationBondsPayableDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="498">
+          <cell r="B498" t="str">
+            <v>Installment Debt Payable Due In More Than One Year</v>
+          </cell>
+          <cell r="C498" t="str">
+            <v>acfr:InstallmentDebtPayableDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="499">
+          <cell r="B499" t="str">
+            <v>Intergovernmental Agreement Payable Due In More Than One Year</v>
+          </cell>
+          <cell r="C499" t="str">
+            <v>acfr:IntergovernmentalAgreementPayableDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="500">
+          <cell r="B500" t="str">
+            <v>Leases Payable Due In More Than One Year</v>
+          </cell>
+          <cell r="C500" t="str">
+            <v>acfr:LeasesPayableDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="501">
+          <cell r="B501" t="str">
+            <v>Limited Tax Bonds Principal Due In More Than One Year</v>
+          </cell>
+          <cell r="C501" t="str">
+            <v>acfr:LimitedTaxBondsPrincipalDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="502">
+          <cell r="B502" t="str">
+            <v>Loan Guarantee Liabilities</v>
+          </cell>
+          <cell r="C502" t="str">
+            <v>acfr:LoanGuaranteeLiabilities</v>
+          </cell>
+        </row>
+        <row r="503">
+          <cell r="B503" t="str">
+            <v>Loans Payable Due In More Than One Year</v>
+          </cell>
+          <cell r="C503" t="str">
+            <v>acfr:LoansPayableDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="504">
+          <cell r="B504" t="str">
+            <v>Long Term Debt Due In More Than One Year</v>
+          </cell>
+          <cell r="C504" t="str">
+            <v>acfr:LongTermDebtDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="505">
+          <cell r="B505" t="str">
+            <v>Lottery Prize Liability Noncurrent</v>
+          </cell>
+          <cell r="C505" t="str">
+            <v>acfr:LotteryPrizeLiabilityNoncurrent</v>
+          </cell>
+        </row>
+        <row r="506">
+          <cell r="B506" t="str">
+            <v>Net OPEB Liability</v>
+          </cell>
+          <cell r="C506" t="str">
+            <v>acfr:NetOPEBLiability</v>
+          </cell>
+        </row>
+        <row r="507">
+          <cell r="B507" t="str">
+            <v>Net Pension Liability</v>
+          </cell>
+          <cell r="C507" t="str">
+            <v>acfr:NetPensionLiability</v>
+          </cell>
+        </row>
+        <row r="508">
+          <cell r="B508" t="str">
+            <v>Noncurrent Liabilities</v>
+          </cell>
+          <cell r="C508" t="str">
+            <v>acfr:NoncurrentLiabilities</v>
+          </cell>
+        </row>
+        <row r="509">
+          <cell r="B509" t="str">
+            <v>Noncurrent Liabilities Custom</v>
+          </cell>
+          <cell r="C509" t="str">
+            <v>acfr:NoncurrentLiabilitiesCustom</v>
+          </cell>
+        </row>
+        <row r="510">
+          <cell r="B510" t="str">
+            <v>Noncurrent Portion Of Uninsured Claim Liability</v>
+          </cell>
+          <cell r="C510" t="str">
+            <v>acfr:NoncurrentPortionOfUninsuredClaimLiability</v>
+          </cell>
+        </row>
+        <row r="511">
+          <cell r="B511" t="str">
+            <v>Notes Payable Due In More Than One Year</v>
+          </cell>
+          <cell r="C511" t="str">
+            <v>acfr:NotesPayableDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="512">
+          <cell r="B512" t="str">
+            <v>Other Noncurrent Liabilities</v>
+          </cell>
+          <cell r="C512" t="str">
+            <v>acfr:OtherNoncurrentLiabilities</v>
+          </cell>
+        </row>
+        <row r="513">
+          <cell r="B513" t="str">
+            <v>Performance Bonds Payable Due In More Than One Year</v>
+          </cell>
+          <cell r="C513" t="str">
+            <v>acfr:PerformanceBondsPayableDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="514">
+          <cell r="B514" t="str">
+            <v>Pollution Remediation Obligation</v>
+          </cell>
+          <cell r="C514" t="str">
+            <v>acfr:PollutionRemediationObligation</v>
+          </cell>
+        </row>
+        <row r="515">
+          <cell r="B515" t="str">
+            <v>Regulatory Liability Non Current</v>
+          </cell>
+          <cell r="C515" t="str">
+            <v>acfr:RegulatoryLiabilityNonCurrent</v>
+          </cell>
+        </row>
+        <row r="516">
+          <cell r="B516" t="str">
+            <v>Retainage Payable Noncurrent</v>
+          </cell>
+          <cell r="C516" t="str">
+            <v>acfr:RetainagePayableNoncurrent</v>
+          </cell>
+        </row>
+        <row r="517">
+          <cell r="B517" t="str">
+            <v>Revenue Bonds Payable Due In More Than One Year</v>
+          </cell>
+          <cell r="C517" t="str">
+            <v>acfr:RevenueBondsPayableDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="518">
+          <cell r="B518" t="str">
+            <v>Self Insurance Liabilities Net Of Current Portion</v>
+          </cell>
+          <cell r="C518" t="str">
+            <v>acfr:SelfInsuranceLiabilitiesNetOfCurrentPortion</v>
+          </cell>
+        </row>
+        <row r="519">
+          <cell r="B519" t="str">
+            <v>Unamortized Premium On Bonds Due In More Than One Year</v>
+          </cell>
+          <cell r="C519" t="str">
+            <v>acfr:UnamortizedPremiumOnBondsDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="520">
+          <cell r="B520" t="str">
+            <v>Unearned Revenue Noncurrent</v>
+          </cell>
+          <cell r="C520" t="str">
+            <v>acfr:UnearnedRevenueNoncurrent</v>
+          </cell>
+        </row>
+        <row r="521">
+          <cell r="B521" t="str">
+            <v>Unlimited Tax Bonds Principal Due In More Than One Year</v>
+          </cell>
+          <cell r="C521" t="str">
+            <v>acfr:UnlimitedTaxBondsPrincipalDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+        <row r="522">
+          <cell r="B522" t="str">
+            <v>Vested Employee Benefits Payable Due In More Than One Year</v>
+          </cell>
+          <cell r="C522" t="str">
+            <v>acfr:VestedEmployeeBenefitsPayableDueInMoreThanOneYear</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="4">
+          <cell r="C4">
+            <v>44742</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -16223,7 +20658,7 @@
       <c r="B4" s="40" t="s">
         <v>1090</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="92" t="s">
         <v>1723</v>
       </c>
     </row>
@@ -16313,7 +20748,7 @@
       <c r="A4" s="48" t="s">
         <v>1076</v>
       </c>
-      <c r="B4" s="96" t="str">
+      <c r="B4" s="93" t="str">
         <f>'Master Info'!C4</f>
         <v>June 30, 2022</v>
       </c>
@@ -17736,18 +22171,18 @@
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <conditionalFormatting sqref="C101:F101">
-    <cfRule type="cellIs" dxfId="37" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="18" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="20" operator="notEqual">
+    <cfRule type="cellIs" dxfId="33" priority="20" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F101 C23 C37 C50 C65 C76:C77 C89 C101">
-    <cfRule type="expression" dxfId="34" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="2" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17789,8 +22224,8 @@
   </sheetPr>
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -19624,103 +24059,88 @@
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <conditionalFormatting sqref="C23 C37">
-    <cfRule type="expression" dxfId="33" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="12" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C50 D73:H76 J73:J76 I73 I77:I98">
-    <cfRule type="expression" dxfId="32" priority="52" stopIfTrue="1">
+  <conditionalFormatting sqref="C50 D73:H76 J73:J76">
+    <cfRule type="expression" dxfId="30" priority="52" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:J63">
-    <cfRule type="expression" dxfId="31" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="37" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:J71">
-    <cfRule type="expression" dxfId="30" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="14" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F6">
-    <cfRule type="expression" dxfId="29" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="11" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:F62">
-    <cfRule type="expression" dxfId="28" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="40" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:G51 D52:F52 D53:G53">
-    <cfRule type="expression" dxfId="27" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="49" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:I37">
-    <cfRule type="expression" dxfId="26" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="5" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64:J64 D65:H69 J65:J69">
-    <cfRule type="expression" dxfId="25" priority="19" stopIfTrue="1">
+  <conditionalFormatting sqref="D64:J69">
+    <cfRule type="expression" dxfId="23" priority="1" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H50">
-    <cfRule type="expression" dxfId="24" priority="47" stopIfTrue="1">
-      <formula>H$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52:H53">
-    <cfRule type="expression" dxfId="23" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="47" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:I38">
-    <cfRule type="expression" dxfId="22" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="10" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:J6">
-    <cfRule type="expression" dxfId="21" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="9" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:I40 I50:I51">
-    <cfRule type="expression" dxfId="20" priority="42" stopIfTrue="1">
+  <conditionalFormatting sqref="H52:J53">
+    <cfRule type="expression" dxfId="19" priority="26" stopIfTrue="1">
+      <formula>H$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:I51">
+    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
       <formula>I$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:J53 J54:J62">
-    <cfRule type="expression" dxfId="19" priority="26" stopIfTrue="1">
+  <conditionalFormatting sqref="I73:I98">
+    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
+      <formula>I$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54:J62">
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
       <formula>I$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:J50">
-    <cfRule type="expression" dxfId="18" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="7" stopIfTrue="1">
       <formula>J$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I74:I76">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
-      <formula>I$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:I49">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>I$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54:I62">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>I$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I65:I69">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>I$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -19740,6 +24160,1542 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235DEB01-2F3F-8848-BA07-DC1A4F47AF07}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:I70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" style="50" customWidth="1"/>
+    <col min="2" max="2" width="41.5" style="50" customWidth="1"/>
+    <col min="3" max="3" width="15" style="50" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="50" customWidth="1"/>
+    <col min="5" max="6" width="15.33203125" style="50" customWidth="1"/>
+    <col min="7" max="7" width="16" style="50" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="50" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="50" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="50"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16">
+      <c r="A1" s="45" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B1" s="97" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+    </row>
+    <row r="2" spans="1:9" ht="16">
+      <c r="A2" s="46" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+    </row>
+    <row r="3" spans="1:9" ht="34">
+      <c r="A3" s="46" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+    </row>
+    <row r="4" spans="1:9" ht="17" thickBot="1">
+      <c r="A4" s="48" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B4" s="59" t="str">
+        <f>_xlfn.CONCAT("For the year ended ", TEXT('[2]Master Info'!C4, "mmmm dd, yyyy"))</f>
+        <v>For the year ended June 30, 2022</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+    </row>
+    <row r="5" spans="1:9" s="52" customFormat="1" ht="11" customHeight="1">
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+    </row>
+    <row r="6" spans="1:9" s="99" customFormat="1" ht="28" customHeight="1">
+      <c r="C6" s="100" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D6" s="101" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E6" s="101" t="s">
+        <v>1761</v>
+      </c>
+      <c r="F6" s="101" t="s">
+        <v>1761</v>
+      </c>
+      <c r="G6" s="101" t="s">
+        <v>1783</v>
+      </c>
+      <c r="H6" s="101" t="s">
+        <v>1784</v>
+      </c>
+      <c r="I6" s="102"/>
+    </row>
+    <row r="7" spans="1:9" ht="48">
+      <c r="A7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="103" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D7" s="108" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E7" s="108" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F7" s="108" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G7" s="108" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H7" s="108" t="s">
+        <v>1766</v>
+      </c>
+      <c r="I7" s="109" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="13" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" ht="15">
+      <c r="A9" s="8" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C9" s="19">
+        <v>2846766</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I9" s="60">
+        <f>SUM(C9:H9)</f>
+        <v>2846766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15">
+      <c r="A10" s="8" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E10" s="20">
+        <v>111400</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I10" s="60">
+        <f>SUM(C10:H10)</f>
+        <v>111400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15">
+      <c r="A11" s="8" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D11" s="20">
+        <v>1204882</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H11" s="20">
+        <v>442230</v>
+      </c>
+      <c r="I11" s="60">
+        <f>SUM(C11:H11)</f>
+        <v>1647112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="8" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C12" s="19">
+        <v>563908</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I12" s="60">
+        <f>SUM(C12:H12)</f>
+        <v>563908</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" s="8" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C13" s="19">
+        <v>162881</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I13" s="60">
+        <f>SUM(C13:H13)</f>
+        <v>162881</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" s="8" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C14" s="19">
+        <v>114026</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H14" s="20">
+        <v>140326</v>
+      </c>
+      <c r="I14" s="60">
+        <f>SUM(C14:H14)</f>
+        <v>254352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" s="8" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C15" s="19">
+        <v>151409</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I15" s="60">
+        <f>SUM(C15:H15)</f>
+        <v>151409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" s="8" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C16" s="19">
+        <v>135233</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F16" s="20">
+        <v>1467024</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H16" s="20">
+        <v>1170041</v>
+      </c>
+      <c r="I16" s="60">
+        <f>SUM(C16:H16)</f>
+        <v>2772298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" s="8" t="str">
+        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="60">
+        <f>SUM(C17:H17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" hidden="1">
+      <c r="A18" s="8" t="str">
+        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="60">
+        <f>SUM(C18:H18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" hidden="1">
+      <c r="A19" s="8" t="str">
+        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B19,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="60">
+        <f>SUM(C19:H19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" hidden="1">
+      <c r="A20" s="8" t="str">
+        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="60">
+        <f>SUM(C20:H20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" hidden="1">
+      <c r="A21" s="8" t="str">
+        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="60">
+        <f>SUM(C21:H21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15">
+      <c r="A22" s="8" t="str">
+        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="60">
+        <f>SUM(C22:H22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15">
+      <c r="A23" s="8" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C23" s="26">
+        <f t="shared" ref="C23:I23" si="0">IF(C7="","",SUM(C9:C22))</f>
+        <v>3974223</v>
+      </c>
+      <c r="D23" s="26">
+        <f t="shared" si="0"/>
+        <v>1204882</v>
+      </c>
+      <c r="E23" s="26">
+        <f t="shared" si="0"/>
+        <v>111400</v>
+      </c>
+      <c r="F23" s="26">
+        <f t="shared" si="0"/>
+        <v>1467024</v>
+      </c>
+      <c r="G23" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="26">
+        <f t="shared" si="0"/>
+        <v>1752597</v>
+      </c>
+      <c r="I23" s="26">
+        <f t="shared" si="0"/>
+        <v>8510126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15">
+      <c r="A25" s="7"/>
+      <c r="B25" s="13" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="1:9" ht="15">
+      <c r="A26" s="8" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C26" s="19">
+        <v>2570417</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H26" s="20">
+        <v>126650</v>
+      </c>
+      <c r="I26" s="60">
+        <f>SUM(C26:H26)</f>
+        <v>2697067</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15">
+      <c r="A27" s="8" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C27" s="19">
+        <v>2684319</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H27" s="20">
+        <v>130541</v>
+      </c>
+      <c r="I27" s="60">
+        <f>SUM(C27:H27)</f>
+        <v>2814860</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15">
+      <c r="A28" s="8" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C28" s="19">
+        <v>333423</v>
+      </c>
+      <c r="D28" s="20">
+        <v>1424676</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H28" s="20">
+        <v>383356</v>
+      </c>
+      <c r="I28" s="60">
+        <f>SUM(C28:H28)</f>
+        <v>2141455</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15">
+      <c r="A29" s="8" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C29" s="19">
+        <v>299175</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I29" s="60">
+        <f>SUM(C29:H29)</f>
+        <v>299175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15">
+      <c r="A30" s="8" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C30" s="19">
+        <v>336592</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H30" s="20">
+        <v>140808</v>
+      </c>
+      <c r="I30" s="60">
+        <f>SUM(C30:H30)</f>
+        <v>477400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15">
+      <c r="A31" s="8" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C31" s="19">
+        <v>22168</v>
+      </c>
+      <c r="D31" s="20">
+        <v>161367</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G31" s="20">
+        <v>869925</v>
+      </c>
+      <c r="H31" s="20">
+        <v>48889</v>
+      </c>
+      <c r="I31" s="60">
+        <f>SUM(C31:H31)</f>
+        <v>1102349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15">
+      <c r="A32" s="8" t="str">
+        <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B32,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="60">
+        <f>SUM(C32:H32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15">
+      <c r="A33" s="8" t="str">
+        <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B33,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="60">
+        <f>SUM(C33:H33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15">
+      <c r="A34" s="8" t="str">
+        <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B34,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="60">
+        <f>SUM(C34:H34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15">
+      <c r="A35" s="8" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C35" s="25">
+        <f>IF(C7="","",SUM(C26:C34))</f>
+        <v>6246094</v>
+      </c>
+      <c r="D35" s="25">
+        <f>IF(D7="","",SUM(D26:D34))</f>
+        <v>1586043</v>
+      </c>
+      <c r="E35" s="25">
+        <f>IF(E7="","",SUM(E26:E34))</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="25">
+        <f>IF(F7="","",SUM(F26:F34))</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="25">
+        <f>IF(G7="","",SUM(G26:G34))</f>
+        <v>869925</v>
+      </c>
+      <c r="H35" s="25">
+        <f>IF(H7="","",SUM(H26:H34))</f>
+        <v>830244</v>
+      </c>
+      <c r="I35" s="104">
+        <f>SUM(C35:H35)</f>
+        <v>9532306</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="32">
+      <c r="A36" s="105" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B36" s="106" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C36" s="28">
+        <f>C23-C35</f>
+        <v>-2271871</v>
+      </c>
+      <c r="D36" s="28">
+        <f>D23-D35</f>
+        <v>-381161</v>
+      </c>
+      <c r="E36" s="28">
+        <f>E23-E35</f>
+        <v>111400</v>
+      </c>
+      <c r="F36" s="28">
+        <f>F23-F35</f>
+        <v>1467024</v>
+      </c>
+      <c r="G36" s="28">
+        <f>G23-G35</f>
+        <v>-869925</v>
+      </c>
+      <c r="H36" s="28">
+        <f>H23-H35</f>
+        <v>922353</v>
+      </c>
+      <c r="I36" s="107">
+        <f>SUM(C36:H36)</f>
+        <v>-1022180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+    </row>
+    <row r="38" spans="1:9" ht="15">
+      <c r="A38" s="7"/>
+      <c r="B38" s="13" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+    </row>
+    <row r="39" spans="1:9" ht="15">
+      <c r="A39" s="8" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E39" s="19">
+        <v>58091</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I39" s="60">
+        <f>SUM(C39:H39)</f>
+        <v>58091</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15">
+      <c r="A40" s="8" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C40" s="20">
+        <v>1597681</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G40" s="19">
+        <v>1632609</v>
+      </c>
+      <c r="H40" s="19">
+        <v>21214</v>
+      </c>
+      <c r="I40" s="60">
+        <f>SUM(C40:H40)</f>
+        <v>3251504</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15">
+      <c r="A41" s="8" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D41" s="20">
+        <v>-41809</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F41" s="20">
+        <v>-1467024</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H41" s="20">
+        <v>-1742671</v>
+      </c>
+      <c r="I41" s="60">
+        <f>SUM(C41:H41)</f>
+        <v>-3251504</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="16" customHeight="1">
+      <c r="A42" s="8" t="str">
+        <f>IF(B42="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B42,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="60">
+        <f>SUM(C42:H42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="16" customHeight="1">
+      <c r="A43" s="8" t="str">
+        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="60">
+        <f>SUM(C43:H43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="16" customHeight="1">
+      <c r="A44" s="8" t="str">
+        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B44,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="60">
+        <f>SUM(C44:H44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16" hidden="1" customHeight="1">
+      <c r="A45" s="8" t="str">
+        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B45,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="60">
+        <f>SUM(C45:H45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="16" hidden="1" customHeight="1">
+      <c r="A46" s="8" t="str">
+        <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B46,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B46" s="18"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="60">
+        <f>SUM(C46:H46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15" hidden="1">
+      <c r="A47" s="8" t="str">
+        <f>IF(B47="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B47,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="60">
+        <f>SUM(C47:H47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15" hidden="1">
+      <c r="A48" s="8" t="str">
+        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B48,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="60">
+        <f>SUM(C48:H48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15" hidden="1">
+      <c r="A49" s="8" t="str">
+        <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B49,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="60">
+        <f>SUM(C49:H49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15">
+      <c r="A50" s="8" t="str">
+        <f>IF(B50="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B50,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="60">
+        <f>SUM(C50:H50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15">
+      <c r="A51" s="8" t="str">
+        <f>IF(B51="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B51,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="60">
+        <f>SUM(C51:H51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15">
+      <c r="A52" s="8" t="str">
+        <f>IF(B52="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B52,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="60">
+        <f>SUM(C52:H52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15">
+      <c r="A53" s="8" t="str">
+        <f>IF(B53="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B53,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B53" s="18"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="60">
+        <f>SUM(C53:H53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15" hidden="1">
+      <c r="A54" s="8" t="str">
+        <f>IF(B54="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B54,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B54" s="18"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="60">
+        <f>SUM(C54:H54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15" hidden="1">
+      <c r="A55" s="8" t="str">
+        <f>IF(B55="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B55,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B55" s="18"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="60">
+        <f>SUM(C55:H55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15" hidden="1">
+      <c r="A56" s="8" t="str">
+        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="60">
+        <f>SUM(C56:H56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15" hidden="1">
+      <c r="A57" s="8" t="str">
+        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="60">
+        <f>SUM(C57:H57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15" hidden="1">
+      <c r="A58" s="8" t="str">
+        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="60">
+        <f>SUM(C58:H58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15">
+      <c r="A59" s="9" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C59" s="25">
+        <f>IF(C6="","",SUM(C39:C58))</f>
+        <v>1597681</v>
+      </c>
+      <c r="D59" s="25">
+        <f>IF(D6="","",SUM(D39:D58))</f>
+        <v>-41809</v>
+      </c>
+      <c r="E59" s="25">
+        <f>IF(E6="","",SUM(E39:E58))</f>
+        <v>58091</v>
+      </c>
+      <c r="F59" s="25">
+        <f>IF(F6="","",SUM(F39:F58))</f>
+        <v>-1467024</v>
+      </c>
+      <c r="G59" s="25">
+        <f>IF(G6="","",SUM(G39:G58))</f>
+        <v>1632609</v>
+      </c>
+      <c r="H59" s="25">
+        <f>IF(H6="","",SUM(H39:H58))</f>
+        <v>-1721457</v>
+      </c>
+      <c r="I59" s="25">
+        <f t="shared" ref="I59" si="1">IF(I30="","",SUM(I39:I58))</f>
+        <v>58091</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+    </row>
+    <row r="61" spans="1:9" ht="15">
+      <c r="A61" s="7"/>
+      <c r="B61" s="13" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+    </row>
+    <row r="62" spans="1:9" ht="15">
+      <c r="A62" s="8" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C62" s="19">
+        <v>6163893</v>
+      </c>
+      <c r="D62" s="20">
+        <v>1085886</v>
+      </c>
+      <c r="E62" s="20">
+        <v>5430243</v>
+      </c>
+      <c r="F62" s="20">
+        <v>0</v>
+      </c>
+      <c r="G62" s="20">
+        <v>1924746</v>
+      </c>
+      <c r="H62" s="20">
+        <v>2747824</v>
+      </c>
+      <c r="I62" s="60">
+        <f>SUM(C62:H62)</f>
+        <v>17352592</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15">
+      <c r="A63" s="8" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C63" s="19">
+        <v>6413357</v>
+      </c>
+      <c r="D63" s="20">
+        <v>638533</v>
+      </c>
+      <c r="E63" s="20">
+        <v>5617695</v>
+      </c>
+      <c r="F63" s="20">
+        <v>0</v>
+      </c>
+      <c r="G63" s="20">
+        <v>2606444</v>
+      </c>
+      <c r="H63" s="20">
+        <v>1896878</v>
+      </c>
+      <c r="I63" s="60">
+        <f>SUM(C63:H63)</f>
+        <v>17172907</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15" hidden="1">
+      <c r="A64" s="8" t="str">
+        <f>IF(B64="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B64,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="60">
+        <f>SUM(C64:H64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15" hidden="1">
+      <c r="A65" s="8" t="str">
+        <f>IF(B65="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B65,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="60">
+        <f>SUM(C65:H65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15" hidden="1">
+      <c r="A66" s="8" t="str">
+        <f>IF(B66="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B66,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="60">
+        <f>SUM(C66:H66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15" hidden="1">
+      <c r="A67" s="8" t="str">
+        <f>IF(B67="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B67,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B67" s="18"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="60">
+        <f>SUM(C67:H67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15" hidden="1">
+      <c r="A68" s="8" t="str">
+        <f>IF(B68="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B68,'[2]Label Dropdowns'!$B$2:$B$522,'[2]Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B68" s="18"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="60">
+        <f>SUM(C68:H68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15">
+      <c r="A69" s="9" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C69" s="26">
+        <f>C63-C62</f>
+        <v>249464</v>
+      </c>
+      <c r="D69" s="26">
+        <f t="shared" ref="D69:I69" si="2">D63-D62</f>
+        <v>-447353</v>
+      </c>
+      <c r="E69" s="26">
+        <f t="shared" si="2"/>
+        <v>187452</v>
+      </c>
+      <c r="F69" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="26">
+        <f t="shared" si="2"/>
+        <v>681698</v>
+      </c>
+      <c r="H69" s="26">
+        <f t="shared" si="2"/>
+        <v>-850946</v>
+      </c>
+      <c r="I69" s="26">
+        <f t="shared" si="2"/>
+        <v>-179685</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15">
+      <c r="A70" s="7"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
+  <conditionalFormatting sqref="C23 C35 C59 C69 D7:H7 D8:I23 C36:I36 D37:I70 D25:I35">
+    <cfRule type="expression" dxfId="14" priority="1" stopIfTrue="1">
+      <formula>C$7=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62:B68" xr:uid="{D471B137-AFDF-6744-AE30-0D28B9FACE69}">
+      <formula1>deferred_inflows</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:H6" xr:uid="{AB8BBC2F-18AF-4140-AE43-F5AFEF2FE864}">
+      <formula1>"Select fund type or delete column, General Fund, Special Revenue Fund, Capital Project, Debt Service, Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{2697F48C-B82B-7E4E-87D5-9FF694587A5A}">
+      <formula1>"General Fund, Special Revenue Fund, Capital Project, Debt Service, Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26:B34" xr:uid="{48E29E25-2013-ED49-A407-7633D20AEBBD}">
+      <formula1>deferred_outflows</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39:B49" xr:uid="{6E288947-970A-CB4C-B9B0-936A964C964F}">
+      <formula1>current_liabilities</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50:B58" xr:uid="{F206A68A-F189-8E48-89E2-7BF9555205B5}">
+      <formula1>noncurrent_liabilities</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B22" xr:uid="{D602207C-00AD-4F47-A403-B4A283FD84D3}">
+      <formula1>current_assets</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788A9A8B-CD70-4E43-B731-FB7C17794303}">
   <dimension ref="A1:E102"/>
   <sheetViews>
@@ -20035,12 +25991,12 @@
     </row>
     <row r="25" spans="1:5" ht="15">
       <c r="A25" s="7"/>
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="94"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="96"/>
     </row>
     <row r="26" spans="1:5" ht="15">
       <c r="A26" s="8" t="str">
@@ -21057,31 +27013,31 @@
     <mergeCell ref="B25:E25"/>
   </mergeCells>
   <conditionalFormatting sqref="C102">
-    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="equal">
       <formula>$C$102</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="notEqual">
       <formula>$C$102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102:E102">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule type="cellIs" dxfId="14" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="equal">
       <formula>$D$102</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="notEqual">
       <formula>$D$102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="12" priority="6" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="notEqual">
       <formula>$E$102</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>$E$102</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21112,7 +27068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A27AB5-4C32-7545-9FCB-B1E2421FAC8B}">
   <dimension ref="A1:E101"/>
   <sheetViews>
@@ -22415,31 +28371,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C101">
-    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
       <formula>$C$101</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="5" priority="8" stopIfTrue="1" operator="notEqual">
       <formula>$C$101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101:E101">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D101">
-    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
       <formula>$D$101</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="notEqual">
       <formula>$D$101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="notEqual">
       <formula>$E$101</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
       <formula>$E$101</formula>
     </cfRule>
   </conditionalFormatting>

--- a/static/input_files/samples/Clayton.xlsx
+++ b/static/input_files/samples/Clayton.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/static/input_files/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C92D96-0408-804B-AF46-9190415943FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A179509-6504-9544-B457-F44DF4903459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34700" yWindow="-8560" windowWidth="28800" windowHeight="17500" tabRatio="834" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="834" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label Dropdowns" sheetId="8" r:id="rId1"/>
@@ -22224,8 +22224,8 @@
   </sheetPr>
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -24166,8 +24166,8 @@
   </sheetPr>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>

--- a/static/input_files/samples/Clayton.xlsx
+++ b/static/input_files/samples/Clayton.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/static/input_files/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A179509-6504-9544-B457-F44DF4903459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43BFCAE-1716-6B46-BDBE-939C081525A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="834" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34120" yWindow="-7160" windowWidth="28800" windowHeight="17500" tabRatio="834" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label Dropdowns" sheetId="8" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="1786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="1788">
   <si>
     <t>Statement of Net Position</t>
   </si>
@@ -4116,1140 +4116,336 @@
     <t>Grants and Entitlements Not Restricted for Specific Programs</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForGeneralGovernmentServicesLegislativeAndExecutive</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForGeneralGovernmentServicesLegislativeAndExecutive</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForLegislativeAndExecutive</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForGeneralGovernmentServicesJudicial</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForGeneralGovernmentServicesJudicial</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForJudicial</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForGeneralGovernmentServicesAdministration</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForGeneralGovernmentServicesAdministration</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForGovernmentAdministration</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForGeneralGovernmentServicesOther</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForGeneralGovernmentServicesOther</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueGeneralGovernmentServicesOther</t>
   </si>
   <si>
-    <t>acfr:RevenueForGeneralGovernment</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForGeneralGovernmentServices</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueGeneralGovernmentServices</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForSecurityOfPersonsAndPropertyServices</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForSecurityOfPersonsAndPropertyServices</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForSecurityOfPersonsAndPropertyServices</t>
   </si>
   <si>
-    <t>acfr:RevenueForCourtEquity</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForCourtOfEquity</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueCourtOfEquity</t>
   </si>
   <si>
-    <t>acfr:RevenueForDrugCaseInformationManagement</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForDrugCaseInformationManagement</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueDrugCaseInformationManagement</t>
   </si>
   <si>
-    <t>acfr:RevenueForDrunkDrivingCaseFlowAssistance</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForDrunkDrivingCaseFlowAssistance</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForDrunkDrivingCaseFlowAssistance</t>
   </si>
   <si>
-    <t>acfr:RevenueForCrimeVictimsRights</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForCrimeVictimsRights</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueCrimeVictimsRights</t>
   </si>
   <si>
-    <t>acfr:RevenueForIndigentDefense</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForIndigentDefense</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueIndigentDefense</t>
   </si>
   <si>
-    <t>acfr:RevenueForPublicSafetyServices</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForPublicSafetyServices</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForPublicSafetyServices</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForHighwaysAndStreets</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForStreetsAndHighways</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForHighwaysAndStreets</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForPublicHealthAndSanitationServices</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForPublicHealthAndSanitationServices</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForPublicHealthAndSanitationServices</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForMedicalCareFacility</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForMedicalCareFacility</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForMedicalCareFacility</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForAmbulance</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForAmbulance</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForAmbulance</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForStateHealthBenefit</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForStateHealthBenefitPlan</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueHealth</t>
   </si>
   <si>
-    <t>acfr:RevenueForHealth</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForWelfare</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueStateHealthBenefitPlan</t>
   </si>
   <si>
-    <t>acfr:RevenueForWelfare</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForHealth</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForWelfare</t>
   </si>
   <si>
-    <t>acfr:RevenueForHealthAndWelfare</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForHealthAndWelfare</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueHealthAndWelfare</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForElectricityAndPowerServices</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForElectricityAndPowerServices</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForElectricityAndPowerServices</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForPublicUtilities</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForPublicUtilities</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenuePublicUtilities</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForCommunityServices</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForCommunityServices</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForCommunityServices</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForCommunityDevelopment</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForCommunityDevelopment</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForCommunityDevelopment</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForEconomicDevelopmentServices</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForEconomicDevelopmentServices</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForEconomicDevelopmentServices</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForOtherDevelopmentServices</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForOtherDevelopmentServices</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForOtherDevelopmentServices</t>
   </si>
   <si>
-    <t>acfr:RevenueForCommunityDevelopmentBlockGrants</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForCommunityDevelopmentBlockGrants</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForCommunityDevelopmentBlockGrants</t>
   </si>
   <si>
-    <t>acfr:RevenueForLocalCommunityStabilizationShare</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForLocalCommunityStabilizationShare</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForLocalCommunityStabilizationShare</t>
   </si>
   <si>
-    <t>acfr:RevenueForCommunityAndEconomicDevelopmentServices</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForCommunityAndEconomicDevelopmentServices</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueCommunityAndEconomicDevelopmentServices</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForLibrary</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForLibrary</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForLibrary</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForGolf</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForGolf</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForGolf</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForHarborServices</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForHarborServices</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForHarborServices</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForConventionCenterServices</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForConventionCenterServices</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForConventionCenterServices</t>
   </si>
   <si>
-    <t>acfr:RevenueForParksAndRecreation</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForParksAndRecreation</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForCulturalActivities</t>
   </si>
   <si>
-    <t>acfr:RevenuesForCulturalActivities</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForCulturalActivities</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForParksAndRecreation</t>
   </si>
   <si>
-    <t>acfr:RevenueForCultureAndRecreation</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForRecreationAndCulture</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForRecreationAndCulture</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForConservationServices</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForConservationServices</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForConservationServices</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForAirportServices</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForAirportsServices</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForAirportsServices</t>
   </si>
   <si>
-    <t>acfr:RevenueForTransitServices</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForTransportationServices</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForTransportationServices</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForSanitarySewerServices</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForSanitarySewerServices</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForSanitarySewerServices</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForWaterSupplyServices</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForWaterSupplyServices</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForWaterSupplyServices</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForStormSewerServices</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForStormSewerServices</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForStormSewerServices</t>
   </si>
   <si>
-    <t>acfr:RevenueForSanitation</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForSanitation</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForSanitation</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForPublicWorksServices</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForPublicWorksServices</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForPublicWorksServices</t>
   </si>
   <si>
-    <t>acfr:ChargesForServicesCourtRelatedCharges</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueCourtRelatedCharges</t>
   </si>
   <si>
-    <t>acfr:ChargesForServicesFees</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueFees</t>
   </si>
   <si>
-    <t>acfr:ChargesForServicesCourtFilingFees</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueCourtFilingFees</t>
   </si>
   <si>
-    <t>acfr:ChargesForServicesJuryDemandFees</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueJuryDemandFees</t>
   </si>
   <si>
-    <t>acfr:ChargesForServicesWritOfGarnishmentRestitutionAttachmentOrExecution</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueWritOfGarnishmentRestitutionAttachmentOrExecution</t>
   </si>
   <si>
-    <t>acfr:ChargesForServicesAttorneyFeeReimbursement</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueAttorneyFeeReimbursement</t>
   </si>
   <si>
-    <t>acfr:ChargesForServicesGuardianAdLitemReimbursement</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueGuardianAdLitemReimbursement</t>
   </si>
   <si>
-    <t>acfr:ChargesForServicesProbationOversightFee</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueProbationOversightFee</t>
   </si>
   <si>
-    <t>acfr:ChargesForServicesEstateInventoryFee</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueEstateInventoryFee</t>
   </si>
   <si>
-    <t>acfr:ChargesForServicesFriendOfTheCourtStatutoryHandlingFee</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueFriendOfTheCourtStatutoryHandlingFee</t>
   </si>
   <si>
-    <t>acfr:ChargesForServicesFriendOfTheCourtServiceFee</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueFriendOfTheCourtServiceFee</t>
   </si>
   <si>
-    <t>acfr:ChargesForServicesMiscellaneousCourtCostsAndFees</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueMiscellaneousCourtCostsAndFees</t>
   </si>
   <si>
-    <t>acfr:ChargesForServicesServicesRendered</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueServicesRendered</t>
   </si>
   <si>
-    <t>acfr:ChargesForServicesBuildingInspectionFees</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueBuildingInspectionFees</t>
   </si>
   <si>
-    <t>acfr:ChargesForServicesAmbulanceTransportFees</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueAmbulanceTransportFees</t>
   </si>
   <si>
-    <t>acfr:ChargesForServicesTitleSearchFee</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueTitleSearchFee</t>
   </si>
   <si>
-    <t>acfr:ChargesForServicesPreForfeitureMailingNoticeCost</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenuePreForfeitureMailingNoticeCost</t>
   </si>
   <si>
-    <t>acfr:ChargesForServicesSales</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueSales</t>
   </si>
   <si>
-    <t>acfr:ChargesForServicesUseAndAdmissionFees</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueUseAndAdmissionFees</t>
   </si>
   <si>
-    <t>acfr:ChargesForServicesRevenueFromParkingFacilities</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueChargesForServicesRevenueFromParkingFacilities</t>
   </si>
   <si>
-    <t>acfr:ChargesForServices</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueChargesForServices</t>
   </si>
   <si>
-    <t>acfr:ChargesForServicesTrafficViolations</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueTrafficViolations</t>
   </si>
   <si>
-    <t>acfr:ChargesForServicesOrdinanceFinesAndCosts</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueOrdinanceFinesAndCosts</t>
   </si>
   <si>
-    <t>acfr:ChargesForServicesStatuteCosts</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueStatuteCosts</t>
   </si>
   <si>
-    <t>acfr:ChargesForServicesBondForfeituresAndBondCosts</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueBondForfeituresAndBondCosts</t>
   </si>
   <si>
-    <t>acfr:RevenueFromFinesAndForfeituresAndPenalties</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueFinesAndForfeituresAndPenalties</t>
   </si>
   <si>
-    <t>acfr:ChargesForServicesBusinessLicensesAndPermits</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueChargesForServicesBusinessLicensesAndPermits</t>
   </si>
   <si>
-    <t>acfr:ChargesForServicesCableTVFranchiseFees</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueChargesForServicesCableTVFranchiseFees</t>
   </si>
   <si>
-    <t>acfr:ChargesForServicesNonBusinessLicensesAndPermits</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueChargesForServicesNonBusinessLicensesAndPermits</t>
   </si>
   <si>
-    <t>acfr:ChargesForServicesLicensesAndPermitsAndFranchiseFees</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueChargesForServicesLicensesAndPermitsAndFranchiseFees</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForPublicSchoolsServices</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForPublicSchoolsServices</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForPublicSchoolsServices</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForPublicWaysAndFacilitiesServices</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForPublicWaysAndFacilitiesServices</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForPublicWaysAndFacilitiesServices</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForPublicAssistanceServices</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForPublicAssistanceServices</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForPublicAssistanceServices</t>
   </si>
   <si>
-    <t>acfr:RevenueForSpecialElectionReimbursement</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForSpecialElectionReimbursement</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForSpecialElectionReimbursement</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForElections</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForElections</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForElections</t>
   </si>
   <si>
-    <t>acfr:RevenueForSurveyAndRemonumentation</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForSurveyAndRemonumentation</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForSurveyAndRemonumentation</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForPlanningAndZoning</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForPlanningAndZoning</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForPlanningAndZoning</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForCemetery</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForCemetery</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForCemetery</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForEquipmentAndEquipmentRental</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForEquipmentAndEquipmentRental</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForEquipmentAndEquipmentRental</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForPropertyMaintenance</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForPropertyMaintenance</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForPropertyMaintenance</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForHomestead</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForHomestead</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForHomestead</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForBuildingAuthority</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForBuildingAuthority</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForBuildingAuthority</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForTelecommunications</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForTelecommunications</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForTelecommunications</t>
   </si>
   <si>
-    <t>acfr:RevenueForFacilitiesMaintenance</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForFacilitiesMaintenance</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForFacilitiesMaintenance</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForTownshipProperties</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForTownshipProperties</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForTownshipProperties</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForEducationServices</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForEducationServices</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForEducationServices</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForHigherEducation</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForHigherEducation</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForHigherEducation</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForUnemploymentCompensation</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForUnemploymentCompensation</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForUnemploymentCompensation</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForGarageServices</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForGaragesServices</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForGaragesServices</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForJailStoresCommissaryServices</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForJailStoresCommissaryServices</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForJailStoresCommissaryServices</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForContingencyServices</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForContingencyServices</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForContingencyServices</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForOtherPublicServices</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForOtherPublicServices</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForOtherPublicServices</t>
   </si>
   <si>
-    <t>acfr:RevenueSharing</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForRevenueSharing</t>
   </si>
   <si>
-    <t>acfr:RevenueUsedForOtherPrograms</t>
-  </si>
-  <si>
-    <t>acfr:OtherExpenses</t>
-  </si>
-  <si>
     <t>acfr:OtherNetExpenseRevenue</t>
   </si>
   <si>
-    <t>acfr:ProgramRevenues</t>
-  </si>
-  <si>
-    <t>acfr:Expenses</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenue</t>
   </si>
   <si>
-    <t>acfr:ExpensesForFinancialAndTaxAdministrationInformationTechnology</t>
-  </si>
-  <si>
-    <t>acfr:ExpensesForHousingAndCommunityDevelopment</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForHousingAndCommunityDevelopmentServices</t>
   </si>
   <si>
-    <t>acfr:ExpensesForLotteryPrizeAwards</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueLotteryPrizes</t>
   </si>
   <si>
-    <t>acfr:CapitalOutlay</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForCapitalOutlay</t>
   </si>
   <si>
-    <t>acfr:DepreciationExpense</t>
-  </si>
-  <si>
-    <t>acfr:DebtServicePrincipalRepayment</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForDebtServicePrincipalRepayment</t>
   </si>
   <si>
-    <t>acfr:DebtServiceInterestAndFiscalCharges</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForDebtServiceInterestAndFiscalCharges</t>
   </si>
   <si>
-    <t>acfr:DebtService</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueDebtService</t>
   </si>
   <si>
-    <t>acfr:DepreciationUnallocated</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForDepreciationUnallocated</t>
   </si>
   <si>
-    <t>acfr:CostOfIssueOfBondsAndSecurities</t>
-  </si>
-  <si>
     <t>acfr:NetExpenseRevenueForCostOfIssueOfBondsAndSecurities</t>
   </si>
   <si>
     <t>acfr:NetExpenseRevenuePublicSafetyProtectiveServices</t>
   </si>
   <si>
-    <t>acfr:RevenueFromNationalForestReserveTaxes</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromTrailerTax</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromAccomodationsTax</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromParkingOccupancyTax</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromIndustrialFacilitiesTax</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromCommercialFacilitiesTax</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromIncomeTax</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromTransactionPrivilegeTax</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromCurrentPropertyTaxesExtraOrSpecialVoted</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromCurrentPersonalPropertyTax</t>
-  </si>
-  <si>
-    <t>acfr:RevenuesFromCurrentRealPropertyTax</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromPropertyTax</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromDelinquentRealPropertyTax</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromDelinquentPersonalPropertyTax</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromMarijuanaTax</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromCityUtilityUsersTax</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromMotorFuelTax</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromLotteryForEducationLotteryProceeds</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromCorporateTax</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromUsageOfUtilitiesTax</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromConventionTax</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromSalesAndUseTax</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromSalesTax</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromUnclaimedProperty</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromNursingHomeAndHospitalProviderFees</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromBusinessLicenseTax</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromPropertyTransferTax</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromDocumentsTransferTax</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromTransferStampsTax</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromHotelAndMotelTax</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromVehiclesTax</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromMealsTax</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromFranchiseIncomeTax</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromOtherTaxForGeneralPurpose</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromTaxes</t>
-  </si>
-  <si>
-    <t>acfr:AllowanceForChargebacks</t>
-  </si>
-  <si>
-    <t>acfr:AllowanceForRefunds</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromCollectionFees</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromInterestAndPenaltiesOnTaxes</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromCommunityWideSpecialAssessments</t>
-  </si>
-  <si>
-    <t>acfr:RedemptionsAndReconveyance</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromCountyExpenseOfSale</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromCommercialForestReserve</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromSubMarginalLandAct</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromTaxRevertedProperty</t>
-  </si>
-  <si>
-    <t>acfr:PaymentInLieuOfTaxes</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromPropertyTaxAdministrationFee</t>
-  </si>
-  <si>
-    <t>acfr:TaxesAndTaxRelatedRevenues</t>
-  </si>
-  <si>
-    <t>acfr:RevenuesFromInterestAndPenaltiesOnSpecialAssessments</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromSpecialAssessments</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromDividends</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromInterest</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromInterestAndDividends</t>
-  </si>
-  <si>
-    <t>acfr:InvestmentGainsLosses</t>
-  </si>
-  <si>
-    <t>acfr:InvestmentIncome</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromInterestAndRent</t>
-  </si>
-  <si>
-    <t>acfr:LeaseInvestmentIncome</t>
-  </si>
-  <si>
-    <t>acfr:InvestmentIncomeAndRentals</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromRent</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromRoyalties</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromRentsAndRoyalties</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromSharedRevenue</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromUseOfMoneyAndProperty</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromGasAndOilRoyalties</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromCasinoRevenueSharing</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromRecreationFees</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromRefundsAndRebates</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromReimbursements</t>
-  </si>
-  <si>
-    <t>acfr:RevenueFromGrantsAndEntitlementsForSpecificProgramsUnrestricted</t>
-  </si>
-  <si>
-    <t>acfr:GrantsContributionsAndDonationsFromFederalGovernmentalEntities</t>
-  </si>
-  <si>
-    <t>acfr:GrantsContributionsAndDonationsFromStateGovernmentalEntities</t>
-  </si>
-  <si>
-    <t>acfr:GrantsContributionsAndDonationsFromLocalUnits</t>
-  </si>
-  <si>
-    <t>acfr:GrantsContributionsAndDonationsFromOthers</t>
-  </si>
-  <si>
-    <t>acfr:PublicAndPrivateContributions</t>
-  </si>
-  <si>
-    <t>acfr:ProceedsFromBondAndNoteIssuance</t>
-  </si>
-  <si>
-    <t>acfr:PrivateContributionsAndDonations</t>
-  </si>
-  <si>
-    <t>acfr:CashOverOrShort</t>
-  </si>
-  <si>
-    <t>acfr:GainLossOnSaleOfCapitalAssets</t>
-  </si>
-  <si>
-    <t>acfr:RecoveryOfCostIncurred</t>
-  </si>
-  <si>
-    <t>acfr:OtherGeneralRevenues</t>
-  </si>
-  <si>
-    <t>acfr:TransfersNet</t>
-  </si>
-  <si>
     <t>acfr:TransfersIn</t>
   </si>
   <si>
     <t>acfr:TransfersOut</t>
   </si>
   <si>
-    <t>acfr:InternalTransfers</t>
-  </si>
-  <si>
-    <t>acfr:TransferToEscrowForBondRefunding</t>
-  </si>
-  <si>
-    <t>acfr:OtherFinancingSourcesLeaseFinancing</t>
-  </si>
-  <si>
-    <t>acfr:DiscountsOnBondsOrNotes</t>
-  </si>
-  <si>
-    <t>acfr:PremiumOnBondsOrNotes</t>
-  </si>
-  <si>
-    <t>acfr:BondOrInsuranceRecoveries</t>
-  </si>
-  <si>
-    <t>acfr:SpecialItems</t>
-  </si>
-  <si>
-    <t>acfr:ExtraordinaryItems</t>
-  </si>
-  <si>
-    <t>acfr:AdjustmentsForTransferOfRevenuesWithinActivities</t>
-  </si>
-  <si>
-    <t>acfr:GeneralRevenuesAndTransfers</t>
-  </si>
-  <si>
     <t>acfr:ProgramRevenues,acfr:Expenses,acfr:NetExpenseRevenue</t>
   </si>
   <si>
@@ -5440,6 +4636,816 @@
   </si>
   <si>
     <t>Total Governmental Funds</t>
+  </si>
+  <si>
+    <t>ExpensesForGeneralGovernmentServicesLegislativeAndExecutive</t>
+  </si>
+  <si>
+    <t>RevenueUsedForGeneralGovernmentServicesLegislativeAndExecutive</t>
+  </si>
+  <si>
+    <t>ExpensesForGeneralGovernmentServicesJudicial</t>
+  </si>
+  <si>
+    <t>RevenueUsedForGeneralGovernmentServicesJudicial</t>
+  </si>
+  <si>
+    <t>ExpensesForGeneralGovernmentServicesAdministration</t>
+  </si>
+  <si>
+    <t>RevenueUsedForGeneralGovernmentServicesAdministration</t>
+  </si>
+  <si>
+    <t>ExpensesForGeneralGovernmentServicesOther</t>
+  </si>
+  <si>
+    <t>RevenueUsedForGeneralGovernmentServicesOther</t>
+  </si>
+  <si>
+    <t>ExpensesForGeneralGovernmentServices</t>
+  </si>
+  <si>
+    <t>RevenueForGeneralGovernment</t>
+  </si>
+  <si>
+    <t>ExpensesForSecurityOfPersonsAndPropertyServices</t>
+  </si>
+  <si>
+    <t>RevenueUsedForSecurityOfPersonsAndPropertyServices</t>
+  </si>
+  <si>
+    <t>ExpensesForCourtOfEquity</t>
+  </si>
+  <si>
+    <t>RevenueForCourtEquity</t>
+  </si>
+  <si>
+    <t>ExpensesForDrugCaseInformationManagement</t>
+  </si>
+  <si>
+    <t>RevenueForDrugCaseInformationManagement</t>
+  </si>
+  <si>
+    <t>ExpensesForDrunkDrivingCaseFlowAssistance</t>
+  </si>
+  <si>
+    <t>RevenueForDrunkDrivingCaseFlowAssistance</t>
+  </si>
+  <si>
+    <t>ExpensesForCrimeVictimsRights</t>
+  </si>
+  <si>
+    <t>RevenueForCrimeVictimsRights</t>
+  </si>
+  <si>
+    <t>ExpensesForIndigentDefense</t>
+  </si>
+  <si>
+    <t>RevenueForIndigentDefense</t>
+  </si>
+  <si>
+    <t>ExpensesForPublicSafetyServices</t>
+  </si>
+  <si>
+    <t>RevenueForPublicSafetyServices</t>
+  </si>
+  <si>
+    <t>ExpensesForStreetsAndHighways</t>
+  </si>
+  <si>
+    <t>RevenueUsedForHighwaysAndStreets</t>
+  </si>
+  <si>
+    <t>ExpensesForPublicHealthAndSanitationServices</t>
+  </si>
+  <si>
+    <t>RevenueUsedForPublicHealthAndSanitationServices</t>
+  </si>
+  <si>
+    <t>ExpensesForMedicalCareFacility</t>
+  </si>
+  <si>
+    <t>RevenueUsedForMedicalCareFacility</t>
+  </si>
+  <si>
+    <t>ExpensesForAmbulance</t>
+  </si>
+  <si>
+    <t>RevenueUsedForAmbulance</t>
+  </si>
+  <si>
+    <t>ExpensesForStateHealthBenefitPlan</t>
+  </si>
+  <si>
+    <t>RevenueUsedForStateHealthBenefit</t>
+  </si>
+  <si>
+    <t>ExpensesForWelfare</t>
+  </si>
+  <si>
+    <t>RevenueForHealth</t>
+  </si>
+  <si>
+    <t>ExpensesForHealth</t>
+  </si>
+  <si>
+    <t>RevenueForWelfare</t>
+  </si>
+  <si>
+    <t>ExpensesForHealthAndWelfare</t>
+  </si>
+  <si>
+    <t>RevenueForHealthAndWelfare</t>
+  </si>
+  <si>
+    <t>ExpensesForElectricityAndPowerServices</t>
+  </si>
+  <si>
+    <t>RevenueUsedForElectricityAndPowerServices</t>
+  </si>
+  <si>
+    <t>ExpensesForPublicUtilities</t>
+  </si>
+  <si>
+    <t>RevenueUsedForPublicUtilities</t>
+  </si>
+  <si>
+    <t>ExpensesForCommunityServices</t>
+  </si>
+  <si>
+    <t>RevenueUsedForCommunityServices</t>
+  </si>
+  <si>
+    <t>ExpensesForCommunityDevelopment</t>
+  </si>
+  <si>
+    <t>RevenueUsedForCommunityDevelopment</t>
+  </si>
+  <si>
+    <t>ExpensesForEconomicDevelopmentServices</t>
+  </si>
+  <si>
+    <t>RevenueUsedForEconomicDevelopmentServices</t>
+  </si>
+  <si>
+    <t>ExpensesForOtherDevelopmentServices</t>
+  </si>
+  <si>
+    <t>RevenueUsedForOtherDevelopmentServices</t>
+  </si>
+  <si>
+    <t>ExpensesForCommunityDevelopmentBlockGrants</t>
+  </si>
+  <si>
+    <t>RevenueForCommunityDevelopmentBlockGrants</t>
+  </si>
+  <si>
+    <t>ExpensesForLocalCommunityStabilizationShare</t>
+  </si>
+  <si>
+    <t>RevenueForLocalCommunityStabilizationShare</t>
+  </si>
+  <si>
+    <t>ExpensesForCommunityAndEconomicDevelopmentServices</t>
+  </si>
+  <si>
+    <t>RevenueForCommunityAndEconomicDevelopmentServices</t>
+  </si>
+  <si>
+    <t>ExpensesForLibrary</t>
+  </si>
+  <si>
+    <t>RevenueUsedForLibrary</t>
+  </si>
+  <si>
+    <t>ExpensesForGolf</t>
+  </si>
+  <si>
+    <t>RevenueUsedForGolf</t>
+  </si>
+  <si>
+    <t>ExpensesForHarborServices</t>
+  </si>
+  <si>
+    <t>RevenueUsedForHarborServices</t>
+  </si>
+  <si>
+    <t>ExpensesForConventionCenterServices</t>
+  </si>
+  <si>
+    <t>RevenueUsedForConventionCenterServices</t>
+  </si>
+  <si>
+    <t>ExpensesForParksAndRecreation</t>
+  </si>
+  <si>
+    <t>RevenueForParksAndRecreation</t>
+  </si>
+  <si>
+    <t>ExpensesForCulturalActivities</t>
+  </si>
+  <si>
+    <t>RevenuesForCulturalActivities</t>
+  </si>
+  <si>
+    <t>ExpensesForRecreationAndCulture</t>
+  </si>
+  <si>
+    <t>RevenueForCultureAndRecreation</t>
+  </si>
+  <si>
+    <t>ExpensesForConservationServices</t>
+  </si>
+  <si>
+    <t>RevenueUsedForConservationServices</t>
+  </si>
+  <si>
+    <t>ExpensesForAirportsServices</t>
+  </si>
+  <si>
+    <t>RevenueUsedForAirportServices</t>
+  </si>
+  <si>
+    <t>ExpensesForTransportationServices</t>
+  </si>
+  <si>
+    <t>RevenueForTransitServices</t>
+  </si>
+  <si>
+    <t>ExpensesForSanitarySewerServices</t>
+  </si>
+  <si>
+    <t>RevenueUsedForSanitarySewerServices</t>
+  </si>
+  <si>
+    <t>ExpensesForWaterSupplyServices</t>
+  </si>
+  <si>
+    <t>RevenueUsedForWaterSupplyServices</t>
+  </si>
+  <si>
+    <t>ExpensesForStormSewerServices</t>
+  </si>
+  <si>
+    <t>RevenueUsedForStormSewerServices</t>
+  </si>
+  <si>
+    <t>ExpensesForSanitation</t>
+  </si>
+  <si>
+    <t>RevenueForSanitation</t>
+  </si>
+  <si>
+    <t>ExpensesForPublicWorksServices</t>
+  </si>
+  <si>
+    <t>RevenueUsedForPublicWorksServices</t>
+  </si>
+  <si>
+    <t>ChargesForServicesCourtRelatedCharges</t>
+  </si>
+  <si>
+    <t>ChargesForServicesFees</t>
+  </si>
+  <si>
+    <t>ChargesForServicesCourtFilingFees</t>
+  </si>
+  <si>
+    <t>ChargesForServicesJuryDemandFees</t>
+  </si>
+  <si>
+    <t>ChargesForServicesWritOfGarnishmentRestitutionAttachmentOrExecution</t>
+  </si>
+  <si>
+    <t>ChargesForServicesAttorneyFeeReimbursement</t>
+  </si>
+  <si>
+    <t>ChargesForServicesGuardianAdLitemReimbursement</t>
+  </si>
+  <si>
+    <t>ChargesForServicesProbationOversightFee</t>
+  </si>
+  <si>
+    <t>ChargesForServicesEstateInventoryFee</t>
+  </si>
+  <si>
+    <t>ChargesForServicesFriendOfTheCourtStatutoryHandlingFee</t>
+  </si>
+  <si>
+    <t>ChargesForServicesFriendOfTheCourtServiceFee</t>
+  </si>
+  <si>
+    <t>ChargesForServicesMiscellaneousCourtCostsAndFees</t>
+  </si>
+  <si>
+    <t>ChargesForServicesServicesRendered</t>
+  </si>
+  <si>
+    <t>ChargesForServicesBuildingInspectionFees</t>
+  </si>
+  <si>
+    <t>ChargesForServicesAmbulanceTransportFees</t>
+  </si>
+  <si>
+    <t>ChargesForServicesTitleSearchFee</t>
+  </si>
+  <si>
+    <t>ChargesForServicesPreForfeitureMailingNoticeCost</t>
+  </si>
+  <si>
+    <t>ChargesForServicesSales</t>
+  </si>
+  <si>
+    <t>ChargesForServicesUseAndAdmissionFees</t>
+  </si>
+  <si>
+    <t>ChargesForServicesRevenueFromParkingFacilities</t>
+  </si>
+  <si>
+    <t>ChargesForServices</t>
+  </si>
+  <si>
+    <t>ChargesForServicesTrafficViolations</t>
+  </si>
+  <si>
+    <t>ChargesForServicesOrdinanceFinesAndCosts</t>
+  </si>
+  <si>
+    <t>ChargesForServicesStatuteCosts</t>
+  </si>
+  <si>
+    <t>ChargesForServicesBondForfeituresAndBondCosts</t>
+  </si>
+  <si>
+    <t>RevenueFromFinesAndForfeituresAndPenalties</t>
+  </si>
+  <si>
+    <t>ChargesForServicesBusinessLicensesAndPermits</t>
+  </si>
+  <si>
+    <t>ChargesForServicesCableTVFranchiseFees</t>
+  </si>
+  <si>
+    <t>ChargesForServicesNonBusinessLicensesAndPermits</t>
+  </si>
+  <si>
+    <t>ChargesForServicesLicensesAndPermitsAndFranchiseFees</t>
+  </si>
+  <si>
+    <t>ExpensesForPublicSchoolsServices</t>
+  </si>
+  <si>
+    <t>RevenueUsedForPublicSchoolsServices</t>
+  </si>
+  <si>
+    <t>ExpensesForPublicWaysAndFacilitiesServices</t>
+  </si>
+  <si>
+    <t>RevenueUsedForPublicWaysAndFacilitiesServices</t>
+  </si>
+  <si>
+    <t>ExpensesForPublicAssistanceServices</t>
+  </si>
+  <si>
+    <t>RevenueUsedForPublicAssistanceServices</t>
+  </si>
+  <si>
+    <t>ExpensesForSpecialElectionReimbursement</t>
+  </si>
+  <si>
+    <t>RevenueForSpecialElectionReimbursement</t>
+  </si>
+  <si>
+    <t>ExpensesForElections</t>
+  </si>
+  <si>
+    <t>RevenueUsedForElections</t>
+  </si>
+  <si>
+    <t>ExpensesForSurveyAndRemonumentation</t>
+  </si>
+  <si>
+    <t>RevenueForSurveyAndRemonumentation</t>
+  </si>
+  <si>
+    <t>ExpensesForPlanningAndZoning</t>
+  </si>
+  <si>
+    <t>RevenueUsedForPlanningAndZoning</t>
+  </si>
+  <si>
+    <t>ExpensesForCemetery</t>
+  </si>
+  <si>
+    <t>RevenueUsedForCemetery</t>
+  </si>
+  <si>
+    <t>ExpensesForEquipmentAndEquipmentRental</t>
+  </si>
+  <si>
+    <t>RevenueUsedForEquipmentAndEquipmentRental</t>
+  </si>
+  <si>
+    <t>ExpensesForPropertyMaintenance</t>
+  </si>
+  <si>
+    <t>RevenueUsedForPropertyMaintenance</t>
+  </si>
+  <si>
+    <t>ExpensesForHomestead</t>
+  </si>
+  <si>
+    <t>RevenueUsedForHomestead</t>
+  </si>
+  <si>
+    <t>ExpensesForBuildingAuthority</t>
+  </si>
+  <si>
+    <t>RevenueUsedForBuildingAuthority</t>
+  </si>
+  <si>
+    <t>ExpensesForTelecommunications</t>
+  </si>
+  <si>
+    <t>RevenueUsedForTelecommunications</t>
+  </si>
+  <si>
+    <t>ExpensesForFacilitiesMaintenance</t>
+  </si>
+  <si>
+    <t>RevenueForFacilitiesMaintenance</t>
+  </si>
+  <si>
+    <t>ExpensesForTownshipProperties</t>
+  </si>
+  <si>
+    <t>RevenueUsedForTownshipProperties</t>
+  </si>
+  <si>
+    <t>ExpensesForEducationServices</t>
+  </si>
+  <si>
+    <t>RevenueUsedForEducationServices</t>
+  </si>
+  <si>
+    <t>ExpensesForHigherEducation</t>
+  </si>
+  <si>
+    <t>RevenueUsedForHigherEducation</t>
+  </si>
+  <si>
+    <t>ExpensesForUnemploymentCompensation</t>
+  </si>
+  <si>
+    <t>RevenueUsedForUnemploymentCompensation</t>
+  </si>
+  <si>
+    <t>ExpensesForGaragesServices</t>
+  </si>
+  <si>
+    <t>RevenueUsedForGarageServices</t>
+  </si>
+  <si>
+    <t>ExpensesForJailStoresCommissaryServices</t>
+  </si>
+  <si>
+    <t>RevenueUsedForJailStoresCommissaryServices</t>
+  </si>
+  <si>
+    <t>ExpensesForContingencyServices</t>
+  </si>
+  <si>
+    <t>RevenueUsedForContingencyServices</t>
+  </si>
+  <si>
+    <t>ExpensesForOtherPublicServices</t>
+  </si>
+  <si>
+    <t>RevenueUsedForOtherPublicServices</t>
+  </si>
+  <si>
+    <t>RevenueSharing</t>
+  </si>
+  <si>
+    <t>OtherExpenses</t>
+  </si>
+  <si>
+    <t>RevenueUsedForOtherPrograms</t>
+  </si>
+  <si>
+    <t>ProgramRevenues</t>
+  </si>
+  <si>
+    <t>ExpensesForFinancialAndTaxAdministrationInformationTechnology</t>
+  </si>
+  <si>
+    <t>ExpensesForHousingAndCommunityDevelopment</t>
+  </si>
+  <si>
+    <t>ExpensesForLotteryPrizeAwards</t>
+  </si>
+  <si>
+    <t>CapitalOutlay</t>
+  </si>
+  <si>
+    <t>DepreciationExpense</t>
+  </si>
+  <si>
+    <t>DebtServicePrincipalRepayment</t>
+  </si>
+  <si>
+    <t>DebtServiceInterestAndFiscalCharges</t>
+  </si>
+  <si>
+    <t>DebtService</t>
+  </si>
+  <si>
+    <t>DepreciationUnallocated</t>
+  </si>
+  <si>
+    <t>CostOfIssueOfBondsAndSecurities</t>
+  </si>
+  <si>
+    <t>RevenueFromNationalForestReserveTaxes</t>
+  </si>
+  <si>
+    <t>RevenueFromTrailerTax</t>
+  </si>
+  <si>
+    <t>RevenueFromAccomodationsTax</t>
+  </si>
+  <si>
+    <t>RevenueFromParkingOccupancyTax</t>
+  </si>
+  <si>
+    <t>RevenueFromIndustrialFacilitiesTax</t>
+  </si>
+  <si>
+    <t>RevenueFromCommercialFacilitiesTax</t>
+  </si>
+  <si>
+    <t>RevenueFromIncomeTax</t>
+  </si>
+  <si>
+    <t>RevenueFromTransactionPrivilegeTax</t>
+  </si>
+  <si>
+    <t>RevenueFromCurrentPropertyTaxesExtraOrSpecialVoted</t>
+  </si>
+  <si>
+    <t>RevenueFromCurrentPersonalPropertyTax</t>
+  </si>
+  <si>
+    <t>RevenuesFromCurrentRealPropertyTax</t>
+  </si>
+  <si>
+    <t>RevenueFromPropertyTax</t>
+  </si>
+  <si>
+    <t>RevenueFromDelinquentRealPropertyTax</t>
+  </si>
+  <si>
+    <t>RevenueFromDelinquentPersonalPropertyTax</t>
+  </si>
+  <si>
+    <t>RevenueFromMarijuanaTax</t>
+  </si>
+  <si>
+    <t>RevenueFromCityUtilityUsersTax</t>
+  </si>
+  <si>
+    <t>RevenueFromMotorFuelTax</t>
+  </si>
+  <si>
+    <t>RevenueFromLotteryForEducationLotteryProceeds</t>
+  </si>
+  <si>
+    <t>RevenueFromCorporateTax</t>
+  </si>
+  <si>
+    <t>RevenueFromUsageOfUtilitiesTax</t>
+  </si>
+  <si>
+    <t>RevenueFromConventionTax</t>
+  </si>
+  <si>
+    <t>RevenueFromSalesAndUseTax</t>
+  </si>
+  <si>
+    <t>RevenueFromSalesTax</t>
+  </si>
+  <si>
+    <t>RevenueFromUnclaimedProperty</t>
+  </si>
+  <si>
+    <t>RevenueFromNursingHomeAndHospitalProviderFees</t>
+  </si>
+  <si>
+    <t>RevenueFromBusinessLicenseTax</t>
+  </si>
+  <si>
+    <t>RevenueFromPropertyTransferTax</t>
+  </si>
+  <si>
+    <t>RevenueFromDocumentsTransferTax</t>
+  </si>
+  <si>
+    <t>RevenueFromTransferStampsTax</t>
+  </si>
+  <si>
+    <t>RevenueFromHotelAndMotelTax</t>
+  </si>
+  <si>
+    <t>RevenueFromVehiclesTax</t>
+  </si>
+  <si>
+    <t>RevenueFromMealsTax</t>
+  </si>
+  <si>
+    <t>RevenueFromFranchiseIncomeTax</t>
+  </si>
+  <si>
+    <t>RevenueFromOtherTaxForGeneralPurpose</t>
+  </si>
+  <si>
+    <t>RevenueFromTaxes</t>
+  </si>
+  <si>
+    <t>AllowanceForChargebacks</t>
+  </si>
+  <si>
+    <t>AllowanceForRefunds</t>
+  </si>
+  <si>
+    <t>RevenueFromCollectionFees</t>
+  </si>
+  <si>
+    <t>RevenueFromInterestAndPenaltiesOnTaxes</t>
+  </si>
+  <si>
+    <t>RevenueFromCommunityWideSpecialAssessments</t>
+  </si>
+  <si>
+    <t>RedemptionsAndReconveyance</t>
+  </si>
+  <si>
+    <t>RevenueFromCountyExpenseOfSale</t>
+  </si>
+  <si>
+    <t>RevenueFromCommercialForestReserve</t>
+  </si>
+  <si>
+    <t>RevenueFromSubMarginalLandAct</t>
+  </si>
+  <si>
+    <t>RevenueFromTaxRevertedProperty</t>
+  </si>
+  <si>
+    <t>PaymentInLieuOfTaxes</t>
+  </si>
+  <si>
+    <t>RevenueFromPropertyTaxAdministrationFee</t>
+  </si>
+  <si>
+    <t>TaxesAndTaxRelatedRevenues</t>
+  </si>
+  <si>
+    <t>RevenuesFromInterestAndPenaltiesOnSpecialAssessments</t>
+  </si>
+  <si>
+    <t>RevenueFromSpecialAssessments</t>
+  </si>
+  <si>
+    <t>RevenueFromDividends</t>
+  </si>
+  <si>
+    <t>RevenueFromInterest</t>
+  </si>
+  <si>
+    <t>RevenueFromInterestAndDividends</t>
+  </si>
+  <si>
+    <t>InvestmentGainsLosses</t>
+  </si>
+  <si>
+    <t>InvestmentIncome</t>
+  </si>
+  <si>
+    <t>RevenueFromInterestAndRent</t>
+  </si>
+  <si>
+    <t>LeaseInvestmentIncome</t>
+  </si>
+  <si>
+    <t>InvestmentIncomeAndRentals</t>
+  </si>
+  <si>
+    <t>RevenueFromRent</t>
+  </si>
+  <si>
+    <t>RevenueFromRoyalties</t>
+  </si>
+  <si>
+    <t>RevenueFromRentsAndRoyalties</t>
+  </si>
+  <si>
+    <t>RevenueFromSharedRevenue</t>
+  </si>
+  <si>
+    <t>RevenueFromUseOfMoneyAndProperty</t>
+  </si>
+  <si>
+    <t>RevenueFromGasAndOilRoyalties</t>
+  </si>
+  <si>
+    <t>RevenueFromCasinoRevenueSharing</t>
+  </si>
+  <si>
+    <t>RevenueFromRecreationFees</t>
+  </si>
+  <si>
+    <t>RevenueFromRefundsAndRebates</t>
+  </si>
+  <si>
+    <t>RevenueFromReimbursements</t>
+  </si>
+  <si>
+    <t>RevenueFromGrantsAndEntitlementsForSpecificProgramsUnrestricted</t>
+  </si>
+  <si>
+    <t>GrantsContributionsAndDonationsFromFederalGovernmentalEntities</t>
+  </si>
+  <si>
+    <t>GrantsContributionsAndDonationsFromStateGovernmentalEntities</t>
+  </si>
+  <si>
+    <t>GrantsContributionsAndDonationsFromLocalUnits</t>
+  </si>
+  <si>
+    <t>GrantsContributionsAndDonationsFromOthers</t>
+  </si>
+  <si>
+    <t>PublicAndPrivateContributions</t>
+  </si>
+  <si>
+    <t>ProceedsFromBondAndNoteIssuance</t>
+  </si>
+  <si>
+    <t>PrivateContributionsAndDonations</t>
+  </si>
+  <si>
+    <t>CashOverOrShort</t>
+  </si>
+  <si>
+    <t>GainLossOnSaleOfCapitalAssets</t>
+  </si>
+  <si>
+    <t>RecoveryOfCostIncurred</t>
+  </si>
+  <si>
+    <t>OtherGeneralRevenues</t>
+  </si>
+  <si>
+    <t>GeneralRevenuesNet</t>
+  </si>
+  <si>
+    <t>TransfersNet</t>
+  </si>
+  <si>
+    <t>TransfersIn</t>
+  </si>
+  <si>
+    <t>TransfersOut</t>
+  </si>
+  <si>
+    <t>InternalTransfers</t>
+  </si>
+  <si>
+    <t>TransferToEscrowForBondRefunding</t>
+  </si>
+  <si>
+    <t>OtherFinancingSourcesLeaseFinancing</t>
+  </si>
+  <si>
+    <t>DiscountsOnBondsOrNotes</t>
+  </si>
+  <si>
+    <t>PremiumOnBondsOrNotes</t>
+  </si>
+  <si>
+    <t>BondOrInsuranceRecoveries</t>
+  </si>
+  <si>
+    <t>SpecialItems</t>
+  </si>
+  <si>
+    <t>ExtraordinaryItems</t>
+  </si>
+  <si>
+    <t>AdjustmentsForTransferOfRevenuesWithinActivities</t>
+  </si>
+  <si>
+    <t>GeneralRevenuesAndTransfers</t>
   </si>
 </sst>
 </file>
@@ -5450,7 +5456,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5558,12 +5564,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -5928,7 +5928,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6084,7 +6084,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -6108,20 +6107,20 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6139,11 +6138,15 @@
     <xf numFmtId="44" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -16782,16 +16785,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF490C29-31E1-3E46-B6B7-83D944E71A74}">
   <dimension ref="A1:J218"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="37.83203125" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="4" max="4" width="33.83203125" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16802,11 +16805,11 @@
       <c r="B1" s="86" t="s">
         <v>1276</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="109" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D1" s="109" t="s">
         <v>1132</v>
-      </c>
-      <c r="D1" s="87" t="s">
-        <v>1133</v>
       </c>
       <c r="E1" s="69" t="s">
         <v>1141</v>
@@ -16819,14 +16822,14 @@
       <c r="B2" s="86" t="s">
         <v>1142</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="110" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D2" s="110" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E2" s="87" t="s">
         <v>1344</v>
-      </c>
-      <c r="D2" s="88" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E2" s="88" t="s">
-        <v>1346</v>
       </c>
       <c r="H2" s="70"/>
       <c r="I2" s="70"/>
@@ -16839,14 +16842,14 @@
       <c r="B3" s="86" t="s">
         <v>1143</v>
       </c>
-      <c r="C3" s="88" t="s">
-        <v>1347</v>
-      </c>
-      <c r="D3" s="88" t="s">
-        <v>1348</v>
-      </c>
-      <c r="E3" s="88" t="s">
-        <v>1349</v>
+      <c r="C3" s="110" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D3" s="110" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E3" s="87" t="s">
+        <v>1345</v>
       </c>
       <c r="H3" s="70"/>
       <c r="I3" s="70"/>
@@ -16859,14 +16862,14 @@
       <c r="B4" s="86" t="s">
         <v>1144</v>
       </c>
-      <c r="C4" s="88" t="s">
-        <v>1350</v>
-      </c>
-      <c r="D4" s="88" t="s">
-        <v>1351</v>
-      </c>
-      <c r="E4" s="88" t="s">
-        <v>1352</v>
+      <c r="C4" s="110" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D4" s="110" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>1346</v>
       </c>
       <c r="H4" s="70"/>
       <c r="I4" s="70"/>
@@ -16879,14 +16882,14 @@
       <c r="B5" s="86" t="s">
         <v>1145</v>
       </c>
-      <c r="C5" s="88" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D5" s="88" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E5" s="88" t="s">
-        <v>1355</v>
+      <c r="C5" s="110" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D5" s="110" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E5" s="87" t="s">
+        <v>1347</v>
       </c>
       <c r="H5" s="70"/>
       <c r="I5" s="70"/>
@@ -16899,14 +16902,14 @@
       <c r="B6" s="86" t="s">
         <v>1146</v>
       </c>
-      <c r="C6" s="88" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D6" s="88" t="s">
-        <v>1357</v>
-      </c>
-      <c r="E6" s="88" t="s">
-        <v>1358</v>
+      <c r="C6" s="110" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D6" s="110" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E6" s="87" t="s">
+        <v>1348</v>
       </c>
       <c r="H6" s="70"/>
       <c r="I6" s="70"/>
@@ -16919,14 +16922,14 @@
       <c r="B7" s="86" t="s">
         <v>1147</v>
       </c>
-      <c r="C7" s="88" t="s">
-        <v>1359</v>
-      </c>
-      <c r="D7" s="88" t="s">
-        <v>1360</v>
-      </c>
-      <c r="E7" s="88" t="s">
-        <v>1361</v>
+      <c r="C7" s="110" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D7" s="110" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E7" s="87" t="s">
+        <v>1349</v>
       </c>
       <c r="H7" s="70"/>
       <c r="I7" s="70"/>
@@ -16939,14 +16942,14 @@
       <c r="B8" s="86" t="s">
         <v>1148</v>
       </c>
-      <c r="C8" s="88" t="s">
-        <v>1362</v>
-      </c>
-      <c r="D8" s="88" t="s">
-        <v>1363</v>
-      </c>
-      <c r="E8" s="88" t="s">
-        <v>1364</v>
+      <c r="C8" s="110" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D8" s="110" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E8" s="87" t="s">
+        <v>1350</v>
       </c>
       <c r="H8" s="70"/>
       <c r="I8" s="70"/>
@@ -16959,14 +16962,14 @@
       <c r="B9" s="86" t="s">
         <v>1149</v>
       </c>
-      <c r="C9" s="88" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D9" s="88" t="s">
-        <v>1366</v>
-      </c>
-      <c r="E9" s="88" t="s">
-        <v>1367</v>
+      <c r="C9" s="110" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D9" s="110" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E9" s="87" t="s">
+        <v>1351</v>
       </c>
       <c r="H9" s="70"/>
       <c r="I9" s="70"/>
@@ -16979,14 +16982,14 @@
       <c r="B10" s="86" t="s">
         <v>1150</v>
       </c>
-      <c r="C10" s="88" t="s">
-        <v>1368</v>
-      </c>
-      <c r="D10" s="88" t="s">
-        <v>1369</v>
-      </c>
-      <c r="E10" s="88" t="s">
-        <v>1370</v>
+      <c r="C10" s="110" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D10" s="110" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E10" s="87" t="s">
+        <v>1352</v>
       </c>
       <c r="H10" s="70"/>
       <c r="I10" s="70"/>
@@ -16999,14 +17002,14 @@
       <c r="B11" s="86" t="s">
         <v>1151</v>
       </c>
-      <c r="C11" s="88" t="s">
-        <v>1371</v>
-      </c>
-      <c r="D11" s="88" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E11" s="88" t="s">
-        <v>1373</v>
+      <c r="C11" s="110" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D11" s="110" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E11" s="87" t="s">
+        <v>1353</v>
       </c>
       <c r="H11" s="70"/>
       <c r="I11" s="70"/>
@@ -17019,14 +17022,14 @@
       <c r="B12" s="86" t="s">
         <v>1152</v>
       </c>
-      <c r="C12" s="88" t="s">
-        <v>1374</v>
-      </c>
-      <c r="D12" s="88" t="s">
-        <v>1375</v>
-      </c>
-      <c r="E12" s="88" t="s">
-        <v>1376</v>
+      <c r="C12" s="110" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D12" s="110" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E12" s="87" t="s">
+        <v>1354</v>
       </c>
       <c r="H12" s="70"/>
       <c r="I12" s="70"/>
@@ -17039,14 +17042,14 @@
       <c r="B13" s="86" t="s">
         <v>1153</v>
       </c>
-      <c r="C13" s="88" t="s">
-        <v>1377</v>
-      </c>
-      <c r="D13" s="88" t="s">
-        <v>1378</v>
-      </c>
-      <c r="E13" s="88" t="s">
-        <v>1379</v>
+      <c r="C13" s="110" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D13" s="110" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E13" s="87" t="s">
+        <v>1355</v>
       </c>
       <c r="H13" s="70"/>
       <c r="I13" s="70"/>
@@ -17059,14 +17062,14 @@
       <c r="B14" s="86" t="s">
         <v>1154</v>
       </c>
-      <c r="C14" s="88" t="s">
-        <v>1380</v>
-      </c>
-      <c r="D14" s="88" t="s">
-        <v>1381</v>
-      </c>
-      <c r="E14" s="88" t="s">
-        <v>1382</v>
+      <c r="C14" s="110" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D14" s="110" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E14" s="87" t="s">
+        <v>1356</v>
       </c>
       <c r="H14" s="70"/>
       <c r="I14" s="70"/>
@@ -17079,14 +17082,14 @@
       <c r="B15" s="86" t="s">
         <v>1155</v>
       </c>
-      <c r="C15" s="88" t="s">
-        <v>1383</v>
-      </c>
-      <c r="D15" s="88" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E15" s="88" t="s">
-        <v>1385</v>
+      <c r="C15" s="110" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D15" s="110" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E15" s="87" t="s">
+        <v>1357</v>
       </c>
       <c r="H15" s="70"/>
       <c r="I15" s="70"/>
@@ -17099,14 +17102,14 @@
       <c r="B16" s="86" t="s">
         <v>1156</v>
       </c>
-      <c r="C16" s="88" t="s">
-        <v>1386</v>
-      </c>
-      <c r="D16" s="88" t="s">
-        <v>1387</v>
-      </c>
-      <c r="E16" s="88" t="s">
-        <v>1388</v>
+      <c r="C16" s="110" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D16" s="110" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E16" s="87" t="s">
+        <v>1358</v>
       </c>
       <c r="H16" s="70"/>
       <c r="I16" s="70"/>
@@ -17119,14 +17122,14 @@
       <c r="B17" s="86" t="s">
         <v>1157</v>
       </c>
-      <c r="C17" s="88" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D17" s="88" t="s">
-        <v>1390</v>
-      </c>
-      <c r="E17" s="88" t="s">
-        <v>1391</v>
+      <c r="C17" s="110" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D17" s="110" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E17" s="87" t="s">
+        <v>1359</v>
       </c>
       <c r="H17" s="70"/>
       <c r="I17" s="70"/>
@@ -17139,14 +17142,14 @@
       <c r="B18" s="86" t="s">
         <v>1158</v>
       </c>
-      <c r="C18" s="88" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D18" s="88" t="s">
-        <v>1393</v>
-      </c>
-      <c r="E18" s="88" t="s">
-        <v>1394</v>
+      <c r="C18" s="110" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D18" s="110" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E18" s="87" t="s">
+        <v>1360</v>
       </c>
       <c r="H18" s="70"/>
       <c r="I18" s="70"/>
@@ -17159,14 +17162,14 @@
       <c r="B19" s="86" t="s">
         <v>1159</v>
       </c>
-      <c r="C19" s="88" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D19" s="88" t="s">
-        <v>1396</v>
-      </c>
-      <c r="E19" s="88" t="s">
-        <v>1397</v>
+      <c r="C19" s="110" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D19" s="110" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E19" s="87" t="s">
+        <v>1361</v>
       </c>
       <c r="H19" s="70"/>
       <c r="I19" s="70"/>
@@ -17179,14 +17182,14 @@
       <c r="B20" s="86" t="s">
         <v>1160</v>
       </c>
-      <c r="C20" s="88" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D20" s="88" t="s">
-        <v>1399</v>
-      </c>
-      <c r="E20" s="88" t="s">
-        <v>1400</v>
+      <c r="C20" s="110" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D20" s="110" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E20" s="87" t="s">
+        <v>1362</v>
       </c>
       <c r="H20" s="70"/>
       <c r="I20" s="70"/>
@@ -17199,14 +17202,14 @@
       <c r="B21" s="86" t="s">
         <v>1161</v>
       </c>
-      <c r="C21" s="88" t="s">
-        <v>1401</v>
-      </c>
-      <c r="D21" s="88" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E21" s="88" t="s">
-        <v>1403</v>
+      <c r="C21" s="110" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D21" s="110" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E21" s="87" t="s">
+        <v>1363</v>
       </c>
       <c r="H21" s="70"/>
       <c r="I21" s="70"/>
@@ -17219,14 +17222,14 @@
       <c r="B22" s="86" t="s">
         <v>1162</v>
       </c>
-      <c r="C22" s="88" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D22" s="88" t="s">
-        <v>1405</v>
-      </c>
-      <c r="E22" s="88" t="s">
-        <v>1406</v>
+      <c r="C22" s="110" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D22" s="110" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E22" s="87" t="s">
+        <v>1364</v>
       </c>
       <c r="H22" s="70"/>
       <c r="I22" s="70"/>
@@ -17239,14 +17242,14 @@
       <c r="B23" s="86" t="s">
         <v>1163</v>
       </c>
-      <c r="C23" s="88" t="s">
-        <v>1407</v>
-      </c>
-      <c r="D23" s="88" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E23" s="88" t="s">
-        <v>1409</v>
+      <c r="C23" s="110" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D23" s="110" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E23" s="87" t="s">
+        <v>1365</v>
       </c>
       <c r="H23" s="70"/>
       <c r="I23" s="70"/>
@@ -17259,14 +17262,14 @@
       <c r="B24" s="86" t="s">
         <v>1164</v>
       </c>
-      <c r="C24" s="88" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D24" s="88" t="s">
-        <v>1411</v>
-      </c>
-      <c r="E24" s="88" t="s">
-        <v>1412</v>
+      <c r="C24" s="110" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D24" s="110" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E24" s="87" t="s">
+        <v>1366</v>
       </c>
       <c r="H24" s="70"/>
       <c r="I24" s="70"/>
@@ -17279,14 +17282,14 @@
       <c r="B25" s="86" t="s">
         <v>1165</v>
       </c>
-      <c r="C25" s="88" t="s">
-        <v>1413</v>
-      </c>
-      <c r="D25" s="88" t="s">
-        <v>1414</v>
-      </c>
-      <c r="E25" s="88" t="s">
-        <v>1415</v>
+      <c r="C25" s="110" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D25" s="110" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E25" s="87" t="s">
+        <v>1367</v>
       </c>
       <c r="H25" s="70"/>
       <c r="I25" s="70"/>
@@ -17299,14 +17302,14 @@
       <c r="B26" s="86" t="s">
         <v>1166</v>
       </c>
-      <c r="C26" s="88" t="s">
-        <v>1416</v>
-      </c>
-      <c r="D26" s="88" t="s">
-        <v>1417</v>
-      </c>
-      <c r="E26" s="88" t="s">
-        <v>1418</v>
+      <c r="C26" s="110" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D26" s="110" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E26" s="87" t="s">
+        <v>1368</v>
       </c>
       <c r="H26" s="70"/>
       <c r="I26" s="70"/>
@@ -17319,14 +17322,14 @@
       <c r="B27" s="86" t="s">
         <v>1167</v>
       </c>
-      <c r="C27" s="88" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D27" s="88" t="s">
-        <v>1420</v>
-      </c>
-      <c r="E27" s="88" t="s">
-        <v>1421</v>
+      <c r="C27" s="110" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D27" s="110" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E27" s="87" t="s">
+        <v>1369</v>
       </c>
       <c r="H27" s="70"/>
       <c r="I27" s="70"/>
@@ -17339,14 +17342,14 @@
       <c r="B28" s="86" t="s">
         <v>1168</v>
       </c>
-      <c r="C28" s="88" t="s">
-        <v>1422</v>
-      </c>
-      <c r="D28" s="88" t="s">
-        <v>1423</v>
-      </c>
-      <c r="E28" s="88" t="s">
-        <v>1424</v>
+      <c r="C28" s="110" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D28" s="110" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E28" s="87" t="s">
+        <v>1370</v>
       </c>
       <c r="H28" s="70"/>
       <c r="I28" s="70"/>
@@ -17359,14 +17362,14 @@
       <c r="B29" s="86" t="s">
         <v>1169</v>
       </c>
-      <c r="C29" s="88" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D29" s="88" t="s">
-        <v>1426</v>
-      </c>
-      <c r="E29" s="88" t="s">
-        <v>1427</v>
+      <c r="C29" s="110" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D29" s="110" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E29" s="87" t="s">
+        <v>1371</v>
       </c>
       <c r="H29" s="70"/>
       <c r="I29" s="70"/>
@@ -17379,14 +17382,14 @@
       <c r="B30" s="86" t="s">
         <v>1170</v>
       </c>
-      <c r="C30" s="88" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D30" s="88" t="s">
-        <v>1429</v>
-      </c>
-      <c r="E30" s="88" t="s">
-        <v>1430</v>
+      <c r="C30" s="110" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D30" s="110" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E30" s="87" t="s">
+        <v>1372</v>
       </c>
       <c r="H30" s="70"/>
       <c r="I30" s="70"/>
@@ -17399,14 +17402,14 @@
       <c r="B31" s="86" t="s">
         <v>1171</v>
       </c>
-      <c r="C31" s="88" t="s">
-        <v>1431</v>
-      </c>
-      <c r="D31" s="88" t="s">
-        <v>1432</v>
-      </c>
-      <c r="E31" s="88" t="s">
-        <v>1433</v>
+      <c r="C31" s="110" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D31" s="110" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E31" s="87" t="s">
+        <v>1373</v>
       </c>
       <c r="H31" s="70"/>
       <c r="I31" s="70"/>
@@ -17419,14 +17422,14 @@
       <c r="B32" s="86" t="s">
         <v>1172</v>
       </c>
-      <c r="C32" s="88" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D32" s="88" t="s">
-        <v>1435</v>
-      </c>
-      <c r="E32" s="88" t="s">
-        <v>1436</v>
+      <c r="C32" s="110" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D32" s="110" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E32" s="87" t="s">
+        <v>1374</v>
       </c>
       <c r="H32" s="70"/>
       <c r="I32" s="70"/>
@@ -17439,14 +17442,14 @@
       <c r="B33" s="86" t="s">
         <v>1173</v>
       </c>
-      <c r="C33" s="88" t="s">
-        <v>1437</v>
-      </c>
-      <c r="D33" s="88" t="s">
-        <v>1438</v>
-      </c>
-      <c r="E33" s="88" t="s">
-        <v>1439</v>
+      <c r="C33" s="110" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D33" s="110" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E33" s="87" t="s">
+        <v>1375</v>
       </c>
       <c r="H33" s="70"/>
       <c r="I33" s="70"/>
@@ -17459,14 +17462,14 @@
       <c r="B34" s="86" t="s">
         <v>1174</v>
       </c>
-      <c r="C34" s="88" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D34" s="88" t="s">
-        <v>1441</v>
-      </c>
-      <c r="E34" s="88" t="s">
-        <v>1442</v>
+      <c r="C34" s="110" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D34" s="110" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E34" s="87" t="s">
+        <v>1376</v>
       </c>
       <c r="H34" s="70"/>
       <c r="I34" s="70"/>
@@ -17479,14 +17482,14 @@
       <c r="B35" s="86" t="s">
         <v>1175</v>
       </c>
-      <c r="C35" s="88" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D35" s="88" t="s">
-        <v>1444</v>
-      </c>
-      <c r="E35" s="88" t="s">
-        <v>1445</v>
+      <c r="C35" s="110" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D35" s="110" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E35" s="87" t="s">
+        <v>1377</v>
       </c>
       <c r="H35" s="70"/>
       <c r="I35" s="70"/>
@@ -17499,14 +17502,14 @@
       <c r="B36" s="86" t="s">
         <v>1121</v>
       </c>
-      <c r="C36" s="88" t="s">
-        <v>1446</v>
-      </c>
-      <c r="D36" s="88" t="s">
-        <v>1447</v>
-      </c>
-      <c r="E36" s="88" t="s">
-        <v>1448</v>
+      <c r="C36" s="110" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D36" s="110" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E36" s="87" t="s">
+        <v>1378</v>
       </c>
       <c r="H36" s="70"/>
       <c r="I36" s="70"/>
@@ -17519,14 +17522,14 @@
       <c r="B37" s="86" t="s">
         <v>1176</v>
       </c>
-      <c r="C37" s="88" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D37" s="88" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E37" s="88" t="s">
-        <v>1451</v>
+      <c r="C37" s="110" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D37" s="110" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E37" s="87" t="s">
+        <v>1379</v>
       </c>
       <c r="H37" s="70"/>
       <c r="I37" s="70"/>
@@ -17539,14 +17542,14 @@
       <c r="B38" s="86" t="s">
         <v>1177</v>
       </c>
-      <c r="C38" s="88" t="s">
-        <v>1452</v>
-      </c>
-      <c r="D38" s="88" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E38" s="88" t="s">
-        <v>1454</v>
+      <c r="C38" s="110" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D38" s="110" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E38" s="87" t="s">
+        <v>1380</v>
       </c>
       <c r="H38" s="70"/>
       <c r="I38" s="70"/>
@@ -17559,14 +17562,14 @@
       <c r="B39" s="86" t="s">
         <v>1178</v>
       </c>
-      <c r="C39" s="88" t="s">
-        <v>1455</v>
-      </c>
-      <c r="D39" s="88" t="s">
-        <v>1456</v>
-      </c>
-      <c r="E39" s="88" t="s">
-        <v>1457</v>
+      <c r="C39" s="110" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D39" s="110" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E39" s="87" t="s">
+        <v>1381</v>
       </c>
       <c r="H39" s="70"/>
       <c r="I39" s="70"/>
@@ -17579,14 +17582,14 @@
       <c r="B40" s="86" t="s">
         <v>1179</v>
       </c>
-      <c r="C40" s="88" t="s">
-        <v>1458</v>
-      </c>
-      <c r="D40" s="88" t="s">
-        <v>1459</v>
-      </c>
-      <c r="E40" s="88" t="s">
-        <v>1460</v>
+      <c r="C40" s="110" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D40" s="110" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E40" s="87" t="s">
+        <v>1382</v>
       </c>
       <c r="H40" s="70"/>
       <c r="I40" s="70"/>
@@ -17599,14 +17602,14 @@
       <c r="B41" s="86" t="s">
         <v>1180</v>
       </c>
-      <c r="C41" s="88" t="s">
-        <v>1461</v>
-      </c>
-      <c r="D41" s="88" t="s">
-        <v>1462</v>
-      </c>
-      <c r="E41" s="88" t="s">
-        <v>1463</v>
+      <c r="C41" s="110" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D41" s="110" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E41" s="87" t="s">
+        <v>1383</v>
       </c>
       <c r="H41" s="70"/>
       <c r="I41" s="70"/>
@@ -17619,14 +17622,14 @@
       <c r="B42" s="86" t="s">
         <v>1181</v>
       </c>
-      <c r="C42" s="88" t="s">
-        <v>1464</v>
-      </c>
-      <c r="D42" s="88" t="s">
-        <v>1465</v>
-      </c>
-      <c r="E42" s="88" t="s">
-        <v>1466</v>
+      <c r="C42" s="110" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D42" s="110" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E42" s="87" t="s">
+        <v>1384</v>
       </c>
       <c r="H42" s="70"/>
       <c r="I42" s="70"/>
@@ -17639,14 +17642,14 @@
       <c r="B43" s="86" t="s">
         <v>1182</v>
       </c>
-      <c r="C43" s="88" t="s">
-        <v>1467</v>
-      </c>
-      <c r="D43" s="88" t="s">
-        <v>1468</v>
-      </c>
-      <c r="E43" s="88" t="s">
-        <v>1469</v>
+      <c r="C43" s="110" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D43" s="110" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E43" s="87" t="s">
+        <v>1385</v>
       </c>
       <c r="H43" s="70"/>
       <c r="I43" s="70"/>
@@ -17659,14 +17662,14 @@
       <c r="B44" s="86" t="s">
         <v>1183</v>
       </c>
-      <c r="C44" s="88" t="s">
-        <v>1470</v>
-      </c>
-      <c r="D44" s="88" t="s">
-        <v>1471</v>
-      </c>
-      <c r="E44" s="88" t="s">
-        <v>1472</v>
+      <c r="C44" s="110" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D44" s="110" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E44" s="87" t="s">
+        <v>1386</v>
       </c>
       <c r="H44" s="70"/>
       <c r="I44" s="70"/>
@@ -17679,14 +17682,14 @@
       <c r="B45" s="86" t="s">
         <v>1184</v>
       </c>
-      <c r="C45" s="88" t="s">
-        <v>1473</v>
-      </c>
-      <c r="D45" s="88" t="s">
-        <v>1474</v>
-      </c>
-      <c r="E45" s="88" t="s">
-        <v>1475</v>
+      <c r="C45" s="110" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D45" s="110" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E45" s="87" t="s">
+        <v>1387</v>
       </c>
       <c r="H45" s="70"/>
       <c r="I45" s="70"/>
@@ -17699,12 +17702,12 @@
       <c r="B46" s="86" t="s">
         <v>1185</v>
       </c>
-      <c r="C46" s="88" t="s">
-        <v>1476</v>
-      </c>
-      <c r="D46" s="86"/>
-      <c r="E46" s="88" t="s">
-        <v>1477</v>
+      <c r="C46" s="36"/>
+      <c r="D46" s="110" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E46" s="87" t="s">
+        <v>1388</v>
       </c>
       <c r="H46" s="70"/>
       <c r="I46" s="70"/>
@@ -17717,12 +17720,12 @@
       <c r="B47" s="86" t="s">
         <v>1186</v>
       </c>
-      <c r="C47" s="88" t="s">
-        <v>1478</v>
-      </c>
-      <c r="D47" s="86"/>
-      <c r="E47" s="88" t="s">
-        <v>1479</v>
+      <c r="C47" s="36"/>
+      <c r="D47" s="110" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E47" s="87" t="s">
+        <v>1389</v>
       </c>
       <c r="H47" s="70"/>
       <c r="I47" s="70"/>
@@ -17735,12 +17738,12 @@
       <c r="B48" s="86" t="s">
         <v>1187</v>
       </c>
-      <c r="C48" s="88" t="s">
-        <v>1480</v>
-      </c>
-      <c r="D48" s="86"/>
-      <c r="E48" s="88" t="s">
-        <v>1481</v>
+      <c r="C48" s="36"/>
+      <c r="D48" s="110" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E48" s="87" t="s">
+        <v>1390</v>
       </c>
       <c r="H48" s="70"/>
       <c r="I48" s="70"/>
@@ -17753,12 +17756,12 @@
       <c r="B49" s="86" t="s">
         <v>1188</v>
       </c>
-      <c r="C49" s="88" t="s">
-        <v>1482</v>
-      </c>
-      <c r="D49" s="86"/>
-      <c r="E49" s="88" t="s">
-        <v>1483</v>
+      <c r="C49" s="36"/>
+      <c r="D49" s="110" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E49" s="87" t="s">
+        <v>1391</v>
       </c>
       <c r="H49" s="70"/>
       <c r="I49" s="70"/>
@@ -17771,12 +17774,12 @@
       <c r="B50" s="86" t="s">
         <v>1189</v>
       </c>
-      <c r="C50" s="88" t="s">
-        <v>1484</v>
-      </c>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88" t="s">
-        <v>1485</v>
+      <c r="C50" s="36"/>
+      <c r="D50" s="110" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E50" s="87" t="s">
+        <v>1392</v>
       </c>
       <c r="H50" s="70"/>
       <c r="I50" s="70"/>
@@ -17789,12 +17792,12 @@
       <c r="B51" s="86" t="s">
         <v>1190</v>
       </c>
-      <c r="C51" s="88" t="s">
-        <v>1486</v>
-      </c>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88" t="s">
-        <v>1487</v>
+      <c r="C51" s="36"/>
+      <c r="D51" s="110" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E51" s="87" t="s">
+        <v>1393</v>
       </c>
       <c r="H51" s="70"/>
       <c r="I51" s="70"/>
@@ -17807,12 +17810,12 @@
       <c r="B52" s="86" t="s">
         <v>1191</v>
       </c>
-      <c r="C52" s="88" t="s">
-        <v>1488</v>
-      </c>
-      <c r="D52" s="88"/>
-      <c r="E52" s="88" t="s">
-        <v>1489</v>
+      <c r="C52" s="36"/>
+      <c r="D52" s="110" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E52" s="87" t="s">
+        <v>1394</v>
       </c>
       <c r="H52" s="70"/>
       <c r="I52" s="70"/>
@@ -17825,12 +17828,12 @@
       <c r="B53" s="86" t="s">
         <v>1192</v>
       </c>
-      <c r="C53" s="88" t="s">
-        <v>1490</v>
-      </c>
-      <c r="D53" s="86"/>
-      <c r="E53" s="88" t="s">
-        <v>1491</v>
+      <c r="C53" s="36"/>
+      <c r="D53" s="110" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E53" s="87" t="s">
+        <v>1395</v>
       </c>
       <c r="H53" s="70"/>
       <c r="I53" s="70"/>
@@ -17843,12 +17846,12 @@
       <c r="B54" s="86" t="s">
         <v>1193</v>
       </c>
-      <c r="C54" s="88" t="s">
-        <v>1492</v>
-      </c>
-      <c r="D54" s="86"/>
-      <c r="E54" s="88" t="s">
-        <v>1493</v>
+      <c r="C54" s="36"/>
+      <c r="D54" s="110" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E54" s="87" t="s">
+        <v>1396</v>
       </c>
       <c r="H54" s="70"/>
       <c r="I54" s="70"/>
@@ -17861,12 +17864,12 @@
       <c r="B55" s="86" t="s">
         <v>1194</v>
       </c>
-      <c r="C55" s="88" t="s">
-        <v>1494</v>
-      </c>
-      <c r="D55" s="88"/>
-      <c r="E55" s="88" t="s">
-        <v>1495</v>
+      <c r="C55" s="36"/>
+      <c r="D55" s="110" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E55" s="87" t="s">
+        <v>1397</v>
       </c>
       <c r="H55" s="70"/>
       <c r="I55" s="70"/>
@@ -17879,12 +17882,12 @@
       <c r="B56" s="86" t="s">
         <v>1195</v>
       </c>
-      <c r="C56" s="88" t="s">
-        <v>1496</v>
-      </c>
-      <c r="D56" s="88"/>
-      <c r="E56" s="88" t="s">
-        <v>1497</v>
+      <c r="C56" s="36"/>
+      <c r="D56" s="110" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E56" s="87" t="s">
+        <v>1398</v>
       </c>
       <c r="H56" s="70"/>
       <c r="I56" s="70"/>
@@ -17897,12 +17900,12 @@
       <c r="B57" s="86" t="s">
         <v>1196</v>
       </c>
-      <c r="C57" s="88" t="s">
-        <v>1498</v>
-      </c>
-      <c r="D57" s="88"/>
-      <c r="E57" s="88" t="s">
-        <v>1499</v>
+      <c r="C57" s="36"/>
+      <c r="D57" s="110" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E57" s="87" t="s">
+        <v>1399</v>
       </c>
       <c r="H57" s="70"/>
       <c r="I57" s="70"/>
@@ -17915,12 +17918,12 @@
       <c r="B58" s="86" t="s">
         <v>1197</v>
       </c>
-      <c r="C58" s="88" t="s">
-        <v>1500</v>
-      </c>
-      <c r="D58" s="86"/>
-      <c r="E58" s="88" t="s">
-        <v>1501</v>
+      <c r="C58" s="36"/>
+      <c r="D58" s="110" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E58" s="87" t="s">
+        <v>1400</v>
       </c>
       <c r="H58" s="70"/>
       <c r="I58" s="70"/>
@@ -17933,12 +17936,12 @@
       <c r="B59" s="86" t="s">
         <v>1198</v>
       </c>
-      <c r="C59" s="88" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D59" s="86"/>
-      <c r="E59" s="88" t="s">
-        <v>1503</v>
+      <c r="C59" s="36"/>
+      <c r="D59" s="110" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E59" s="87" t="s">
+        <v>1401</v>
       </c>
       <c r="H59" s="70"/>
       <c r="I59" s="70"/>
@@ -17951,12 +17954,12 @@
       <c r="B60" s="86" t="s">
         <v>1199</v>
       </c>
-      <c r="C60" s="88" t="s">
-        <v>1504</v>
-      </c>
-      <c r="D60" s="88"/>
-      <c r="E60" s="88" t="s">
-        <v>1505</v>
+      <c r="C60" s="36"/>
+      <c r="D60" s="110" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E60" s="87" t="s">
+        <v>1402</v>
       </c>
       <c r="H60" s="70"/>
       <c r="I60" s="70"/>
@@ -17969,12 +17972,12 @@
       <c r="B61" s="86" t="s">
         <v>1200</v>
       </c>
-      <c r="C61" s="88" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D61" s="86"/>
-      <c r="E61" s="88" t="s">
-        <v>1507</v>
+      <c r="C61" s="36"/>
+      <c r="D61" s="110" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E61" s="87" t="s">
+        <v>1403</v>
       </c>
       <c r="H61" s="70"/>
       <c r="I61" s="70"/>
@@ -17987,12 +17990,12 @@
       <c r="B62" s="86" t="s">
         <v>1201</v>
       </c>
-      <c r="C62" s="88" t="s">
-        <v>1508</v>
-      </c>
-      <c r="D62" s="88"/>
-      <c r="E62" s="88" t="s">
-        <v>1509</v>
+      <c r="C62" s="36"/>
+      <c r="D62" s="110" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E62" s="87" t="s">
+        <v>1404</v>
       </c>
       <c r="H62" s="70"/>
       <c r="I62" s="70"/>
@@ -18005,12 +18008,12 @@
       <c r="B63" s="86" t="s">
         <v>1202</v>
       </c>
-      <c r="C63" s="88" t="s">
-        <v>1510</v>
-      </c>
-      <c r="D63" s="86"/>
-      <c r="E63" s="88" t="s">
-        <v>1511</v>
+      <c r="C63" s="36"/>
+      <c r="D63" s="110" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E63" s="87" t="s">
+        <v>1405</v>
       </c>
       <c r="H63" s="70"/>
       <c r="I63" s="70"/>
@@ -18023,12 +18026,12 @@
       <c r="B64" s="86" t="s">
         <v>1203</v>
       </c>
-      <c r="C64" s="88" t="s">
-        <v>1512</v>
-      </c>
-      <c r="D64" s="86"/>
-      <c r="E64" s="88" t="s">
-        <v>1513</v>
+      <c r="C64" s="36"/>
+      <c r="D64" s="110" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E64" s="87" t="s">
+        <v>1406</v>
       </c>
       <c r="H64" s="70"/>
       <c r="I64" s="70"/>
@@ -18041,12 +18044,12 @@
       <c r="B65" s="86" t="s">
         <v>1204</v>
       </c>
-      <c r="C65" s="88" t="s">
-        <v>1514</v>
-      </c>
-      <c r="D65" s="88"/>
-      <c r="E65" s="88" t="s">
-        <v>1515</v>
+      <c r="C65" s="36"/>
+      <c r="D65" s="110" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E65" s="87" t="s">
+        <v>1407</v>
       </c>
       <c r="H65" s="70"/>
       <c r="I65" s="70"/>
@@ -18059,12 +18062,12 @@
       <c r="B66" s="86" t="s">
         <v>1096</v>
       </c>
-      <c r="C66" s="88" t="s">
-        <v>1516</v>
-      </c>
-      <c r="D66" s="86"/>
-      <c r="E66" s="88" t="s">
-        <v>1517</v>
+      <c r="C66" s="36"/>
+      <c r="D66" s="110" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E66" s="87" t="s">
+        <v>1408</v>
       </c>
       <c r="H66" s="70"/>
       <c r="I66" s="70"/>
@@ -18077,12 +18080,12 @@
       <c r="B67" s="86" t="s">
         <v>1205</v>
       </c>
-      <c r="C67" s="88" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D67" s="86"/>
-      <c r="E67" s="88" t="s">
-        <v>1519</v>
+      <c r="C67" s="36"/>
+      <c r="D67" s="110" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E67" s="87" t="s">
+        <v>1409</v>
       </c>
       <c r="H67" s="70"/>
       <c r="I67" s="70"/>
@@ -18095,12 +18098,12 @@
       <c r="B68" s="86" t="s">
         <v>1206</v>
       </c>
-      <c r="C68" s="88" t="s">
-        <v>1520</v>
-      </c>
-      <c r="D68" s="86"/>
-      <c r="E68" s="88" t="s">
-        <v>1521</v>
+      <c r="C68" s="36"/>
+      <c r="D68" s="110" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E68" s="87" t="s">
+        <v>1410</v>
       </c>
       <c r="H68" s="70"/>
       <c r="I68" s="70"/>
@@ -18113,12 +18116,12 @@
       <c r="B69" s="86" t="s">
         <v>1207</v>
       </c>
-      <c r="C69" s="88" t="s">
-        <v>1522</v>
-      </c>
-      <c r="D69" s="86"/>
-      <c r="E69" s="88" t="s">
-        <v>1523</v>
+      <c r="C69" s="36"/>
+      <c r="D69" s="110" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E69" s="87" t="s">
+        <v>1411</v>
       </c>
       <c r="H69" s="70"/>
       <c r="I69" s="70"/>
@@ -18131,12 +18134,12 @@
       <c r="B70" s="86" t="s">
         <v>1208</v>
       </c>
-      <c r="C70" s="88" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D70" s="88"/>
-      <c r="E70" s="88" t="s">
-        <v>1525</v>
+      <c r="C70" s="36"/>
+      <c r="D70" s="110" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E70" s="87" t="s">
+        <v>1412</v>
       </c>
       <c r="H70" s="70"/>
       <c r="I70" s="70"/>
@@ -18149,12 +18152,12 @@
       <c r="B71" s="86" t="s">
         <v>1126</v>
       </c>
-      <c r="C71" s="88" t="s">
-        <v>1526</v>
-      </c>
-      <c r="D71" s="88"/>
-      <c r="E71" s="88" t="s">
-        <v>1527</v>
+      <c r="C71" s="36"/>
+      <c r="D71" s="110" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E71" s="87" t="s">
+        <v>1413</v>
       </c>
       <c r="H71" s="70"/>
       <c r="I71" s="70"/>
@@ -18167,12 +18170,12 @@
       <c r="B72" s="86" t="s">
         <v>1209</v>
       </c>
-      <c r="C72" s="88" t="s">
-        <v>1528</v>
-      </c>
-      <c r="D72" s="88"/>
-      <c r="E72" s="88" t="s">
-        <v>1529</v>
+      <c r="C72" s="36"/>
+      <c r="D72" s="110" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E72" s="87" t="s">
+        <v>1414</v>
       </c>
       <c r="H72" s="70"/>
       <c r="I72" s="70"/>
@@ -18185,12 +18188,12 @@
       <c r="B73" s="86" t="s">
         <v>1210</v>
       </c>
-      <c r="C73" s="88" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D73" s="86"/>
-      <c r="E73" s="88" t="s">
-        <v>1531</v>
+      <c r="C73" s="36"/>
+      <c r="D73" s="110" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E73" s="87" t="s">
+        <v>1415</v>
       </c>
       <c r="H73" s="70"/>
       <c r="I73" s="70"/>
@@ -18203,12 +18206,12 @@
       <c r="B74" s="86" t="s">
         <v>1211</v>
       </c>
-      <c r="C74" s="88" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D74" s="88"/>
-      <c r="E74" s="88" t="s">
-        <v>1533</v>
+      <c r="C74" s="36"/>
+      <c r="D74" s="110" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E74" s="87" t="s">
+        <v>1416</v>
       </c>
       <c r="H74" s="70"/>
       <c r="I74" s="70"/>
@@ -18221,12 +18224,12 @@
       <c r="B75" s="86" t="s">
         <v>1212</v>
       </c>
-      <c r="C75" s="88" t="s">
-        <v>1534</v>
-      </c>
-      <c r="D75" s="88"/>
-      <c r="E75" s="88" t="s">
-        <v>1535</v>
+      <c r="C75" s="36"/>
+      <c r="D75" s="110" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E75" s="87" t="s">
+        <v>1417</v>
       </c>
       <c r="H75" s="70"/>
       <c r="I75" s="70"/>
@@ -18239,14 +18242,14 @@
       <c r="B76" s="86" t="s">
         <v>1213</v>
       </c>
-      <c r="C76" s="88" t="s">
-        <v>1536</v>
-      </c>
-      <c r="D76" s="88" t="s">
-        <v>1537</v>
-      </c>
-      <c r="E76" s="88" t="s">
-        <v>1538</v>
+      <c r="C76" s="110" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D76" s="110" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E76" s="87" t="s">
+        <v>1418</v>
       </c>
       <c r="H76" s="70"/>
       <c r="I76" s="70"/>
@@ -18259,14 +18262,14 @@
       <c r="B77" s="86" t="s">
         <v>1214</v>
       </c>
-      <c r="C77" s="88" t="s">
-        <v>1539</v>
-      </c>
-      <c r="D77" s="88" t="s">
-        <v>1540</v>
-      </c>
-      <c r="E77" s="88" t="s">
-        <v>1541</v>
+      <c r="C77" s="110" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D77" s="110" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E77" s="87" t="s">
+        <v>1419</v>
       </c>
       <c r="H77" s="70"/>
       <c r="I77" s="70"/>
@@ -18279,14 +18282,14 @@
       <c r="B78" s="86" t="s">
         <v>1215</v>
       </c>
-      <c r="C78" s="88" t="s">
-        <v>1542</v>
-      </c>
-      <c r="D78" s="88" t="s">
-        <v>1543</v>
-      </c>
-      <c r="E78" s="88" t="s">
-        <v>1544</v>
+      <c r="C78" s="110" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D78" s="110" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E78" s="87" t="s">
+        <v>1420</v>
       </c>
       <c r="H78" s="70"/>
       <c r="I78" s="70"/>
@@ -18299,14 +18302,14 @@
       <c r="B79" s="86" t="s">
         <v>1216</v>
       </c>
-      <c r="C79" s="88" t="s">
-        <v>1545</v>
-      </c>
-      <c r="D79" s="88" t="s">
-        <v>1546</v>
-      </c>
-      <c r="E79" s="88" t="s">
-        <v>1547</v>
+      <c r="C79" s="110" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D79" s="110" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E79" s="87" t="s">
+        <v>1421</v>
       </c>
       <c r="H79" s="70"/>
       <c r="I79" s="70"/>
@@ -18319,14 +18322,14 @@
       <c r="B80" s="86" t="s">
         <v>1217</v>
       </c>
-      <c r="C80" s="88" t="s">
-        <v>1548</v>
-      </c>
-      <c r="D80" s="88" t="s">
-        <v>1549</v>
-      </c>
-      <c r="E80" s="88" t="s">
-        <v>1550</v>
+      <c r="C80" s="110" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D80" s="110" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E80" s="87" t="s">
+        <v>1422</v>
       </c>
       <c r="H80" s="70"/>
       <c r="I80" s="70"/>
@@ -18339,14 +18342,14 @@
       <c r="B81" s="86" t="s">
         <v>1218</v>
       </c>
-      <c r="C81" s="88" t="s">
-        <v>1551</v>
-      </c>
-      <c r="D81" s="88" t="s">
-        <v>1552</v>
-      </c>
-      <c r="E81" s="88" t="s">
-        <v>1553</v>
+      <c r="C81" s="110" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D81" s="110" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E81" s="87" t="s">
+        <v>1423</v>
       </c>
       <c r="H81" s="70"/>
       <c r="I81" s="70"/>
@@ -18359,14 +18362,14 @@
       <c r="B82" s="86" t="s">
         <v>1219</v>
       </c>
-      <c r="C82" s="88" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D82" s="88" t="s">
-        <v>1555</v>
-      </c>
-      <c r="E82" s="88" t="s">
-        <v>1556</v>
+      <c r="C82" s="110" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D82" s="110" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E82" s="87" t="s">
+        <v>1424</v>
       </c>
       <c r="H82" s="70"/>
       <c r="I82" s="70"/>
@@ -18379,14 +18382,14 @@
       <c r="B83" s="86" t="s">
         <v>1220</v>
       </c>
-      <c r="C83" s="88" t="s">
-        <v>1557</v>
-      </c>
-      <c r="D83" s="88" t="s">
-        <v>1558</v>
-      </c>
-      <c r="E83" s="88" t="s">
-        <v>1559</v>
+      <c r="C83" s="110" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D83" s="110" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E83" s="87" t="s">
+        <v>1425</v>
       </c>
       <c r="H83" s="70"/>
       <c r="I83" s="70"/>
@@ -18399,14 +18402,14 @@
       <c r="B84" s="86" t="s">
         <v>1221</v>
       </c>
-      <c r="C84" s="88" t="s">
-        <v>1560</v>
-      </c>
-      <c r="D84" s="88" t="s">
-        <v>1561</v>
-      </c>
-      <c r="E84" s="88" t="s">
-        <v>1562</v>
+      <c r="C84" s="110" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D84" s="110" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E84" s="87" t="s">
+        <v>1426</v>
       </c>
       <c r="H84" s="70"/>
       <c r="I84" s="70"/>
@@ -18419,14 +18422,14 @@
       <c r="B85" s="86" t="s">
         <v>1222</v>
       </c>
-      <c r="C85" s="88" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D85" s="88" t="s">
-        <v>1564</v>
-      </c>
-      <c r="E85" s="88" t="s">
-        <v>1565</v>
+      <c r="C85" s="110" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D85" s="110" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E85" s="87" t="s">
+        <v>1427</v>
       </c>
       <c r="H85" s="70"/>
       <c r="I85" s="70"/>
@@ -18439,14 +18442,14 @@
       <c r="B86" s="86" t="s">
         <v>1223</v>
       </c>
-      <c r="C86" s="88" t="s">
-        <v>1566</v>
-      </c>
-      <c r="D86" s="88" t="s">
-        <v>1567</v>
-      </c>
-      <c r="E86" s="88" t="s">
-        <v>1568</v>
+      <c r="C86" s="110" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D86" s="110" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E86" s="87" t="s">
+        <v>1428</v>
       </c>
       <c r="H86" s="70"/>
       <c r="I86" s="70"/>
@@ -18459,14 +18462,14 @@
       <c r="B87" s="86" t="s">
         <v>1224</v>
       </c>
-      <c r="C87" s="88" t="s">
-        <v>1569</v>
-      </c>
-      <c r="D87" s="88" t="s">
-        <v>1570</v>
-      </c>
-      <c r="E87" s="88" t="s">
-        <v>1571</v>
+      <c r="C87" s="110" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D87" s="110" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E87" s="87" t="s">
+        <v>1429</v>
       </c>
       <c r="H87" s="70"/>
       <c r="I87" s="70"/>
@@ -18479,14 +18482,14 @@
       <c r="B88" s="86" t="s">
         <v>1225</v>
       </c>
-      <c r="C88" s="88" t="s">
-        <v>1572</v>
-      </c>
-      <c r="D88" s="88" t="s">
-        <v>1573</v>
-      </c>
-      <c r="E88" s="88" t="s">
-        <v>1574</v>
+      <c r="C88" s="110" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D88" s="110" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E88" s="87" t="s">
+        <v>1430</v>
       </c>
       <c r="H88" s="70"/>
       <c r="I88" s="70"/>
@@ -18499,14 +18502,14 @@
       <c r="B89" s="86" t="s">
         <v>1226</v>
       </c>
-      <c r="C89" s="88" t="s">
-        <v>1575</v>
-      </c>
-      <c r="D89" s="88" t="s">
-        <v>1576</v>
-      </c>
-      <c r="E89" s="88" t="s">
-        <v>1577</v>
+      <c r="C89" s="110" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D89" s="110" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E89" s="87" t="s">
+        <v>1431</v>
       </c>
       <c r="H89" s="70"/>
       <c r="I89" s="70"/>
@@ -18519,14 +18522,14 @@
       <c r="B90" s="86" t="s">
         <v>1227</v>
       </c>
-      <c r="C90" s="88" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D90" s="88" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E90" s="88" t="s">
-        <v>1580</v>
+      <c r="C90" s="110" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D90" s="110" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E90" s="87" t="s">
+        <v>1432</v>
       </c>
       <c r="H90" s="70"/>
       <c r="I90" s="70"/>
@@ -18539,14 +18542,14 @@
       <c r="B91" s="86" t="s">
         <v>1228</v>
       </c>
-      <c r="C91" s="88" t="s">
-        <v>1581</v>
-      </c>
-      <c r="D91" s="88" t="s">
-        <v>1582</v>
-      </c>
-      <c r="E91" s="88" t="s">
-        <v>1583</v>
+      <c r="C91" s="110" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D91" s="110" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E91" s="87" t="s">
+        <v>1433</v>
       </c>
       <c r="H91" s="70"/>
       <c r="I91" s="70"/>
@@ -18559,14 +18562,14 @@
       <c r="B92" s="86" t="s">
         <v>1229</v>
       </c>
-      <c r="C92" s="88" t="s">
-        <v>1584</v>
-      </c>
-      <c r="D92" s="88" t="s">
-        <v>1585</v>
-      </c>
-      <c r="E92" s="88" t="s">
-        <v>1586</v>
+      <c r="C92" s="110" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D92" s="110" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E92" s="87" t="s">
+        <v>1434</v>
       </c>
       <c r="H92" s="70"/>
       <c r="I92" s="70"/>
@@ -18579,14 +18582,14 @@
       <c r="B93" s="86" t="s">
         <v>1230</v>
       </c>
-      <c r="C93" s="88" t="s">
-        <v>1587</v>
-      </c>
-      <c r="D93" s="88" t="s">
-        <v>1588</v>
-      </c>
-      <c r="E93" s="88" t="s">
-        <v>1589</v>
+      <c r="C93" s="110" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D93" s="110" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E93" s="87" t="s">
+        <v>1435</v>
       </c>
       <c r="H93" s="70"/>
       <c r="I93" s="70"/>
@@ -18599,14 +18602,14 @@
       <c r="B94" s="86" t="s">
         <v>1231</v>
       </c>
-      <c r="C94" s="88" t="s">
-        <v>1590</v>
-      </c>
-      <c r="D94" s="88" t="s">
-        <v>1591</v>
-      </c>
-      <c r="E94" s="88" t="s">
-        <v>1592</v>
+      <c r="C94" s="110" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D94" s="110" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E94" s="87" t="s">
+        <v>1436</v>
       </c>
       <c r="H94" s="70"/>
       <c r="I94" s="70"/>
@@ -18619,14 +18622,14 @@
       <c r="B95" s="86" t="s">
         <v>1232</v>
       </c>
-      <c r="C95" s="88" t="s">
-        <v>1593</v>
-      </c>
-      <c r="D95" s="88" t="s">
-        <v>1594</v>
-      </c>
-      <c r="E95" s="88" t="s">
-        <v>1595</v>
+      <c r="C95" s="110" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D95" s="110" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E95" s="87" t="s">
+        <v>1437</v>
       </c>
       <c r="H95" s="70"/>
       <c r="I95" s="70"/>
@@ -18639,14 +18642,14 @@
       <c r="B96" s="86" t="s">
         <v>1233</v>
       </c>
-      <c r="C96" s="88" t="s">
-        <v>1596</v>
-      </c>
-      <c r="D96" s="88" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E96" s="88" t="s">
-        <v>1598</v>
+      <c r="C96" s="110" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D96" s="110" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E96" s="87" t="s">
+        <v>1438</v>
       </c>
       <c r="H96" s="70"/>
       <c r="I96" s="70"/>
@@ -18659,14 +18662,14 @@
       <c r="B97" s="86" t="s">
         <v>1234</v>
       </c>
-      <c r="C97" s="88" t="s">
-        <v>1599</v>
-      </c>
-      <c r="D97" s="88" t="s">
-        <v>1600</v>
-      </c>
-      <c r="E97" s="88" t="s">
-        <v>1601</v>
+      <c r="C97" s="110" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D97" s="110" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E97" s="87" t="s">
+        <v>1439</v>
       </c>
       <c r="H97" s="70"/>
       <c r="I97" s="70"/>
@@ -18679,12 +18682,12 @@
       <c r="B98" s="86" t="s">
         <v>1131</v>
       </c>
-      <c r="C98" s="88" t="s">
-        <v>1602</v>
-      </c>
-      <c r="D98" s="86"/>
-      <c r="E98" s="88" t="s">
-        <v>1603</v>
+      <c r="C98" s="36"/>
+      <c r="D98" s="110" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E98" s="87" t="s">
+        <v>1440</v>
       </c>
       <c r="H98" s="70"/>
       <c r="I98" s="70"/>
@@ -18697,14 +18700,14 @@
       <c r="B99" s="86" t="s">
         <v>1235</v>
       </c>
-      <c r="C99" s="88" t="s">
-        <v>1604</v>
-      </c>
-      <c r="D99" s="88" t="s">
-        <v>1605</v>
-      </c>
-      <c r="E99" s="88" t="s">
-        <v>1606</v>
+      <c r="C99" s="110" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D99" s="110" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E99" s="87" t="s">
+        <v>1441</v>
       </c>
       <c r="H99" s="70"/>
       <c r="I99" s="70"/>
@@ -18717,14 +18720,14 @@
       <c r="B100" s="86" t="s">
         <v>1107</v>
       </c>
-      <c r="C100" s="88" t="s">
-        <v>1607</v>
-      </c>
-      <c r="D100" s="88" t="s">
-        <v>1608</v>
-      </c>
-      <c r="E100" s="88" t="s">
-        <v>1609</v>
+      <c r="C100" s="110" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D100" s="110" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E100" s="87" t="s">
+        <v>1442</v>
       </c>
       <c r="H100" s="70"/>
       <c r="I100" s="70"/>
@@ -18737,11 +18740,11 @@
       <c r="B101" s="86" t="s">
         <v>1236</v>
       </c>
-      <c r="C101" s="86"/>
-      <c r="D101" s="88" t="s">
-        <v>1610</v>
-      </c>
-      <c r="E101" s="89"/>
+      <c r="C101" s="110" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D101" s="36"/>
+      <c r="E101" s="88"/>
       <c r="H101" s="70"/>
       <c r="I101" s="70"/>
       <c r="J101" s="70"/>
@@ -18753,12 +18756,12 @@
       <c r="B102" s="86" t="s">
         <v>1237</v>
       </c>
-      <c r="C102" s="86"/>
-      <c r="D102" s="88" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E102" s="88" t="s">
-        <v>1612</v>
+      <c r="C102" s="110" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D102" s="36"/>
+      <c r="E102" s="87" t="s">
+        <v>1443</v>
       </c>
       <c r="H102" s="70"/>
       <c r="I102" s="70"/>
@@ -18771,12 +18774,12 @@
       <c r="B103" s="86" t="s">
         <v>1238</v>
       </c>
-      <c r="C103" s="86"/>
-      <c r="D103" s="88" t="s">
-        <v>1613</v>
-      </c>
-      <c r="E103" s="88" t="s">
-        <v>1614</v>
+      <c r="C103" s="110" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D103" s="36"/>
+      <c r="E103" s="87" t="s">
+        <v>1444</v>
       </c>
       <c r="H103" s="70"/>
       <c r="I103" s="70"/>
@@ -18789,12 +18792,12 @@
       <c r="B104" s="86" t="s">
         <v>1134</v>
       </c>
-      <c r="C104" s="86"/>
-      <c r="D104" s="88" t="s">
-        <v>1615</v>
-      </c>
-      <c r="E104" s="88" t="s">
-        <v>1616</v>
+      <c r="C104" s="110" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D104" s="36"/>
+      <c r="E104" s="87" t="s">
+        <v>1445</v>
       </c>
       <c r="H104" s="70"/>
       <c r="I104" s="70"/>
@@ -18807,11 +18810,11 @@
       <c r="B105" s="86" t="s">
         <v>1135</v>
       </c>
-      <c r="C105" s="86"/>
-      <c r="D105" s="88" t="s">
-        <v>1617</v>
-      </c>
-      <c r="E105" s="89"/>
+      <c r="C105" s="110" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D105" s="36"/>
+      <c r="E105" s="88"/>
       <c r="H105" s="70"/>
       <c r="I105" s="70"/>
       <c r="J105" s="70"/>
@@ -18823,12 +18826,12 @@
       <c r="B106" s="86" t="s">
         <v>1136</v>
       </c>
-      <c r="C106" s="86"/>
-      <c r="D106" s="88" t="s">
-        <v>1618</v>
-      </c>
-      <c r="E106" s="88" t="s">
-        <v>1619</v>
+      <c r="C106" s="110" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D106" s="36"/>
+      <c r="E106" s="87" t="s">
+        <v>1446</v>
       </c>
       <c r="H106" s="70"/>
       <c r="I106" s="70"/>
@@ -18841,12 +18844,12 @@
       <c r="B107" s="86" t="s">
         <v>1137</v>
       </c>
-      <c r="C107" s="86"/>
-      <c r="D107" s="88" t="s">
-        <v>1620</v>
-      </c>
-      <c r="E107" s="88" t="s">
-        <v>1621</v>
+      <c r="C107" s="110" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D107" s="36"/>
+      <c r="E107" s="87" t="s">
+        <v>1447</v>
       </c>
       <c r="H107" s="70"/>
       <c r="I107" s="70"/>
@@ -18859,12 +18862,12 @@
       <c r="B108" s="86" t="s">
         <v>1138</v>
       </c>
-      <c r="C108" s="86"/>
-      <c r="D108" s="88" t="s">
-        <v>1622</v>
-      </c>
-      <c r="E108" s="88" t="s">
-        <v>1623</v>
+      <c r="C108" s="110" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D108" s="36"/>
+      <c r="E108" s="87" t="s">
+        <v>1448</v>
       </c>
       <c r="H108" s="70"/>
       <c r="I108" s="70"/>
@@ -18877,12 +18880,12 @@
       <c r="B109" s="86" t="s">
         <v>1139</v>
       </c>
-      <c r="C109" s="86"/>
-      <c r="D109" s="88" t="s">
-        <v>1624</v>
-      </c>
-      <c r="E109" s="88" t="s">
-        <v>1625</v>
+      <c r="C109" s="110" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D109" s="36"/>
+      <c r="E109" s="87" t="s">
+        <v>1449</v>
       </c>
       <c r="H109" s="70"/>
       <c r="I109" s="70"/>
@@ -18895,12 +18898,12 @@
       <c r="B110" s="86" t="s">
         <v>1140</v>
       </c>
-      <c r="C110" s="86"/>
-      <c r="D110" s="88" t="s">
-        <v>1626</v>
-      </c>
-      <c r="E110" s="88" t="s">
-        <v>1627</v>
+      <c r="C110" s="110" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D110" s="36"/>
+      <c r="E110" s="87" t="s">
+        <v>1450</v>
       </c>
       <c r="H110" s="70"/>
       <c r="I110" s="70"/>
@@ -18909,10 +18912,8 @@
     <row r="111" spans="1:10" ht="15">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="90" t="s">
-        <v>1628</v>
+      <c r="E111" s="89" t="s">
+        <v>1451</v>
       </c>
       <c r="H111" s="70"/>
       <c r="I111" s="70"/>
@@ -18922,13 +18923,12 @@
       <c r="A112" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B112" s="88" t="s">
+      <c r="B112" s="87" t="s">
         <v>1283</v>
       </c>
-      <c r="C112" s="88" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D112" s="2"/>
+      <c r="D112" s="110" t="s">
+        <v>1694</v>
+      </c>
       <c r="E112" s="2"/>
       <c r="H112" s="70"/>
       <c r="I112" s="70"/>
@@ -18938,13 +18938,12 @@
       <c r="A113" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B113" s="88" t="s">
+      <c r="B113" s="87" t="s">
         <v>1284</v>
       </c>
-      <c r="C113" s="88" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D113" s="2"/>
+      <c r="D113" s="110" t="s">
+        <v>1695</v>
+      </c>
       <c r="E113" s="2"/>
       <c r="H113" s="70"/>
       <c r="I113" s="70"/>
@@ -18954,13 +18953,12 @@
       <c r="A114" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B114" s="88" t="s">
+      <c r="B114" s="87" t="s">
         <v>1285</v>
       </c>
-      <c r="C114" s="88" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D114" s="2"/>
+      <c r="D114" s="110" t="s">
+        <v>1696</v>
+      </c>
       <c r="E114" s="2"/>
       <c r="H114" s="70"/>
       <c r="I114" s="70"/>
@@ -18970,13 +18968,12 @@
       <c r="A115" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B115" s="88" t="s">
+      <c r="B115" s="87" t="s">
         <v>1286</v>
       </c>
-      <c r="C115" s="88" t="s">
-        <v>1632</v>
-      </c>
-      <c r="D115" s="2"/>
+      <c r="D115" s="110" t="s">
+        <v>1697</v>
+      </c>
       <c r="E115" s="2"/>
       <c r="H115" s="70"/>
       <c r="I115" s="70"/>
@@ -18986,13 +18983,12 @@
       <c r="A116" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B116" s="88" t="s">
+      <c r="B116" s="87" t="s">
         <v>1287</v>
       </c>
-      <c r="C116" s="88" t="s">
-        <v>1633</v>
-      </c>
-      <c r="D116" s="2"/>
+      <c r="D116" s="110" t="s">
+        <v>1698</v>
+      </c>
       <c r="E116" s="2"/>
       <c r="H116" s="70"/>
       <c r="I116" s="70"/>
@@ -19002,13 +18998,12 @@
       <c r="A117" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B117" s="88" t="s">
+      <c r="B117" s="87" t="s">
         <v>1288</v>
       </c>
-      <c r="C117" s="88" t="s">
-        <v>1634</v>
-      </c>
-      <c r="D117" s="2"/>
+      <c r="D117" s="110" t="s">
+        <v>1699</v>
+      </c>
       <c r="E117" s="2"/>
       <c r="H117" s="70"/>
       <c r="I117" s="70"/>
@@ -19018,13 +19013,12 @@
       <c r="A118" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B118" s="88" t="s">
+      <c r="B118" s="87" t="s">
         <v>1289</v>
       </c>
-      <c r="C118" s="88" t="s">
-        <v>1635</v>
-      </c>
-      <c r="D118" s="2"/>
+      <c r="D118" s="110" t="s">
+        <v>1700</v>
+      </c>
       <c r="E118" s="2"/>
       <c r="H118" s="70"/>
       <c r="I118" s="70"/>
@@ -19034,13 +19028,12 @@
       <c r="A119" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B119" s="88" t="s">
+      <c r="B119" s="87" t="s">
         <v>1290</v>
       </c>
-      <c r="C119" s="88" t="s">
-        <v>1636</v>
-      </c>
-      <c r="D119" s="2"/>
+      <c r="D119" s="110" t="s">
+        <v>1701</v>
+      </c>
       <c r="E119" s="2"/>
       <c r="H119" s="70"/>
       <c r="I119" s="70"/>
@@ -19050,13 +19043,12 @@
       <c r="A120" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B120" s="88" t="s">
+      <c r="B120" s="87" t="s">
         <v>1291</v>
       </c>
-      <c r="C120" s="88" t="s">
-        <v>1637</v>
-      </c>
-      <c r="D120" s="88"/>
+      <c r="D120" s="110" t="s">
+        <v>1702</v>
+      </c>
       <c r="E120" s="2"/>
       <c r="H120" s="70"/>
       <c r="I120" s="70"/>
@@ -19066,13 +19058,12 @@
       <c r="A121" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B121" s="88" t="s">
+      <c r="B121" s="87" t="s">
         <v>1292</v>
       </c>
-      <c r="C121" s="88" t="s">
-        <v>1638</v>
-      </c>
-      <c r="D121" s="2"/>
+      <c r="D121" s="110" t="s">
+        <v>1703</v>
+      </c>
       <c r="E121" s="2"/>
       <c r="H121" s="70"/>
       <c r="I121" s="70"/>
@@ -19082,13 +19073,12 @@
       <c r="A122" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B122" s="88" t="s">
+      <c r="B122" s="87" t="s">
         <v>1293</v>
       </c>
-      <c r="C122" s="88" t="s">
-        <v>1639</v>
-      </c>
-      <c r="D122" s="2"/>
+      <c r="D122" s="110" t="s">
+        <v>1704</v>
+      </c>
       <c r="E122" s="2"/>
       <c r="H122" s="70"/>
       <c r="I122" s="70"/>
@@ -19098,13 +19088,12 @@
       <c r="A123" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B123" s="88" t="s">
+      <c r="B123" s="87" t="s">
         <v>1294</v>
       </c>
-      <c r="C123" s="88" t="s">
-        <v>1640</v>
-      </c>
-      <c r="D123" s="2"/>
+      <c r="D123" s="110" t="s">
+        <v>1705</v>
+      </c>
       <c r="E123" s="2"/>
       <c r="H123" s="70"/>
       <c r="I123" s="70"/>
@@ -19114,13 +19103,12 @@
       <c r="A124" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B124" s="88" t="s">
+      <c r="B124" s="87" t="s">
         <v>1295</v>
       </c>
-      <c r="C124" s="88" t="s">
-        <v>1641</v>
-      </c>
-      <c r="D124" s="2"/>
+      <c r="D124" s="110" t="s">
+        <v>1706</v>
+      </c>
       <c r="E124" s="2"/>
       <c r="H124" s="70"/>
       <c r="I124" s="70"/>
@@ -19130,13 +19118,12 @@
       <c r="A125" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B125" s="88" t="s">
+      <c r="B125" s="87" t="s">
         <v>1296</v>
       </c>
-      <c r="C125" s="88" t="s">
-        <v>1642</v>
-      </c>
-      <c r="D125" s="88"/>
+      <c r="D125" s="110" t="s">
+        <v>1707</v>
+      </c>
       <c r="E125" s="2"/>
       <c r="H125" s="70"/>
       <c r="I125" s="70"/>
@@ -19146,13 +19133,12 @@
       <c r="A126" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B126" s="88" t="s">
+      <c r="B126" s="87" t="s">
         <v>1297</v>
       </c>
-      <c r="C126" s="88" t="s">
-        <v>1643</v>
-      </c>
-      <c r="D126" s="2"/>
+      <c r="D126" s="110" t="s">
+        <v>1708</v>
+      </c>
       <c r="E126" s="2"/>
       <c r="H126" s="70"/>
       <c r="I126" s="70"/>
@@ -19162,13 +19148,12 @@
       <c r="A127" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B127" s="88" t="s">
+      <c r="B127" s="87" t="s">
         <v>1298</v>
       </c>
-      <c r="C127" s="88" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D127" s="2"/>
+      <c r="D127" s="110" t="s">
+        <v>1709</v>
+      </c>
       <c r="E127" s="2"/>
       <c r="H127" s="70"/>
       <c r="I127" s="70"/>
@@ -19178,13 +19163,12 @@
       <c r="A128" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B128" s="88" t="s">
+      <c r="B128" s="87" t="s">
         <v>1299</v>
       </c>
-      <c r="C128" s="88" t="s">
-        <v>1645</v>
-      </c>
-      <c r="D128" s="2"/>
+      <c r="D128" s="110" t="s">
+        <v>1710</v>
+      </c>
       <c r="E128" s="2"/>
       <c r="H128" s="70"/>
       <c r="I128" s="70"/>
@@ -19194,13 +19178,12 @@
       <c r="A129" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B129" s="88" t="s">
+      <c r="B129" s="87" t="s">
         <v>1300</v>
       </c>
-      <c r="C129" s="88" t="s">
-        <v>1646</v>
-      </c>
-      <c r="D129" s="88"/>
+      <c r="D129" s="110" t="s">
+        <v>1711</v>
+      </c>
       <c r="E129" s="2"/>
       <c r="H129" s="70"/>
       <c r="I129" s="70"/>
@@ -19210,13 +19193,12 @@
       <c r="A130" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B130" s="88" t="s">
+      <c r="B130" s="87" t="s">
         <v>1301</v>
       </c>
-      <c r="C130" s="88" t="s">
-        <v>1647</v>
-      </c>
-      <c r="D130" s="2"/>
+      <c r="D130" s="110" t="s">
+        <v>1712</v>
+      </c>
       <c r="E130" s="2"/>
       <c r="H130" s="70"/>
       <c r="I130" s="70"/>
@@ -19226,13 +19208,12 @@
       <c r="A131" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B131" s="88" t="s">
+      <c r="B131" s="87" t="s">
         <v>1302</v>
       </c>
-      <c r="C131" s="88" t="s">
-        <v>1648</v>
-      </c>
-      <c r="D131" s="2"/>
+      <c r="D131" s="110" t="s">
+        <v>1713</v>
+      </c>
       <c r="E131" s="2"/>
       <c r="H131" s="70"/>
       <c r="I131" s="70"/>
@@ -19242,13 +19223,12 @@
       <c r="A132" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B132" s="88" t="s">
+      <c r="B132" s="87" t="s">
         <v>1303</v>
       </c>
-      <c r="C132" s="88" t="s">
-        <v>1649</v>
-      </c>
-      <c r="D132" s="2"/>
+      <c r="D132" s="110" t="s">
+        <v>1714</v>
+      </c>
       <c r="E132" s="2"/>
       <c r="H132" s="70"/>
       <c r="I132" s="70"/>
@@ -19258,13 +19238,12 @@
       <c r="A133" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B133" s="88" t="s">
+      <c r="B133" s="87" t="s">
         <v>1304</v>
       </c>
-      <c r="C133" s="88" t="s">
-        <v>1650</v>
-      </c>
-      <c r="D133" s="2"/>
+      <c r="D133" s="110" t="s">
+        <v>1715</v>
+      </c>
       <c r="E133" s="2"/>
       <c r="H133" s="70"/>
       <c r="I133" s="70"/>
@@ -19274,13 +19253,12 @@
       <c r="A134" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B134" s="88" t="s">
+      <c r="B134" s="87" t="s">
         <v>1305</v>
       </c>
-      <c r="C134" s="88" t="s">
-        <v>1651</v>
-      </c>
-      <c r="D134" s="2"/>
+      <c r="D134" s="110" t="s">
+        <v>1716</v>
+      </c>
       <c r="E134" s="2"/>
       <c r="H134" s="70"/>
       <c r="I134" s="70"/>
@@ -19290,13 +19268,12 @@
       <c r="A135" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B135" s="88" t="s">
+      <c r="B135" s="87" t="s">
         <v>1306</v>
       </c>
-      <c r="C135" s="88" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D135" s="2"/>
+      <c r="D135" s="110" t="s">
+        <v>1717</v>
+      </c>
       <c r="E135" s="2"/>
       <c r="H135" s="70"/>
       <c r="I135" s="70"/>
@@ -19306,13 +19283,12 @@
       <c r="A136" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B136" s="88" t="s">
+      <c r="B136" s="87" t="s">
         <v>1307</v>
       </c>
-      <c r="C136" s="88" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D136" s="88"/>
+      <c r="D136" s="110" t="s">
+        <v>1718</v>
+      </c>
       <c r="E136" s="2"/>
       <c r="H136" s="70"/>
       <c r="I136" s="70"/>
@@ -19322,13 +19298,12 @@
       <c r="A137" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B137" s="88" t="s">
+      <c r="B137" s="87" t="s">
         <v>1308</v>
       </c>
-      <c r="C137" s="88" t="s">
-        <v>1654</v>
-      </c>
-      <c r="D137" s="2"/>
+      <c r="D137" s="110" t="s">
+        <v>1719</v>
+      </c>
       <c r="E137" s="2"/>
       <c r="H137" s="70"/>
       <c r="I137" s="70"/>
@@ -19338,13 +19313,12 @@
       <c r="A138" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B138" s="88" t="s">
+      <c r="B138" s="87" t="s">
         <v>1309</v>
       </c>
-      <c r="C138" s="88" t="s">
-        <v>1655</v>
-      </c>
-      <c r="D138" s="2"/>
+      <c r="D138" s="110" t="s">
+        <v>1720</v>
+      </c>
       <c r="E138" s="2"/>
       <c r="H138" s="70"/>
       <c r="I138" s="70"/>
@@ -19354,13 +19328,12 @@
       <c r="A139" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B139" s="88" t="s">
+      <c r="B139" s="87" t="s">
         <v>1310</v>
       </c>
-      <c r="C139" s="88" t="s">
-        <v>1656</v>
-      </c>
-      <c r="D139" s="2"/>
+      <c r="D139" s="110" t="s">
+        <v>1721</v>
+      </c>
       <c r="E139" s="2"/>
       <c r="H139" s="70"/>
       <c r="I139" s="70"/>
@@ -19370,13 +19343,12 @@
       <c r="A140" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B140" s="88" t="s">
+      <c r="B140" s="87" t="s">
         <v>1311</v>
       </c>
-      <c r="C140" s="88" t="s">
-        <v>1657</v>
-      </c>
-      <c r="D140" s="2"/>
+      <c r="D140" s="110" t="s">
+        <v>1722</v>
+      </c>
       <c r="E140" s="2"/>
       <c r="H140" s="70"/>
       <c r="I140" s="70"/>
@@ -19386,13 +19358,12 @@
       <c r="A141" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B141" s="88" t="s">
+      <c r="B141" s="87" t="s">
         <v>1312</v>
       </c>
-      <c r="C141" s="88" t="s">
-        <v>1658</v>
-      </c>
-      <c r="D141" s="2"/>
+      <c r="D141" s="110" t="s">
+        <v>1723</v>
+      </c>
       <c r="E141" s="2"/>
       <c r="H141" s="70"/>
       <c r="I141" s="70"/>
@@ -19402,13 +19373,12 @@
       <c r="A142" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B142" s="88" t="s">
+      <c r="B142" s="87" t="s">
         <v>1313</v>
       </c>
-      <c r="C142" s="88" t="s">
-        <v>1659</v>
-      </c>
-      <c r="D142" s="2"/>
+      <c r="D142" s="110" t="s">
+        <v>1724</v>
+      </c>
       <c r="E142" s="2"/>
       <c r="H142" s="70"/>
       <c r="I142" s="70"/>
@@ -19418,13 +19388,12 @@
       <c r="A143" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B143" s="88" t="s">
+      <c r="B143" s="87" t="s">
         <v>1286</v>
       </c>
-      <c r="C143" s="88" t="s">
-        <v>1632</v>
-      </c>
-      <c r="D143" s="2"/>
+      <c r="D143" s="110" t="s">
+        <v>1697</v>
+      </c>
       <c r="E143" s="2"/>
       <c r="H143" s="70"/>
       <c r="I143" s="70"/>
@@ -19434,13 +19403,12 @@
       <c r="A144" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B144" s="88" t="s">
+      <c r="B144" s="87" t="s">
         <v>1314</v>
       </c>
-      <c r="C144" s="88" t="s">
-        <v>1660</v>
-      </c>
-      <c r="D144" s="2"/>
+      <c r="D144" s="110" t="s">
+        <v>1725</v>
+      </c>
       <c r="E144" s="2"/>
       <c r="H144" s="70"/>
       <c r="I144" s="70"/>
@@ -19450,13 +19418,12 @@
       <c r="A145" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B145" s="88" t="s">
+      <c r="B145" s="87" t="s">
         <v>1315</v>
       </c>
-      <c r="C145" s="88" t="s">
-        <v>1661</v>
-      </c>
-      <c r="D145" s="2"/>
+      <c r="D145" s="110" t="s">
+        <v>1726</v>
+      </c>
       <c r="E145" s="2"/>
       <c r="H145" s="70"/>
       <c r="I145" s="70"/>
@@ -19466,13 +19433,12 @@
       <c r="A146" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B146" s="88" t="s">
+      <c r="B146" s="87" t="s">
         <v>1316</v>
       </c>
-      <c r="C146" s="88" t="s">
-        <v>1662</v>
-      </c>
-      <c r="D146" s="2"/>
+      <c r="D146" s="110" t="s">
+        <v>1727</v>
+      </c>
       <c r="E146" s="2"/>
       <c r="H146" s="70"/>
       <c r="I146" s="70"/>
@@ -19482,13 +19448,12 @@
       <c r="A147" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B147" s="88" t="s">
+      <c r="B147" s="87" t="s">
         <v>1317</v>
       </c>
-      <c r="C147" s="88" t="s">
-        <v>1663</v>
-      </c>
-      <c r="D147" s="2"/>
+      <c r="D147" s="110" t="s">
+        <v>1728</v>
+      </c>
       <c r="E147" s="2"/>
       <c r="H147" s="70"/>
       <c r="I147" s="70"/>
@@ -19498,13 +19463,12 @@
       <c r="A148" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B148" s="88" t="s">
+      <c r="B148" s="87" t="s">
         <v>1241</v>
       </c>
-      <c r="C148" s="88" t="s">
-        <v>1664</v>
-      </c>
-      <c r="D148" s="2"/>
+      <c r="D148" s="110" t="s">
+        <v>1729</v>
+      </c>
       <c r="E148" s="2"/>
       <c r="H148" s="70"/>
       <c r="I148" s="70"/>
@@ -19514,13 +19478,12 @@
       <c r="A149" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B149" s="88" t="s">
+      <c r="B149" s="87" t="s">
         <v>1242</v>
       </c>
-      <c r="C149" s="88" t="s">
-        <v>1665</v>
-      </c>
-      <c r="D149" s="2"/>
+      <c r="D149" s="110" t="s">
+        <v>1730</v>
+      </c>
       <c r="E149" s="2"/>
       <c r="H149" s="70"/>
       <c r="I149" s="70"/>
@@ -19530,13 +19493,12 @@
       <c r="A150" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B150" s="88" t="s">
+      <c r="B150" s="87" t="s">
         <v>1318</v>
       </c>
-      <c r="C150" s="88" t="s">
-        <v>1666</v>
-      </c>
-      <c r="D150" s="2"/>
+      <c r="D150" s="110" t="s">
+        <v>1731</v>
+      </c>
       <c r="E150" s="2"/>
       <c r="H150" s="70"/>
       <c r="I150" s="70"/>
@@ -19546,13 +19508,12 @@
       <c r="A151" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B151" s="88" t="s">
+      <c r="B151" s="87" t="s">
         <v>1319</v>
       </c>
-      <c r="C151" s="88" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D151" s="2"/>
+      <c r="D151" s="110" t="s">
+        <v>1732</v>
+      </c>
       <c r="E151" s="2"/>
       <c r="H151" s="70"/>
       <c r="I151" s="70"/>
@@ -19562,13 +19523,12 @@
       <c r="A152" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B152" s="88" t="s">
+      <c r="B152" s="87" t="s">
         <v>1320</v>
       </c>
-      <c r="C152" s="88" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D152" s="88"/>
+      <c r="D152" s="110" t="s">
+        <v>1733</v>
+      </c>
       <c r="E152" s="2"/>
       <c r="H152" s="70"/>
       <c r="I152" s="70"/>
@@ -19578,13 +19538,12 @@
       <c r="A153" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B153" s="88" t="s">
+      <c r="B153" s="87" t="s">
         <v>1243</v>
       </c>
-      <c r="C153" s="88" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D153" s="2"/>
+      <c r="D153" s="110" t="s">
+        <v>1734</v>
+      </c>
       <c r="E153" s="2"/>
       <c r="H153" s="70"/>
       <c r="I153" s="70"/>
@@ -19594,13 +19553,12 @@
       <c r="A154" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B154" s="88" t="s">
+      <c r="B154" s="87" t="s">
         <v>1321</v>
       </c>
-      <c r="C154" s="88" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D154" s="2"/>
+      <c r="D154" s="110" t="s">
+        <v>1735</v>
+      </c>
       <c r="E154" s="2"/>
       <c r="H154" s="70"/>
       <c r="I154" s="70"/>
@@ -19610,13 +19568,12 @@
       <c r="A155" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B155" s="88" t="s">
+      <c r="B155" s="87" t="s">
         <v>1322</v>
       </c>
-      <c r="C155" s="88" t="s">
-        <v>1671</v>
-      </c>
-      <c r="D155" s="2"/>
+      <c r="D155" s="110" t="s">
+        <v>1736</v>
+      </c>
       <c r="E155" s="2"/>
       <c r="H155" s="70"/>
       <c r="I155" s="70"/>
@@ -19626,13 +19583,12 @@
       <c r="A156" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B156" s="88" t="s">
+      <c r="B156" s="87" t="s">
         <v>1323</v>
       </c>
-      <c r="C156" s="88" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D156" s="2"/>
+      <c r="D156" s="110" t="s">
+        <v>1737</v>
+      </c>
       <c r="E156" s="2"/>
       <c r="H156" s="70"/>
       <c r="I156" s="70"/>
@@ -19642,13 +19598,12 @@
       <c r="A157" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B157" s="88" t="s">
+      <c r="B157" s="87" t="s">
         <v>1324</v>
       </c>
-      <c r="C157" s="88" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D157" s="2"/>
+      <c r="D157" s="110" t="s">
+        <v>1738</v>
+      </c>
       <c r="E157" s="2"/>
       <c r="H157" s="70"/>
       <c r="I157" s="70"/>
@@ -19658,13 +19613,12 @@
       <c r="A158" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B158" s="88" t="s">
+      <c r="B158" s="87" t="s">
         <v>1244</v>
       </c>
-      <c r="C158" s="88" t="s">
-        <v>1674</v>
-      </c>
-      <c r="D158" s="2"/>
+      <c r="D158" s="110" t="s">
+        <v>1739</v>
+      </c>
       <c r="E158" s="2"/>
       <c r="H158" s="70"/>
       <c r="I158" s="70"/>
@@ -19674,13 +19628,12 @@
       <c r="A159" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B159" s="88" t="s">
+      <c r="B159" s="87" t="s">
         <v>1325</v>
       </c>
-      <c r="C159" s="88" t="s">
-        <v>1675</v>
-      </c>
-      <c r="D159" s="88"/>
+      <c r="D159" s="110" t="s">
+        <v>1740</v>
+      </c>
       <c r="E159" s="2"/>
       <c r="H159" s="70"/>
       <c r="I159" s="70"/>
@@ -19690,13 +19643,12 @@
       <c r="A160" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B160" s="88" t="s">
+      <c r="B160" s="87" t="s">
         <v>1245</v>
       </c>
-      <c r="C160" s="88" t="s">
-        <v>1676</v>
-      </c>
-      <c r="D160" s="2"/>
+      <c r="D160" s="110" t="s">
+        <v>1741</v>
+      </c>
       <c r="E160" s="2"/>
       <c r="H160" s="70"/>
       <c r="I160" s="70"/>
@@ -19706,13 +19658,12 @@
       <c r="A161" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B161" s="88" t="s">
+      <c r="B161" s="87" t="s">
         <v>1326</v>
       </c>
-      <c r="C161" s="88" t="s">
-        <v>1677</v>
-      </c>
-      <c r="D161" s="88"/>
+      <c r="D161" s="110" t="s">
+        <v>1742</v>
+      </c>
       <c r="E161" s="2"/>
       <c r="H161" s="70"/>
       <c r="I161" s="70"/>
@@ -19722,13 +19673,12 @@
       <c r="A162" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B162" s="88" t="s">
+      <c r="B162" s="87" t="s">
         <v>1327</v>
       </c>
-      <c r="C162" s="88" t="s">
-        <v>1678</v>
-      </c>
-      <c r="D162" s="2"/>
+      <c r="D162" s="110" t="s">
+        <v>1743</v>
+      </c>
       <c r="E162" s="2"/>
       <c r="H162" s="70"/>
       <c r="I162" s="70"/>
@@ -19738,13 +19688,12 @@
       <c r="A163" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B163" s="88" t="s">
+      <c r="B163" s="87" t="s">
         <v>1127</v>
       </c>
-      <c r="C163" s="88" t="s">
-        <v>1528</v>
-      </c>
-      <c r="D163" s="88"/>
+      <c r="D163" s="110" t="s">
+        <v>1632</v>
+      </c>
       <c r="E163" s="2"/>
       <c r="H163" s="70"/>
       <c r="I163" s="70"/>
@@ -19754,13 +19703,12 @@
       <c r="A164" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B164" s="88" t="s">
+      <c r="B164" s="87" t="s">
         <v>1128</v>
       </c>
-      <c r="C164" s="88" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D164" s="2"/>
+      <c r="D164" s="110" t="s">
+        <v>1633</v>
+      </c>
       <c r="E164" s="2"/>
       <c r="H164" s="70"/>
       <c r="I164" s="70"/>
@@ -19770,13 +19718,12 @@
       <c r="A165" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B165" s="88" t="s">
+      <c r="B165" s="87" t="s">
         <v>1129</v>
       </c>
-      <c r="C165" s="88" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D165" s="88"/>
+      <c r="D165" s="110" t="s">
+        <v>1634</v>
+      </c>
       <c r="E165" s="2"/>
       <c r="H165" s="70"/>
       <c r="I165" s="70"/>
@@ -19786,13 +19733,12 @@
       <c r="A166" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B166" s="88" t="s">
+      <c r="B166" s="87" t="s">
         <v>1130</v>
       </c>
-      <c r="C166" s="88" t="s">
-        <v>1534</v>
-      </c>
-      <c r="D166" s="88"/>
+      <c r="D166" s="110" t="s">
+        <v>1635</v>
+      </c>
       <c r="E166" s="2"/>
       <c r="H166" s="70"/>
       <c r="I166" s="70"/>
@@ -19802,13 +19748,12 @@
       <c r="A167" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B167" s="88" t="s">
+      <c r="B167" s="87" t="s">
         <v>1122</v>
       </c>
-      <c r="C167" s="88" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D167" s="2"/>
+      <c r="D167" s="110" t="s">
+        <v>1627</v>
+      </c>
       <c r="E167" s="2"/>
       <c r="H167" s="70"/>
       <c r="I167" s="70"/>
@@ -19818,13 +19763,12 @@
       <c r="A168" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B168" s="88" t="s">
+      <c r="B168" s="87" t="s">
         <v>1123</v>
       </c>
-      <c r="C168" s="88" t="s">
-        <v>1520</v>
-      </c>
-      <c r="D168" s="2"/>
+      <c r="D168" s="110" t="s">
+        <v>1628</v>
+      </c>
       <c r="E168" s="2"/>
       <c r="H168" s="70"/>
       <c r="I168" s="70"/>
@@ -19834,13 +19778,12 @@
       <c r="A169" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B169" s="88" t="s">
+      <c r="B169" s="87" t="s">
         <v>1124</v>
       </c>
-      <c r="C169" s="88" t="s">
-        <v>1522</v>
-      </c>
-      <c r="D169" s="2"/>
+      <c r="D169" s="110" t="s">
+        <v>1629</v>
+      </c>
       <c r="E169" s="2"/>
       <c r="H169" s="70"/>
       <c r="I169" s="70"/>
@@ -19850,13 +19793,12 @@
       <c r="A170" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B170" s="88" t="s">
+      <c r="B170" s="87" t="s">
         <v>1125</v>
       </c>
-      <c r="C170" s="88" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D170" s="88"/>
+      <c r="D170" s="110" t="s">
+        <v>1630</v>
+      </c>
       <c r="E170" s="2"/>
       <c r="H170" s="70"/>
       <c r="I170" s="70"/>
@@ -19866,13 +19808,12 @@
       <c r="A171" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B171" s="88" t="s">
+      <c r="B171" s="87" t="s">
         <v>1328</v>
       </c>
-      <c r="C171" s="88" t="s">
-        <v>1526</v>
-      </c>
-      <c r="D171" s="88"/>
+      <c r="D171" s="110" t="s">
+        <v>1631</v>
+      </c>
       <c r="E171" s="2"/>
       <c r="H171" s="70"/>
       <c r="I171" s="70"/>
@@ -19882,13 +19823,12 @@
       <c r="A172" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B172" s="88" t="s">
+      <c r="B172" s="87" t="s">
         <v>1329</v>
       </c>
-      <c r="C172" s="88" t="s">
-        <v>1679</v>
-      </c>
-      <c r="D172" s="2"/>
+      <c r="D172" s="110" t="s">
+        <v>1744</v>
+      </c>
       <c r="E172" s="2"/>
       <c r="H172" s="70"/>
       <c r="I172" s="70"/>
@@ -19898,13 +19838,12 @@
       <c r="A173" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B173" s="88" t="s">
+      <c r="B173" s="87" t="s">
         <v>1330</v>
       </c>
-      <c r="C173" s="88" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D173" s="2"/>
+      <c r="D173" s="110" t="s">
+        <v>1745</v>
+      </c>
       <c r="E173" s="2"/>
       <c r="H173" s="70"/>
       <c r="I173" s="70"/>
@@ -19914,13 +19853,12 @@
       <c r="A174" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B174" s="88" t="s">
+      <c r="B174" s="87" t="s">
         <v>1331</v>
       </c>
-      <c r="C174" s="88" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D174" s="2"/>
+      <c r="D174" s="110" t="s">
+        <v>1746</v>
+      </c>
       <c r="E174" s="2"/>
       <c r="H174" s="70"/>
       <c r="I174" s="70"/>
@@ -19930,13 +19868,12 @@
       <c r="A175" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B175" s="88" t="s">
+      <c r="B175" s="87" t="s">
         <v>1246</v>
       </c>
-      <c r="C175" s="88" t="s">
-        <v>1682</v>
-      </c>
-      <c r="D175" s="2"/>
+      <c r="D175" s="110" t="s">
+        <v>1747</v>
+      </c>
       <c r="E175" s="2"/>
       <c r="H175" s="70"/>
       <c r="I175" s="70"/>
@@ -19946,13 +19883,12 @@
       <c r="A176" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B176" s="88" t="s">
+      <c r="B176" s="87" t="s">
         <v>1331</v>
       </c>
-      <c r="C176" s="88" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D176" s="2"/>
+      <c r="D176" s="110" t="s">
+        <v>1746</v>
+      </c>
       <c r="E176" s="2"/>
       <c r="H176" s="70"/>
       <c r="I176" s="70"/>
@@ -19962,13 +19898,12 @@
       <c r="A177" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B177" s="88" t="s">
+      <c r="B177" s="87" t="s">
         <v>1247</v>
       </c>
-      <c r="C177" s="88" t="s">
-        <v>1683</v>
-      </c>
-      <c r="D177" s="2"/>
+      <c r="D177" s="110" t="s">
+        <v>1748</v>
+      </c>
       <c r="E177" s="2"/>
       <c r="H177" s="70"/>
       <c r="I177" s="70"/>
@@ -19978,13 +19913,12 @@
       <c r="A178" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B178" s="88" t="s">
+      <c r="B178" s="87" t="s">
         <v>1332</v>
       </c>
-      <c r="C178" s="88" t="s">
-        <v>1684</v>
-      </c>
-      <c r="D178" s="2"/>
+      <c r="D178" s="110" t="s">
+        <v>1749</v>
+      </c>
       <c r="E178" s="2"/>
       <c r="H178" s="70"/>
       <c r="I178" s="70"/>
@@ -19994,13 +19928,12 @@
       <c r="A179" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B179" s="88" t="s">
+      <c r="B179" s="87" t="s">
         <v>1248</v>
       </c>
-      <c r="C179" s="88" t="s">
-        <v>1685</v>
-      </c>
-      <c r="D179" s="2"/>
+      <c r="D179" s="110" t="s">
+        <v>1750</v>
+      </c>
       <c r="E179" s="2"/>
       <c r="H179" s="70"/>
       <c r="I179" s="70"/>
@@ -20010,13 +19943,12 @@
       <c r="A180" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B180" s="88" t="s">
+      <c r="B180" s="87" t="s">
         <v>1249</v>
       </c>
-      <c r="C180" s="88" t="s">
-        <v>1686</v>
-      </c>
-      <c r="D180" s="2"/>
+      <c r="D180" s="110" t="s">
+        <v>1751</v>
+      </c>
       <c r="E180" s="2"/>
       <c r="H180" s="70"/>
       <c r="I180" s="70"/>
@@ -20026,13 +19958,12 @@
       <c r="A181" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B181" s="88" t="s">
+      <c r="B181" s="87" t="s">
         <v>1333</v>
       </c>
-      <c r="C181" s="88" t="s">
-        <v>1687</v>
-      </c>
-      <c r="D181" s="2"/>
+      <c r="D181" s="110" t="s">
+        <v>1752</v>
+      </c>
       <c r="E181" s="2"/>
       <c r="H181" s="70"/>
       <c r="I181" s="70"/>
@@ -20042,13 +19973,12 @@
       <c r="A182" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B182" s="88" t="s">
+      <c r="B182" s="87" t="s">
         <v>1334</v>
       </c>
-      <c r="C182" s="88" t="s">
-        <v>1688</v>
-      </c>
-      <c r="D182" s="2"/>
+      <c r="D182" s="110" t="s">
+        <v>1753</v>
+      </c>
       <c r="E182" s="2"/>
       <c r="H182" s="70"/>
       <c r="I182" s="70"/>
@@ -20058,13 +19988,12 @@
       <c r="A183" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B183" s="88" t="s">
+      <c r="B183" s="87" t="s">
         <v>1335</v>
       </c>
-      <c r="C183" s="88" t="s">
-        <v>1689</v>
-      </c>
-      <c r="D183" s="2"/>
+      <c r="D183" s="110" t="s">
+        <v>1754</v>
+      </c>
       <c r="E183" s="2"/>
       <c r="H183" s="70"/>
       <c r="I183" s="70"/>
@@ -20074,13 +20003,12 @@
       <c r="A184" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B184" s="88" t="s">
+      <c r="B184" s="87" t="s">
         <v>1336</v>
       </c>
-      <c r="C184" s="88" t="s">
-        <v>1690</v>
-      </c>
-      <c r="D184" s="2"/>
+      <c r="D184" s="110" t="s">
+        <v>1755</v>
+      </c>
       <c r="E184" s="2"/>
       <c r="H184" s="70"/>
       <c r="I184" s="70"/>
@@ -20090,13 +20018,12 @@
       <c r="A185" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B185" s="88" t="s">
+      <c r="B185" s="87" t="s">
         <v>1337</v>
       </c>
-      <c r="C185" s="88" t="s">
-        <v>1691</v>
-      </c>
-      <c r="D185" s="2"/>
+      <c r="D185" s="110" t="s">
+        <v>1756</v>
+      </c>
       <c r="E185" s="2"/>
       <c r="H185" s="70"/>
       <c r="I185" s="70"/>
@@ -20106,13 +20033,12 @@
       <c r="A186" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B186" s="88" t="s">
+      <c r="B186" s="87" t="s">
         <v>1338</v>
       </c>
-      <c r="C186" s="88" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D186" s="2"/>
+      <c r="D186" s="110" t="s">
+        <v>1757</v>
+      </c>
       <c r="E186" s="2"/>
       <c r="H186" s="70"/>
       <c r="I186" s="70"/>
@@ -20122,13 +20048,12 @@
       <c r="A187" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B187" s="88" t="s">
+      <c r="B187" s="87" t="s">
         <v>1339</v>
       </c>
-      <c r="C187" s="88" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D187" s="2"/>
+      <c r="D187" s="110" t="s">
+        <v>1758</v>
+      </c>
       <c r="E187" s="2"/>
       <c r="H187" s="70"/>
       <c r="I187" s="70"/>
@@ -20138,13 +20063,12 @@
       <c r="A188" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B188" s="88" t="s">
+      <c r="B188" s="87" t="s">
         <v>1340</v>
       </c>
-      <c r="C188" s="88" t="s">
-        <v>1694</v>
-      </c>
-      <c r="D188" s="2"/>
+      <c r="D188" s="110" t="s">
+        <v>1759</v>
+      </c>
       <c r="E188" s="2"/>
       <c r="H188" s="70"/>
       <c r="I188" s="70"/>
@@ -20154,13 +20078,12 @@
       <c r="A189" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B189" s="88" t="s">
+      <c r="B189" s="87" t="s">
         <v>1341</v>
       </c>
-      <c r="C189" s="88" t="s">
-        <v>1695</v>
-      </c>
-      <c r="D189" s="2"/>
+      <c r="D189" s="110" t="s">
+        <v>1760</v>
+      </c>
       <c r="E189" s="2"/>
       <c r="H189" s="70"/>
       <c r="I189" s="70"/>
@@ -20170,13 +20093,12 @@
       <c r="A190" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B190" s="88" t="s">
+      <c r="B190" s="87" t="s">
         <v>1342</v>
       </c>
-      <c r="C190" s="88" t="s">
-        <v>1696</v>
-      </c>
-      <c r="D190" s="2"/>
+      <c r="D190" s="110" t="s">
+        <v>1761</v>
+      </c>
       <c r="E190" s="2"/>
       <c r="H190" s="70"/>
       <c r="I190" s="70"/>
@@ -20186,13 +20108,12 @@
       <c r="A191" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B191" s="88" t="s">
+      <c r="B191" s="87" t="s">
         <v>1343</v>
       </c>
-      <c r="C191" s="88" t="s">
-        <v>1697</v>
-      </c>
-      <c r="D191" s="88"/>
+      <c r="D191" s="110" t="s">
+        <v>1762</v>
+      </c>
       <c r="E191" s="2"/>
       <c r="H191" s="70"/>
       <c r="I191" s="70"/>
@@ -20202,13 +20123,12 @@
       <c r="A192" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B192" s="88" t="s">
+      <c r="B192" s="87" t="s">
         <v>1250</v>
       </c>
-      <c r="C192" s="88" t="s">
-        <v>1698</v>
-      </c>
-      <c r="D192" s="88"/>
+      <c r="D192" s="110" t="s">
+        <v>1763</v>
+      </c>
       <c r="E192" s="2"/>
       <c r="H192" s="70"/>
       <c r="I192" s="70"/>
@@ -20218,13 +20138,12 @@
       <c r="A193" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B193" s="88" t="s">
+      <c r="B193" s="87" t="s">
         <v>1251</v>
       </c>
-      <c r="C193" s="88" t="s">
-        <v>1699</v>
-      </c>
-      <c r="D193" s="88"/>
+      <c r="D193" s="110" t="s">
+        <v>1764</v>
+      </c>
       <c r="E193" s="2"/>
       <c r="H193" s="70"/>
       <c r="I193" s="70"/>
@@ -20234,13 +20153,12 @@
       <c r="A194" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B194" s="88" t="s">
+      <c r="B194" s="87" t="s">
         <v>1252</v>
       </c>
-      <c r="C194" s="88" t="s">
-        <v>1700</v>
-      </c>
-      <c r="D194" s="88"/>
+      <c r="D194" s="110" t="s">
+        <v>1765</v>
+      </c>
       <c r="E194" s="2"/>
       <c r="H194" s="70"/>
       <c r="I194" s="70"/>
@@ -20250,13 +20168,12 @@
       <c r="A195" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B195" s="88" t="s">
+      <c r="B195" s="87" t="s">
         <v>1253</v>
       </c>
-      <c r="C195" s="88" t="s">
-        <v>1701</v>
-      </c>
-      <c r="D195" s="88"/>
+      <c r="D195" s="110" t="s">
+        <v>1766</v>
+      </c>
       <c r="E195" s="2"/>
       <c r="H195" s="70"/>
       <c r="I195" s="70"/>
@@ -20266,13 +20183,12 @@
       <c r="A196" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B196" s="88" t="s">
+      <c r="B196" s="87" t="s">
         <v>1254</v>
       </c>
-      <c r="C196" s="88" t="s">
-        <v>1702</v>
-      </c>
-      <c r="D196" s="2"/>
+      <c r="D196" s="110" t="s">
+        <v>1767</v>
+      </c>
       <c r="E196" s="2"/>
       <c r="H196" s="70"/>
       <c r="I196" s="70"/>
@@ -20282,13 +20198,12 @@
       <c r="A197" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B197" s="88" t="s">
+      <c r="B197" s="87" t="s">
         <v>1255</v>
       </c>
-      <c r="C197" s="88" t="s">
-        <v>1703</v>
-      </c>
-      <c r="D197" s="2"/>
+      <c r="D197" s="110" t="s">
+        <v>1768</v>
+      </c>
       <c r="E197" s="2"/>
       <c r="H197" s="70"/>
       <c r="I197" s="70"/>
@@ -20298,13 +20213,12 @@
       <c r="A198" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B198" s="88" t="s">
+      <c r="B198" s="87" t="s">
         <v>1256</v>
       </c>
-      <c r="C198" s="88" t="s">
-        <v>1704</v>
-      </c>
-      <c r="D198" s="2"/>
+      <c r="D198" s="110" t="s">
+        <v>1769</v>
+      </c>
       <c r="E198" s="2"/>
       <c r="H198" s="70"/>
       <c r="I198" s="70"/>
@@ -20314,13 +20228,12 @@
       <c r="A199" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B199" s="88" t="s">
+      <c r="B199" s="87" t="s">
         <v>1257</v>
       </c>
-      <c r="C199" s="88" t="s">
-        <v>1705</v>
-      </c>
-      <c r="D199" s="2"/>
+      <c r="D199" s="110" t="s">
+        <v>1770</v>
+      </c>
       <c r="E199" s="2"/>
       <c r="H199" s="70"/>
       <c r="I199" s="70"/>
@@ -20330,13 +20243,12 @@
       <c r="A200" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B200" s="88" t="s">
+      <c r="B200" s="87" t="s">
         <v>1258</v>
       </c>
-      <c r="C200" s="88" t="s">
-        <v>1706</v>
-      </c>
-      <c r="D200" s="2"/>
+      <c r="D200" s="110" t="s">
+        <v>1771</v>
+      </c>
       <c r="E200" s="2"/>
       <c r="H200" s="70"/>
       <c r="I200" s="70"/>
@@ -20346,13 +20258,12 @@
       <c r="A201" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B201" s="88" t="s">
+      <c r="B201" s="87" t="s">
         <v>1259</v>
       </c>
-      <c r="C201" s="88" t="s">
-        <v>1707</v>
-      </c>
-      <c r="D201" s="2"/>
+      <c r="D201" s="110" t="s">
+        <v>1772</v>
+      </c>
       <c r="E201" s="2"/>
       <c r="H201" s="70"/>
       <c r="I201" s="70"/>
@@ -20362,13 +20273,12 @@
       <c r="A202" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B202" s="88" t="s">
+      <c r="B202" s="87" t="s">
         <v>1260</v>
       </c>
-      <c r="C202" s="88" t="s">
-        <v>1708</v>
-      </c>
-      <c r="D202" s="2"/>
+      <c r="D202" s="110" t="s">
+        <v>1773</v>
+      </c>
       <c r="E202" s="2"/>
       <c r="H202" s="70"/>
       <c r="I202" s="70"/>
@@ -20378,13 +20288,12 @@
       <c r="A203" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B203" s="88" t="s">
+      <c r="B203" s="87" t="s">
         <v>1261</v>
       </c>
-      <c r="C203" s="88" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D203" s="2"/>
+      <c r="D203" s="110" t="s">
+        <v>1774</v>
+      </c>
       <c r="E203" s="2"/>
       <c r="H203" s="70"/>
       <c r="I203" s="70"/>
@@ -20394,13 +20303,12 @@
       <c r="A204" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B204" s="91" t="s">
+      <c r="B204" s="90" t="s">
         <v>1262</v>
       </c>
-      <c r="C204" s="88" t="s">
-        <v>1709</v>
-      </c>
-      <c r="D204" s="2"/>
+      <c r="D204" s="110" t="s">
+        <v>1775</v>
+      </c>
       <c r="E204" s="2"/>
       <c r="H204" s="70"/>
       <c r="I204" s="70"/>
@@ -20410,13 +20318,12 @@
       <c r="A205" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B205" s="91" t="s">
+      <c r="B205" s="90" t="s">
         <v>1263</v>
       </c>
-      <c r="C205" s="88" t="s">
-        <v>1710</v>
-      </c>
-      <c r="D205" s="2"/>
+      <c r="D205" s="110" t="s">
+        <v>1776</v>
+      </c>
       <c r="E205" s="2"/>
       <c r="H205" s="70"/>
       <c r="I205" s="70"/>
@@ -20426,13 +20333,12 @@
       <c r="A206" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B206" s="91" t="s">
+      <c r="B206" s="90" t="s">
         <v>1264</v>
       </c>
-      <c r="C206" s="88" t="s">
-        <v>1711</v>
-      </c>
-      <c r="D206" s="2"/>
+      <c r="D206" s="110" t="s">
+        <v>1777</v>
+      </c>
       <c r="E206" s="2"/>
       <c r="H206" s="70"/>
       <c r="I206" s="70"/>
@@ -20442,13 +20348,12 @@
       <c r="A207" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B207" s="91" t="s">
+      <c r="B207" s="90" t="s">
         <v>1265</v>
       </c>
-      <c r="C207" s="88" t="s">
-        <v>1712</v>
-      </c>
-      <c r="D207" s="2"/>
+      <c r="D207" s="110" t="s">
+        <v>1778</v>
+      </c>
       <c r="E207" s="2"/>
       <c r="H207" s="70"/>
       <c r="I207" s="70"/>
@@ -20458,13 +20363,12 @@
       <c r="A208" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B208" s="91" t="s">
+      <c r="B208" s="90" t="s">
         <v>1266</v>
       </c>
-      <c r="C208" s="88" t="s">
-        <v>1713</v>
-      </c>
-      <c r="D208" s="2"/>
+      <c r="D208" s="110" t="s">
+        <v>1779</v>
+      </c>
       <c r="E208" s="2"/>
       <c r="H208" s="70"/>
       <c r="I208" s="70"/>
@@ -20474,13 +20378,12 @@
       <c r="A209" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B209" s="91" t="s">
+      <c r="B209" s="90" t="s">
         <v>1267</v>
       </c>
-      <c r="C209" s="88" t="s">
-        <v>1714</v>
-      </c>
-      <c r="D209" s="2"/>
+      <c r="D209" s="110" t="s">
+        <v>1780</v>
+      </c>
       <c r="E209" s="2"/>
       <c r="H209" s="70"/>
       <c r="I209" s="70"/>
@@ -20490,13 +20393,12 @@
       <c r="A210" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B210" s="91" t="s">
+      <c r="B210" s="90" t="s">
         <v>1268</v>
       </c>
-      <c r="C210" s="88" t="s">
-        <v>1715</v>
-      </c>
-      <c r="D210" s="2"/>
+      <c r="D210" s="110" t="s">
+        <v>1781</v>
+      </c>
       <c r="E210" s="2"/>
       <c r="H210" s="70"/>
       <c r="I210" s="70"/>
@@ -20506,13 +20408,12 @@
       <c r="A211" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B211" s="91" t="s">
+      <c r="B211" s="90" t="s">
         <v>1269</v>
       </c>
-      <c r="C211" s="88" t="s">
-        <v>1716</v>
-      </c>
-      <c r="D211" s="2"/>
+      <c r="D211" s="110" t="s">
+        <v>1782</v>
+      </c>
       <c r="E211" s="2"/>
       <c r="H211" s="70"/>
       <c r="I211" s="70"/>
@@ -20522,13 +20423,12 @@
       <c r="A212" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B212" s="91" t="s">
+      <c r="B212" s="90" t="s">
         <v>1270</v>
       </c>
-      <c r="C212" s="88" t="s">
-        <v>1717</v>
-      </c>
-      <c r="D212" s="2"/>
+      <c r="D212" s="110" t="s">
+        <v>1783</v>
+      </c>
       <c r="E212" s="2"/>
       <c r="H212" s="70"/>
       <c r="I212" s="70"/>
@@ -20538,13 +20438,12 @@
       <c r="A213" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B213" s="91" t="s">
+      <c r="B213" s="90" t="s">
         <v>1271</v>
       </c>
-      <c r="C213" s="88" t="s">
-        <v>1718</v>
-      </c>
-      <c r="D213" s="2"/>
+      <c r="D213" s="110" t="s">
+        <v>1784</v>
+      </c>
       <c r="E213" s="2"/>
       <c r="H213" s="70"/>
       <c r="I213" s="70"/>
@@ -20554,13 +20453,12 @@
       <c r="A214" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B214" s="91" t="s">
+      <c r="B214" s="90" t="s">
         <v>1272</v>
       </c>
-      <c r="C214" s="88" t="s">
-        <v>1719</v>
-      </c>
-      <c r="D214" s="2"/>
+      <c r="D214" s="110" t="s">
+        <v>1785</v>
+      </c>
       <c r="E214" s="2"/>
       <c r="H214" s="70"/>
       <c r="I214" s="70"/>
@@ -20570,13 +20468,12 @@
       <c r="A215" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B215" s="91" t="s">
+      <c r="B215" s="90" t="s">
         <v>1273</v>
       </c>
-      <c r="C215" s="88" t="s">
-        <v>1720</v>
-      </c>
-      <c r="D215" s="88"/>
+      <c r="D215" s="110" t="s">
+        <v>1786</v>
+      </c>
       <c r="E215" s="2"/>
       <c r="H215" s="70"/>
       <c r="I215" s="70"/>
@@ -20586,13 +20483,12 @@
       <c r="A216" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B216" s="91" t="s">
+      <c r="B216" s="90" t="s">
         <v>1255</v>
       </c>
-      <c r="C216" s="88" t="s">
-        <v>1703</v>
-      </c>
-      <c r="D216" s="2"/>
+      <c r="D216" s="110" t="s">
+        <v>1768</v>
+      </c>
       <c r="E216" s="2"/>
       <c r="H216" s="70"/>
       <c r="I216" s="70"/>
@@ -20602,13 +20498,12 @@
       <c r="A217" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B217" s="91" t="s">
+      <c r="B217" s="90" t="s">
         <v>1274</v>
       </c>
-      <c r="C217" s="88" t="s">
-        <v>1721</v>
-      </c>
-      <c r="D217" s="2"/>
+      <c r="D217" s="110" t="s">
+        <v>1787</v>
+      </c>
       <c r="E217" s="2"/>
       <c r="H217" s="70"/>
       <c r="I217" s="70"/>
@@ -20658,8 +20553,8 @@
       <c r="B4" s="40" t="s">
         <v>1090</v>
       </c>
-      <c r="C4" s="92" t="s">
-        <v>1723</v>
+      <c r="C4" s="91" t="s">
+        <v>1455</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -20748,7 +20643,7 @@
       <c r="A4" s="48" t="s">
         <v>1076</v>
       </c>
-      <c r="B4" s="93" t="str">
+      <c r="B4" s="92" t="str">
         <f>'Master Info'!C4</f>
         <v>June 30, 2022</v>
       </c>
@@ -22224,8 +22119,8 @@
   </sheetPr>
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -22357,7 +22252,7 @@
     <row r="9" spans="1:10" ht="15">
       <c r="A9" s="8" t="str">
         <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B9,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B9,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B9,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
-        <v>acfr:RevenueForGeneralGovernment,acfr:ExpensesForGeneralGovernmentServices,acfr:NetExpenseRevenueGeneralGovernmentServices</v>
+        <v>ExpensesForGeneralGovernmentServices,RevenueForGeneralGovernment,acfr:NetExpenseRevenueGeneralGovernmentServices</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>1146</v>
@@ -22394,7 +22289,7 @@
     <row r="10" spans="1:10" ht="15">
       <c r="A10" s="8" t="str">
         <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B10,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B10,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B10,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
-        <v>acfr:RevenueForPublicSafetyServices,acfr:ExpensesForPublicSafetyServices,acfr:NetExpenseRevenueForPublicSafetyServices</v>
+        <v>ExpensesForPublicSafetyServices,RevenueForPublicSafetyServices,acfr:NetExpenseRevenueForPublicSafetyServices</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>1153</v>
@@ -22431,7 +22326,7 @@
     <row r="11" spans="1:10" ht="15">
       <c r="A11" s="8" t="str">
         <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B11,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B11,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B11,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
-        <v>acfr:RevenueUsedForPublicWorksServices,acfr:ExpensesForPublicWorksServices,acfr:NetExpenseRevenueForPublicWorksServices</v>
+        <v>ExpensesForPublicWorksServices,RevenueUsedForPublicWorksServices,acfr:NetExpenseRevenueForPublicWorksServices</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>1184</v>
@@ -22468,7 +22363,7 @@
     <row r="12" spans="1:10" ht="15">
       <c r="A12" s="8" t="str">
         <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B12,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B12,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B12,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
-        <v>acfr:RevenueForCommunityAndEconomicDevelopmentServices,acfr:ExpensesForCommunityAndEconomicDevelopmentServices,acfr:NetExpenseRevenueCommunityAndEconomicDevelopmentServices</v>
+        <v>ExpensesForCommunityAndEconomicDevelopmentServices,RevenueForCommunityAndEconomicDevelopmentServices,acfr:NetExpenseRevenueCommunityAndEconomicDevelopmentServices</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>1170</v>
@@ -22505,7 +22400,7 @@
     <row r="13" spans="1:10" ht="15">
       <c r="A13" s="8" t="str">
         <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B13,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B13,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B13,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
-        <v>acfr:RevenueForParksAndRecreation,acfr:ExpensesForParksAndRecreation,acfr:NetExpenseRevenueForCulturalActivities</v>
+        <v>ExpensesForParksAndRecreation,RevenueForParksAndRecreation,acfr:NetExpenseRevenueForCulturalActivities</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>1175</v>
@@ -22542,7 +22437,7 @@
     <row r="14" spans="1:10" ht="15">
       <c r="A14" s="8" t="str">
         <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B14,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B14,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B14,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
-        <v>acfr:RevenueUsedForGeneralGovernmentServicesJudicial,acfr:ExpensesForGeneralGovernmentServicesJudicial,acfr:NetExpenseRevenueForJudicial</v>
+        <v>ExpensesForGeneralGovernmentServicesJudicial,RevenueUsedForGeneralGovernmentServicesJudicial,acfr:NetExpenseRevenueForJudicial</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>1143</v>
@@ -22794,7 +22689,7 @@
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="8" t="s">
-        <v>1722</v>
+        <v>1454</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>1099</v>
@@ -22844,7 +22739,7 @@
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="8" t="str">
         <f>IF(B25="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B25,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B25,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B25,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
-        <v>acfr:RevenueUsedForOtherPrograms,acfr:OtherExpenses,acfr:OtherNetExpenseRevenue</v>
+        <v>OtherExpenses,RevenueUsedForOtherPrograms,acfr:OtherNetExpenseRevenue</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>1235</v>
@@ -23177,7 +23072,7 @@
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1" ht="15">
       <c r="A37" s="8" t="s">
-        <v>1722</v>
+        <v>1454</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>1106</v>
@@ -23217,7 +23112,7 @@
     </row>
     <row r="38" spans="1:10" ht="15">
       <c r="A38" s="8" t="s">
-        <v>1722</v>
+        <v>1454</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>1100</v>
@@ -23440,7 +23335,7 @@
     </row>
     <row r="50" spans="1:10" ht="15">
       <c r="A50" s="8" t="s">
-        <v>1722</v>
+        <v>1454</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>1105</v>
@@ -23509,9 +23404,9 @@
       <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:10" ht="15">
-      <c r="A54" s="8" t="str">
+      <c r="A54" s="8">
         <f>IF(B54="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B54,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
-        <v>acfr:RevenueFromPropertyTax</v>
+        <v>0</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>1294</v>
@@ -23533,9 +23428,9 @@
       <c r="J54" s="20"/>
     </row>
     <row r="55" spans="1:10" ht="15">
-      <c r="A55" s="8" t="str">
+      <c r="A55" s="8">
         <f>IF(B55="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B55,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
-        <v>acfr:RevenueFromSpecialAssessments</v>
+        <v>0</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>1327</v>
@@ -23557,9 +23452,9 @@
       <c r="J55" s="20"/>
     </row>
     <row r="56" spans="1:10" ht="15">
-      <c r="A56" s="8" t="str">
+      <c r="A56" s="8">
         <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
-        <v>acfr:RevenueFromSalesAndUseTax</v>
+        <v>0</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>1304</v>
@@ -23581,9 +23476,9 @@
       <c r="J56" s="20"/>
     </row>
     <row r="57" spans="1:10" ht="15">
-      <c r="A57" s="8" t="str">
+      <c r="A57" s="8">
         <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
-        <v>acfr:RevenueFromBusinessLicenseTax</v>
+        <v>0</v>
       </c>
       <c r="B57" s="18" t="s">
         <v>1308</v>
@@ -23605,9 +23500,9 @@
       <c r="J57" s="20"/>
     </row>
     <row r="58" spans="1:10" ht="15">
-      <c r="A58" s="8" t="str">
+      <c r="A58" s="8">
         <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
-        <v>acfr:RevenueFromFranchiseIncomeTax</v>
+        <v>0</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>1315</v>
@@ -23629,9 +23524,9 @@
       <c r="J58" s="20"/>
     </row>
     <row r="59" spans="1:10" ht="15">
-      <c r="A59" s="8" t="str">
+      <c r="A59" s="8">
         <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B59,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
-        <v>acfr:PaymentInLieuOfTaxes</v>
+        <v>0</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>1244</v>
@@ -23653,9 +23548,9 @@
       <c r="J59" s="20"/>
     </row>
     <row r="60" spans="1:10" ht="15">
-      <c r="A60" s="8" t="str">
+      <c r="A60" s="8">
         <f>IF(B60="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B60,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
-        <v>acfr:InvestmentIncome</v>
+        <v>0</v>
       </c>
       <c r="B60" s="18" t="s">
         <v>1247</v>
@@ -23677,9 +23572,9 @@
       <c r="J60" s="20"/>
     </row>
     <row r="61" spans="1:10" ht="15">
-      <c r="A61" s="8" t="str">
+      <c r="A61" s="8">
         <f>IF(B61="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B61,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
-        <v>acfr:OtherGeneralRevenues</v>
+        <v>0</v>
       </c>
       <c r="B61" s="18" t="s">
         <v>1260</v>
@@ -23701,9 +23596,9 @@
       <c r="J61" s="20"/>
     </row>
     <row r="62" spans="1:10" ht="15">
-      <c r="A62" s="8" t="str">
+      <c r="A62" s="8">
         <f>IF(B62="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B62,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
-        <v>acfr:GainLossOnSaleOfCapitalAssets</v>
+        <v>0</v>
       </c>
       <c r="B62" s="18" t="s">
         <v>1258</v>
@@ -24187,8 +24082,8 @@
       <c r="A1" s="45" t="s">
         <v>1074</v>
       </c>
-      <c r="B1" s="97" t="s">
-        <v>1724</v>
+      <c r="B1" s="96" t="s">
+        <v>1456</v>
       </c>
       <c r="C1" s="55"/>
       <c r="D1" s="49"/>
@@ -24202,7 +24097,7 @@
         <v>1084</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>1725</v>
+        <v>1457</v>
       </c>
       <c r="C2" s="55"/>
       <c r="D2" s="49"/>
@@ -24215,8 +24110,8 @@
       <c r="A3" s="46" t="s">
         <v>1075</v>
       </c>
-      <c r="B3" s="98" t="s">
-        <v>1726</v>
+      <c r="B3" s="97" t="s">
+        <v>1458</v>
       </c>
       <c r="C3" s="55"/>
       <c r="D3" s="49"/>
@@ -24250,58 +24145,58 @@
       <c r="G5" s="51"/>
       <c r="H5" s="51"/>
     </row>
-    <row r="6" spans="1:9" s="99" customFormat="1" ht="28" customHeight="1">
-      <c r="C6" s="100" t="s">
-        <v>1727</v>
-      </c>
-      <c r="D6" s="101" t="s">
-        <v>1761</v>
-      </c>
-      <c r="E6" s="101" t="s">
-        <v>1761</v>
-      </c>
-      <c r="F6" s="101" t="s">
-        <v>1761</v>
-      </c>
-      <c r="G6" s="101" t="s">
-        <v>1783</v>
-      </c>
-      <c r="H6" s="101" t="s">
-        <v>1784</v>
-      </c>
-      <c r="I6" s="102"/>
+    <row r="6" spans="1:9" s="98" customFormat="1" ht="28" customHeight="1">
+      <c r="C6" s="99" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D6" s="100" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E6" s="100" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F6" s="100" t="s">
+        <v>1493</v>
+      </c>
+      <c r="G6" s="100" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H6" s="100" t="s">
+        <v>1516</v>
+      </c>
+      <c r="I6" s="101"/>
     </row>
     <row r="7" spans="1:9" ht="48">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="103" t="s">
-        <v>1727</v>
-      </c>
-      <c r="D7" s="108" t="s">
-        <v>1762</v>
-      </c>
-      <c r="E7" s="108" t="s">
-        <v>1763</v>
-      </c>
-      <c r="F7" s="108" t="s">
-        <v>1764</v>
-      </c>
-      <c r="G7" s="108" t="s">
-        <v>1765</v>
-      </c>
-      <c r="H7" s="108" t="s">
-        <v>1766</v>
-      </c>
-      <c r="I7" s="109" t="s">
-        <v>1785</v>
+      <c r="C7" s="102" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D7" s="107" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E7" s="107" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F7" s="107" t="s">
+        <v>1496</v>
+      </c>
+      <c r="G7" s="107" t="s">
+        <v>1497</v>
+      </c>
+      <c r="H7" s="107" t="s">
+        <v>1498</v>
+      </c>
+      <c r="I7" s="108" t="s">
+        <v>1517</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15">
       <c r="A8" s="7"/>
       <c r="B8" s="13" t="s">
-        <v>1728</v>
+        <v>1460</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -24313,10 +24208,10 @@
     </row>
     <row r="9" spans="1:9" ht="15">
       <c r="A9" s="8" t="s">
-        <v>1745</v>
+        <v>1477</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>1746</v>
+        <v>1478</v>
       </c>
       <c r="C9" s="19">
         <v>2846766</v>
@@ -24343,10 +24238,10 @@
     </row>
     <row r="10" spans="1:9" ht="15">
       <c r="A10" s="8" t="s">
-        <v>1747</v>
+        <v>1479</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>1748</v>
+        <v>1480</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>1281</v>
@@ -24373,10 +24268,10 @@
     </row>
     <row r="11" spans="1:9" ht="15">
       <c r="A11" s="8" t="s">
-        <v>1749</v>
+        <v>1481</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>1750</v>
+        <v>1482</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>1281</v>
@@ -24403,10 +24298,10 @@
     </row>
     <row r="12" spans="1:9" ht="15">
       <c r="A12" s="8" t="s">
-        <v>1751</v>
+        <v>1483</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1752</v>
+        <v>1484</v>
       </c>
       <c r="C12" s="19">
         <v>563908</v>
@@ -24433,10 +24328,10 @@
     </row>
     <row r="13" spans="1:9" ht="15">
       <c r="A13" s="8" t="s">
-        <v>1753</v>
+        <v>1485</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>1754</v>
+        <v>1486</v>
       </c>
       <c r="C13" s="19">
         <v>162881</v>
@@ -24463,10 +24358,10 @@
     </row>
     <row r="14" spans="1:9" ht="15">
       <c r="A14" s="8" t="s">
-        <v>1755</v>
+        <v>1487</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>1756</v>
+        <v>1488</v>
       </c>
       <c r="C14" s="19">
         <v>114026</v>
@@ -24493,10 +24388,10 @@
     </row>
     <row r="15" spans="1:9" ht="15">
       <c r="A15" s="8" t="s">
-        <v>1757</v>
+        <v>1489</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>1758</v>
+        <v>1490</v>
       </c>
       <c r="C15" s="19">
         <v>151409</v>
@@ -24523,10 +24418,10 @@
     </row>
     <row r="16" spans="1:9" ht="15">
       <c r="A16" s="8" t="s">
-        <v>1759</v>
+        <v>1491</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>1760</v>
+        <v>1492</v>
       </c>
       <c r="C16" s="19">
         <v>135233</v>
@@ -24655,10 +24550,10 @@
     </row>
     <row r="23" spans="1:9" ht="15">
       <c r="A23" s="8" t="s">
-        <v>1729</v>
+        <v>1461</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1730</v>
+        <v>1462</v>
       </c>
       <c r="C23" s="26">
         <f t="shared" ref="C23:I23" si="0">IF(C7="","",SUM(C9:C22))</f>
@@ -24692,7 +24587,7 @@
     <row r="25" spans="1:9" ht="15">
       <c r="A25" s="7"/>
       <c r="B25" s="13" t="s">
-        <v>1731</v>
+        <v>1463</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
@@ -24704,10 +24599,10 @@
     </row>
     <row r="26" spans="1:9" ht="15">
       <c r="A26" s="8" t="s">
-        <v>1767</v>
+        <v>1499</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>1768</v>
+        <v>1500</v>
       </c>
       <c r="C26" s="19">
         <v>2570417</v>
@@ -24734,10 +24629,10 @@
     </row>
     <row r="27" spans="1:9" ht="15">
       <c r="A27" s="8" t="s">
-        <v>1769</v>
+        <v>1501</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1770</v>
+        <v>1502</v>
       </c>
       <c r="C27" s="19">
         <v>2684319</v>
@@ -24764,10 +24659,10 @@
     </row>
     <row r="28" spans="1:9" ht="15">
       <c r="A28" s="8" t="s">
-        <v>1771</v>
+        <v>1503</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1772</v>
+        <v>1504</v>
       </c>
       <c r="C28" s="19">
         <v>333423</v>
@@ -24794,10 +24689,10 @@
     </row>
     <row r="29" spans="1:9" ht="15">
       <c r="A29" s="8" t="s">
-        <v>1773</v>
+        <v>1505</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1774</v>
+        <v>1506</v>
       </c>
       <c r="C29" s="19">
         <v>299175</v>
@@ -24824,10 +24719,10 @@
     </row>
     <row r="30" spans="1:9" ht="15">
       <c r="A30" s="8" t="s">
-        <v>1775</v>
+        <v>1507</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1776</v>
+        <v>1508</v>
       </c>
       <c r="C30" s="19">
         <v>336592</v>
@@ -24854,10 +24749,10 @@
     </row>
     <row r="31" spans="1:9" ht="15">
       <c r="A31" s="8" t="s">
-        <v>1777</v>
+        <v>1509</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1778</v>
+        <v>1510</v>
       </c>
       <c r="C31" s="19">
         <v>22168</v>
@@ -24935,10 +24830,10 @@
     </row>
     <row r="35" spans="1:9" ht="15">
       <c r="A35" s="8" t="s">
-        <v>1732</v>
+        <v>1464</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>1733</v>
+        <v>1465</v>
       </c>
       <c r="C35" s="25">
         <f>IF(C7="","",SUM(C26:C34))</f>
@@ -24964,17 +24859,17 @@
         <f>IF(H7="","",SUM(H26:H34))</f>
         <v>830244</v>
       </c>
-      <c r="I35" s="104">
+      <c r="I35" s="103">
         <f>SUM(C35:H35)</f>
         <v>9532306</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="32">
-      <c r="A36" s="105" t="s">
-        <v>1734</v>
-      </c>
-      <c r="B36" s="106" t="s">
-        <v>1735</v>
+      <c r="A36" s="104" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B36" s="105" t="s">
+        <v>1467</v>
       </c>
       <c r="C36" s="28">
         <f>C23-C35</f>
@@ -25000,7 +24895,7 @@
         <f>H23-H35</f>
         <v>922353</v>
       </c>
-      <c r="I36" s="107">
+      <c r="I36" s="106">
         <f>SUM(C36:H36)</f>
         <v>-1022180</v>
       </c>
@@ -25019,7 +24914,7 @@
     <row r="38" spans="1:9" ht="15">
       <c r="A38" s="7"/>
       <c r="B38" s="13" t="s">
-        <v>1736</v>
+        <v>1468</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -25031,10 +24926,10 @@
     </row>
     <row r="39" spans="1:9" ht="15">
       <c r="A39" s="8" t="s">
-        <v>1779</v>
+        <v>1511</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1780</v>
+        <v>1512</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>1281</v>
@@ -25061,10 +24956,10 @@
     </row>
     <row r="40" spans="1:9" ht="15">
       <c r="A40" s="8" t="s">
-        <v>1710</v>
+        <v>1452</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1781</v>
+        <v>1513</v>
       </c>
       <c r="C40" s="20">
         <v>1597681</v>
@@ -25091,10 +24986,10 @@
     </row>
     <row r="41" spans="1:9" ht="15">
       <c r="A41" s="8" t="s">
-        <v>1711</v>
+        <v>1453</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1782</v>
+        <v>1514</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>1281</v>
@@ -25410,10 +25305,10 @@
     </row>
     <row r="59" spans="1:9" ht="15">
       <c r="A59" s="9" t="s">
-        <v>1737</v>
+        <v>1469</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>1738</v>
+        <v>1470</v>
       </c>
       <c r="C59" s="25">
         <f>IF(C6="","",SUM(C39:C58))</f>
@@ -25458,7 +25353,7 @@
     <row r="61" spans="1:9" ht="15">
       <c r="A61" s="7"/>
       <c r="B61" s="13" t="s">
-        <v>1739</v>
+        <v>1471</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -25470,10 +25365,10 @@
     </row>
     <row r="62" spans="1:9" ht="15">
       <c r="A62" s="8" t="s">
-        <v>1740</v>
+        <v>1472</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>1741</v>
+        <v>1473</v>
       </c>
       <c r="C62" s="19">
         <v>6163893</v>
@@ -25500,10 +25395,10 @@
     </row>
     <row r="63" spans="1:9" ht="15">
       <c r="A63" s="8" t="s">
-        <v>1740</v>
+        <v>1472</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>1742</v>
+        <v>1474</v>
       </c>
       <c r="C63" s="19">
         <v>6413357</v>
@@ -25615,10 +25510,10 @@
     </row>
     <row r="69" spans="1:9" ht="15">
       <c r="A69" s="9" t="s">
-        <v>1743</v>
+        <v>1475</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>1744</v>
+        <v>1476</v>
       </c>
       <c r="C69" s="26">
         <f>C63-C62</f>
@@ -25991,12 +25886,12 @@
     </row>
     <row r="25" spans="1:5" ht="15">
       <c r="A25" s="7"/>
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="96"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="95"/>
     </row>
     <row r="26" spans="1:5" ht="15">
       <c r="A26" s="8" t="str">

--- a/static/input_files/samples/Clayton.xlsx
+++ b/static/input_files/samples/Clayton.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/static/input_files/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43BFCAE-1716-6B46-BDBE-939C081525A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1207184A-6675-BB47-8A0F-AFD8CF60C1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34120" yWindow="-7160" windowWidth="28800" windowHeight="17500" tabRatio="834" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="834" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label Dropdowns" sheetId="8" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="1788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="1787">
   <si>
     <t>Statement of Net Position</t>
   </si>
@@ -4116,336 +4116,1140 @@
     <t>Grants and Entitlements Not Restricted for Specific Programs</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForGeneralGovernmentServicesLegislativeAndExecutive</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForGeneralGovernmentServicesLegislativeAndExecutive</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForLegislativeAndExecutive</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForGeneralGovernmentServicesJudicial</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForGeneralGovernmentServicesJudicial</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForJudicial</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForGeneralGovernmentServicesAdministration</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForGeneralGovernmentServicesAdministration</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForGovernmentAdministration</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForGeneralGovernmentServicesOther</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForGeneralGovernmentServicesOther</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueGeneralGovernmentServicesOther</t>
   </si>
   <si>
+    <t>acfr:RevenueForGeneralGovernment</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForGeneralGovernmentServices</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueGeneralGovernmentServices</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForSecurityOfPersonsAndPropertyServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForSecurityOfPersonsAndPropertyServices</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForSecurityOfPersonsAndPropertyServices</t>
   </si>
   <si>
+    <t>acfr:RevenueForCourtEquity</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForCourtOfEquity</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueCourtOfEquity</t>
   </si>
   <si>
+    <t>acfr:RevenueForDrugCaseInformationManagement</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForDrugCaseInformationManagement</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueDrugCaseInformationManagement</t>
   </si>
   <si>
+    <t>acfr:RevenueForDrunkDrivingCaseFlowAssistance</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForDrunkDrivingCaseFlowAssistance</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForDrunkDrivingCaseFlowAssistance</t>
   </si>
   <si>
+    <t>acfr:RevenueForCrimeVictimsRights</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForCrimeVictimsRights</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueCrimeVictimsRights</t>
   </si>
   <si>
+    <t>acfr:RevenueForIndigentDefense</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForIndigentDefense</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueIndigentDefense</t>
   </si>
   <si>
+    <t>acfr:RevenueForPublicSafetyServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForPublicSafetyServices</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForPublicSafetyServices</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForHighwaysAndStreets</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForStreetsAndHighways</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForHighwaysAndStreets</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForPublicHealthAndSanitationServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForPublicHealthAndSanitationServices</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForPublicHealthAndSanitationServices</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForMedicalCareFacility</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForMedicalCareFacility</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForMedicalCareFacility</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForAmbulance</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForAmbulance</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForAmbulance</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForStateHealthBenefit</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForStateHealthBenefitPlan</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueHealth</t>
   </si>
   <si>
+    <t>acfr:RevenueForHealth</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForWelfare</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueStateHealthBenefitPlan</t>
   </si>
   <si>
+    <t>acfr:RevenueForWelfare</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForHealth</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForWelfare</t>
   </si>
   <si>
+    <t>acfr:RevenueForHealthAndWelfare</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForHealthAndWelfare</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueHealthAndWelfare</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForElectricityAndPowerServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForElectricityAndPowerServices</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForElectricityAndPowerServices</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForPublicUtilities</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForPublicUtilities</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenuePublicUtilities</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForCommunityServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForCommunityServices</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForCommunityServices</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForCommunityDevelopment</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForCommunityDevelopment</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForCommunityDevelopment</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForEconomicDevelopmentServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForEconomicDevelopmentServices</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForEconomicDevelopmentServices</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForOtherDevelopmentServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForOtherDevelopmentServices</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForOtherDevelopmentServices</t>
   </si>
   <si>
+    <t>acfr:RevenueForCommunityDevelopmentBlockGrants</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForCommunityDevelopmentBlockGrants</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForCommunityDevelopmentBlockGrants</t>
   </si>
   <si>
+    <t>acfr:RevenueForLocalCommunityStabilizationShare</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForLocalCommunityStabilizationShare</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForLocalCommunityStabilizationShare</t>
   </si>
   <si>
+    <t>acfr:RevenueForCommunityAndEconomicDevelopmentServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForCommunityAndEconomicDevelopmentServices</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueCommunityAndEconomicDevelopmentServices</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForLibrary</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForLibrary</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForLibrary</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForGolf</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForGolf</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForGolf</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForHarborServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForHarborServices</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForHarborServices</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForConventionCenterServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForConventionCenterServices</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForConventionCenterServices</t>
   </si>
   <si>
+    <t>acfr:RevenueForParksAndRecreation</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForParksAndRecreation</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForCulturalActivities</t>
   </si>
   <si>
+    <t>acfr:RevenuesForCulturalActivities</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForCulturalActivities</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForParksAndRecreation</t>
   </si>
   <si>
+    <t>acfr:RevenueForCultureAndRecreation</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForRecreationAndCulture</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForRecreationAndCulture</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForConservationServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForConservationServices</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForConservationServices</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForAirportServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForAirportsServices</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForAirportsServices</t>
   </si>
   <si>
+    <t>acfr:RevenueForTransitServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForTransportationServices</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForTransportationServices</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForSanitarySewerServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForSanitarySewerServices</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForSanitarySewerServices</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForWaterSupplyServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForWaterSupplyServices</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForWaterSupplyServices</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForStormSewerServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForStormSewerServices</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForStormSewerServices</t>
   </si>
   <si>
+    <t>acfr:RevenueForSanitation</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForSanitation</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForSanitation</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForPublicWorksServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForPublicWorksServices</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForPublicWorksServices</t>
   </si>
   <si>
+    <t>acfr:ChargesForServicesCourtRelatedCharges</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueCourtRelatedCharges</t>
   </si>
   <si>
+    <t>acfr:ChargesForServicesFees</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueFees</t>
   </si>
   <si>
+    <t>acfr:ChargesForServicesCourtFilingFees</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueCourtFilingFees</t>
   </si>
   <si>
+    <t>acfr:ChargesForServicesJuryDemandFees</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueJuryDemandFees</t>
   </si>
   <si>
+    <t>acfr:ChargesForServicesWritOfGarnishmentRestitutionAttachmentOrExecution</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueWritOfGarnishmentRestitutionAttachmentOrExecution</t>
   </si>
   <si>
+    <t>acfr:ChargesForServicesAttorneyFeeReimbursement</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueAttorneyFeeReimbursement</t>
   </si>
   <si>
+    <t>acfr:ChargesForServicesGuardianAdLitemReimbursement</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueGuardianAdLitemReimbursement</t>
   </si>
   <si>
+    <t>acfr:ChargesForServicesProbationOversightFee</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueProbationOversightFee</t>
   </si>
   <si>
+    <t>acfr:ChargesForServicesEstateInventoryFee</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueEstateInventoryFee</t>
   </si>
   <si>
+    <t>acfr:ChargesForServicesFriendOfTheCourtStatutoryHandlingFee</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueFriendOfTheCourtStatutoryHandlingFee</t>
   </si>
   <si>
+    <t>acfr:ChargesForServicesFriendOfTheCourtServiceFee</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueFriendOfTheCourtServiceFee</t>
   </si>
   <si>
+    <t>acfr:ChargesForServicesMiscellaneousCourtCostsAndFees</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueMiscellaneousCourtCostsAndFees</t>
   </si>
   <si>
+    <t>acfr:ChargesForServicesServicesRendered</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueServicesRendered</t>
   </si>
   <si>
+    <t>acfr:ChargesForServicesBuildingInspectionFees</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueBuildingInspectionFees</t>
   </si>
   <si>
+    <t>acfr:ChargesForServicesAmbulanceTransportFees</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueAmbulanceTransportFees</t>
   </si>
   <si>
+    <t>acfr:ChargesForServicesTitleSearchFee</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueTitleSearchFee</t>
   </si>
   <si>
+    <t>acfr:ChargesForServicesPreForfeitureMailingNoticeCost</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenuePreForfeitureMailingNoticeCost</t>
   </si>
   <si>
+    <t>acfr:ChargesForServicesSales</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueSales</t>
   </si>
   <si>
+    <t>acfr:ChargesForServicesUseAndAdmissionFees</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueUseAndAdmissionFees</t>
   </si>
   <si>
+    <t>acfr:ChargesForServicesRevenueFromParkingFacilities</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueChargesForServicesRevenueFromParkingFacilities</t>
   </si>
   <si>
+    <t>acfr:ChargesForServices</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueChargesForServices</t>
   </si>
   <si>
+    <t>acfr:ChargesForServicesTrafficViolations</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueTrafficViolations</t>
   </si>
   <si>
+    <t>acfr:ChargesForServicesOrdinanceFinesAndCosts</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueOrdinanceFinesAndCosts</t>
   </si>
   <si>
+    <t>acfr:ChargesForServicesStatuteCosts</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueStatuteCosts</t>
   </si>
   <si>
+    <t>acfr:ChargesForServicesBondForfeituresAndBondCosts</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueBondForfeituresAndBondCosts</t>
   </si>
   <si>
+    <t>acfr:RevenueFromFinesAndForfeituresAndPenalties</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueFinesAndForfeituresAndPenalties</t>
   </si>
   <si>
+    <t>acfr:ChargesForServicesBusinessLicensesAndPermits</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueChargesForServicesBusinessLicensesAndPermits</t>
   </si>
   <si>
+    <t>acfr:ChargesForServicesCableTVFranchiseFees</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueChargesForServicesCableTVFranchiseFees</t>
   </si>
   <si>
+    <t>acfr:ChargesForServicesNonBusinessLicensesAndPermits</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueChargesForServicesNonBusinessLicensesAndPermits</t>
   </si>
   <si>
+    <t>acfr:ChargesForServicesLicensesAndPermitsAndFranchiseFees</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueChargesForServicesLicensesAndPermitsAndFranchiseFees</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForPublicSchoolsServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForPublicSchoolsServices</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForPublicSchoolsServices</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForPublicWaysAndFacilitiesServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForPublicWaysAndFacilitiesServices</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForPublicWaysAndFacilitiesServices</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForPublicAssistanceServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForPublicAssistanceServices</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForPublicAssistanceServices</t>
   </si>
   <si>
+    <t>acfr:RevenueForSpecialElectionReimbursement</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForSpecialElectionReimbursement</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForSpecialElectionReimbursement</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForElections</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForElections</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForElections</t>
   </si>
   <si>
+    <t>acfr:RevenueForSurveyAndRemonumentation</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForSurveyAndRemonumentation</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForSurveyAndRemonumentation</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForPlanningAndZoning</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForPlanningAndZoning</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForPlanningAndZoning</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForCemetery</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForCemetery</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForCemetery</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForEquipmentAndEquipmentRental</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForEquipmentAndEquipmentRental</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForEquipmentAndEquipmentRental</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForPropertyMaintenance</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForPropertyMaintenance</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForPropertyMaintenance</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForHomestead</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForHomestead</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForHomestead</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForBuildingAuthority</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForBuildingAuthority</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForBuildingAuthority</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForTelecommunications</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForTelecommunications</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForTelecommunications</t>
   </si>
   <si>
+    <t>acfr:RevenueForFacilitiesMaintenance</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForFacilitiesMaintenance</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForFacilitiesMaintenance</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForTownshipProperties</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForTownshipProperties</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForTownshipProperties</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForEducationServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForEducationServices</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForEducationServices</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForHigherEducation</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForHigherEducation</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForHigherEducation</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForUnemploymentCompensation</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForUnemploymentCompensation</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForUnemploymentCompensation</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForGarageServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForGaragesServices</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForGaragesServices</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForJailStoresCommissaryServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForJailStoresCommissaryServices</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForJailStoresCommissaryServices</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForContingencyServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForContingencyServices</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForContingencyServices</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForOtherPublicServices</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForOtherPublicServices</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForOtherPublicServices</t>
   </si>
   <si>
+    <t>acfr:RevenueSharing</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForRevenueSharing</t>
   </si>
   <si>
+    <t>acfr:RevenueUsedForOtherPrograms</t>
+  </si>
+  <si>
+    <t>acfr:OtherExpenses</t>
+  </si>
+  <si>
     <t>acfr:OtherNetExpenseRevenue</t>
   </si>
   <si>
+    <t>acfr:ProgramRevenues</t>
+  </si>
+  <si>
+    <t>acfr:Expenses</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenue</t>
   </si>
   <si>
+    <t>acfr:ExpensesForFinancialAndTaxAdministrationInformationTechnology</t>
+  </si>
+  <si>
+    <t>acfr:ExpensesForHousingAndCommunityDevelopment</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForHousingAndCommunityDevelopmentServices</t>
   </si>
   <si>
+    <t>acfr:ExpensesForLotteryPrizeAwards</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueLotteryPrizes</t>
   </si>
   <si>
+    <t>acfr:CapitalOutlay</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForCapitalOutlay</t>
   </si>
   <si>
+    <t>acfr:DepreciationExpense</t>
+  </si>
+  <si>
+    <t>acfr:DebtServicePrincipalRepayment</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForDebtServicePrincipalRepayment</t>
   </si>
   <si>
+    <t>acfr:DebtServiceInterestAndFiscalCharges</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForDebtServiceInterestAndFiscalCharges</t>
   </si>
   <si>
+    <t>acfr:DebtService</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueDebtService</t>
   </si>
   <si>
+    <t>acfr:DepreciationUnallocated</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForDepreciationUnallocated</t>
   </si>
   <si>
+    <t>acfr:CostOfIssueOfBondsAndSecurities</t>
+  </si>
+  <si>
     <t>acfr:NetExpenseRevenueForCostOfIssueOfBondsAndSecurities</t>
   </si>
   <si>
     <t>acfr:NetExpenseRevenuePublicSafetyProtectiveServices</t>
   </si>
   <si>
+    <t>acfr:RevenueFromNationalForestReserveTaxes</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromTrailerTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromAccomodationsTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromParkingOccupancyTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromIndustrialFacilitiesTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromCommercialFacilitiesTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromIncomeTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromTransactionPrivilegeTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromCurrentPropertyTaxesExtraOrSpecialVoted</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromCurrentPersonalPropertyTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenuesFromCurrentRealPropertyTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromPropertyTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromDelinquentRealPropertyTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromDelinquentPersonalPropertyTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromMarijuanaTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromCityUtilityUsersTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromMotorFuelTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromLotteryForEducationLotteryProceeds</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromCorporateTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromUsageOfUtilitiesTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromConventionTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromSalesAndUseTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromSalesTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromUnclaimedProperty</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromNursingHomeAndHospitalProviderFees</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromBusinessLicenseTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromPropertyTransferTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromDocumentsTransferTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromTransferStampsTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromHotelAndMotelTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromVehiclesTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromMealsTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromFranchiseIncomeTax</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromOtherTaxForGeneralPurpose</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromTaxes</t>
+  </si>
+  <si>
+    <t>acfr:AllowanceForChargebacks</t>
+  </si>
+  <si>
+    <t>acfr:AllowanceForRefunds</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromCollectionFees</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromInterestAndPenaltiesOnTaxes</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromCommunityWideSpecialAssessments</t>
+  </si>
+  <si>
+    <t>acfr:RedemptionsAndReconveyance</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromCountyExpenseOfSale</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromCommercialForestReserve</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromSubMarginalLandAct</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromTaxRevertedProperty</t>
+  </si>
+  <si>
+    <t>acfr:PaymentInLieuOfTaxes</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromPropertyTaxAdministrationFee</t>
+  </si>
+  <si>
+    <t>acfr:TaxesAndTaxRelatedRevenues</t>
+  </si>
+  <si>
+    <t>acfr:RevenuesFromInterestAndPenaltiesOnSpecialAssessments</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromSpecialAssessments</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromDividends</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromInterest</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromInterestAndDividends</t>
+  </si>
+  <si>
+    <t>acfr:InvestmentGainsLosses</t>
+  </si>
+  <si>
+    <t>acfr:InvestmentIncome</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromInterestAndRent</t>
+  </si>
+  <si>
+    <t>acfr:LeaseInvestmentIncome</t>
+  </si>
+  <si>
+    <t>acfr:InvestmentIncomeAndRentals</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromRent</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromRoyalties</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromRentsAndRoyalties</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromSharedRevenue</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromUseOfMoneyAndProperty</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromGasAndOilRoyalties</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromCasinoRevenueSharing</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromRecreationFees</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromRefundsAndRebates</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromReimbursements</t>
+  </si>
+  <si>
+    <t>acfr:RevenueFromGrantsAndEntitlementsForSpecificProgramsUnrestricted</t>
+  </si>
+  <si>
+    <t>acfr:GrantsContributionsAndDonationsFromFederalGovernmentalEntities</t>
+  </si>
+  <si>
+    <t>acfr:GrantsContributionsAndDonationsFromStateGovernmentalEntities</t>
+  </si>
+  <si>
+    <t>acfr:GrantsContributionsAndDonationsFromLocalUnits</t>
+  </si>
+  <si>
+    <t>acfr:GrantsContributionsAndDonationsFromOthers</t>
+  </si>
+  <si>
+    <t>acfr:PublicAndPrivateContributions</t>
+  </si>
+  <si>
+    <t>acfr:ProceedsFromBondAndNoteIssuance</t>
+  </si>
+  <si>
+    <t>acfr:PrivateContributionsAndDonations</t>
+  </si>
+  <si>
+    <t>acfr:CashOverOrShort</t>
+  </si>
+  <si>
+    <t>acfr:GainLossOnSaleOfCapitalAssets</t>
+  </si>
+  <si>
+    <t>acfr:RecoveryOfCostIncurred</t>
+  </si>
+  <si>
+    <t>acfr:OtherGeneralRevenues</t>
+  </si>
+  <si>
+    <t>acfr:TransfersNet</t>
+  </si>
+  <si>
     <t>acfr:TransfersIn</t>
   </si>
   <si>
     <t>acfr:TransfersOut</t>
   </si>
   <si>
+    <t>acfr:InternalTransfers</t>
+  </si>
+  <si>
+    <t>acfr:TransferToEscrowForBondRefunding</t>
+  </si>
+  <si>
+    <t>acfr:OtherFinancingSourcesLeaseFinancing</t>
+  </si>
+  <si>
+    <t>acfr:DiscountsOnBondsOrNotes</t>
+  </si>
+  <si>
+    <t>acfr:PremiumOnBondsOrNotes</t>
+  </si>
+  <si>
+    <t>acfr:BondOrInsuranceRecoveries</t>
+  </si>
+  <si>
+    <t>acfr:SpecialItems</t>
+  </si>
+  <si>
+    <t>acfr:ExtraordinaryItems</t>
+  </si>
+  <si>
+    <t>acfr:AdjustmentsForTransferOfRevenuesWithinActivities</t>
+  </si>
+  <si>
+    <t>acfr:GeneralRevenuesAndTransfers</t>
+  </si>
+  <si>
     <t>acfr:ProgramRevenues,acfr:Expenses,acfr:NetExpenseRevenue</t>
   </si>
   <si>
@@ -4638,814 +5442,7 @@
     <t>Total Governmental Funds</t>
   </si>
   <si>
-    <t>ExpensesForGeneralGovernmentServicesLegislativeAndExecutive</t>
-  </si>
-  <si>
-    <t>RevenueUsedForGeneralGovernmentServicesLegislativeAndExecutive</t>
-  </si>
-  <si>
-    <t>ExpensesForGeneralGovernmentServicesJudicial</t>
-  </si>
-  <si>
-    <t>RevenueUsedForGeneralGovernmentServicesJudicial</t>
-  </si>
-  <si>
-    <t>ExpensesForGeneralGovernmentServicesAdministration</t>
-  </si>
-  <si>
-    <t>RevenueUsedForGeneralGovernmentServicesAdministration</t>
-  </si>
-  <si>
-    <t>ExpensesForGeneralGovernmentServicesOther</t>
-  </si>
-  <si>
-    <t>RevenueUsedForGeneralGovernmentServicesOther</t>
-  </si>
-  <si>
-    <t>ExpensesForGeneralGovernmentServices</t>
-  </si>
-  <si>
-    <t>RevenueForGeneralGovernment</t>
-  </si>
-  <si>
-    <t>ExpensesForSecurityOfPersonsAndPropertyServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForSecurityOfPersonsAndPropertyServices</t>
-  </si>
-  <si>
-    <t>ExpensesForCourtOfEquity</t>
-  </si>
-  <si>
-    <t>RevenueForCourtEquity</t>
-  </si>
-  <si>
-    <t>ExpensesForDrugCaseInformationManagement</t>
-  </si>
-  <si>
-    <t>RevenueForDrugCaseInformationManagement</t>
-  </si>
-  <si>
-    <t>ExpensesForDrunkDrivingCaseFlowAssistance</t>
-  </si>
-  <si>
-    <t>RevenueForDrunkDrivingCaseFlowAssistance</t>
-  </si>
-  <si>
-    <t>ExpensesForCrimeVictimsRights</t>
-  </si>
-  <si>
-    <t>RevenueForCrimeVictimsRights</t>
-  </si>
-  <si>
-    <t>ExpensesForIndigentDefense</t>
-  </si>
-  <si>
-    <t>RevenueForIndigentDefense</t>
-  </si>
-  <si>
-    <t>ExpensesForPublicSafetyServices</t>
-  </si>
-  <si>
-    <t>RevenueForPublicSafetyServices</t>
-  </si>
-  <si>
-    <t>ExpensesForStreetsAndHighways</t>
-  </si>
-  <si>
-    <t>RevenueUsedForHighwaysAndStreets</t>
-  </si>
-  <si>
-    <t>ExpensesForPublicHealthAndSanitationServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForPublicHealthAndSanitationServices</t>
-  </si>
-  <si>
-    <t>ExpensesForMedicalCareFacility</t>
-  </si>
-  <si>
-    <t>RevenueUsedForMedicalCareFacility</t>
-  </si>
-  <si>
-    <t>ExpensesForAmbulance</t>
-  </si>
-  <si>
-    <t>RevenueUsedForAmbulance</t>
-  </si>
-  <si>
-    <t>ExpensesForStateHealthBenefitPlan</t>
-  </si>
-  <si>
-    <t>RevenueUsedForStateHealthBenefit</t>
-  </si>
-  <si>
-    <t>ExpensesForWelfare</t>
-  </si>
-  <si>
-    <t>RevenueForHealth</t>
-  </si>
-  <si>
-    <t>ExpensesForHealth</t>
-  </si>
-  <si>
-    <t>RevenueForWelfare</t>
-  </si>
-  <si>
-    <t>ExpensesForHealthAndWelfare</t>
-  </si>
-  <si>
-    <t>RevenueForHealthAndWelfare</t>
-  </si>
-  <si>
-    <t>ExpensesForElectricityAndPowerServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForElectricityAndPowerServices</t>
-  </si>
-  <si>
-    <t>ExpensesForPublicUtilities</t>
-  </si>
-  <si>
-    <t>RevenueUsedForPublicUtilities</t>
-  </si>
-  <si>
-    <t>ExpensesForCommunityServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForCommunityServices</t>
-  </si>
-  <si>
-    <t>ExpensesForCommunityDevelopment</t>
-  </si>
-  <si>
-    <t>RevenueUsedForCommunityDevelopment</t>
-  </si>
-  <si>
-    <t>ExpensesForEconomicDevelopmentServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForEconomicDevelopmentServices</t>
-  </si>
-  <si>
-    <t>ExpensesForOtherDevelopmentServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForOtherDevelopmentServices</t>
-  </si>
-  <si>
-    <t>ExpensesForCommunityDevelopmentBlockGrants</t>
-  </si>
-  <si>
-    <t>RevenueForCommunityDevelopmentBlockGrants</t>
-  </si>
-  <si>
-    <t>ExpensesForLocalCommunityStabilizationShare</t>
-  </si>
-  <si>
-    <t>RevenueForLocalCommunityStabilizationShare</t>
-  </si>
-  <si>
-    <t>ExpensesForCommunityAndEconomicDevelopmentServices</t>
-  </si>
-  <si>
-    <t>RevenueForCommunityAndEconomicDevelopmentServices</t>
-  </si>
-  <si>
-    <t>ExpensesForLibrary</t>
-  </si>
-  <si>
-    <t>RevenueUsedForLibrary</t>
-  </si>
-  <si>
-    <t>ExpensesForGolf</t>
-  </si>
-  <si>
-    <t>RevenueUsedForGolf</t>
-  </si>
-  <si>
-    <t>ExpensesForHarborServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForHarborServices</t>
-  </si>
-  <si>
-    <t>ExpensesForConventionCenterServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForConventionCenterServices</t>
-  </si>
-  <si>
-    <t>ExpensesForParksAndRecreation</t>
-  </si>
-  <si>
-    <t>RevenueForParksAndRecreation</t>
-  </si>
-  <si>
-    <t>ExpensesForCulturalActivities</t>
-  </si>
-  <si>
-    <t>RevenuesForCulturalActivities</t>
-  </si>
-  <si>
-    <t>ExpensesForRecreationAndCulture</t>
-  </si>
-  <si>
-    <t>RevenueForCultureAndRecreation</t>
-  </si>
-  <si>
-    <t>ExpensesForConservationServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForConservationServices</t>
-  </si>
-  <si>
-    <t>ExpensesForAirportsServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForAirportServices</t>
-  </si>
-  <si>
-    <t>ExpensesForTransportationServices</t>
-  </si>
-  <si>
-    <t>RevenueForTransitServices</t>
-  </si>
-  <si>
-    <t>ExpensesForSanitarySewerServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForSanitarySewerServices</t>
-  </si>
-  <si>
-    <t>ExpensesForWaterSupplyServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForWaterSupplyServices</t>
-  </si>
-  <si>
-    <t>ExpensesForStormSewerServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForStormSewerServices</t>
-  </si>
-  <si>
-    <t>ExpensesForSanitation</t>
-  </si>
-  <si>
-    <t>RevenueForSanitation</t>
-  </si>
-  <si>
-    <t>ExpensesForPublicWorksServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForPublicWorksServices</t>
-  </si>
-  <si>
-    <t>ChargesForServicesCourtRelatedCharges</t>
-  </si>
-  <si>
-    <t>ChargesForServicesFees</t>
-  </si>
-  <si>
-    <t>ChargesForServicesCourtFilingFees</t>
-  </si>
-  <si>
-    <t>ChargesForServicesJuryDemandFees</t>
-  </si>
-  <si>
-    <t>ChargesForServicesWritOfGarnishmentRestitutionAttachmentOrExecution</t>
-  </si>
-  <si>
-    <t>ChargesForServicesAttorneyFeeReimbursement</t>
-  </si>
-  <si>
-    <t>ChargesForServicesGuardianAdLitemReimbursement</t>
-  </si>
-  <si>
-    <t>ChargesForServicesProbationOversightFee</t>
-  </si>
-  <si>
-    <t>ChargesForServicesEstateInventoryFee</t>
-  </si>
-  <si>
-    <t>ChargesForServicesFriendOfTheCourtStatutoryHandlingFee</t>
-  </si>
-  <si>
-    <t>ChargesForServicesFriendOfTheCourtServiceFee</t>
-  </si>
-  <si>
-    <t>ChargesForServicesMiscellaneousCourtCostsAndFees</t>
-  </si>
-  <si>
-    <t>ChargesForServicesServicesRendered</t>
-  </si>
-  <si>
-    <t>ChargesForServicesBuildingInspectionFees</t>
-  </si>
-  <si>
-    <t>ChargesForServicesAmbulanceTransportFees</t>
-  </si>
-  <si>
-    <t>ChargesForServicesTitleSearchFee</t>
-  </si>
-  <si>
-    <t>ChargesForServicesPreForfeitureMailingNoticeCost</t>
-  </si>
-  <si>
-    <t>ChargesForServicesSales</t>
-  </si>
-  <si>
-    <t>ChargesForServicesUseAndAdmissionFees</t>
-  </si>
-  <si>
-    <t>ChargesForServicesRevenueFromParkingFacilities</t>
-  </si>
-  <si>
-    <t>ChargesForServices</t>
-  </si>
-  <si>
-    <t>ChargesForServicesTrafficViolations</t>
-  </si>
-  <si>
-    <t>ChargesForServicesOrdinanceFinesAndCosts</t>
-  </si>
-  <si>
-    <t>ChargesForServicesStatuteCosts</t>
-  </si>
-  <si>
-    <t>ChargesForServicesBondForfeituresAndBondCosts</t>
-  </si>
-  <si>
-    <t>RevenueFromFinesAndForfeituresAndPenalties</t>
-  </si>
-  <si>
-    <t>ChargesForServicesBusinessLicensesAndPermits</t>
-  </si>
-  <si>
-    <t>ChargesForServicesCableTVFranchiseFees</t>
-  </si>
-  <si>
-    <t>ChargesForServicesNonBusinessLicensesAndPermits</t>
-  </si>
-  <si>
-    <t>ChargesForServicesLicensesAndPermitsAndFranchiseFees</t>
-  </si>
-  <si>
-    <t>ExpensesForPublicSchoolsServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForPublicSchoolsServices</t>
-  </si>
-  <si>
-    <t>ExpensesForPublicWaysAndFacilitiesServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForPublicWaysAndFacilitiesServices</t>
-  </si>
-  <si>
-    <t>ExpensesForPublicAssistanceServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForPublicAssistanceServices</t>
-  </si>
-  <si>
-    <t>ExpensesForSpecialElectionReimbursement</t>
-  </si>
-  <si>
-    <t>RevenueForSpecialElectionReimbursement</t>
-  </si>
-  <si>
-    <t>ExpensesForElections</t>
-  </si>
-  <si>
-    <t>RevenueUsedForElections</t>
-  </si>
-  <si>
-    <t>ExpensesForSurveyAndRemonumentation</t>
-  </si>
-  <si>
-    <t>RevenueForSurveyAndRemonumentation</t>
-  </si>
-  <si>
-    <t>ExpensesForPlanningAndZoning</t>
-  </si>
-  <si>
-    <t>RevenueUsedForPlanningAndZoning</t>
-  </si>
-  <si>
-    <t>ExpensesForCemetery</t>
-  </si>
-  <si>
-    <t>RevenueUsedForCemetery</t>
-  </si>
-  <si>
-    <t>ExpensesForEquipmentAndEquipmentRental</t>
-  </si>
-  <si>
-    <t>RevenueUsedForEquipmentAndEquipmentRental</t>
-  </si>
-  <si>
-    <t>ExpensesForPropertyMaintenance</t>
-  </si>
-  <si>
-    <t>RevenueUsedForPropertyMaintenance</t>
-  </si>
-  <si>
-    <t>ExpensesForHomestead</t>
-  </si>
-  <si>
-    <t>RevenueUsedForHomestead</t>
-  </si>
-  <si>
-    <t>ExpensesForBuildingAuthority</t>
-  </si>
-  <si>
-    <t>RevenueUsedForBuildingAuthority</t>
-  </si>
-  <si>
-    <t>ExpensesForTelecommunications</t>
-  </si>
-  <si>
-    <t>RevenueUsedForTelecommunications</t>
-  </si>
-  <si>
-    <t>ExpensesForFacilitiesMaintenance</t>
-  </si>
-  <si>
-    <t>RevenueForFacilitiesMaintenance</t>
-  </si>
-  <si>
-    <t>ExpensesForTownshipProperties</t>
-  </si>
-  <si>
-    <t>RevenueUsedForTownshipProperties</t>
-  </si>
-  <si>
-    <t>ExpensesForEducationServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForEducationServices</t>
-  </si>
-  <si>
-    <t>ExpensesForHigherEducation</t>
-  </si>
-  <si>
-    <t>RevenueUsedForHigherEducation</t>
-  </si>
-  <si>
-    <t>ExpensesForUnemploymentCompensation</t>
-  </si>
-  <si>
-    <t>RevenueUsedForUnemploymentCompensation</t>
-  </si>
-  <si>
-    <t>ExpensesForGaragesServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForGarageServices</t>
-  </si>
-  <si>
-    <t>ExpensesForJailStoresCommissaryServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForJailStoresCommissaryServices</t>
-  </si>
-  <si>
-    <t>ExpensesForContingencyServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForContingencyServices</t>
-  </si>
-  <si>
-    <t>ExpensesForOtherPublicServices</t>
-  </si>
-  <si>
-    <t>RevenueUsedForOtherPublicServices</t>
-  </si>
-  <si>
-    <t>RevenueSharing</t>
-  </si>
-  <si>
-    <t>OtherExpenses</t>
-  </si>
-  <si>
-    <t>RevenueUsedForOtherPrograms</t>
-  </si>
-  <si>
-    <t>ProgramRevenues</t>
-  </si>
-  <si>
-    <t>ExpensesForFinancialAndTaxAdministrationInformationTechnology</t>
-  </si>
-  <si>
-    <t>ExpensesForHousingAndCommunityDevelopment</t>
-  </si>
-  <si>
-    <t>ExpensesForLotteryPrizeAwards</t>
-  </si>
-  <si>
-    <t>CapitalOutlay</t>
-  </si>
-  <si>
-    <t>DepreciationExpense</t>
-  </si>
-  <si>
-    <t>DebtServicePrincipalRepayment</t>
-  </si>
-  <si>
-    <t>DebtServiceInterestAndFiscalCharges</t>
-  </si>
-  <si>
-    <t>DebtService</t>
-  </si>
-  <si>
-    <t>DepreciationUnallocated</t>
-  </si>
-  <si>
-    <t>CostOfIssueOfBondsAndSecurities</t>
-  </si>
-  <si>
-    <t>RevenueFromNationalForestReserveTaxes</t>
-  </si>
-  <si>
-    <t>RevenueFromTrailerTax</t>
-  </si>
-  <si>
-    <t>RevenueFromAccomodationsTax</t>
-  </si>
-  <si>
-    <t>RevenueFromParkingOccupancyTax</t>
-  </si>
-  <si>
-    <t>RevenueFromIndustrialFacilitiesTax</t>
-  </si>
-  <si>
-    <t>RevenueFromCommercialFacilitiesTax</t>
-  </si>
-  <si>
-    <t>RevenueFromIncomeTax</t>
-  </si>
-  <si>
-    <t>RevenueFromTransactionPrivilegeTax</t>
-  </si>
-  <si>
-    <t>RevenueFromCurrentPropertyTaxesExtraOrSpecialVoted</t>
-  </si>
-  <si>
-    <t>RevenueFromCurrentPersonalPropertyTax</t>
-  </si>
-  <si>
-    <t>RevenuesFromCurrentRealPropertyTax</t>
-  </si>
-  <si>
-    <t>RevenueFromPropertyTax</t>
-  </si>
-  <si>
-    <t>RevenueFromDelinquentRealPropertyTax</t>
-  </si>
-  <si>
-    <t>RevenueFromDelinquentPersonalPropertyTax</t>
-  </si>
-  <si>
-    <t>RevenueFromMarijuanaTax</t>
-  </si>
-  <si>
-    <t>RevenueFromCityUtilityUsersTax</t>
-  </si>
-  <si>
-    <t>RevenueFromMotorFuelTax</t>
-  </si>
-  <si>
-    <t>RevenueFromLotteryForEducationLotteryProceeds</t>
-  </si>
-  <si>
-    <t>RevenueFromCorporateTax</t>
-  </si>
-  <si>
-    <t>RevenueFromUsageOfUtilitiesTax</t>
-  </si>
-  <si>
-    <t>RevenueFromConventionTax</t>
-  </si>
-  <si>
-    <t>RevenueFromSalesAndUseTax</t>
-  </si>
-  <si>
-    <t>RevenueFromSalesTax</t>
-  </si>
-  <si>
-    <t>RevenueFromUnclaimedProperty</t>
-  </si>
-  <si>
-    <t>RevenueFromNursingHomeAndHospitalProviderFees</t>
-  </si>
-  <si>
-    <t>RevenueFromBusinessLicenseTax</t>
-  </si>
-  <si>
-    <t>RevenueFromPropertyTransferTax</t>
-  </si>
-  <si>
-    <t>RevenueFromDocumentsTransferTax</t>
-  </si>
-  <si>
-    <t>RevenueFromTransferStampsTax</t>
-  </si>
-  <si>
-    <t>RevenueFromHotelAndMotelTax</t>
-  </si>
-  <si>
-    <t>RevenueFromVehiclesTax</t>
-  </si>
-  <si>
-    <t>RevenueFromMealsTax</t>
-  </si>
-  <si>
-    <t>RevenueFromFranchiseIncomeTax</t>
-  </si>
-  <si>
-    <t>RevenueFromOtherTaxForGeneralPurpose</t>
-  </si>
-  <si>
-    <t>RevenueFromTaxes</t>
-  </si>
-  <si>
-    <t>AllowanceForChargebacks</t>
-  </si>
-  <si>
-    <t>AllowanceForRefunds</t>
-  </si>
-  <si>
-    <t>RevenueFromCollectionFees</t>
-  </si>
-  <si>
-    <t>RevenueFromInterestAndPenaltiesOnTaxes</t>
-  </si>
-  <si>
-    <t>RevenueFromCommunityWideSpecialAssessments</t>
-  </si>
-  <si>
-    <t>RedemptionsAndReconveyance</t>
-  </si>
-  <si>
-    <t>RevenueFromCountyExpenseOfSale</t>
-  </si>
-  <si>
-    <t>RevenueFromCommercialForestReserve</t>
-  </si>
-  <si>
-    <t>RevenueFromSubMarginalLandAct</t>
-  </si>
-  <si>
-    <t>RevenueFromTaxRevertedProperty</t>
-  </si>
-  <si>
-    <t>PaymentInLieuOfTaxes</t>
-  </si>
-  <si>
-    <t>RevenueFromPropertyTaxAdministrationFee</t>
-  </si>
-  <si>
-    <t>TaxesAndTaxRelatedRevenues</t>
-  </si>
-  <si>
-    <t>RevenuesFromInterestAndPenaltiesOnSpecialAssessments</t>
-  </si>
-  <si>
-    <t>RevenueFromSpecialAssessments</t>
-  </si>
-  <si>
-    <t>RevenueFromDividends</t>
-  </si>
-  <si>
-    <t>RevenueFromInterest</t>
-  </si>
-  <si>
-    <t>RevenueFromInterestAndDividends</t>
-  </si>
-  <si>
-    <t>InvestmentGainsLosses</t>
-  </si>
-  <si>
-    <t>InvestmentIncome</t>
-  </si>
-  <si>
-    <t>RevenueFromInterestAndRent</t>
-  </si>
-  <si>
-    <t>LeaseInvestmentIncome</t>
-  </si>
-  <si>
-    <t>InvestmentIncomeAndRentals</t>
-  </si>
-  <si>
-    <t>RevenueFromRent</t>
-  </si>
-  <si>
-    <t>RevenueFromRoyalties</t>
-  </si>
-  <si>
-    <t>RevenueFromRentsAndRoyalties</t>
-  </si>
-  <si>
-    <t>RevenueFromSharedRevenue</t>
-  </si>
-  <si>
-    <t>RevenueFromUseOfMoneyAndProperty</t>
-  </si>
-  <si>
-    <t>RevenueFromGasAndOilRoyalties</t>
-  </si>
-  <si>
-    <t>RevenueFromCasinoRevenueSharing</t>
-  </si>
-  <si>
-    <t>RevenueFromRecreationFees</t>
-  </si>
-  <si>
-    <t>RevenueFromRefundsAndRebates</t>
-  </si>
-  <si>
-    <t>RevenueFromReimbursements</t>
-  </si>
-  <si>
-    <t>RevenueFromGrantsAndEntitlementsForSpecificProgramsUnrestricted</t>
-  </si>
-  <si>
-    <t>GrantsContributionsAndDonationsFromFederalGovernmentalEntities</t>
-  </si>
-  <si>
-    <t>GrantsContributionsAndDonationsFromStateGovernmentalEntities</t>
-  </si>
-  <si>
-    <t>GrantsContributionsAndDonationsFromLocalUnits</t>
-  </si>
-  <si>
-    <t>GrantsContributionsAndDonationsFromOthers</t>
-  </si>
-  <si>
-    <t>PublicAndPrivateContributions</t>
-  </si>
-  <si>
-    <t>ProceedsFromBondAndNoteIssuance</t>
-  </si>
-  <si>
-    <t>PrivateContributionsAndDonations</t>
-  </si>
-  <si>
-    <t>CashOverOrShort</t>
-  </si>
-  <si>
-    <t>GainLossOnSaleOfCapitalAssets</t>
-  </si>
-  <si>
-    <t>RecoveryOfCostIncurred</t>
-  </si>
-  <si>
-    <t>OtherGeneralRevenues</t>
-  </si>
-  <si>
-    <t>GeneralRevenuesNet</t>
-  </si>
-  <si>
-    <t>TransfersNet</t>
-  </si>
-  <si>
-    <t>TransfersIn</t>
-  </si>
-  <si>
-    <t>TransfersOut</t>
-  </si>
-  <si>
-    <t>InternalTransfers</t>
-  </si>
-  <si>
-    <t>TransferToEscrowForBondRefunding</t>
-  </si>
-  <si>
-    <t>OtherFinancingSourcesLeaseFinancing</t>
-  </si>
-  <si>
-    <t>DiscountsOnBondsOrNotes</t>
-  </si>
-  <si>
-    <t>PremiumOnBondsOrNotes</t>
-  </si>
-  <si>
-    <t>BondOrInsuranceRecoveries</t>
-  </si>
-  <si>
-    <t>SpecialItems</t>
-  </si>
-  <si>
-    <t>ExtraordinaryItems</t>
-  </si>
-  <si>
-    <t>AdjustmentsForTransferOfRevenuesWithinActivities</t>
-  </si>
-  <si>
-    <t>GeneralRevenuesAndTransfers</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -6087,10 +6084,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -6146,6 +6139,10 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -16785,8 +16782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF490C29-31E1-3E46-B6B7-83D944E71A74}">
   <dimension ref="A1:J218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A105" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -16805,10 +16802,10 @@
       <c r="B1" s="86" t="s">
         <v>1276</v>
       </c>
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="107" t="s">
         <v>1133</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="107" t="s">
         <v>1132</v>
       </c>
       <c r="E1" s="69" t="s">
@@ -16822,14 +16819,14 @@
       <c r="B2" s="86" t="s">
         <v>1142</v>
       </c>
-      <c r="C2" s="110" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D2" s="110" t="s">
-        <v>1519</v>
-      </c>
-      <c r="E2" s="87" t="s">
+      <c r="C2" s="108" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D2" s="108" t="s">
         <v>1344</v>
+      </c>
+      <c r="E2" s="108" t="s">
+        <v>1346</v>
       </c>
       <c r="H2" s="70"/>
       <c r="I2" s="70"/>
@@ -16842,14 +16839,14 @@
       <c r="B3" s="86" t="s">
         <v>1143</v>
       </c>
-      <c r="C3" s="110" t="s">
-        <v>1520</v>
-      </c>
-      <c r="D3" s="110" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E3" s="87" t="s">
-        <v>1345</v>
+      <c r="C3" s="108" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D3" s="108" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E3" s="108" t="s">
+        <v>1349</v>
       </c>
       <c r="H3" s="70"/>
       <c r="I3" s="70"/>
@@ -16862,14 +16859,14 @@
       <c r="B4" s="86" t="s">
         <v>1144</v>
       </c>
-      <c r="C4" s="110" t="s">
-        <v>1522</v>
-      </c>
-      <c r="D4" s="110" t="s">
-        <v>1523</v>
-      </c>
-      <c r="E4" s="87" t="s">
-        <v>1346</v>
+      <c r="C4" s="108" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D4" s="108" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E4" s="108" t="s">
+        <v>1352</v>
       </c>
       <c r="H4" s="70"/>
       <c r="I4" s="70"/>
@@ -16882,14 +16879,14 @@
       <c r="B5" s="86" t="s">
         <v>1145</v>
       </c>
-      <c r="C5" s="110" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D5" s="110" t="s">
-        <v>1525</v>
-      </c>
-      <c r="E5" s="87" t="s">
-        <v>1347</v>
+      <c r="C5" s="108" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D5" s="108" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E5" s="108" t="s">
+        <v>1355</v>
       </c>
       <c r="H5" s="70"/>
       <c r="I5" s="70"/>
@@ -16902,14 +16899,14 @@
       <c r="B6" s="86" t="s">
         <v>1146</v>
       </c>
-      <c r="C6" s="110" t="s">
-        <v>1526</v>
-      </c>
-      <c r="D6" s="110" t="s">
-        <v>1527</v>
-      </c>
-      <c r="E6" s="87" t="s">
-        <v>1348</v>
+      <c r="C6" s="108" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D6" s="108" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E6" s="108" t="s">
+        <v>1358</v>
       </c>
       <c r="H6" s="70"/>
       <c r="I6" s="70"/>
@@ -16922,14 +16919,14 @@
       <c r="B7" s="86" t="s">
         <v>1147</v>
       </c>
-      <c r="C7" s="110" t="s">
-        <v>1528</v>
-      </c>
-      <c r="D7" s="110" t="s">
-        <v>1529</v>
-      </c>
-      <c r="E7" s="87" t="s">
-        <v>1349</v>
+      <c r="C7" s="108" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D7" s="108" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E7" s="108" t="s">
+        <v>1361</v>
       </c>
       <c r="H7" s="70"/>
       <c r="I7" s="70"/>
@@ -16942,14 +16939,14 @@
       <c r="B8" s="86" t="s">
         <v>1148</v>
       </c>
-      <c r="C8" s="110" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D8" s="110" t="s">
-        <v>1531</v>
-      </c>
-      <c r="E8" s="87" t="s">
-        <v>1350</v>
+      <c r="C8" s="108" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D8" s="108" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E8" s="108" t="s">
+        <v>1364</v>
       </c>
       <c r="H8" s="70"/>
       <c r="I8" s="70"/>
@@ -16962,14 +16959,14 @@
       <c r="B9" s="86" t="s">
         <v>1149</v>
       </c>
-      <c r="C9" s="110" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D9" s="110" t="s">
-        <v>1533</v>
-      </c>
-      <c r="E9" s="87" t="s">
-        <v>1351</v>
+      <c r="C9" s="108" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D9" s="108" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E9" s="108" t="s">
+        <v>1367</v>
       </c>
       <c r="H9" s="70"/>
       <c r="I9" s="70"/>
@@ -16982,14 +16979,14 @@
       <c r="B10" s="86" t="s">
         <v>1150</v>
       </c>
-      <c r="C10" s="110" t="s">
-        <v>1534</v>
-      </c>
-      <c r="D10" s="110" t="s">
-        <v>1535</v>
-      </c>
-      <c r="E10" s="87" t="s">
-        <v>1352</v>
+      <c r="C10" s="108" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D10" s="108" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E10" s="108" t="s">
+        <v>1370</v>
       </c>
       <c r="H10" s="70"/>
       <c r="I10" s="70"/>
@@ -17002,14 +16999,14 @@
       <c r="B11" s="86" t="s">
         <v>1151</v>
       </c>
-      <c r="C11" s="110" t="s">
-        <v>1536</v>
-      </c>
-      <c r="D11" s="110" t="s">
-        <v>1537</v>
-      </c>
-      <c r="E11" s="87" t="s">
-        <v>1353</v>
+      <c r="C11" s="108" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D11" s="108" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E11" s="108" t="s">
+        <v>1373</v>
       </c>
       <c r="H11" s="70"/>
       <c r="I11" s="70"/>
@@ -17022,14 +17019,14 @@
       <c r="B12" s="86" t="s">
         <v>1152</v>
       </c>
-      <c r="C12" s="110" t="s">
-        <v>1538</v>
-      </c>
-      <c r="D12" s="110" t="s">
-        <v>1539</v>
-      </c>
-      <c r="E12" s="87" t="s">
-        <v>1354</v>
+      <c r="C12" s="108" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D12" s="108" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E12" s="108" t="s">
+        <v>1376</v>
       </c>
       <c r="H12" s="70"/>
       <c r="I12" s="70"/>
@@ -17042,14 +17039,14 @@
       <c r="B13" s="86" t="s">
         <v>1153</v>
       </c>
-      <c r="C13" s="110" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D13" s="110" t="s">
-        <v>1541</v>
-      </c>
-      <c r="E13" s="87" t="s">
-        <v>1355</v>
+      <c r="C13" s="108" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D13" s="108" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E13" s="108" t="s">
+        <v>1379</v>
       </c>
       <c r="H13" s="70"/>
       <c r="I13" s="70"/>
@@ -17062,14 +17059,14 @@
       <c r="B14" s="86" t="s">
         <v>1154</v>
       </c>
-      <c r="C14" s="110" t="s">
-        <v>1542</v>
-      </c>
-      <c r="D14" s="110" t="s">
-        <v>1543</v>
-      </c>
-      <c r="E14" s="87" t="s">
-        <v>1356</v>
+      <c r="C14" s="108" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D14" s="108" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E14" s="108" t="s">
+        <v>1382</v>
       </c>
       <c r="H14" s="70"/>
       <c r="I14" s="70"/>
@@ -17082,14 +17079,14 @@
       <c r="B15" s="86" t="s">
         <v>1155</v>
       </c>
-      <c r="C15" s="110" t="s">
-        <v>1544</v>
-      </c>
-      <c r="D15" s="110" t="s">
-        <v>1545</v>
-      </c>
-      <c r="E15" s="87" t="s">
-        <v>1357</v>
+      <c r="C15" s="108" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D15" s="108" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E15" s="108" t="s">
+        <v>1385</v>
       </c>
       <c r="H15" s="70"/>
       <c r="I15" s="70"/>
@@ -17102,14 +17099,14 @@
       <c r="B16" s="86" t="s">
         <v>1156</v>
       </c>
-      <c r="C16" s="110" t="s">
-        <v>1546</v>
-      </c>
-      <c r="D16" s="110" t="s">
-        <v>1547</v>
-      </c>
-      <c r="E16" s="87" t="s">
-        <v>1358</v>
+      <c r="C16" s="108" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D16" s="108" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E16" s="108" t="s">
+        <v>1388</v>
       </c>
       <c r="H16" s="70"/>
       <c r="I16" s="70"/>
@@ -17122,14 +17119,14 @@
       <c r="B17" s="86" t="s">
         <v>1157</v>
       </c>
-      <c r="C17" s="110" t="s">
-        <v>1548</v>
-      </c>
-      <c r="D17" s="110" t="s">
-        <v>1549</v>
-      </c>
-      <c r="E17" s="87" t="s">
-        <v>1359</v>
+      <c r="C17" s="108" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D17" s="108" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E17" s="108" t="s">
+        <v>1391</v>
       </c>
       <c r="H17" s="70"/>
       <c r="I17" s="70"/>
@@ -17142,14 +17139,14 @@
       <c r="B18" s="86" t="s">
         <v>1158</v>
       </c>
-      <c r="C18" s="110" t="s">
-        <v>1550</v>
-      </c>
-      <c r="D18" s="110" t="s">
-        <v>1551</v>
-      </c>
-      <c r="E18" s="87" t="s">
-        <v>1360</v>
+      <c r="C18" s="108" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D18" s="108" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E18" s="108" t="s">
+        <v>1394</v>
       </c>
       <c r="H18" s="70"/>
       <c r="I18" s="70"/>
@@ -17162,14 +17159,14 @@
       <c r="B19" s="86" t="s">
         <v>1159</v>
       </c>
-      <c r="C19" s="110" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D19" s="110" t="s">
-        <v>1553</v>
-      </c>
-      <c r="E19" s="87" t="s">
-        <v>1361</v>
+      <c r="C19" s="108" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D19" s="108" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E19" s="108" t="s">
+        <v>1397</v>
       </c>
       <c r="H19" s="70"/>
       <c r="I19" s="70"/>
@@ -17182,14 +17179,14 @@
       <c r="B20" s="86" t="s">
         <v>1160</v>
       </c>
-      <c r="C20" s="110" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D20" s="110" t="s">
-        <v>1555</v>
-      </c>
-      <c r="E20" s="87" t="s">
-        <v>1362</v>
+      <c r="C20" s="108" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D20" s="108" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E20" s="108" t="s">
+        <v>1400</v>
       </c>
       <c r="H20" s="70"/>
       <c r="I20" s="70"/>
@@ -17202,14 +17199,14 @@
       <c r="B21" s="86" t="s">
         <v>1161</v>
       </c>
-      <c r="C21" s="110" t="s">
-        <v>1556</v>
-      </c>
-      <c r="D21" s="110" t="s">
-        <v>1557</v>
-      </c>
-      <c r="E21" s="87" t="s">
-        <v>1363</v>
+      <c r="C21" s="108" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D21" s="108" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E21" s="108" t="s">
+        <v>1403</v>
       </c>
       <c r="H21" s="70"/>
       <c r="I21" s="70"/>
@@ -17222,14 +17219,14 @@
       <c r="B22" s="86" t="s">
         <v>1162</v>
       </c>
-      <c r="C22" s="110" t="s">
-        <v>1558</v>
-      </c>
-      <c r="D22" s="110" t="s">
-        <v>1559</v>
-      </c>
-      <c r="E22" s="87" t="s">
-        <v>1364</v>
+      <c r="C22" s="108" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D22" s="108" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E22" s="108" t="s">
+        <v>1406</v>
       </c>
       <c r="H22" s="70"/>
       <c r="I22" s="70"/>
@@ -17242,14 +17239,14 @@
       <c r="B23" s="86" t="s">
         <v>1163</v>
       </c>
-      <c r="C23" s="110" t="s">
-        <v>1560</v>
-      </c>
-      <c r="D23" s="110" t="s">
-        <v>1561</v>
-      </c>
-      <c r="E23" s="87" t="s">
-        <v>1365</v>
+      <c r="C23" s="108" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D23" s="108" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E23" s="108" t="s">
+        <v>1409</v>
       </c>
       <c r="H23" s="70"/>
       <c r="I23" s="70"/>
@@ -17262,14 +17259,14 @@
       <c r="B24" s="86" t="s">
         <v>1164</v>
       </c>
-      <c r="C24" s="110" t="s">
-        <v>1562</v>
-      </c>
-      <c r="D24" s="110" t="s">
-        <v>1563</v>
-      </c>
-      <c r="E24" s="87" t="s">
-        <v>1366</v>
+      <c r="C24" s="108" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D24" s="108" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E24" s="108" t="s">
+        <v>1412</v>
       </c>
       <c r="H24" s="70"/>
       <c r="I24" s="70"/>
@@ -17282,14 +17279,14 @@
       <c r="B25" s="86" t="s">
         <v>1165</v>
       </c>
-      <c r="C25" s="110" t="s">
-        <v>1564</v>
-      </c>
-      <c r="D25" s="110" t="s">
-        <v>1565</v>
-      </c>
-      <c r="E25" s="87" t="s">
-        <v>1367</v>
+      <c r="C25" s="108" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D25" s="108" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E25" s="108" t="s">
+        <v>1415</v>
       </c>
       <c r="H25" s="70"/>
       <c r="I25" s="70"/>
@@ -17302,14 +17299,14 @@
       <c r="B26" s="86" t="s">
         <v>1166</v>
       </c>
-      <c r="C26" s="110" t="s">
-        <v>1566</v>
-      </c>
-      <c r="D26" s="110" t="s">
-        <v>1567</v>
-      </c>
-      <c r="E26" s="87" t="s">
-        <v>1368</v>
+      <c r="C26" s="108" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D26" s="108" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E26" s="108" t="s">
+        <v>1418</v>
       </c>
       <c r="H26" s="70"/>
       <c r="I26" s="70"/>
@@ -17322,14 +17319,14 @@
       <c r="B27" s="86" t="s">
         <v>1167</v>
       </c>
-      <c r="C27" s="110" t="s">
-        <v>1568</v>
-      </c>
-      <c r="D27" s="110" t="s">
-        <v>1569</v>
-      </c>
-      <c r="E27" s="87" t="s">
-        <v>1369</v>
+      <c r="C27" s="108" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D27" s="108" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E27" s="108" t="s">
+        <v>1421</v>
       </c>
       <c r="H27" s="70"/>
       <c r="I27" s="70"/>
@@ -17342,14 +17339,14 @@
       <c r="B28" s="86" t="s">
         <v>1168</v>
       </c>
-      <c r="C28" s="110" t="s">
-        <v>1570</v>
-      </c>
-      <c r="D28" s="110" t="s">
-        <v>1571</v>
-      </c>
-      <c r="E28" s="87" t="s">
-        <v>1370</v>
+      <c r="C28" s="108" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D28" s="108" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E28" s="108" t="s">
+        <v>1424</v>
       </c>
       <c r="H28" s="70"/>
       <c r="I28" s="70"/>
@@ -17362,14 +17359,14 @@
       <c r="B29" s="86" t="s">
         <v>1169</v>
       </c>
-      <c r="C29" s="110" t="s">
-        <v>1572</v>
-      </c>
-      <c r="D29" s="110" t="s">
-        <v>1573</v>
-      </c>
-      <c r="E29" s="87" t="s">
-        <v>1371</v>
+      <c r="C29" s="108" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D29" s="108" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E29" s="108" t="s">
+        <v>1427</v>
       </c>
       <c r="H29" s="70"/>
       <c r="I29" s="70"/>
@@ -17382,14 +17379,14 @@
       <c r="B30" s="86" t="s">
         <v>1170</v>
       </c>
-      <c r="C30" s="110" t="s">
-        <v>1574</v>
-      </c>
-      <c r="D30" s="110" t="s">
-        <v>1575</v>
-      </c>
-      <c r="E30" s="87" t="s">
-        <v>1372</v>
+      <c r="C30" s="108" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D30" s="108" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E30" s="108" t="s">
+        <v>1430</v>
       </c>
       <c r="H30" s="70"/>
       <c r="I30" s="70"/>
@@ -17402,14 +17399,14 @@
       <c r="B31" s="86" t="s">
         <v>1171</v>
       </c>
-      <c r="C31" s="110" t="s">
-        <v>1576</v>
-      </c>
-      <c r="D31" s="110" t="s">
-        <v>1577</v>
-      </c>
-      <c r="E31" s="87" t="s">
-        <v>1373</v>
+      <c r="C31" s="108" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D31" s="108" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E31" s="108" t="s">
+        <v>1433</v>
       </c>
       <c r="H31" s="70"/>
       <c r="I31" s="70"/>
@@ -17422,14 +17419,14 @@
       <c r="B32" s="86" t="s">
         <v>1172</v>
       </c>
-      <c r="C32" s="110" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D32" s="110" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E32" s="87" t="s">
-        <v>1374</v>
+      <c r="C32" s="108" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D32" s="108" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E32" s="108" t="s">
+        <v>1436</v>
       </c>
       <c r="H32" s="70"/>
       <c r="I32" s="70"/>
@@ -17442,14 +17439,14 @@
       <c r="B33" s="86" t="s">
         <v>1173</v>
       </c>
-      <c r="C33" s="110" t="s">
-        <v>1580</v>
-      </c>
-      <c r="D33" s="110" t="s">
-        <v>1581</v>
-      </c>
-      <c r="E33" s="87" t="s">
-        <v>1375</v>
+      <c r="C33" s="108" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D33" s="108" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E33" s="108" t="s">
+        <v>1439</v>
       </c>
       <c r="H33" s="70"/>
       <c r="I33" s="70"/>
@@ -17462,14 +17459,14 @@
       <c r="B34" s="86" t="s">
         <v>1174</v>
       </c>
-      <c r="C34" s="110" t="s">
-        <v>1582</v>
-      </c>
-      <c r="D34" s="110" t="s">
-        <v>1583</v>
-      </c>
-      <c r="E34" s="87" t="s">
-        <v>1376</v>
+      <c r="C34" s="108" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D34" s="108" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E34" s="108" t="s">
+        <v>1442</v>
       </c>
       <c r="H34" s="70"/>
       <c r="I34" s="70"/>
@@ -17482,14 +17479,14 @@
       <c r="B35" s="86" t="s">
         <v>1175</v>
       </c>
-      <c r="C35" s="110" t="s">
-        <v>1584</v>
-      </c>
-      <c r="D35" s="110" t="s">
-        <v>1585</v>
-      </c>
-      <c r="E35" s="87" t="s">
-        <v>1377</v>
+      <c r="C35" s="108" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D35" s="108" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E35" s="108" t="s">
+        <v>1445</v>
       </c>
       <c r="H35" s="70"/>
       <c r="I35" s="70"/>
@@ -17502,14 +17499,14 @@
       <c r="B36" s="86" t="s">
         <v>1121</v>
       </c>
-      <c r="C36" s="110" t="s">
-        <v>1586</v>
-      </c>
-      <c r="D36" s="110" t="s">
-        <v>1587</v>
-      </c>
-      <c r="E36" s="87" t="s">
-        <v>1378</v>
+      <c r="C36" s="108" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D36" s="108" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E36" s="108" t="s">
+        <v>1448</v>
       </c>
       <c r="H36" s="70"/>
       <c r="I36" s="70"/>
@@ -17522,14 +17519,14 @@
       <c r="B37" s="86" t="s">
         <v>1176</v>
       </c>
-      <c r="C37" s="110" t="s">
-        <v>1588</v>
-      </c>
-      <c r="D37" s="110" t="s">
-        <v>1589</v>
-      </c>
-      <c r="E37" s="87" t="s">
-        <v>1379</v>
+      <c r="C37" s="108" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D37" s="108" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E37" s="108" t="s">
+        <v>1451</v>
       </c>
       <c r="H37" s="70"/>
       <c r="I37" s="70"/>
@@ -17542,14 +17539,14 @@
       <c r="B38" s="86" t="s">
         <v>1177</v>
       </c>
-      <c r="C38" s="110" t="s">
-        <v>1590</v>
-      </c>
-      <c r="D38" s="110" t="s">
-        <v>1591</v>
-      </c>
-      <c r="E38" s="87" t="s">
-        <v>1380</v>
+      <c r="C38" s="108" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D38" s="108" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E38" s="108" t="s">
+        <v>1454</v>
       </c>
       <c r="H38" s="70"/>
       <c r="I38" s="70"/>
@@ -17562,14 +17559,14 @@
       <c r="B39" s="86" t="s">
         <v>1178</v>
       </c>
-      <c r="C39" s="110" t="s">
-        <v>1592</v>
-      </c>
-      <c r="D39" s="110" t="s">
-        <v>1593</v>
-      </c>
-      <c r="E39" s="87" t="s">
-        <v>1381</v>
+      <c r="C39" s="108" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D39" s="108" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E39" s="108" t="s">
+        <v>1457</v>
       </c>
       <c r="H39" s="70"/>
       <c r="I39" s="70"/>
@@ -17582,14 +17579,14 @@
       <c r="B40" s="86" t="s">
         <v>1179</v>
       </c>
-      <c r="C40" s="110" t="s">
-        <v>1594</v>
-      </c>
-      <c r="D40" s="110" t="s">
-        <v>1595</v>
-      </c>
-      <c r="E40" s="87" t="s">
-        <v>1382</v>
+      <c r="C40" s="108" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D40" s="108" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E40" s="108" t="s">
+        <v>1460</v>
       </c>
       <c r="H40" s="70"/>
       <c r="I40" s="70"/>
@@ -17602,14 +17599,14 @@
       <c r="B41" s="86" t="s">
         <v>1180</v>
       </c>
-      <c r="C41" s="110" t="s">
-        <v>1596</v>
-      </c>
-      <c r="D41" s="110" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E41" s="87" t="s">
-        <v>1383</v>
+      <c r="C41" s="108" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D41" s="108" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E41" s="108" t="s">
+        <v>1463</v>
       </c>
       <c r="H41" s="70"/>
       <c r="I41" s="70"/>
@@ -17622,14 +17619,14 @@
       <c r="B42" s="86" t="s">
         <v>1181</v>
       </c>
-      <c r="C42" s="110" t="s">
-        <v>1598</v>
-      </c>
-      <c r="D42" s="110" t="s">
-        <v>1599</v>
-      </c>
-      <c r="E42" s="87" t="s">
-        <v>1384</v>
+      <c r="C42" s="108" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D42" s="108" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E42" s="108" t="s">
+        <v>1466</v>
       </c>
       <c r="H42" s="70"/>
       <c r="I42" s="70"/>
@@ -17642,14 +17639,14 @@
       <c r="B43" s="86" t="s">
         <v>1182</v>
       </c>
-      <c r="C43" s="110" t="s">
-        <v>1600</v>
-      </c>
-      <c r="D43" s="110" t="s">
-        <v>1601</v>
-      </c>
-      <c r="E43" s="87" t="s">
-        <v>1385</v>
+      <c r="C43" s="108" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D43" s="108" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E43" s="108" t="s">
+        <v>1469</v>
       </c>
       <c r="H43" s="70"/>
       <c r="I43" s="70"/>
@@ -17662,14 +17659,14 @@
       <c r="B44" s="86" t="s">
         <v>1183</v>
       </c>
-      <c r="C44" s="110" t="s">
-        <v>1602</v>
-      </c>
-      <c r="D44" s="110" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E44" s="87" t="s">
-        <v>1386</v>
+      <c r="C44" s="108" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D44" s="108" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E44" s="108" t="s">
+        <v>1472</v>
       </c>
       <c r="H44" s="70"/>
       <c r="I44" s="70"/>
@@ -17682,14 +17679,14 @@
       <c r="B45" s="86" t="s">
         <v>1184</v>
       </c>
-      <c r="C45" s="110" t="s">
-        <v>1604</v>
-      </c>
-      <c r="D45" s="110" t="s">
-        <v>1605</v>
-      </c>
-      <c r="E45" s="87" t="s">
-        <v>1387</v>
+      <c r="C45" s="108" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D45" s="108" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E45" s="108" t="s">
+        <v>1475</v>
       </c>
       <c r="H45" s="70"/>
       <c r="I45" s="70"/>
@@ -17702,12 +17699,14 @@
       <c r="B46" s="86" t="s">
         <v>1185</v>
       </c>
-      <c r="C46" s="36"/>
-      <c r="D46" s="110" t="s">
-        <v>1606</v>
-      </c>
-      <c r="E46" s="87" t="s">
-        <v>1388</v>
+      <c r="C46" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D46" s="108" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E46" s="108" t="s">
+        <v>1477</v>
       </c>
       <c r="H46" s="70"/>
       <c r="I46" s="70"/>
@@ -17720,12 +17719,14 @@
       <c r="B47" s="86" t="s">
         <v>1186</v>
       </c>
-      <c r="C47" s="36"/>
-      <c r="D47" s="110" t="s">
-        <v>1607</v>
-      </c>
-      <c r="E47" s="87" t="s">
-        <v>1389</v>
+      <c r="C47" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D47" s="108" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E47" s="108" t="s">
+        <v>1479</v>
       </c>
       <c r="H47" s="70"/>
       <c r="I47" s="70"/>
@@ -17738,12 +17739,14 @@
       <c r="B48" s="86" t="s">
         <v>1187</v>
       </c>
-      <c r="C48" s="36"/>
-      <c r="D48" s="110" t="s">
-        <v>1608</v>
-      </c>
-      <c r="E48" s="87" t="s">
-        <v>1390</v>
+      <c r="C48" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D48" s="108" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E48" s="108" t="s">
+        <v>1481</v>
       </c>
       <c r="H48" s="70"/>
       <c r="I48" s="70"/>
@@ -17756,12 +17759,14 @@
       <c r="B49" s="86" t="s">
         <v>1188</v>
       </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="110" t="s">
-        <v>1609</v>
-      </c>
-      <c r="E49" s="87" t="s">
-        <v>1391</v>
+      <c r="C49" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D49" s="108" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E49" s="108" t="s">
+        <v>1483</v>
       </c>
       <c r="H49" s="70"/>
       <c r="I49" s="70"/>
@@ -17774,12 +17779,14 @@
       <c r="B50" s="86" t="s">
         <v>1189</v>
       </c>
-      <c r="C50" s="36"/>
-      <c r="D50" s="110" t="s">
-        <v>1610</v>
-      </c>
-      <c r="E50" s="87" t="s">
-        <v>1392</v>
+      <c r="C50" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D50" s="108" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E50" s="108" t="s">
+        <v>1485</v>
       </c>
       <c r="H50" s="70"/>
       <c r="I50" s="70"/>
@@ -17792,12 +17799,14 @@
       <c r="B51" s="86" t="s">
         <v>1190</v>
       </c>
-      <c r="C51" s="36"/>
-      <c r="D51" s="110" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E51" s="87" t="s">
-        <v>1393</v>
+      <c r="C51" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D51" s="108" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E51" s="108" t="s">
+        <v>1487</v>
       </c>
       <c r="H51" s="70"/>
       <c r="I51" s="70"/>
@@ -17810,12 +17819,14 @@
       <c r="B52" s="86" t="s">
         <v>1191</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="110" t="s">
-        <v>1612</v>
-      </c>
-      <c r="E52" s="87" t="s">
-        <v>1394</v>
+      <c r="C52" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D52" s="108" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E52" s="108" t="s">
+        <v>1489</v>
       </c>
       <c r="H52" s="70"/>
       <c r="I52" s="70"/>
@@ -17828,12 +17839,14 @@
       <c r="B53" s="86" t="s">
         <v>1192</v>
       </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="110" t="s">
-        <v>1613</v>
-      </c>
-      <c r="E53" s="87" t="s">
-        <v>1395</v>
+      <c r="C53" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D53" s="108" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E53" s="108" t="s">
+        <v>1491</v>
       </c>
       <c r="H53" s="70"/>
       <c r="I53" s="70"/>
@@ -17846,12 +17859,14 @@
       <c r="B54" s="86" t="s">
         <v>1193</v>
       </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="110" t="s">
-        <v>1614</v>
-      </c>
-      <c r="E54" s="87" t="s">
-        <v>1396</v>
+      <c r="C54" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D54" s="108" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E54" s="108" t="s">
+        <v>1493</v>
       </c>
       <c r="H54" s="70"/>
       <c r="I54" s="70"/>
@@ -17864,12 +17879,14 @@
       <c r="B55" s="86" t="s">
         <v>1194</v>
       </c>
-      <c r="C55" s="36"/>
-      <c r="D55" s="110" t="s">
-        <v>1615</v>
-      </c>
-      <c r="E55" s="87" t="s">
-        <v>1397</v>
+      <c r="C55" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D55" s="108" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E55" s="108" t="s">
+        <v>1495</v>
       </c>
       <c r="H55" s="70"/>
       <c r="I55" s="70"/>
@@ -17882,12 +17899,14 @@
       <c r="B56" s="86" t="s">
         <v>1195</v>
       </c>
-      <c r="C56" s="36"/>
-      <c r="D56" s="110" t="s">
-        <v>1616</v>
-      </c>
-      <c r="E56" s="87" t="s">
-        <v>1398</v>
+      <c r="C56" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D56" s="108" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E56" s="108" t="s">
+        <v>1497</v>
       </c>
       <c r="H56" s="70"/>
       <c r="I56" s="70"/>
@@ -17900,12 +17919,14 @@
       <c r="B57" s="86" t="s">
         <v>1196</v>
       </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="110" t="s">
-        <v>1617</v>
-      </c>
-      <c r="E57" s="87" t="s">
-        <v>1399</v>
+      <c r="C57" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D57" s="108" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E57" s="108" t="s">
+        <v>1499</v>
       </c>
       <c r="H57" s="70"/>
       <c r="I57" s="70"/>
@@ -17918,12 +17939,14 @@
       <c r="B58" s="86" t="s">
         <v>1197</v>
       </c>
-      <c r="C58" s="36"/>
-      <c r="D58" s="110" t="s">
-        <v>1618</v>
-      </c>
-      <c r="E58" s="87" t="s">
-        <v>1400</v>
+      <c r="C58" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D58" s="108" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="108" t="s">
+        <v>1501</v>
       </c>
       <c r="H58" s="70"/>
       <c r="I58" s="70"/>
@@ -17936,12 +17959,14 @@
       <c r="B59" s="86" t="s">
         <v>1198</v>
       </c>
-      <c r="C59" s="36"/>
-      <c r="D59" s="110" t="s">
-        <v>1619</v>
-      </c>
-      <c r="E59" s="87" t="s">
-        <v>1401</v>
+      <c r="C59" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D59" s="108" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E59" s="108" t="s">
+        <v>1503</v>
       </c>
       <c r="H59" s="70"/>
       <c r="I59" s="70"/>
@@ -17954,12 +17979,14 @@
       <c r="B60" s="86" t="s">
         <v>1199</v>
       </c>
-      <c r="C60" s="36"/>
-      <c r="D60" s="110" t="s">
-        <v>1620</v>
-      </c>
-      <c r="E60" s="87" t="s">
-        <v>1402</v>
+      <c r="C60" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D60" s="108" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E60" s="108" t="s">
+        <v>1505</v>
       </c>
       <c r="H60" s="70"/>
       <c r="I60" s="70"/>
@@ -17972,12 +17999,14 @@
       <c r="B61" s="86" t="s">
         <v>1200</v>
       </c>
-      <c r="C61" s="36"/>
-      <c r="D61" s="110" t="s">
-        <v>1621</v>
-      </c>
-      <c r="E61" s="87" t="s">
-        <v>1403</v>
+      <c r="C61" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D61" s="108" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E61" s="108" t="s">
+        <v>1507</v>
       </c>
       <c r="H61" s="70"/>
       <c r="I61" s="70"/>
@@ -17990,12 +18019,14 @@
       <c r="B62" s="86" t="s">
         <v>1201</v>
       </c>
-      <c r="C62" s="36"/>
-      <c r="D62" s="110" t="s">
-        <v>1622</v>
-      </c>
-      <c r="E62" s="87" t="s">
-        <v>1404</v>
+      <c r="C62" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D62" s="108" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E62" s="108" t="s">
+        <v>1509</v>
       </c>
       <c r="H62" s="70"/>
       <c r="I62" s="70"/>
@@ -18008,12 +18039,14 @@
       <c r="B63" s="86" t="s">
         <v>1202</v>
       </c>
-      <c r="C63" s="36"/>
-      <c r="D63" s="110" t="s">
-        <v>1623</v>
-      </c>
-      <c r="E63" s="87" t="s">
-        <v>1405</v>
+      <c r="C63" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D63" s="108" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E63" s="108" t="s">
+        <v>1511</v>
       </c>
       <c r="H63" s="70"/>
       <c r="I63" s="70"/>
@@ -18026,12 +18059,14 @@
       <c r="B64" s="86" t="s">
         <v>1203</v>
       </c>
-      <c r="C64" s="36"/>
-      <c r="D64" s="110" t="s">
-        <v>1624</v>
-      </c>
-      <c r="E64" s="87" t="s">
-        <v>1406</v>
+      <c r="C64" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D64" s="108" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E64" s="108" t="s">
+        <v>1513</v>
       </c>
       <c r="H64" s="70"/>
       <c r="I64" s="70"/>
@@ -18044,12 +18079,14 @@
       <c r="B65" s="86" t="s">
         <v>1204</v>
       </c>
-      <c r="C65" s="36"/>
-      <c r="D65" s="110" t="s">
-        <v>1625</v>
-      </c>
-      <c r="E65" s="87" t="s">
-        <v>1407</v>
+      <c r="C65" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D65" s="108" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E65" s="108" t="s">
+        <v>1515</v>
       </c>
       <c r="H65" s="70"/>
       <c r="I65" s="70"/>
@@ -18062,12 +18099,14 @@
       <c r="B66" s="86" t="s">
         <v>1096</v>
       </c>
-      <c r="C66" s="36"/>
-      <c r="D66" s="110" t="s">
-        <v>1626</v>
-      </c>
-      <c r="E66" s="87" t="s">
-        <v>1408</v>
+      <c r="C66" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D66" s="108" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E66" s="108" t="s">
+        <v>1517</v>
       </c>
       <c r="H66" s="70"/>
       <c r="I66" s="70"/>
@@ -18080,12 +18119,14 @@
       <c r="B67" s="86" t="s">
         <v>1205</v>
       </c>
-      <c r="C67" s="36"/>
-      <c r="D67" s="110" t="s">
-        <v>1627</v>
-      </c>
-      <c r="E67" s="87" t="s">
-        <v>1409</v>
+      <c r="C67" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D67" s="108" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E67" s="108" t="s">
+        <v>1519</v>
       </c>
       <c r="H67" s="70"/>
       <c r="I67" s="70"/>
@@ -18098,12 +18139,14 @@
       <c r="B68" s="86" t="s">
         <v>1206</v>
       </c>
-      <c r="C68" s="36"/>
-      <c r="D68" s="110" t="s">
-        <v>1628</v>
-      </c>
-      <c r="E68" s="87" t="s">
-        <v>1410</v>
+      <c r="C68" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D68" s="108" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E68" s="108" t="s">
+        <v>1521</v>
       </c>
       <c r="H68" s="70"/>
       <c r="I68" s="70"/>
@@ -18116,12 +18159,14 @@
       <c r="B69" s="86" t="s">
         <v>1207</v>
       </c>
-      <c r="C69" s="36"/>
-      <c r="D69" s="110" t="s">
-        <v>1629</v>
-      </c>
-      <c r="E69" s="87" t="s">
-        <v>1411</v>
+      <c r="C69" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D69" s="108" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E69" s="108" t="s">
+        <v>1523</v>
       </c>
       <c r="H69" s="70"/>
       <c r="I69" s="70"/>
@@ -18134,12 +18179,14 @@
       <c r="B70" s="86" t="s">
         <v>1208</v>
       </c>
-      <c r="C70" s="36"/>
-      <c r="D70" s="110" t="s">
-        <v>1630</v>
-      </c>
-      <c r="E70" s="87" t="s">
-        <v>1412</v>
+      <c r="C70" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D70" s="108" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E70" s="108" t="s">
+        <v>1525</v>
       </c>
       <c r="H70" s="70"/>
       <c r="I70" s="70"/>
@@ -18152,12 +18199,14 @@
       <c r="B71" s="86" t="s">
         <v>1126</v>
       </c>
-      <c r="C71" s="36"/>
-      <c r="D71" s="110" t="s">
-        <v>1631</v>
-      </c>
-      <c r="E71" s="87" t="s">
-        <v>1413</v>
+      <c r="C71" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D71" s="108" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E71" s="108" t="s">
+        <v>1527</v>
       </c>
       <c r="H71" s="70"/>
       <c r="I71" s="70"/>
@@ -18170,12 +18219,14 @@
       <c r="B72" s="86" t="s">
         <v>1209</v>
       </c>
-      <c r="C72" s="36"/>
-      <c r="D72" s="110" t="s">
-        <v>1632</v>
-      </c>
-      <c r="E72" s="87" t="s">
-        <v>1414</v>
+      <c r="C72" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D72" s="108" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E72" s="108" t="s">
+        <v>1529</v>
       </c>
       <c r="H72" s="70"/>
       <c r="I72" s="70"/>
@@ -18188,12 +18239,14 @@
       <c r="B73" s="86" t="s">
         <v>1210</v>
       </c>
-      <c r="C73" s="36"/>
-      <c r="D73" s="110" t="s">
-        <v>1633</v>
-      </c>
-      <c r="E73" s="87" t="s">
-        <v>1415</v>
+      <c r="C73" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D73" s="108" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E73" s="108" t="s">
+        <v>1531</v>
       </c>
       <c r="H73" s="70"/>
       <c r="I73" s="70"/>
@@ -18206,12 +18259,14 @@
       <c r="B74" s="86" t="s">
         <v>1211</v>
       </c>
-      <c r="C74" s="36"/>
-      <c r="D74" s="110" t="s">
-        <v>1634</v>
-      </c>
-      <c r="E74" s="87" t="s">
-        <v>1416</v>
+      <c r="C74" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D74" s="108" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E74" s="108" t="s">
+        <v>1533</v>
       </c>
       <c r="H74" s="70"/>
       <c r="I74" s="70"/>
@@ -18224,12 +18279,14 @@
       <c r="B75" s="86" t="s">
         <v>1212</v>
       </c>
-      <c r="C75" s="36"/>
-      <c r="D75" s="110" t="s">
-        <v>1635</v>
-      </c>
-      <c r="E75" s="87" t="s">
-        <v>1417</v>
+      <c r="C75" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D75" s="108" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E75" s="108" t="s">
+        <v>1535</v>
       </c>
       <c r="H75" s="70"/>
       <c r="I75" s="70"/>
@@ -18242,14 +18299,14 @@
       <c r="B76" s="86" t="s">
         <v>1213</v>
       </c>
-      <c r="C76" s="110" t="s">
-        <v>1636</v>
-      </c>
-      <c r="D76" s="110" t="s">
-        <v>1637</v>
-      </c>
-      <c r="E76" s="87" t="s">
-        <v>1418</v>
+      <c r="C76" s="108" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D76" s="108" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E76" s="108" t="s">
+        <v>1538</v>
       </c>
       <c r="H76" s="70"/>
       <c r="I76" s="70"/>
@@ -18262,14 +18319,14 @@
       <c r="B77" s="86" t="s">
         <v>1214</v>
       </c>
-      <c r="C77" s="110" t="s">
-        <v>1638</v>
-      </c>
-      <c r="D77" s="110" t="s">
-        <v>1639</v>
-      </c>
-      <c r="E77" s="87" t="s">
-        <v>1419</v>
+      <c r="C77" s="108" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D77" s="108" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E77" s="108" t="s">
+        <v>1541</v>
       </c>
       <c r="H77" s="70"/>
       <c r="I77" s="70"/>
@@ -18282,14 +18339,14 @@
       <c r="B78" s="86" t="s">
         <v>1215</v>
       </c>
-      <c r="C78" s="110" t="s">
-        <v>1640</v>
-      </c>
-      <c r="D78" s="110" t="s">
-        <v>1641</v>
-      </c>
-      <c r="E78" s="87" t="s">
-        <v>1420</v>
+      <c r="C78" s="108" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D78" s="108" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E78" s="108" t="s">
+        <v>1544</v>
       </c>
       <c r="H78" s="70"/>
       <c r="I78" s="70"/>
@@ -18302,14 +18359,14 @@
       <c r="B79" s="86" t="s">
         <v>1216</v>
       </c>
-      <c r="C79" s="110" t="s">
-        <v>1642</v>
-      </c>
-      <c r="D79" s="110" t="s">
-        <v>1643</v>
-      </c>
-      <c r="E79" s="87" t="s">
-        <v>1421</v>
+      <c r="C79" s="108" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D79" s="108" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E79" s="108" t="s">
+        <v>1547</v>
       </c>
       <c r="H79" s="70"/>
       <c r="I79" s="70"/>
@@ -18322,14 +18379,14 @@
       <c r="B80" s="86" t="s">
         <v>1217</v>
       </c>
-      <c r="C80" s="110" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D80" s="110" t="s">
-        <v>1645</v>
-      </c>
-      <c r="E80" s="87" t="s">
-        <v>1422</v>
+      <c r="C80" s="108" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D80" s="108" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E80" s="108" t="s">
+        <v>1550</v>
       </c>
       <c r="H80" s="70"/>
       <c r="I80" s="70"/>
@@ -18342,14 +18399,14 @@
       <c r="B81" s="86" t="s">
         <v>1218</v>
       </c>
-      <c r="C81" s="110" t="s">
-        <v>1646</v>
-      </c>
-      <c r="D81" s="110" t="s">
-        <v>1647</v>
-      </c>
-      <c r="E81" s="87" t="s">
-        <v>1423</v>
+      <c r="C81" s="108" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D81" s="108" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E81" s="108" t="s">
+        <v>1553</v>
       </c>
       <c r="H81" s="70"/>
       <c r="I81" s="70"/>
@@ -18362,14 +18419,14 @@
       <c r="B82" s="86" t="s">
         <v>1219</v>
       </c>
-      <c r="C82" s="110" t="s">
-        <v>1648</v>
-      </c>
-      <c r="D82" s="110" t="s">
-        <v>1649</v>
-      </c>
-      <c r="E82" s="87" t="s">
-        <v>1424</v>
+      <c r="C82" s="108" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D82" s="108" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E82" s="108" t="s">
+        <v>1556</v>
       </c>
       <c r="H82" s="70"/>
       <c r="I82" s="70"/>
@@ -18382,14 +18439,14 @@
       <c r="B83" s="86" t="s">
         <v>1220</v>
       </c>
-      <c r="C83" s="110" t="s">
-        <v>1650</v>
-      </c>
-      <c r="D83" s="110" t="s">
-        <v>1651</v>
-      </c>
-      <c r="E83" s="87" t="s">
-        <v>1425</v>
+      <c r="C83" s="108" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D83" s="108" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E83" s="108" t="s">
+        <v>1559</v>
       </c>
       <c r="H83" s="70"/>
       <c r="I83" s="70"/>
@@ -18402,14 +18459,14 @@
       <c r="B84" s="86" t="s">
         <v>1221</v>
       </c>
-      <c r="C84" s="110" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D84" s="110" t="s">
-        <v>1653</v>
-      </c>
-      <c r="E84" s="87" t="s">
-        <v>1426</v>
+      <c r="C84" s="108" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D84" s="108" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E84" s="108" t="s">
+        <v>1562</v>
       </c>
       <c r="H84" s="70"/>
       <c r="I84" s="70"/>
@@ -18422,14 +18479,14 @@
       <c r="B85" s="86" t="s">
         <v>1222</v>
       </c>
-      <c r="C85" s="110" t="s">
-        <v>1654</v>
-      </c>
-      <c r="D85" s="110" t="s">
-        <v>1655</v>
-      </c>
-      <c r="E85" s="87" t="s">
-        <v>1427</v>
+      <c r="C85" s="108" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D85" s="108" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E85" s="108" t="s">
+        <v>1565</v>
       </c>
       <c r="H85" s="70"/>
       <c r="I85" s="70"/>
@@ -18442,14 +18499,14 @@
       <c r="B86" s="86" t="s">
         <v>1223</v>
       </c>
-      <c r="C86" s="110" t="s">
-        <v>1656</v>
-      </c>
-      <c r="D86" s="110" t="s">
-        <v>1657</v>
-      </c>
-      <c r="E86" s="87" t="s">
-        <v>1428</v>
+      <c r="C86" s="108" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D86" s="108" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E86" s="108" t="s">
+        <v>1568</v>
       </c>
       <c r="H86" s="70"/>
       <c r="I86" s="70"/>
@@ -18462,14 +18519,14 @@
       <c r="B87" s="86" t="s">
         <v>1224</v>
       </c>
-      <c r="C87" s="110" t="s">
-        <v>1658</v>
-      </c>
-      <c r="D87" s="110" t="s">
-        <v>1659</v>
-      </c>
-      <c r="E87" s="87" t="s">
-        <v>1429</v>
+      <c r="C87" s="108" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D87" s="108" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E87" s="108" t="s">
+        <v>1571</v>
       </c>
       <c r="H87" s="70"/>
       <c r="I87" s="70"/>
@@ -18482,14 +18539,14 @@
       <c r="B88" s="86" t="s">
         <v>1225</v>
       </c>
-      <c r="C88" s="110" t="s">
-        <v>1660</v>
-      </c>
-      <c r="D88" s="110" t="s">
-        <v>1661</v>
-      </c>
-      <c r="E88" s="87" t="s">
-        <v>1430</v>
+      <c r="C88" s="108" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D88" s="108" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E88" s="108" t="s">
+        <v>1574</v>
       </c>
       <c r="H88" s="70"/>
       <c r="I88" s="70"/>
@@ -18502,14 +18559,14 @@
       <c r="B89" s="86" t="s">
         <v>1226</v>
       </c>
-      <c r="C89" s="110" t="s">
-        <v>1662</v>
-      </c>
-      <c r="D89" s="110" t="s">
-        <v>1663</v>
-      </c>
-      <c r="E89" s="87" t="s">
-        <v>1431</v>
+      <c r="C89" s="108" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D89" s="108" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E89" s="108" t="s">
+        <v>1577</v>
       </c>
       <c r="H89" s="70"/>
       <c r="I89" s="70"/>
@@ -18522,14 +18579,14 @@
       <c r="B90" s="86" t="s">
         <v>1227</v>
       </c>
-      <c r="C90" s="110" t="s">
-        <v>1664</v>
-      </c>
-      <c r="D90" s="110" t="s">
-        <v>1665</v>
-      </c>
-      <c r="E90" s="87" t="s">
-        <v>1432</v>
+      <c r="C90" s="108" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D90" s="108" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E90" s="108" t="s">
+        <v>1580</v>
       </c>
       <c r="H90" s="70"/>
       <c r="I90" s="70"/>
@@ -18542,14 +18599,14 @@
       <c r="B91" s="86" t="s">
         <v>1228</v>
       </c>
-      <c r="C91" s="110" t="s">
-        <v>1666</v>
-      </c>
-      <c r="D91" s="110" t="s">
-        <v>1667</v>
-      </c>
-      <c r="E91" s="87" t="s">
-        <v>1433</v>
+      <c r="C91" s="108" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D91" s="108" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E91" s="108" t="s">
+        <v>1583</v>
       </c>
       <c r="H91" s="70"/>
       <c r="I91" s="70"/>
@@ -18562,14 +18619,14 @@
       <c r="B92" s="86" t="s">
         <v>1229</v>
       </c>
-      <c r="C92" s="110" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D92" s="110" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E92" s="87" t="s">
-        <v>1434</v>
+      <c r="C92" s="108" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D92" s="108" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E92" s="108" t="s">
+        <v>1586</v>
       </c>
       <c r="H92" s="70"/>
       <c r="I92" s="70"/>
@@ -18582,14 +18639,14 @@
       <c r="B93" s="86" t="s">
         <v>1230</v>
       </c>
-      <c r="C93" s="110" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D93" s="110" t="s">
-        <v>1671</v>
-      </c>
-      <c r="E93" s="87" t="s">
-        <v>1435</v>
+      <c r="C93" s="108" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D93" s="108" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E93" s="108" t="s">
+        <v>1589</v>
       </c>
       <c r="H93" s="70"/>
       <c r="I93" s="70"/>
@@ -18602,14 +18659,14 @@
       <c r="B94" s="86" t="s">
         <v>1231</v>
       </c>
-      <c r="C94" s="110" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D94" s="110" t="s">
-        <v>1673</v>
-      </c>
-      <c r="E94" s="87" t="s">
-        <v>1436</v>
+      <c r="C94" s="108" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D94" s="108" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E94" s="108" t="s">
+        <v>1592</v>
       </c>
       <c r="H94" s="70"/>
       <c r="I94" s="70"/>
@@ -18622,14 +18679,14 @@
       <c r="B95" s="86" t="s">
         <v>1232</v>
       </c>
-      <c r="C95" s="110" t="s">
-        <v>1674</v>
-      </c>
-      <c r="D95" s="110" t="s">
-        <v>1675</v>
-      </c>
-      <c r="E95" s="87" t="s">
-        <v>1437</v>
+      <c r="C95" s="108" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D95" s="108" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E95" s="108" t="s">
+        <v>1595</v>
       </c>
       <c r="H95" s="70"/>
       <c r="I95" s="70"/>
@@ -18642,14 +18699,14 @@
       <c r="B96" s="86" t="s">
         <v>1233</v>
       </c>
-      <c r="C96" s="110" t="s">
-        <v>1676</v>
-      </c>
-      <c r="D96" s="110" t="s">
-        <v>1677</v>
-      </c>
-      <c r="E96" s="87" t="s">
-        <v>1438</v>
+      <c r="C96" s="108" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D96" s="108" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E96" s="108" t="s">
+        <v>1598</v>
       </c>
       <c r="H96" s="70"/>
       <c r="I96" s="70"/>
@@ -18662,14 +18719,14 @@
       <c r="B97" s="86" t="s">
         <v>1234</v>
       </c>
-      <c r="C97" s="110" t="s">
-        <v>1678</v>
-      </c>
-      <c r="D97" s="110" t="s">
-        <v>1679</v>
-      </c>
-      <c r="E97" s="87" t="s">
-        <v>1439</v>
+      <c r="C97" s="108" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D97" s="108" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E97" s="108" t="s">
+        <v>1601</v>
       </c>
       <c r="H97" s="70"/>
       <c r="I97" s="70"/>
@@ -18682,12 +18739,14 @@
       <c r="B98" s="86" t="s">
         <v>1131</v>
       </c>
-      <c r="C98" s="36"/>
-      <c r="D98" s="110" t="s">
-        <v>1680</v>
-      </c>
-      <c r="E98" s="87" t="s">
-        <v>1440</v>
+      <c r="C98" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D98" s="108" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E98" s="108" t="s">
+        <v>1603</v>
       </c>
       <c r="H98" s="70"/>
       <c r="I98" s="70"/>
@@ -18700,14 +18759,14 @@
       <c r="B99" s="86" t="s">
         <v>1235</v>
       </c>
-      <c r="C99" s="110" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D99" s="110" t="s">
-        <v>1682</v>
-      </c>
-      <c r="E99" s="87" t="s">
-        <v>1441</v>
+      <c r="C99" s="108" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D99" s="108" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E99" s="108" t="s">
+        <v>1606</v>
       </c>
       <c r="H99" s="70"/>
       <c r="I99" s="70"/>
@@ -18720,14 +18779,14 @@
       <c r="B100" s="86" t="s">
         <v>1107</v>
       </c>
-      <c r="C100" s="110" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D100" s="110" t="s">
-        <v>1683</v>
-      </c>
-      <c r="E100" s="87" t="s">
-        <v>1442</v>
+      <c r="C100" s="108" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D100" s="108" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E100" s="108" t="s">
+        <v>1609</v>
       </c>
       <c r="H100" s="70"/>
       <c r="I100" s="70"/>
@@ -18740,11 +18799,15 @@
       <c r="B101" s="86" t="s">
         <v>1236</v>
       </c>
-      <c r="C101" s="110" t="s">
-        <v>1684</v>
-      </c>
-      <c r="D101" s="36"/>
-      <c r="E101" s="88"/>
+      <c r="C101" s="108" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D101" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E101" s="109" t="s">
+        <v>1786</v>
+      </c>
       <c r="H101" s="70"/>
       <c r="I101" s="70"/>
       <c r="J101" s="70"/>
@@ -18756,12 +18819,14 @@
       <c r="B102" s="86" t="s">
         <v>1237</v>
       </c>
-      <c r="C102" s="110" t="s">
-        <v>1685</v>
-      </c>
-      <c r="D102" s="36"/>
-      <c r="E102" s="87" t="s">
-        <v>1443</v>
+      <c r="C102" s="108" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D102" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E102" s="108" t="s">
+        <v>1612</v>
       </c>
       <c r="H102" s="70"/>
       <c r="I102" s="70"/>
@@ -18774,12 +18839,14 @@
       <c r="B103" s="86" t="s">
         <v>1238</v>
       </c>
-      <c r="C103" s="110" t="s">
-        <v>1686</v>
-      </c>
-      <c r="D103" s="36"/>
-      <c r="E103" s="87" t="s">
-        <v>1444</v>
+      <c r="C103" s="108" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D103" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E103" s="108" t="s">
+        <v>1614</v>
       </c>
       <c r="H103" s="70"/>
       <c r="I103" s="70"/>
@@ -18792,12 +18859,14 @@
       <c r="B104" s="86" t="s">
         <v>1134</v>
       </c>
-      <c r="C104" s="110" t="s">
-        <v>1687</v>
-      </c>
-      <c r="D104" s="36"/>
-      <c r="E104" s="87" t="s">
-        <v>1445</v>
+      <c r="C104" s="108" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D104" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E104" s="108" t="s">
+        <v>1616</v>
       </c>
       <c r="H104" s="70"/>
       <c r="I104" s="70"/>
@@ -18810,11 +18879,15 @@
       <c r="B105" s="86" t="s">
         <v>1135</v>
       </c>
-      <c r="C105" s="110" t="s">
-        <v>1688</v>
-      </c>
-      <c r="D105" s="36"/>
-      <c r="E105" s="88"/>
+      <c r="C105" s="108" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D105" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E105" s="109" t="s">
+        <v>1786</v>
+      </c>
       <c r="H105" s="70"/>
       <c r="I105" s="70"/>
       <c r="J105" s="70"/>
@@ -18826,12 +18899,14 @@
       <c r="B106" s="86" t="s">
         <v>1136</v>
       </c>
-      <c r="C106" s="110" t="s">
-        <v>1689</v>
-      </c>
-      <c r="D106" s="36"/>
-      <c r="E106" s="87" t="s">
-        <v>1446</v>
+      <c r="C106" s="108" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D106" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E106" s="108" t="s">
+        <v>1619</v>
       </c>
       <c r="H106" s="70"/>
       <c r="I106" s="70"/>
@@ -18844,12 +18919,14 @@
       <c r="B107" s="86" t="s">
         <v>1137</v>
       </c>
-      <c r="C107" s="110" t="s">
-        <v>1690</v>
-      </c>
-      <c r="D107" s="36"/>
-      <c r="E107" s="87" t="s">
-        <v>1447</v>
+      <c r="C107" s="108" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D107" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E107" s="108" t="s">
+        <v>1621</v>
       </c>
       <c r="H107" s="70"/>
       <c r="I107" s="70"/>
@@ -18862,12 +18939,14 @@
       <c r="B108" s="86" t="s">
         <v>1138</v>
       </c>
-      <c r="C108" s="110" t="s">
-        <v>1691</v>
-      </c>
-      <c r="D108" s="36"/>
-      <c r="E108" s="87" t="s">
-        <v>1448</v>
+      <c r="C108" s="108" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D108" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E108" s="108" t="s">
+        <v>1623</v>
       </c>
       <c r="H108" s="70"/>
       <c r="I108" s="70"/>
@@ -18880,12 +18959,14 @@
       <c r="B109" s="86" t="s">
         <v>1139</v>
       </c>
-      <c r="C109" s="110" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D109" s="36"/>
-      <c r="E109" s="87" t="s">
-        <v>1449</v>
+      <c r="C109" s="108" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D109" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E109" s="108" t="s">
+        <v>1625</v>
       </c>
       <c r="H109" s="70"/>
       <c r="I109" s="70"/>
@@ -18898,12 +18979,14 @@
       <c r="B110" s="86" t="s">
         <v>1140</v>
       </c>
-      <c r="C110" s="110" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D110" s="36"/>
-      <c r="E110" s="87" t="s">
-        <v>1450</v>
+      <c r="C110" s="108" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D110" s="36" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E110" s="108" t="s">
+        <v>1627</v>
       </c>
       <c r="H110" s="70"/>
       <c r="I110" s="70"/>
@@ -18912,8 +18995,14 @@
     <row r="111" spans="1:10" ht="15">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
-      <c r="E111" s="89" t="s">
-        <v>1451</v>
+      <c r="C111" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E111" s="110" t="s">
+        <v>1628</v>
       </c>
       <c r="H111" s="70"/>
       <c r="I111" s="70"/>
@@ -18926,10 +19015,15 @@
       <c r="B112" s="87" t="s">
         <v>1283</v>
       </c>
-      <c r="D112" s="110" t="s">
-        <v>1694</v>
-      </c>
-      <c r="E112" s="2"/>
+      <c r="C112" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D112" s="108" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1786</v>
+      </c>
       <c r="H112" s="70"/>
       <c r="I112" s="70"/>
       <c r="J112" s="70"/>
@@ -18941,10 +19035,15 @@
       <c r="B113" s="87" t="s">
         <v>1284</v>
       </c>
-      <c r="D113" s="110" t="s">
-        <v>1695</v>
-      </c>
-      <c r="E113" s="2"/>
+      <c r="C113" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D113" s="108" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1786</v>
+      </c>
       <c r="H113" s="70"/>
       <c r="I113" s="70"/>
       <c r="J113" s="70"/>
@@ -18956,10 +19055,15 @@
       <c r="B114" s="87" t="s">
         <v>1285</v>
       </c>
-      <c r="D114" s="110" t="s">
-        <v>1696</v>
-      </c>
-      <c r="E114" s="2"/>
+      <c r="C114" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D114" s="108" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1786</v>
+      </c>
       <c r="H114" s="70"/>
       <c r="I114" s="70"/>
       <c r="J114" s="70"/>
@@ -18971,10 +19075,15 @@
       <c r="B115" s="87" t="s">
         <v>1286</v>
       </c>
-      <c r="D115" s="110" t="s">
-        <v>1697</v>
-      </c>
-      <c r="E115" s="2"/>
+      <c r="C115" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D115" s="108" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1786</v>
+      </c>
       <c r="H115" s="70"/>
       <c r="I115" s="70"/>
       <c r="J115" s="70"/>
@@ -18986,10 +19095,15 @@
       <c r="B116" s="87" t="s">
         <v>1287</v>
       </c>
-      <c r="D116" s="110" t="s">
-        <v>1698</v>
-      </c>
-      <c r="E116" s="2"/>
+      <c r="C116" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D116" s="108" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1786</v>
+      </c>
       <c r="H116" s="70"/>
       <c r="I116" s="70"/>
       <c r="J116" s="70"/>
@@ -19001,10 +19115,15 @@
       <c r="B117" s="87" t="s">
         <v>1288</v>
       </c>
-      <c r="D117" s="110" t="s">
-        <v>1699</v>
-      </c>
-      <c r="E117" s="2"/>
+      <c r="C117" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D117" s="108" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1786</v>
+      </c>
       <c r="H117" s="70"/>
       <c r="I117" s="70"/>
       <c r="J117" s="70"/>
@@ -19016,10 +19135,15 @@
       <c r="B118" s="87" t="s">
         <v>1289</v>
       </c>
-      <c r="D118" s="110" t="s">
-        <v>1700</v>
-      </c>
-      <c r="E118" s="2"/>
+      <c r="C118" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D118" s="108" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1786</v>
+      </c>
       <c r="H118" s="70"/>
       <c r="I118" s="70"/>
       <c r="J118" s="70"/>
@@ -19031,10 +19155,15 @@
       <c r="B119" s="87" t="s">
         <v>1290</v>
       </c>
-      <c r="D119" s="110" t="s">
-        <v>1701</v>
-      </c>
-      <c r="E119" s="2"/>
+      <c r="C119" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D119" s="108" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1786</v>
+      </c>
       <c r="H119" s="70"/>
       <c r="I119" s="70"/>
       <c r="J119" s="70"/>
@@ -19046,10 +19175,15 @@
       <c r="B120" s="87" t="s">
         <v>1291</v>
       </c>
-      <c r="D120" s="110" t="s">
-        <v>1702</v>
-      </c>
-      <c r="E120" s="2"/>
+      <c r="C120" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D120" s="108" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1786</v>
+      </c>
       <c r="H120" s="70"/>
       <c r="I120" s="70"/>
       <c r="J120" s="70"/>
@@ -19061,10 +19195,15 @@
       <c r="B121" s="87" t="s">
         <v>1292</v>
       </c>
-      <c r="D121" s="110" t="s">
-        <v>1703</v>
-      </c>
-      <c r="E121" s="2"/>
+      <c r="C121" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D121" s="108" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1786</v>
+      </c>
       <c r="H121" s="70"/>
       <c r="I121" s="70"/>
       <c r="J121" s="70"/>
@@ -19076,10 +19215,15 @@
       <c r="B122" s="87" t="s">
         <v>1293</v>
       </c>
-      <c r="D122" s="110" t="s">
-        <v>1704</v>
-      </c>
-      <c r="E122" s="2"/>
+      <c r="C122" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D122" s="108" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1786</v>
+      </c>
       <c r="H122" s="70"/>
       <c r="I122" s="70"/>
       <c r="J122" s="70"/>
@@ -19091,10 +19235,15 @@
       <c r="B123" s="87" t="s">
         <v>1294</v>
       </c>
-      <c r="D123" s="110" t="s">
-        <v>1705</v>
-      </c>
-      <c r="E123" s="2"/>
+      <c r="C123" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D123" s="108" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1786</v>
+      </c>
       <c r="H123" s="70"/>
       <c r="I123" s="70"/>
       <c r="J123" s="70"/>
@@ -19106,10 +19255,15 @@
       <c r="B124" s="87" t="s">
         <v>1295</v>
       </c>
-      <c r="D124" s="110" t="s">
-        <v>1706</v>
-      </c>
-      <c r="E124" s="2"/>
+      <c r="C124" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D124" s="108" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1786</v>
+      </c>
       <c r="H124" s="70"/>
       <c r="I124" s="70"/>
       <c r="J124" s="70"/>
@@ -19121,10 +19275,15 @@
       <c r="B125" s="87" t="s">
         <v>1296</v>
       </c>
-      <c r="D125" s="110" t="s">
-        <v>1707</v>
-      </c>
-      <c r="E125" s="2"/>
+      <c r="C125" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D125" s="108" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1786</v>
+      </c>
       <c r="H125" s="70"/>
       <c r="I125" s="70"/>
       <c r="J125" s="70"/>
@@ -19136,10 +19295,15 @@
       <c r="B126" s="87" t="s">
         <v>1297</v>
       </c>
-      <c r="D126" s="110" t="s">
-        <v>1708</v>
-      </c>
-      <c r="E126" s="2"/>
+      <c r="C126" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D126" s="108" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1786</v>
+      </c>
       <c r="H126" s="70"/>
       <c r="I126" s="70"/>
       <c r="J126" s="70"/>
@@ -19151,10 +19315,15 @@
       <c r="B127" s="87" t="s">
         <v>1298</v>
       </c>
-      <c r="D127" s="110" t="s">
-        <v>1709</v>
-      </c>
-      <c r="E127" s="2"/>
+      <c r="C127" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D127" s="108" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1786</v>
+      </c>
       <c r="H127" s="70"/>
       <c r="I127" s="70"/>
       <c r="J127" s="70"/>
@@ -19166,10 +19335,15 @@
       <c r="B128" s="87" t="s">
         <v>1299</v>
       </c>
-      <c r="D128" s="110" t="s">
-        <v>1710</v>
-      </c>
-      <c r="E128" s="2"/>
+      <c r="C128" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D128" s="108" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1786</v>
+      </c>
       <c r="H128" s="70"/>
       <c r="I128" s="70"/>
       <c r="J128" s="70"/>
@@ -19181,10 +19355,15 @@
       <c r="B129" s="87" t="s">
         <v>1300</v>
       </c>
-      <c r="D129" s="110" t="s">
-        <v>1711</v>
-      </c>
-      <c r="E129" s="2"/>
+      <c r="C129" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D129" s="108" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1786</v>
+      </c>
       <c r="H129" s="70"/>
       <c r="I129" s="70"/>
       <c r="J129" s="70"/>
@@ -19196,10 +19375,15 @@
       <c r="B130" s="87" t="s">
         <v>1301</v>
       </c>
-      <c r="D130" s="110" t="s">
-        <v>1712</v>
-      </c>
-      <c r="E130" s="2"/>
+      <c r="C130" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D130" s="108" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1786</v>
+      </c>
       <c r="H130" s="70"/>
       <c r="I130" s="70"/>
       <c r="J130" s="70"/>
@@ -19211,10 +19395,15 @@
       <c r="B131" s="87" t="s">
         <v>1302</v>
       </c>
-      <c r="D131" s="110" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E131" s="2"/>
+      <c r="C131" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D131" s="108" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1786</v>
+      </c>
       <c r="H131" s="70"/>
       <c r="I131" s="70"/>
       <c r="J131" s="70"/>
@@ -19226,10 +19415,15 @@
       <c r="B132" s="87" t="s">
         <v>1303</v>
       </c>
-      <c r="D132" s="110" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E132" s="2"/>
+      <c r="C132" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D132" s="108" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1786</v>
+      </c>
       <c r="H132" s="70"/>
       <c r="I132" s="70"/>
       <c r="J132" s="70"/>
@@ -19241,10 +19435,15 @@
       <c r="B133" s="87" t="s">
         <v>1304</v>
       </c>
-      <c r="D133" s="110" t="s">
-        <v>1715</v>
-      </c>
-      <c r="E133" s="2"/>
+      <c r="C133" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D133" s="108" t="s">
+        <v>1650</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1786</v>
+      </c>
       <c r="H133" s="70"/>
       <c r="I133" s="70"/>
       <c r="J133" s="70"/>
@@ -19256,10 +19455,15 @@
       <c r="B134" s="87" t="s">
         <v>1305</v>
       </c>
-      <c r="D134" s="110" t="s">
-        <v>1716</v>
-      </c>
-      <c r="E134" s="2"/>
+      <c r="C134" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D134" s="108" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1786</v>
+      </c>
       <c r="H134" s="70"/>
       <c r="I134" s="70"/>
       <c r="J134" s="70"/>
@@ -19271,10 +19475,15 @@
       <c r="B135" s="87" t="s">
         <v>1306</v>
       </c>
-      <c r="D135" s="110" t="s">
-        <v>1717</v>
-      </c>
-      <c r="E135" s="2"/>
+      <c r="C135" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D135" s="108" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1786</v>
+      </c>
       <c r="H135" s="70"/>
       <c r="I135" s="70"/>
       <c r="J135" s="70"/>
@@ -19286,10 +19495,15 @@
       <c r="B136" s="87" t="s">
         <v>1307</v>
       </c>
-      <c r="D136" s="110" t="s">
-        <v>1718</v>
-      </c>
-      <c r="E136" s="2"/>
+      <c r="C136" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D136" s="108" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1786</v>
+      </c>
       <c r="H136" s="70"/>
       <c r="I136" s="70"/>
       <c r="J136" s="70"/>
@@ -19301,10 +19515,15 @@
       <c r="B137" s="87" t="s">
         <v>1308</v>
       </c>
-      <c r="D137" s="110" t="s">
-        <v>1719</v>
-      </c>
-      <c r="E137" s="2"/>
+      <c r="C137" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D137" s="108" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1786</v>
+      </c>
       <c r="H137" s="70"/>
       <c r="I137" s="70"/>
       <c r="J137" s="70"/>
@@ -19316,10 +19535,15 @@
       <c r="B138" s="87" t="s">
         <v>1309</v>
       </c>
-      <c r="D138" s="110" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E138" s="2"/>
+      <c r="C138" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D138" s="108" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1786</v>
+      </c>
       <c r="H138" s="70"/>
       <c r="I138" s="70"/>
       <c r="J138" s="70"/>
@@ -19331,10 +19555,15 @@
       <c r="B139" s="87" t="s">
         <v>1310</v>
       </c>
-      <c r="D139" s="110" t="s">
-        <v>1721</v>
-      </c>
-      <c r="E139" s="2"/>
+      <c r="C139" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D139" s="108" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1786</v>
+      </c>
       <c r="H139" s="70"/>
       <c r="I139" s="70"/>
       <c r="J139" s="70"/>
@@ -19346,10 +19575,15 @@
       <c r="B140" s="87" t="s">
         <v>1311</v>
       </c>
-      <c r="D140" s="110" t="s">
-        <v>1722</v>
-      </c>
-      <c r="E140" s="2"/>
+      <c r="C140" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D140" s="108" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1786</v>
+      </c>
       <c r="H140" s="70"/>
       <c r="I140" s="70"/>
       <c r="J140" s="70"/>
@@ -19361,10 +19595,15 @@
       <c r="B141" s="87" t="s">
         <v>1312</v>
       </c>
-      <c r="D141" s="110" t="s">
-        <v>1723</v>
-      </c>
-      <c r="E141" s="2"/>
+      <c r="C141" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D141" s="108" t="s">
+        <v>1658</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1786</v>
+      </c>
       <c r="H141" s="70"/>
       <c r="I141" s="70"/>
       <c r="J141" s="70"/>
@@ -19376,10 +19615,15 @@
       <c r="B142" s="87" t="s">
         <v>1313</v>
       </c>
-      <c r="D142" s="110" t="s">
-        <v>1724</v>
-      </c>
-      <c r="E142" s="2"/>
+      <c r="C142" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D142" s="108" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1786</v>
+      </c>
       <c r="H142" s="70"/>
       <c r="I142" s="70"/>
       <c r="J142" s="70"/>
@@ -19391,10 +19635,15 @@
       <c r="B143" s="87" t="s">
         <v>1286</v>
       </c>
-      <c r="D143" s="110" t="s">
-        <v>1697</v>
-      </c>
-      <c r="E143" s="2"/>
+      <c r="C143" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D143" s="108" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1786</v>
+      </c>
       <c r="H143" s="70"/>
       <c r="I143" s="70"/>
       <c r="J143" s="70"/>
@@ -19406,10 +19655,15 @@
       <c r="B144" s="87" t="s">
         <v>1314</v>
       </c>
-      <c r="D144" s="110" t="s">
-        <v>1725</v>
-      </c>
-      <c r="E144" s="2"/>
+      <c r="C144" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D144" s="108" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1786</v>
+      </c>
       <c r="H144" s="70"/>
       <c r="I144" s="70"/>
       <c r="J144" s="70"/>
@@ -19421,10 +19675,15 @@
       <c r="B145" s="87" t="s">
         <v>1315</v>
       </c>
-      <c r="D145" s="110" t="s">
-        <v>1726</v>
-      </c>
-      <c r="E145" s="2"/>
+      <c r="C145" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D145" s="108" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1786</v>
+      </c>
       <c r="H145" s="70"/>
       <c r="I145" s="70"/>
       <c r="J145" s="70"/>
@@ -19436,10 +19695,15 @@
       <c r="B146" s="87" t="s">
         <v>1316</v>
       </c>
-      <c r="D146" s="110" t="s">
-        <v>1727</v>
-      </c>
-      <c r="E146" s="2"/>
+      <c r="C146" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D146" s="108" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1786</v>
+      </c>
       <c r="H146" s="70"/>
       <c r="I146" s="70"/>
       <c r="J146" s="70"/>
@@ -19451,10 +19715,15 @@
       <c r="B147" s="87" t="s">
         <v>1317</v>
       </c>
-      <c r="D147" s="110" t="s">
-        <v>1728</v>
-      </c>
-      <c r="E147" s="2"/>
+      <c r="C147" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D147" s="108" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1786</v>
+      </c>
       <c r="H147" s="70"/>
       <c r="I147" s="70"/>
       <c r="J147" s="70"/>
@@ -19466,10 +19735,15 @@
       <c r="B148" s="87" t="s">
         <v>1241</v>
       </c>
-      <c r="D148" s="110" t="s">
-        <v>1729</v>
-      </c>
-      <c r="E148" s="2"/>
+      <c r="C148" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D148" s="108" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1786</v>
+      </c>
       <c r="H148" s="70"/>
       <c r="I148" s="70"/>
       <c r="J148" s="70"/>
@@ -19481,10 +19755,15 @@
       <c r="B149" s="87" t="s">
         <v>1242</v>
       </c>
-      <c r="D149" s="110" t="s">
-        <v>1730</v>
-      </c>
-      <c r="E149" s="2"/>
+      <c r="C149" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D149" s="108" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1786</v>
+      </c>
       <c r="H149" s="70"/>
       <c r="I149" s="70"/>
       <c r="J149" s="70"/>
@@ -19496,10 +19775,15 @@
       <c r="B150" s="87" t="s">
         <v>1318</v>
       </c>
-      <c r="D150" s="110" t="s">
-        <v>1731</v>
-      </c>
-      <c r="E150" s="2"/>
+      <c r="C150" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D150" s="108" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1786</v>
+      </c>
       <c r="H150" s="70"/>
       <c r="I150" s="70"/>
       <c r="J150" s="70"/>
@@ -19511,10 +19795,15 @@
       <c r="B151" s="87" t="s">
         <v>1319</v>
       </c>
-      <c r="D151" s="110" t="s">
-        <v>1732</v>
-      </c>
-      <c r="E151" s="2"/>
+      <c r="C151" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D151" s="108" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1786</v>
+      </c>
       <c r="H151" s="70"/>
       <c r="I151" s="70"/>
       <c r="J151" s="70"/>
@@ -19526,10 +19815,15 @@
       <c r="B152" s="87" t="s">
         <v>1320</v>
       </c>
-      <c r="D152" s="110" t="s">
-        <v>1733</v>
-      </c>
-      <c r="E152" s="2"/>
+      <c r="C152" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D152" s="108" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1786</v>
+      </c>
       <c r="H152" s="70"/>
       <c r="I152" s="70"/>
       <c r="J152" s="70"/>
@@ -19541,10 +19835,15 @@
       <c r="B153" s="87" t="s">
         <v>1243</v>
       </c>
-      <c r="D153" s="110" t="s">
-        <v>1734</v>
-      </c>
-      <c r="E153" s="2"/>
+      <c r="C153" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D153" s="108" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1786</v>
+      </c>
       <c r="H153" s="70"/>
       <c r="I153" s="70"/>
       <c r="J153" s="70"/>
@@ -19556,10 +19855,15 @@
       <c r="B154" s="87" t="s">
         <v>1321</v>
       </c>
-      <c r="D154" s="110" t="s">
-        <v>1735</v>
-      </c>
-      <c r="E154" s="2"/>
+      <c r="C154" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D154" s="108" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1786</v>
+      </c>
       <c r="H154" s="70"/>
       <c r="I154" s="70"/>
       <c r="J154" s="70"/>
@@ -19571,10 +19875,15 @@
       <c r="B155" s="87" t="s">
         <v>1322</v>
       </c>
-      <c r="D155" s="110" t="s">
-        <v>1736</v>
-      </c>
-      <c r="E155" s="2"/>
+      <c r="C155" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D155" s="108" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1786</v>
+      </c>
       <c r="H155" s="70"/>
       <c r="I155" s="70"/>
       <c r="J155" s="70"/>
@@ -19586,10 +19895,15 @@
       <c r="B156" s="87" t="s">
         <v>1323</v>
       </c>
-      <c r="D156" s="110" t="s">
-        <v>1737</v>
-      </c>
-      <c r="E156" s="2"/>
+      <c r="C156" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D156" s="108" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1786</v>
+      </c>
       <c r="H156" s="70"/>
       <c r="I156" s="70"/>
       <c r="J156" s="70"/>
@@ -19601,10 +19915,15 @@
       <c r="B157" s="87" t="s">
         <v>1324</v>
       </c>
-      <c r="D157" s="110" t="s">
-        <v>1738</v>
-      </c>
-      <c r="E157" s="2"/>
+      <c r="C157" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D157" s="108" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1786</v>
+      </c>
       <c r="H157" s="70"/>
       <c r="I157" s="70"/>
       <c r="J157" s="70"/>
@@ -19616,10 +19935,15 @@
       <c r="B158" s="87" t="s">
         <v>1244</v>
       </c>
-      <c r="D158" s="110" t="s">
-        <v>1739</v>
-      </c>
-      <c r="E158" s="2"/>
+      <c r="C158" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D158" s="108" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1786</v>
+      </c>
       <c r="H158" s="70"/>
       <c r="I158" s="70"/>
       <c r="J158" s="70"/>
@@ -19631,10 +19955,15 @@
       <c r="B159" s="87" t="s">
         <v>1325</v>
       </c>
-      <c r="D159" s="110" t="s">
-        <v>1740</v>
-      </c>
-      <c r="E159" s="2"/>
+      <c r="C159" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D159" s="108" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1786</v>
+      </c>
       <c r="H159" s="70"/>
       <c r="I159" s="70"/>
       <c r="J159" s="70"/>
@@ -19646,10 +19975,15 @@
       <c r="B160" s="87" t="s">
         <v>1245</v>
       </c>
-      <c r="D160" s="110" t="s">
-        <v>1741</v>
-      </c>
-      <c r="E160" s="2"/>
+      <c r="C160" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D160" s="108" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1786</v>
+      </c>
       <c r="H160" s="70"/>
       <c r="I160" s="70"/>
       <c r="J160" s="70"/>
@@ -19661,10 +19995,15 @@
       <c r="B161" s="87" t="s">
         <v>1326</v>
       </c>
-      <c r="D161" s="110" t="s">
-        <v>1742</v>
-      </c>
-      <c r="E161" s="2"/>
+      <c r="C161" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D161" s="108" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1786</v>
+      </c>
       <c r="H161" s="70"/>
       <c r="I161" s="70"/>
       <c r="J161" s="70"/>
@@ -19676,10 +20015,15 @@
       <c r="B162" s="87" t="s">
         <v>1327</v>
       </c>
-      <c r="D162" s="110" t="s">
-        <v>1743</v>
-      </c>
-      <c r="E162" s="2"/>
+      <c r="C162" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D162" s="108" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1786</v>
+      </c>
       <c r="H162" s="70"/>
       <c r="I162" s="70"/>
       <c r="J162" s="70"/>
@@ -19691,10 +20035,15 @@
       <c r="B163" s="87" t="s">
         <v>1127</v>
       </c>
-      <c r="D163" s="110" t="s">
-        <v>1632</v>
-      </c>
-      <c r="E163" s="2"/>
+      <c r="C163" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D163" s="108" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1786</v>
+      </c>
       <c r="H163" s="70"/>
       <c r="I163" s="70"/>
       <c r="J163" s="70"/>
@@ -19706,10 +20055,15 @@
       <c r="B164" s="87" t="s">
         <v>1128</v>
       </c>
-      <c r="D164" s="110" t="s">
-        <v>1633</v>
-      </c>
-      <c r="E164" s="2"/>
+      <c r="C164" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D164" s="108" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1786</v>
+      </c>
       <c r="H164" s="70"/>
       <c r="I164" s="70"/>
       <c r="J164" s="70"/>
@@ -19721,10 +20075,15 @@
       <c r="B165" s="87" t="s">
         <v>1129</v>
       </c>
-      <c r="D165" s="110" t="s">
-        <v>1634</v>
-      </c>
-      <c r="E165" s="2"/>
+      <c r="C165" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D165" s="108" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1786</v>
+      </c>
       <c r="H165" s="70"/>
       <c r="I165" s="70"/>
       <c r="J165" s="70"/>
@@ -19736,10 +20095,15 @@
       <c r="B166" s="87" t="s">
         <v>1130</v>
       </c>
-      <c r="D166" s="110" t="s">
-        <v>1635</v>
-      </c>
-      <c r="E166" s="2"/>
+      <c r="C166" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D166" s="108" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1786</v>
+      </c>
       <c r="H166" s="70"/>
       <c r="I166" s="70"/>
       <c r="J166" s="70"/>
@@ -19751,10 +20115,15 @@
       <c r="B167" s="87" t="s">
         <v>1122</v>
       </c>
-      <c r="D167" s="110" t="s">
-        <v>1627</v>
-      </c>
-      <c r="E167" s="2"/>
+      <c r="C167" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D167" s="108" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1786</v>
+      </c>
       <c r="H167" s="70"/>
       <c r="I167" s="70"/>
       <c r="J167" s="70"/>
@@ -19766,10 +20135,15 @@
       <c r="B168" s="87" t="s">
         <v>1123</v>
       </c>
-      <c r="D168" s="110" t="s">
-        <v>1628</v>
-      </c>
-      <c r="E168" s="2"/>
+      <c r="C168" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D168" s="108" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1786</v>
+      </c>
       <c r="H168" s="70"/>
       <c r="I168" s="70"/>
       <c r="J168" s="70"/>
@@ -19781,10 +20155,15 @@
       <c r="B169" s="87" t="s">
         <v>1124</v>
       </c>
-      <c r="D169" s="110" t="s">
-        <v>1629</v>
-      </c>
-      <c r="E169" s="2"/>
+      <c r="C169" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D169" s="108" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1786</v>
+      </c>
       <c r="H169" s="70"/>
       <c r="I169" s="70"/>
       <c r="J169" s="70"/>
@@ -19796,10 +20175,15 @@
       <c r="B170" s="87" t="s">
         <v>1125</v>
       </c>
-      <c r="D170" s="110" t="s">
-        <v>1630</v>
-      </c>
-      <c r="E170" s="2"/>
+      <c r="C170" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D170" s="108" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E170" t="s">
+        <v>1786</v>
+      </c>
       <c r="H170" s="70"/>
       <c r="I170" s="70"/>
       <c r="J170" s="70"/>
@@ -19811,10 +20195,15 @@
       <c r="B171" s="87" t="s">
         <v>1328</v>
       </c>
-      <c r="D171" s="110" t="s">
-        <v>1631</v>
-      </c>
-      <c r="E171" s="2"/>
+      <c r="C171" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D171" s="108" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1786</v>
+      </c>
       <c r="H171" s="70"/>
       <c r="I171" s="70"/>
       <c r="J171" s="70"/>
@@ -19826,10 +20215,15 @@
       <c r="B172" s="87" t="s">
         <v>1329</v>
       </c>
-      <c r="D172" s="110" t="s">
-        <v>1744</v>
-      </c>
-      <c r="E172" s="2"/>
+      <c r="C172" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D172" s="108" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1786</v>
+      </c>
       <c r="H172" s="70"/>
       <c r="I172" s="70"/>
       <c r="J172" s="70"/>
@@ -19841,10 +20235,15 @@
       <c r="B173" s="87" t="s">
         <v>1330</v>
       </c>
-      <c r="D173" s="110" t="s">
-        <v>1745</v>
-      </c>
-      <c r="E173" s="2"/>
+      <c r="C173" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D173" s="108" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E173" t="s">
+        <v>1786</v>
+      </c>
       <c r="H173" s="70"/>
       <c r="I173" s="70"/>
       <c r="J173" s="70"/>
@@ -19856,10 +20255,15 @@
       <c r="B174" s="87" t="s">
         <v>1331</v>
       </c>
-      <c r="D174" s="110" t="s">
-        <v>1746</v>
-      </c>
-      <c r="E174" s="2"/>
+      <c r="C174" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D174" s="108" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1786</v>
+      </c>
       <c r="H174" s="70"/>
       <c r="I174" s="70"/>
       <c r="J174" s="70"/>
@@ -19871,10 +20275,15 @@
       <c r="B175" s="87" t="s">
         <v>1246</v>
       </c>
-      <c r="D175" s="110" t="s">
-        <v>1747</v>
-      </c>
-      <c r="E175" s="2"/>
+      <c r="C175" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D175" s="108" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1786</v>
+      </c>
       <c r="H175" s="70"/>
       <c r="I175" s="70"/>
       <c r="J175" s="70"/>
@@ -19886,10 +20295,15 @@
       <c r="B176" s="87" t="s">
         <v>1331</v>
       </c>
-      <c r="D176" s="110" t="s">
-        <v>1746</v>
-      </c>
-      <c r="E176" s="2"/>
+      <c r="C176" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D176" s="108" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E176" t="s">
+        <v>1786</v>
+      </c>
       <c r="H176" s="70"/>
       <c r="I176" s="70"/>
       <c r="J176" s="70"/>
@@ -19901,10 +20315,15 @@
       <c r="B177" s="87" t="s">
         <v>1247</v>
       </c>
-      <c r="D177" s="110" t="s">
-        <v>1748</v>
-      </c>
-      <c r="E177" s="2"/>
+      <c r="C177" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D177" s="108" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1786</v>
+      </c>
       <c r="H177" s="70"/>
       <c r="I177" s="70"/>
       <c r="J177" s="70"/>
@@ -19916,10 +20335,15 @@
       <c r="B178" s="87" t="s">
         <v>1332</v>
       </c>
-      <c r="D178" s="110" t="s">
-        <v>1749</v>
-      </c>
-      <c r="E178" s="2"/>
+      <c r="C178" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D178" s="108" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1786</v>
+      </c>
       <c r="H178" s="70"/>
       <c r="I178" s="70"/>
       <c r="J178" s="70"/>
@@ -19931,10 +20355,15 @@
       <c r="B179" s="87" t="s">
         <v>1248</v>
       </c>
-      <c r="D179" s="110" t="s">
-        <v>1750</v>
-      </c>
-      <c r="E179" s="2"/>
+      <c r="C179" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D179" s="108" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E179" t="s">
+        <v>1786</v>
+      </c>
       <c r="H179" s="70"/>
       <c r="I179" s="70"/>
       <c r="J179" s="70"/>
@@ -19946,10 +20375,15 @@
       <c r="B180" s="87" t="s">
         <v>1249</v>
       </c>
-      <c r="D180" s="110" t="s">
-        <v>1751</v>
-      </c>
-      <c r="E180" s="2"/>
+      <c r="C180" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D180" s="108" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1786</v>
+      </c>
       <c r="H180" s="70"/>
       <c r="I180" s="70"/>
       <c r="J180" s="70"/>
@@ -19961,10 +20395,15 @@
       <c r="B181" s="87" t="s">
         <v>1333</v>
       </c>
-      <c r="D181" s="110" t="s">
-        <v>1752</v>
-      </c>
-      <c r="E181" s="2"/>
+      <c r="C181" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D181" s="108" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E181" t="s">
+        <v>1786</v>
+      </c>
       <c r="H181" s="70"/>
       <c r="I181" s="70"/>
       <c r="J181" s="70"/>
@@ -19976,10 +20415,15 @@
       <c r="B182" s="87" t="s">
         <v>1334</v>
       </c>
-      <c r="D182" s="110" t="s">
-        <v>1753</v>
-      </c>
-      <c r="E182" s="2"/>
+      <c r="C182" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D182" s="108" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E182" t="s">
+        <v>1786</v>
+      </c>
       <c r="H182" s="70"/>
       <c r="I182" s="70"/>
       <c r="J182" s="70"/>
@@ -19991,10 +20435,15 @@
       <c r="B183" s="87" t="s">
         <v>1335</v>
       </c>
-      <c r="D183" s="110" t="s">
-        <v>1754</v>
-      </c>
-      <c r="E183" s="2"/>
+      <c r="C183" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D183" s="108" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E183" t="s">
+        <v>1786</v>
+      </c>
       <c r="H183" s="70"/>
       <c r="I183" s="70"/>
       <c r="J183" s="70"/>
@@ -20006,10 +20455,15 @@
       <c r="B184" s="87" t="s">
         <v>1336</v>
       </c>
-      <c r="D184" s="110" t="s">
-        <v>1755</v>
-      </c>
-      <c r="E184" s="2"/>
+      <c r="C184" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D184" s="108" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E184" t="s">
+        <v>1786</v>
+      </c>
       <c r="H184" s="70"/>
       <c r="I184" s="70"/>
       <c r="J184" s="70"/>
@@ -20021,10 +20475,15 @@
       <c r="B185" s="87" t="s">
         <v>1337</v>
       </c>
-      <c r="D185" s="110" t="s">
-        <v>1756</v>
-      </c>
-      <c r="E185" s="2"/>
+      <c r="C185" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D185" s="108" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E185" t="s">
+        <v>1786</v>
+      </c>
       <c r="H185" s="70"/>
       <c r="I185" s="70"/>
       <c r="J185" s="70"/>
@@ -20036,10 +20495,15 @@
       <c r="B186" s="87" t="s">
         <v>1338</v>
       </c>
-      <c r="D186" s="110" t="s">
-        <v>1757</v>
-      </c>
-      <c r="E186" s="2"/>
+      <c r="C186" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D186" s="108" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1786</v>
+      </c>
       <c r="H186" s="70"/>
       <c r="I186" s="70"/>
       <c r="J186" s="70"/>
@@ -20051,10 +20515,15 @@
       <c r="B187" s="87" t="s">
         <v>1339</v>
       </c>
-      <c r="D187" s="110" t="s">
-        <v>1758</v>
-      </c>
-      <c r="E187" s="2"/>
+      <c r="C187" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D187" s="108" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E187" t="s">
+        <v>1786</v>
+      </c>
       <c r="H187" s="70"/>
       <c r="I187" s="70"/>
       <c r="J187" s="70"/>
@@ -20066,10 +20535,15 @@
       <c r="B188" s="87" t="s">
         <v>1340</v>
       </c>
-      <c r="D188" s="110" t="s">
-        <v>1759</v>
-      </c>
-      <c r="E188" s="2"/>
+      <c r="C188" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D188" s="108" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1786</v>
+      </c>
       <c r="H188" s="70"/>
       <c r="I188" s="70"/>
       <c r="J188" s="70"/>
@@ -20081,10 +20555,15 @@
       <c r="B189" s="87" t="s">
         <v>1341</v>
       </c>
-      <c r="D189" s="110" t="s">
-        <v>1760</v>
-      </c>
-      <c r="E189" s="2"/>
+      <c r="C189" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D189" s="108" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1786</v>
+      </c>
       <c r="H189" s="70"/>
       <c r="I189" s="70"/>
       <c r="J189" s="70"/>
@@ -20096,10 +20575,15 @@
       <c r="B190" s="87" t="s">
         <v>1342</v>
       </c>
-      <c r="D190" s="110" t="s">
-        <v>1761</v>
-      </c>
-      <c r="E190" s="2"/>
+      <c r="C190" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D190" s="108" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1786</v>
+      </c>
       <c r="H190" s="70"/>
       <c r="I190" s="70"/>
       <c r="J190" s="70"/>
@@ -20111,10 +20595,15 @@
       <c r="B191" s="87" t="s">
         <v>1343</v>
       </c>
-      <c r="D191" s="110" t="s">
-        <v>1762</v>
-      </c>
-      <c r="E191" s="2"/>
+      <c r="C191" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D191" s="108" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1786</v>
+      </c>
       <c r="H191" s="70"/>
       <c r="I191" s="70"/>
       <c r="J191" s="70"/>
@@ -20126,10 +20615,15 @@
       <c r="B192" s="87" t="s">
         <v>1250</v>
       </c>
-      <c r="D192" s="110" t="s">
-        <v>1763</v>
-      </c>
-      <c r="E192" s="2"/>
+      <c r="C192" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D192" s="108" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1786</v>
+      </c>
       <c r="H192" s="70"/>
       <c r="I192" s="70"/>
       <c r="J192" s="70"/>
@@ -20141,10 +20635,15 @@
       <c r="B193" s="87" t="s">
         <v>1251</v>
       </c>
-      <c r="D193" s="110" t="s">
-        <v>1764</v>
-      </c>
-      <c r="E193" s="2"/>
+      <c r="C193" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D193" s="108" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1786</v>
+      </c>
       <c r="H193" s="70"/>
       <c r="I193" s="70"/>
       <c r="J193" s="70"/>
@@ -20156,10 +20655,15 @@
       <c r="B194" s="87" t="s">
         <v>1252</v>
       </c>
-      <c r="D194" s="110" t="s">
-        <v>1765</v>
-      </c>
-      <c r="E194" s="2"/>
+      <c r="C194" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D194" s="108" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1786</v>
+      </c>
       <c r="H194" s="70"/>
       <c r="I194" s="70"/>
       <c r="J194" s="70"/>
@@ -20171,10 +20675,15 @@
       <c r="B195" s="87" t="s">
         <v>1253</v>
       </c>
-      <c r="D195" s="110" t="s">
-        <v>1766</v>
-      </c>
-      <c r="E195" s="2"/>
+      <c r="C195" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D195" s="108" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1786</v>
+      </c>
       <c r="H195" s="70"/>
       <c r="I195" s="70"/>
       <c r="J195" s="70"/>
@@ -20186,10 +20695,15 @@
       <c r="B196" s="87" t="s">
         <v>1254</v>
       </c>
-      <c r="D196" s="110" t="s">
-        <v>1767</v>
-      </c>
-      <c r="E196" s="2"/>
+      <c r="C196" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D196" s="108" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1786</v>
+      </c>
       <c r="H196" s="70"/>
       <c r="I196" s="70"/>
       <c r="J196" s="70"/>
@@ -20201,10 +20715,15 @@
       <c r="B197" s="87" t="s">
         <v>1255</v>
       </c>
-      <c r="D197" s="110" t="s">
-        <v>1768</v>
-      </c>
-      <c r="E197" s="2"/>
+      <c r="C197" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D197" s="108" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1786</v>
+      </c>
       <c r="H197" s="70"/>
       <c r="I197" s="70"/>
       <c r="J197" s="70"/>
@@ -20216,10 +20735,15 @@
       <c r="B198" s="87" t="s">
         <v>1256</v>
       </c>
-      <c r="D198" s="110" t="s">
-        <v>1769</v>
-      </c>
-      <c r="E198" s="2"/>
+      <c r="C198" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D198" s="108" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1786</v>
+      </c>
       <c r="H198" s="70"/>
       <c r="I198" s="70"/>
       <c r="J198" s="70"/>
@@ -20231,10 +20755,15 @@
       <c r="B199" s="87" t="s">
         <v>1257</v>
       </c>
-      <c r="D199" s="110" t="s">
-        <v>1770</v>
-      </c>
-      <c r="E199" s="2"/>
+      <c r="C199" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D199" s="108" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1786</v>
+      </c>
       <c r="H199" s="70"/>
       <c r="I199" s="70"/>
       <c r="J199" s="70"/>
@@ -20246,10 +20775,15 @@
       <c r="B200" s="87" t="s">
         <v>1258</v>
       </c>
-      <c r="D200" s="110" t="s">
-        <v>1771</v>
-      </c>
-      <c r="E200" s="2"/>
+      <c r="C200" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D200" s="108" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E200" t="s">
+        <v>1786</v>
+      </c>
       <c r="H200" s="70"/>
       <c r="I200" s="70"/>
       <c r="J200" s="70"/>
@@ -20261,10 +20795,15 @@
       <c r="B201" s="87" t="s">
         <v>1259</v>
       </c>
-      <c r="D201" s="110" t="s">
-        <v>1772</v>
-      </c>
-      <c r="E201" s="2"/>
+      <c r="C201" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D201" s="108" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E201" t="s">
+        <v>1786</v>
+      </c>
       <c r="H201" s="70"/>
       <c r="I201" s="70"/>
       <c r="J201" s="70"/>
@@ -20276,10 +20815,15 @@
       <c r="B202" s="87" t="s">
         <v>1260</v>
       </c>
-      <c r="D202" s="110" t="s">
-        <v>1773</v>
-      </c>
-      <c r="E202" s="2"/>
+      <c r="C202" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D202" s="108" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E202" t="s">
+        <v>1786</v>
+      </c>
       <c r="H202" s="70"/>
       <c r="I202" s="70"/>
       <c r="J202" s="70"/>
@@ -20291,10 +20835,15 @@
       <c r="B203" s="87" t="s">
         <v>1261</v>
       </c>
-      <c r="D203" s="110" t="s">
-        <v>1774</v>
-      </c>
-      <c r="E203" s="2"/>
+      <c r="C203" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D203" s="108" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1786</v>
+      </c>
       <c r="H203" s="70"/>
       <c r="I203" s="70"/>
       <c r="J203" s="70"/>
@@ -20303,13 +20852,18 @@
       <c r="A204" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B204" s="90" t="s">
+      <c r="B204" s="88" t="s">
         <v>1262</v>
       </c>
-      <c r="D204" s="110" t="s">
-        <v>1775</v>
-      </c>
-      <c r="E204" s="2"/>
+      <c r="C204" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D204" s="108" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E204" t="s">
+        <v>1786</v>
+      </c>
       <c r="H204" s="70"/>
       <c r="I204" s="70"/>
       <c r="J204" s="70"/>
@@ -20318,13 +20872,18 @@
       <c r="A205" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B205" s="90" t="s">
+      <c r="B205" s="88" t="s">
         <v>1263</v>
       </c>
-      <c r="D205" s="110" t="s">
-        <v>1776</v>
-      </c>
-      <c r="E205" s="2"/>
+      <c r="C205" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D205" s="108" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E205" t="s">
+        <v>1786</v>
+      </c>
       <c r="H205" s="70"/>
       <c r="I205" s="70"/>
       <c r="J205" s="70"/>
@@ -20333,13 +20892,18 @@
       <c r="A206" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B206" s="90" t="s">
+      <c r="B206" s="88" t="s">
         <v>1264</v>
       </c>
-      <c r="D206" s="110" t="s">
-        <v>1777</v>
-      </c>
-      <c r="E206" s="2"/>
+      <c r="C206" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D206" s="108" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1786</v>
+      </c>
       <c r="H206" s="70"/>
       <c r="I206" s="70"/>
       <c r="J206" s="70"/>
@@ -20348,13 +20912,18 @@
       <c r="A207" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B207" s="90" t="s">
+      <c r="B207" s="88" t="s">
         <v>1265</v>
       </c>
-      <c r="D207" s="110" t="s">
-        <v>1778</v>
-      </c>
-      <c r="E207" s="2"/>
+      <c r="C207" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D207" s="108" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1786</v>
+      </c>
       <c r="H207" s="70"/>
       <c r="I207" s="70"/>
       <c r="J207" s="70"/>
@@ -20363,13 +20932,18 @@
       <c r="A208" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B208" s="90" t="s">
+      <c r="B208" s="88" t="s">
         <v>1266</v>
       </c>
-      <c r="D208" s="110" t="s">
-        <v>1779</v>
-      </c>
-      <c r="E208" s="2"/>
+      <c r="C208" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D208" s="108" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1786</v>
+      </c>
       <c r="H208" s="70"/>
       <c r="I208" s="70"/>
       <c r="J208" s="70"/>
@@ -20378,13 +20952,18 @@
       <c r="A209" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B209" s="90" t="s">
+      <c r="B209" s="88" t="s">
         <v>1267</v>
       </c>
-      <c r="D209" s="110" t="s">
-        <v>1780</v>
-      </c>
-      <c r="E209" s="2"/>
+      <c r="C209" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D209" s="108" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E209" t="s">
+        <v>1786</v>
+      </c>
       <c r="H209" s="70"/>
       <c r="I209" s="70"/>
       <c r="J209" s="70"/>
@@ -20393,13 +20972,18 @@
       <c r="A210" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B210" s="90" t="s">
+      <c r="B210" s="88" t="s">
         <v>1268</v>
       </c>
-      <c r="D210" s="110" t="s">
-        <v>1781</v>
-      </c>
-      <c r="E210" s="2"/>
+      <c r="C210" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D210" s="108" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1786</v>
+      </c>
       <c r="H210" s="70"/>
       <c r="I210" s="70"/>
       <c r="J210" s="70"/>
@@ -20408,13 +20992,18 @@
       <c r="A211" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B211" s="90" t="s">
+      <c r="B211" s="88" t="s">
         <v>1269</v>
       </c>
-      <c r="D211" s="110" t="s">
-        <v>1782</v>
-      </c>
-      <c r="E211" s="2"/>
+      <c r="C211" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D211" s="108" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E211" t="s">
+        <v>1786</v>
+      </c>
       <c r="H211" s="70"/>
       <c r="I211" s="70"/>
       <c r="J211" s="70"/>
@@ -20423,13 +21012,18 @@
       <c r="A212" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B212" s="90" t="s">
+      <c r="B212" s="88" t="s">
         <v>1270</v>
       </c>
-      <c r="D212" s="110" t="s">
-        <v>1783</v>
-      </c>
-      <c r="E212" s="2"/>
+      <c r="C212" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D212" s="108" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1786</v>
+      </c>
       <c r="H212" s="70"/>
       <c r="I212" s="70"/>
       <c r="J212" s="70"/>
@@ -20438,13 +21032,18 @@
       <c r="A213" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B213" s="90" t="s">
+      <c r="B213" s="88" t="s">
         <v>1271</v>
       </c>
-      <c r="D213" s="110" t="s">
-        <v>1784</v>
-      </c>
-      <c r="E213" s="2"/>
+      <c r="C213" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D213" s="108" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1786</v>
+      </c>
       <c r="H213" s="70"/>
       <c r="I213" s="70"/>
       <c r="J213" s="70"/>
@@ -20453,13 +21052,18 @@
       <c r="A214" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B214" s="90" t="s">
+      <c r="B214" s="88" t="s">
         <v>1272</v>
       </c>
-      <c r="D214" s="110" t="s">
-        <v>1785</v>
-      </c>
-      <c r="E214" s="2"/>
+      <c r="C214" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D214" s="108" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1786</v>
+      </c>
       <c r="H214" s="70"/>
       <c r="I214" s="70"/>
       <c r="J214" s="70"/>
@@ -20468,13 +21072,18 @@
       <c r="A215" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B215" s="90" t="s">
+      <c r="B215" s="88" t="s">
         <v>1273</v>
       </c>
-      <c r="D215" s="110" t="s">
+      <c r="C215" t="s">
         <v>1786</v>
       </c>
-      <c r="E215" s="2"/>
+      <c r="D215" s="108" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1786</v>
+      </c>
       <c r="H215" s="70"/>
       <c r="I215" s="70"/>
       <c r="J215" s="70"/>
@@ -20483,13 +21092,18 @@
       <c r="A216" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B216" s="90" t="s">
+      <c r="B216" s="88" t="s">
         <v>1255</v>
       </c>
-      <c r="D216" s="110" t="s">
-        <v>1768</v>
-      </c>
-      <c r="E216" s="2"/>
+      <c r="C216" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D216" s="108" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1786</v>
+      </c>
       <c r="H216" s="70"/>
       <c r="I216" s="70"/>
       <c r="J216" s="70"/>
@@ -20498,13 +21112,18 @@
       <c r="A217" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B217" s="90" t="s">
+      <c r="B217" s="88" t="s">
         <v>1274</v>
       </c>
-      <c r="D217" s="110" t="s">
-        <v>1787</v>
-      </c>
-      <c r="E217" s="2"/>
+      <c r="C217" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D217" s="108" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E217" t="s">
+        <v>1786</v>
+      </c>
       <c r="H217" s="70"/>
       <c r="I217" s="70"/>
       <c r="J217" s="70"/>
@@ -20553,8 +21172,8 @@
       <c r="B4" s="40" t="s">
         <v>1090</v>
       </c>
-      <c r="C4" s="91" t="s">
-        <v>1455</v>
+      <c r="C4" s="89" t="s">
+        <v>1723</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -20643,7 +21262,7 @@
       <c r="A4" s="48" t="s">
         <v>1076</v>
       </c>
-      <c r="B4" s="92" t="str">
+      <c r="B4" s="90" t="str">
         <f>'Master Info'!C4</f>
         <v>June 30, 2022</v>
       </c>
@@ -22119,8 +22738,8 @@
   </sheetPr>
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -22252,7 +22871,7 @@
     <row r="9" spans="1:10" ht="15">
       <c r="A9" s="8" t="str">
         <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B9,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B9,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B9,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
-        <v>ExpensesForGeneralGovernmentServices,RevenueForGeneralGovernment,acfr:NetExpenseRevenueGeneralGovernmentServices</v>
+        <v>acfr:ExpensesForGeneralGovernmentServices,acfr:RevenueForGeneralGovernment,acfr:NetExpenseRevenueGeneralGovernmentServices</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>1146</v>
@@ -22289,7 +22908,7 @@
     <row r="10" spans="1:10" ht="15">
       <c r="A10" s="8" t="str">
         <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B10,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B10,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B10,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
-        <v>ExpensesForPublicSafetyServices,RevenueForPublicSafetyServices,acfr:NetExpenseRevenueForPublicSafetyServices</v>
+        <v>acfr:ExpensesForPublicSafetyServices,acfr:RevenueForPublicSafetyServices,acfr:NetExpenseRevenueForPublicSafetyServices</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>1153</v>
@@ -22326,7 +22945,7 @@
     <row r="11" spans="1:10" ht="15">
       <c r="A11" s="8" t="str">
         <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B11,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B11,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B11,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
-        <v>ExpensesForPublicWorksServices,RevenueUsedForPublicWorksServices,acfr:NetExpenseRevenueForPublicWorksServices</v>
+        <v>acfr:ExpensesForPublicWorksServices,acfr:RevenueUsedForPublicWorksServices,acfr:NetExpenseRevenueForPublicWorksServices</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>1184</v>
@@ -22363,7 +22982,7 @@
     <row r="12" spans="1:10" ht="15">
       <c r="A12" s="8" t="str">
         <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B12,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B12,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B12,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
-        <v>ExpensesForCommunityAndEconomicDevelopmentServices,RevenueForCommunityAndEconomicDevelopmentServices,acfr:NetExpenseRevenueCommunityAndEconomicDevelopmentServices</v>
+        <v>acfr:ExpensesForCommunityAndEconomicDevelopmentServices,acfr:RevenueForCommunityAndEconomicDevelopmentServices,acfr:NetExpenseRevenueCommunityAndEconomicDevelopmentServices</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>1170</v>
@@ -22400,7 +23019,7 @@
     <row r="13" spans="1:10" ht="15">
       <c r="A13" s="8" t="str">
         <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B13,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B13,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B13,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
-        <v>ExpensesForParksAndRecreation,RevenueForParksAndRecreation,acfr:NetExpenseRevenueForCulturalActivities</v>
+        <v>acfr:ExpensesForParksAndRecreation,acfr:RevenueForParksAndRecreation,acfr:NetExpenseRevenueForCulturalActivities</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>1175</v>
@@ -22437,7 +23056,7 @@
     <row r="14" spans="1:10" ht="15">
       <c r="A14" s="8" t="str">
         <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B14,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B14,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B14,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
-        <v>ExpensesForGeneralGovernmentServicesJudicial,RevenueUsedForGeneralGovernmentServicesJudicial,acfr:NetExpenseRevenueForJudicial</v>
+        <v>acfr:ExpensesForGeneralGovernmentServicesJudicial,acfr:RevenueUsedForGeneralGovernmentServicesJudicial,acfr:NetExpenseRevenueForJudicial</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>1143</v>
@@ -22689,7 +23308,7 @@
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="8" t="s">
-        <v>1454</v>
+        <v>1722</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>1099</v>
@@ -22739,7 +23358,7 @@
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="8" t="str">
         <f>IF(B25="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B25,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B25,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B25,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
-        <v>OtherExpenses,RevenueUsedForOtherPrograms,acfr:OtherNetExpenseRevenue</v>
+        <v>acfr:OtherExpenses,acfr:RevenueUsedForOtherPrograms,acfr:OtherNetExpenseRevenue</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>1235</v>
@@ -23072,7 +23691,7 @@
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1" ht="15">
       <c r="A37" s="8" t="s">
-        <v>1454</v>
+        <v>1722</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>1106</v>
@@ -23112,7 +23731,7 @@
     </row>
     <row r="38" spans="1:10" ht="15">
       <c r="A38" s="8" t="s">
-        <v>1454</v>
+        <v>1722</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>1100</v>
@@ -23335,7 +23954,7 @@
     </row>
     <row r="50" spans="1:10" ht="15">
       <c r="A50" s="8" t="s">
-        <v>1454</v>
+        <v>1722</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>1105</v>
@@ -23404,9 +24023,9 @@
       <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:10" ht="15">
-      <c r="A54" s="8">
-        <f>IF(B54="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B54,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
-        <v>0</v>
+      <c r="A54" s="8" t="str">
+        <f>IF(B54="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B54,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$D:$D))</f>
+        <v>acfr:RevenueFromPropertyTax</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>1294</v>
@@ -23428,9 +24047,9 @@
       <c r="J54" s="20"/>
     </row>
     <row r="55" spans="1:10" ht="15">
-      <c r="A55" s="8">
-        <f>IF(B55="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B55,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
-        <v>0</v>
+      <c r="A55" s="8" t="str">
+        <f>IF(B55="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B55,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$D:$D))</f>
+        <v>acfr:RevenueFromSpecialAssessments</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>1327</v>
@@ -23452,9 +24071,9 @@
       <c r="J55" s="20"/>
     </row>
     <row r="56" spans="1:10" ht="15">
-      <c r="A56" s="8">
-        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
-        <v>0</v>
+      <c r="A56" s="8" t="str">
+        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$D:$D))</f>
+        <v>acfr:RevenueFromSalesAndUseTax</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>1304</v>
@@ -23476,9 +24095,9 @@
       <c r="J56" s="20"/>
     </row>
     <row r="57" spans="1:10" ht="15">
-      <c r="A57" s="8">
-        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
-        <v>0</v>
+      <c r="A57" s="8" t="str">
+        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$D:$D))</f>
+        <v>acfr:RevenueFromBusinessLicenseTax</v>
       </c>
       <c r="B57" s="18" t="s">
         <v>1308</v>
@@ -23500,9 +24119,9 @@
       <c r="J57" s="20"/>
     </row>
     <row r="58" spans="1:10" ht="15">
-      <c r="A58" s="8">
-        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
-        <v>0</v>
+      <c r="A58" s="8" t="str">
+        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$D:$D))</f>
+        <v>acfr:RevenueFromFranchiseIncomeTax</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>1315</v>
@@ -23524,9 +24143,9 @@
       <c r="J58" s="20"/>
     </row>
     <row r="59" spans="1:10" ht="15">
-      <c r="A59" s="8">
-        <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B59,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
-        <v>0</v>
+      <c r="A59" s="8" t="str">
+        <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B59,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$D:$D))</f>
+        <v>acfr:PaymentInLieuOfTaxes</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>1244</v>
@@ -23548,9 +24167,9 @@
       <c r="J59" s="20"/>
     </row>
     <row r="60" spans="1:10" ht="15">
-      <c r="A60" s="8">
-        <f>IF(B60="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B60,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
-        <v>0</v>
+      <c r="A60" s="8" t="str">
+        <f>IF(B60="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B60,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$D:$D))</f>
+        <v>acfr:InvestmentIncome</v>
       </c>
       <c r="B60" s="18" t="s">
         <v>1247</v>
@@ -23572,9 +24191,9 @@
       <c r="J60" s="20"/>
     </row>
     <row r="61" spans="1:10" ht="15">
-      <c r="A61" s="8">
-        <f>IF(B61="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B61,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
-        <v>0</v>
+      <c r="A61" s="8" t="str">
+        <f>IF(B61="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B61,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$D:$D))</f>
+        <v>acfr:OtherGeneralRevenues</v>
       </c>
       <c r="B61" s="18" t="s">
         <v>1260</v>
@@ -23596,9 +24215,9 @@
       <c r="J61" s="20"/>
     </row>
     <row r="62" spans="1:10" ht="15">
-      <c r="A62" s="8">
-        <f>IF(B62="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B62,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
-        <v>0</v>
+      <c r="A62" s="8" t="str">
+        <f>IF(B62="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B62,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$D:$D))</f>
+        <v>acfr:GainLossOnSaleOfCapitalAssets</v>
       </c>
       <c r="B62" s="18" t="s">
         <v>1258</v>
@@ -23658,7 +24277,7 @@
     </row>
     <row r="65" spans="1:10" ht="15">
       <c r="A65" s="8" t="str">
-        <f>IF(B65="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B65,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B65,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B65,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B65="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B65,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$D:$D))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B65" s="18"/>
@@ -23676,7 +24295,7 @@
     </row>
     <row r="66" spans="1:10" ht="15">
       <c r="A66" s="8" t="str">
-        <f>IF(B66="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B66,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B66,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B66,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B66="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B66,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$D:$D))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B66" s="18"/>
@@ -23694,7 +24313,7 @@
     </row>
     <row r="67" spans="1:10" ht="15">
       <c r="A67" s="8" t="str">
-        <f>IF(B67="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B67,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B67,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B67,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B67="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B67,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$D:$D))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B67" s="18"/>
@@ -23712,7 +24331,7 @@
     </row>
     <row r="68" spans="1:10" ht="15">
       <c r="A68" s="8" t="str">
-        <f>IF(B68="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B68,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B68,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B68,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B68="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B68,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$D:$D))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B68" s="18"/>
@@ -23730,7 +24349,7 @@
     </row>
     <row r="69" spans="1:10" ht="15">
       <c r="A69" s="8" t="str">
-        <f>IF(B69="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B69,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B69,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B69,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B69="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B69,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$D:$D))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B69" s="18"/>
@@ -24082,8 +24701,8 @@
       <c r="A1" s="45" t="s">
         <v>1074</v>
       </c>
-      <c r="B1" s="96" t="s">
-        <v>1456</v>
+      <c r="B1" s="94" t="s">
+        <v>1724</v>
       </c>
       <c r="C1" s="55"/>
       <c r="D1" s="49"/>
@@ -24097,7 +24716,7 @@
         <v>1084</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>1457</v>
+        <v>1725</v>
       </c>
       <c r="C2" s="55"/>
       <c r="D2" s="49"/>
@@ -24110,8 +24729,8 @@
       <c r="A3" s="46" t="s">
         <v>1075</v>
       </c>
-      <c r="B3" s="97" t="s">
-        <v>1458</v>
+      <c r="B3" s="95" t="s">
+        <v>1726</v>
       </c>
       <c r="C3" s="55"/>
       <c r="D3" s="49"/>
@@ -24145,58 +24764,58 @@
       <c r="G5" s="51"/>
       <c r="H5" s="51"/>
     </row>
-    <row r="6" spans="1:9" s="98" customFormat="1" ht="28" customHeight="1">
-      <c r="C6" s="99" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D6" s="100" t="s">
-        <v>1493</v>
-      </c>
-      <c r="E6" s="100" t="s">
-        <v>1493</v>
-      </c>
-      <c r="F6" s="100" t="s">
-        <v>1493</v>
-      </c>
-      <c r="G6" s="100" t="s">
-        <v>1515</v>
-      </c>
-      <c r="H6" s="100" t="s">
-        <v>1516</v>
-      </c>
-      <c r="I6" s="101"/>
+    <row r="6" spans="1:9" s="96" customFormat="1" ht="28" customHeight="1">
+      <c r="C6" s="97" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D6" s="98" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E6" s="98" t="s">
+        <v>1761</v>
+      </c>
+      <c r="F6" s="98" t="s">
+        <v>1761</v>
+      </c>
+      <c r="G6" s="98" t="s">
+        <v>1783</v>
+      </c>
+      <c r="H6" s="98" t="s">
+        <v>1784</v>
+      </c>
+      <c r="I6" s="99"/>
     </row>
     <row r="7" spans="1:9" ht="48">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="102" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D7" s="107" t="s">
-        <v>1494</v>
-      </c>
-      <c r="E7" s="107" t="s">
-        <v>1495</v>
-      </c>
-      <c r="F7" s="107" t="s">
-        <v>1496</v>
-      </c>
-      <c r="G7" s="107" t="s">
-        <v>1497</v>
-      </c>
-      <c r="H7" s="107" t="s">
-        <v>1498</v>
-      </c>
-      <c r="I7" s="108" t="s">
-        <v>1517</v>
+      <c r="C7" s="100" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D7" s="105" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E7" s="105" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G7" s="105" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H7" s="105" t="s">
+        <v>1766</v>
+      </c>
+      <c r="I7" s="106" t="s">
+        <v>1785</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15">
       <c r="A8" s="7"/>
       <c r="B8" s="13" t="s">
-        <v>1460</v>
+        <v>1728</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -24208,10 +24827,10 @@
     </row>
     <row r="9" spans="1:9" ht="15">
       <c r="A9" s="8" t="s">
-        <v>1477</v>
+        <v>1745</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>1478</v>
+        <v>1746</v>
       </c>
       <c r="C9" s="19">
         <v>2846766</v>
@@ -24238,10 +24857,10 @@
     </row>
     <row r="10" spans="1:9" ht="15">
       <c r="A10" s="8" t="s">
-        <v>1479</v>
+        <v>1747</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>1480</v>
+        <v>1748</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>1281</v>
@@ -24268,10 +24887,10 @@
     </row>
     <row r="11" spans="1:9" ht="15">
       <c r="A11" s="8" t="s">
-        <v>1481</v>
+        <v>1749</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>1482</v>
+        <v>1750</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>1281</v>
@@ -24298,10 +24917,10 @@
     </row>
     <row r="12" spans="1:9" ht="15">
       <c r="A12" s="8" t="s">
-        <v>1483</v>
+        <v>1751</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1484</v>
+        <v>1752</v>
       </c>
       <c r="C12" s="19">
         <v>563908</v>
@@ -24328,10 +24947,10 @@
     </row>
     <row r="13" spans="1:9" ht="15">
       <c r="A13" s="8" t="s">
-        <v>1485</v>
+        <v>1753</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>1486</v>
+        <v>1754</v>
       </c>
       <c r="C13" s="19">
         <v>162881</v>
@@ -24358,10 +24977,10 @@
     </row>
     <row r="14" spans="1:9" ht="15">
       <c r="A14" s="8" t="s">
-        <v>1487</v>
+        <v>1755</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>1488</v>
+        <v>1756</v>
       </c>
       <c r="C14" s="19">
         <v>114026</v>
@@ -24388,10 +25007,10 @@
     </row>
     <row r="15" spans="1:9" ht="15">
       <c r="A15" s="8" t="s">
-        <v>1489</v>
+        <v>1757</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>1490</v>
+        <v>1758</v>
       </c>
       <c r="C15" s="19">
         <v>151409</v>
@@ -24418,10 +25037,10 @@
     </row>
     <row r="16" spans="1:9" ht="15">
       <c r="A16" s="8" t="s">
-        <v>1491</v>
+        <v>1759</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>1492</v>
+        <v>1760</v>
       </c>
       <c r="C16" s="19">
         <v>135233</v>
@@ -24550,10 +25169,10 @@
     </row>
     <row r="23" spans="1:9" ht="15">
       <c r="A23" s="8" t="s">
-        <v>1461</v>
+        <v>1729</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1462</v>
+        <v>1730</v>
       </c>
       <c r="C23" s="26">
         <f t="shared" ref="C23:I23" si="0">IF(C7="","",SUM(C9:C22))</f>
@@ -24587,7 +25206,7 @@
     <row r="25" spans="1:9" ht="15">
       <c r="A25" s="7"/>
       <c r="B25" s="13" t="s">
-        <v>1463</v>
+        <v>1731</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
@@ -24599,10 +25218,10 @@
     </row>
     <row r="26" spans="1:9" ht="15">
       <c r="A26" s="8" t="s">
-        <v>1499</v>
+        <v>1767</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>1500</v>
+        <v>1768</v>
       </c>
       <c r="C26" s="19">
         <v>2570417</v>
@@ -24629,10 +25248,10 @@
     </row>
     <row r="27" spans="1:9" ht="15">
       <c r="A27" s="8" t="s">
-        <v>1501</v>
+        <v>1769</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1502</v>
+        <v>1770</v>
       </c>
       <c r="C27" s="19">
         <v>2684319</v>
@@ -24659,10 +25278,10 @@
     </row>
     <row r="28" spans="1:9" ht="15">
       <c r="A28" s="8" t="s">
-        <v>1503</v>
+        <v>1771</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1504</v>
+        <v>1772</v>
       </c>
       <c r="C28" s="19">
         <v>333423</v>
@@ -24689,10 +25308,10 @@
     </row>
     <row r="29" spans="1:9" ht="15">
       <c r="A29" s="8" t="s">
-        <v>1505</v>
+        <v>1773</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1506</v>
+        <v>1774</v>
       </c>
       <c r="C29" s="19">
         <v>299175</v>
@@ -24719,10 +25338,10 @@
     </row>
     <row r="30" spans="1:9" ht="15">
       <c r="A30" s="8" t="s">
-        <v>1507</v>
+        <v>1775</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1508</v>
+        <v>1776</v>
       </c>
       <c r="C30" s="19">
         <v>336592</v>
@@ -24749,10 +25368,10 @@
     </row>
     <row r="31" spans="1:9" ht="15">
       <c r="A31" s="8" t="s">
-        <v>1509</v>
+        <v>1777</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1510</v>
+        <v>1778</v>
       </c>
       <c r="C31" s="19">
         <v>22168</v>
@@ -24830,10 +25449,10 @@
     </row>
     <row r="35" spans="1:9" ht="15">
       <c r="A35" s="8" t="s">
-        <v>1464</v>
+        <v>1732</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>1465</v>
+        <v>1733</v>
       </c>
       <c r="C35" s="25">
         <f>IF(C7="","",SUM(C26:C34))</f>
@@ -24859,17 +25478,17 @@
         <f>IF(H7="","",SUM(H26:H34))</f>
         <v>830244</v>
       </c>
-      <c r="I35" s="103">
+      <c r="I35" s="101">
         <f>SUM(C35:H35)</f>
         <v>9532306</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="32">
-      <c r="A36" s="104" t="s">
-        <v>1466</v>
-      </c>
-      <c r="B36" s="105" t="s">
-        <v>1467</v>
+      <c r="A36" s="102" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B36" s="103" t="s">
+        <v>1735</v>
       </c>
       <c r="C36" s="28">
         <f>C23-C35</f>
@@ -24895,7 +25514,7 @@
         <f>H23-H35</f>
         <v>922353</v>
       </c>
-      <c r="I36" s="106">
+      <c r="I36" s="104">
         <f>SUM(C36:H36)</f>
         <v>-1022180</v>
       </c>
@@ -24914,7 +25533,7 @@
     <row r="38" spans="1:9" ht="15">
       <c r="A38" s="7"/>
       <c r="B38" s="13" t="s">
-        <v>1468</v>
+        <v>1736</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -24926,10 +25545,10 @@
     </row>
     <row r="39" spans="1:9" ht="15">
       <c r="A39" s="8" t="s">
-        <v>1511</v>
+        <v>1779</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1512</v>
+        <v>1780</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>1281</v>
@@ -24956,10 +25575,10 @@
     </row>
     <row r="40" spans="1:9" ht="15">
       <c r="A40" s="8" t="s">
-        <v>1452</v>
+        <v>1710</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1513</v>
+        <v>1781</v>
       </c>
       <c r="C40" s="20">
         <v>1597681</v>
@@ -24986,10 +25605,10 @@
     </row>
     <row r="41" spans="1:9" ht="15">
       <c r="A41" s="8" t="s">
-        <v>1453</v>
+        <v>1711</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1514</v>
+        <v>1782</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>1281</v>
@@ -25305,10 +25924,10 @@
     </row>
     <row r="59" spans="1:9" ht="15">
       <c r="A59" s="9" t="s">
-        <v>1469</v>
+        <v>1737</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>1470</v>
+        <v>1738</v>
       </c>
       <c r="C59" s="25">
         <f>IF(C6="","",SUM(C39:C58))</f>
@@ -25353,7 +25972,7 @@
     <row r="61" spans="1:9" ht="15">
       <c r="A61" s="7"/>
       <c r="B61" s="13" t="s">
-        <v>1471</v>
+        <v>1739</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -25365,10 +25984,10 @@
     </row>
     <row r="62" spans="1:9" ht="15">
       <c r="A62" s="8" t="s">
-        <v>1472</v>
+        <v>1740</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>1473</v>
+        <v>1741</v>
       </c>
       <c r="C62" s="19">
         <v>6163893</v>
@@ -25395,10 +26014,10 @@
     </row>
     <row r="63" spans="1:9" ht="15">
       <c r="A63" s="8" t="s">
-        <v>1472</v>
+        <v>1740</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>1474</v>
+        <v>1742</v>
       </c>
       <c r="C63" s="19">
         <v>6413357</v>
@@ -25510,10 +26129,10 @@
     </row>
     <row r="69" spans="1:9" ht="15">
       <c r="A69" s="9" t="s">
-        <v>1475</v>
+        <v>1743</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>1476</v>
+        <v>1744</v>
       </c>
       <c r="C69" s="26">
         <f>C63-C62</f>
@@ -25886,12 +26505,12 @@
     </row>
     <row r="25" spans="1:5" ht="15">
       <c r="A25" s="7"/>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="95"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="93"/>
     </row>
     <row r="26" spans="1:5" ht="15">
       <c r="A26" s="8" t="str">
